--- a/left_elbow_Data.xlsx
+++ b/left_elbow_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IQ4"/>
+  <dimension ref="A1:GO4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1027,922 +1027,598 @@
       <c r="GO1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="GP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="II1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IQ1" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>561.6898803710938</v>
+        <v>443.9422302246094</v>
       </c>
       <c r="C2" t="n">
-        <v>552.5640258789062</v>
+        <v>441.2340087890625</v>
       </c>
       <c r="D2" t="n">
-        <v>548.318115234375</v>
+        <v>441.1314697265625</v>
       </c>
       <c r="E2" t="n">
-        <v>544.2025146484375</v>
+        <v>441.272705078125</v>
       </c>
       <c r="F2" t="n">
-        <v>540.8222045898438</v>
+        <v>441.3867492675781</v>
       </c>
       <c r="G2" t="n">
-        <v>540.4122924804688</v>
+        <v>441.5668334960938</v>
       </c>
       <c r="H2" t="n">
-        <v>537.9523315429688</v>
+        <v>441.2733459472656</v>
       </c>
       <c r="I2" t="n">
-        <v>534.0433959960938</v>
+        <v>441.133056640625</v>
       </c>
       <c r="J2" t="n">
-        <v>530.0355224609375</v>
+        <v>441.0531005859375</v>
       </c>
       <c r="K2" t="n">
-        <v>526.8348388671875</v>
+        <v>440.9761047363281</v>
       </c>
       <c r="L2" t="n">
-        <v>526.0087280273438</v>
+        <v>440.8493041992188</v>
       </c>
       <c r="M2" t="n">
-        <v>524.2511596679688</v>
+        <v>440.7485656738281</v>
       </c>
       <c r="N2" t="n">
-        <v>521.9176635742188</v>
+        <v>440.6377563476562</v>
       </c>
       <c r="O2" t="n">
-        <v>520.6028442382812</v>
+        <v>440.504150390625</v>
       </c>
       <c r="P2" t="n">
-        <v>519.032470703125</v>
+        <v>440.35302734375</v>
       </c>
       <c r="Q2" t="n">
-        <v>516.2538452148438</v>
+        <v>440.2093811035156</v>
       </c>
       <c r="R2" t="n">
-        <v>513.4224243164062</v>
+        <v>440.08203125</v>
       </c>
       <c r="S2" t="n">
-        <v>512.06201171875</v>
+        <v>439.9559936523438</v>
       </c>
       <c r="T2" t="n">
-        <v>509.3351745605469</v>
+        <v>439.8458557128906</v>
       </c>
       <c r="U2" t="n">
-        <v>506.2301940917969</v>
+        <v>439.8274230957031</v>
       </c>
       <c r="V2" t="n">
-        <v>502.3377990722656</v>
+        <v>439.8244934082031</v>
       </c>
       <c r="W2" t="n">
-        <v>500.1168212890625</v>
+        <v>439.8137817382812</v>
       </c>
       <c r="X2" t="n">
-        <v>498.4027404785156</v>
+        <v>439.8281860351562</v>
       </c>
       <c r="Y2" t="n">
-        <v>498.5050659179688</v>
+        <v>439.7814331054688</v>
       </c>
       <c r="Z2" t="n">
-        <v>499.5638427734375</v>
+        <v>439.7567749023438</v>
       </c>
       <c r="AA2" t="n">
-        <v>500.9629516601562</v>
+        <v>439.7317199707031</v>
       </c>
       <c r="AB2" t="n">
-        <v>502.1163330078125</v>
+        <v>439.7059631347656</v>
       </c>
       <c r="AC2" t="n">
-        <v>503.1781311035156</v>
+        <v>439.6878662109375</v>
       </c>
       <c r="AD2" t="n">
-        <v>503.2146911621094</v>
+        <v>439.677978515625</v>
       </c>
       <c r="AE2" t="n">
-        <v>503.52685546875</v>
+        <v>439.6727905273438</v>
       </c>
       <c r="AF2" t="n">
-        <v>503.2691955566406</v>
+        <v>439.6679382324219</v>
       </c>
       <c r="AG2" t="n">
-        <v>502.8600769042969</v>
+        <v>439.6813354492188</v>
       </c>
       <c r="AH2" t="n">
-        <v>502.0494384765625</v>
+        <v>439.6961669921875</v>
       </c>
       <c r="AI2" t="n">
-        <v>501.5101928710938</v>
+        <v>439.7521362304688</v>
       </c>
       <c r="AJ2" t="n">
-        <v>500.8913879394531</v>
+        <v>439.8068542480469</v>
       </c>
       <c r="AK2" t="n">
-        <v>500.1859130859375</v>
+        <v>439.8397216796875</v>
       </c>
       <c r="AL2" t="n">
-        <v>499.2184448242188</v>
+        <v>440.1086120605469</v>
       </c>
       <c r="AM2" t="n">
-        <v>498.6740417480469</v>
+        <v>440.1244812011719</v>
       </c>
       <c r="AN2" t="n">
-        <v>498.2813720703125</v>
+        <v>440.0255126953125</v>
       </c>
       <c r="AO2" t="n">
-        <v>498.4552307128906</v>
+        <v>439.9241943359375</v>
       </c>
       <c r="AP2" t="n">
-        <v>499.7900085449219</v>
+        <v>439.91943359375</v>
       </c>
       <c r="AQ2" t="n">
-        <v>500.41552734375</v>
+        <v>439.8315124511719</v>
       </c>
       <c r="AR2" t="n">
-        <v>500.9115905761719</v>
+        <v>445.8194580078125</v>
       </c>
       <c r="AS2" t="n">
-        <v>501.3643798828125</v>
+        <v>454.2645874023438</v>
       </c>
       <c r="AT2" t="n">
-        <v>501.8501281738281</v>
+        <v>470.4426879882812</v>
       </c>
       <c r="AU2" t="n">
-        <v>502.3976440429688</v>
+        <v>476.163818359375</v>
       </c>
       <c r="AV2" t="n">
-        <v>503.0775451660156</v>
+        <v>483.0134582519531</v>
       </c>
       <c r="AW2" t="n">
-        <v>503.9885864257812</v>
+        <v>489.224853515625</v>
       </c>
       <c r="AX2" t="n">
-        <v>504.7977294921875</v>
+        <v>494.0631408691406</v>
       </c>
       <c r="AY2" t="n">
-        <v>505.5251770019531</v>
+        <v>497.04638671875</v>
       </c>
       <c r="AZ2" t="n">
-        <v>506.3812866210938</v>
+        <v>501.4270324707031</v>
       </c>
       <c r="BA2" t="n">
-        <v>507.0541687011719</v>
+        <v>504.9471435546875</v>
       </c>
       <c r="BB2" t="n">
-        <v>507.8477172851562</v>
+        <v>507.466796875</v>
       </c>
       <c r="BC2" t="n">
-        <v>508.6529541015625</v>
+        <v>510.3890686035156</v>
       </c>
       <c r="BD2" t="n">
-        <v>509.0845336914062</v>
+        <v>512.3146362304688</v>
       </c>
       <c r="BE2" t="n">
-        <v>507.6748962402344</v>
+        <v>515.5282592773438</v>
       </c>
       <c r="BF2" t="n">
-        <v>504.6883544921875</v>
+        <v>516.593505859375</v>
       </c>
       <c r="BG2" t="n">
-        <v>501.0904541015625</v>
+        <v>516.29248046875</v>
       </c>
       <c r="BH2" t="n">
-        <v>499.2713928222656</v>
+        <v>514.325439453125</v>
       </c>
       <c r="BI2" t="n">
-        <v>501.4462585449219</v>
+        <v>512.37451171875</v>
       </c>
       <c r="BJ2" t="n">
-        <v>501.9075927734375</v>
+        <v>501.3932495117188</v>
       </c>
       <c r="BK2" t="n">
-        <v>503.5568542480469</v>
+        <v>492.8201904296875</v>
       </c>
       <c r="BL2" t="n">
-        <v>505.5724487304688</v>
+        <v>486.6505432128906</v>
       </c>
       <c r="BM2" t="n">
-        <v>507.5453186035156</v>
+        <v>473.7433471679688</v>
       </c>
       <c r="BN2" t="n">
-        <v>512.366943359375</v>
+        <v>463.9184265136719</v>
       </c>
       <c r="BO2" t="n">
-        <v>522.711181640625</v>
+        <v>456.1242370605469</v>
       </c>
       <c r="BP2" t="n">
-        <v>535.90478515625</v>
+        <v>448.0574951171875</v>
       </c>
       <c r="BQ2" t="n">
-        <v>541.544677734375</v>
+        <v>439.748046875</v>
       </c>
       <c r="BR2" t="n">
-        <v>547.1925659179688</v>
+        <v>432.4541625976562</v>
       </c>
       <c r="BS2" t="n">
-        <v>548.0103149414062</v>
+        <v>417.5508422851562</v>
       </c>
       <c r="BT2" t="n">
-        <v>548.0449829101562</v>
+        <v>405.3621826171875</v>
       </c>
       <c r="BU2" t="n">
-        <v>547.1250610351562</v>
+        <v>393.4603271484375</v>
       </c>
       <c r="BV2" t="n">
-        <v>547.2684326171875</v>
+        <v>384.9157104492188</v>
       </c>
       <c r="BW2" t="n">
-        <v>542.7962646484375</v>
+        <v>377.1532592773438</v>
       </c>
       <c r="BX2" t="n">
-        <v>538.1231689453125</v>
+        <v>368.6248168945312</v>
       </c>
       <c r="BY2" t="n">
-        <v>531.6204833984375</v>
+        <v>362.0489196777344</v>
       </c>
       <c r="BZ2" t="n">
-        <v>518.74951171875</v>
+        <v>355.7738647460938</v>
       </c>
       <c r="CA2" t="n">
-        <v>505.3494873046875</v>
+        <v>348.9710998535156</v>
       </c>
       <c r="CB2" t="n">
-        <v>479.5255737304688</v>
+        <v>341.92138671875</v>
       </c>
       <c r="CC2" t="n">
-        <v>466.2224731445312</v>
+        <v>337.3821411132812</v>
       </c>
       <c r="CD2" t="n">
-        <v>446.1890258789062</v>
+        <v>334.477783203125</v>
       </c>
       <c r="CE2" t="n">
-        <v>435.005126953125</v>
+        <v>331.2359008789062</v>
       </c>
       <c r="CF2" t="n">
-        <v>409.0250244140625</v>
+        <v>327.7832641601562</v>
       </c>
       <c r="CG2" t="n">
-        <v>396.5143432617188</v>
+        <v>326.2338562011719</v>
       </c>
       <c r="CH2" t="n">
-        <v>388.5619812011719</v>
+        <v>325.9068603515625</v>
       </c>
       <c r="CI2" t="n">
-        <v>380.7081909179688</v>
+        <v>326.435791015625</v>
       </c>
       <c r="CJ2" t="n">
-        <v>375.5822143554688</v>
+        <v>327.1033325195312</v>
       </c>
       <c r="CK2" t="n">
-        <v>375.2485961914062</v>
+        <v>328.0923156738281</v>
       </c>
       <c r="CL2" t="n">
-        <v>374.4949951171875</v>
+        <v>329.5837707519531</v>
       </c>
       <c r="CM2" t="n">
-        <v>374.1998901367188</v>
+        <v>332.6189880371094</v>
       </c>
       <c r="CN2" t="n">
-        <v>373.3362426757812</v>
+        <v>343.4430236816406</v>
       </c>
       <c r="CO2" t="n">
-        <v>372.509765625</v>
+        <v>353.1209716796875</v>
       </c>
       <c r="CP2" t="n">
-        <v>372.54296875</v>
+        <v>360.7855834960938</v>
       </c>
       <c r="CQ2" t="n">
-        <v>372.5072021484375</v>
+        <v>368.418212890625</v>
       </c>
       <c r="CR2" t="n">
-        <v>372.7793884277344</v>
+        <v>386.0440673828125</v>
       </c>
       <c r="CS2" t="n">
-        <v>373.0194702148438</v>
+        <v>391.3119812011719</v>
       </c>
       <c r="CT2" t="n">
-        <v>373.8949890136719</v>
+        <v>399.9755249023438</v>
       </c>
       <c r="CU2" t="n">
-        <v>374.1551208496094</v>
+        <v>406.703125</v>
       </c>
       <c r="CV2" t="n">
-        <v>374.3564453125</v>
+        <v>415.8131103515625</v>
       </c>
       <c r="CW2" t="n">
-        <v>374.4258422851562</v>
+        <v>422.0335388183594</v>
       </c>
       <c r="CX2" t="n">
-        <v>374.3778076171875</v>
+        <v>429.7379150390625</v>
       </c>
       <c r="CY2" t="n">
-        <v>374.1970825195312</v>
+        <v>435.8764953613281</v>
       </c>
       <c r="CZ2" t="n">
-        <v>374.2132873535156</v>
+        <v>442.3866271972656</v>
       </c>
       <c r="DA2" t="n">
-        <v>374.5714111328125</v>
+        <v>449.1300659179688</v>
       </c>
       <c r="DB2" t="n">
-        <v>374.4393615722656</v>
+        <v>463.4194946289062</v>
       </c>
       <c r="DC2" t="n">
-        <v>373.2266540527344</v>
+        <v>467.9024963378906</v>
       </c>
       <c r="DD2" t="n">
-        <v>372.8556823730469</v>
+        <v>471.90283203125</v>
       </c>
       <c r="DE2" t="n">
-        <v>372.8684997558594</v>
+        <v>475.1435852050781</v>
       </c>
       <c r="DF2" t="n">
-        <v>373.4637756347656</v>
+        <v>477.9794006347656</v>
       </c>
       <c r="DG2" t="n">
-        <v>374.5095825195312</v>
+        <v>483.1867065429688</v>
       </c>
       <c r="DH2" t="n">
-        <v>374.8508911132812</v>
+        <v>486.4096374511719</v>
       </c>
       <c r="DI2" t="n">
-        <v>374.782470703125</v>
+        <v>488.8973693847656</v>
       </c>
       <c r="DJ2" t="n">
-        <v>374.8399353027344</v>
+        <v>492.0708618164062</v>
       </c>
       <c r="DK2" t="n">
-        <v>374.9475708007812</v>
+        <v>493.90380859375</v>
       </c>
       <c r="DL2" t="n">
-        <v>376.0408020019531</v>
+        <v>495.2682495117188</v>
       </c>
       <c r="DM2" t="n">
-        <v>376.8006896972656</v>
+        <v>496.0483093261719</v>
       </c>
       <c r="DN2" t="n">
-        <v>378.468017578125</v>
+        <v>496.992919921875</v>
       </c>
       <c r="DO2" t="n">
-        <v>379.0075073242188</v>
+        <v>492.5747375488281</v>
       </c>
       <c r="DP2" t="n">
-        <v>379.1500854492188</v>
+        <v>486.1860961914062</v>
       </c>
       <c r="DQ2" t="n">
-        <v>379.0414733886719</v>
+        <v>473.4707946777344</v>
       </c>
       <c r="DR2" t="n">
-        <v>379.1460571289062</v>
+        <v>467.7368469238281</v>
       </c>
       <c r="DS2" t="n">
-        <v>379.0794677734375</v>
+        <v>463.7157897949219</v>
       </c>
       <c r="DT2" t="n">
-        <v>378.3191223144531</v>
+        <v>452.0416564941406</v>
       </c>
       <c r="DU2" t="n">
-        <v>377.8637084960938</v>
+        <v>447.8569030761719</v>
       </c>
       <c r="DV2" t="n">
-        <v>377.0350341796875</v>
+        <v>444.4898071289062</v>
       </c>
       <c r="DW2" t="n">
-        <v>376.2820739746094</v>
+        <v>439.7084045410156</v>
       </c>
       <c r="DX2" t="n">
-        <v>375.5754089355469</v>
+        <v>432.328125</v>
       </c>
       <c r="DY2" t="n">
-        <v>375.59716796875</v>
+        <v>425.3743286132812</v>
       </c>
       <c r="DZ2" t="n">
-        <v>375.8255310058594</v>
+        <v>421.52392578125</v>
       </c>
       <c r="EA2" t="n">
-        <v>375.8850708007812</v>
+        <v>412.6130981445312</v>
       </c>
       <c r="EB2" t="n">
-        <v>376.2164001464844</v>
+        <v>410.3324584960938</v>
       </c>
       <c r="EC2" t="n">
-        <v>376.5569458007812</v>
+        <v>406.6560668945312</v>
       </c>
       <c r="ED2" t="n">
-        <v>376.38330078125</v>
+        <v>412.34521484375</v>
       </c>
       <c r="EE2" t="n">
-        <v>375.9636840820312</v>
+        <v>426.3416137695312</v>
       </c>
       <c r="EF2" t="n">
-        <v>375.5620727539062</v>
+        <v>433.5901489257812</v>
       </c>
       <c r="EG2" t="n">
-        <v>375.3966979980469</v>
+        <v>446.5798645019531</v>
       </c>
       <c r="EH2" t="n">
-        <v>375.6224975585938</v>
+        <v>436.7212219238281</v>
       </c>
       <c r="EI2" t="n">
-        <v>375.3982543945312</v>
+        <v>434.6046447753906</v>
       </c>
       <c r="EJ2" t="n">
-        <v>376.4185180664062</v>
+        <v>438.3655395507812</v>
       </c>
       <c r="EK2" t="n">
-        <v>379.3353881835938</v>
+        <v>446.5217590332031</v>
       </c>
       <c r="EL2" t="n">
-        <v>395.8405151367188</v>
+        <v>449.1892700195312</v>
       </c>
       <c r="EM2" t="n">
-        <v>419.5289916992188</v>
+        <v>452.1655883789062</v>
       </c>
       <c r="EN2" t="n">
-        <v>445.5508728027344</v>
+        <v>453.2713623046875</v>
       </c>
       <c r="EO2" t="n">
-        <v>454.9735107421875</v>
+        <v>454.9720764160156</v>
       </c>
       <c r="EP2" t="n">
-        <v>458.7291259765625</v>
+        <v>457.9654541015625</v>
       </c>
       <c r="EQ2" t="n">
-        <v>461.0163879394531</v>
+        <v>459.4578247070312</v>
       </c>
       <c r="ER2" t="n">
-        <v>461.6013793945312</v>
+        <v>459.5743103027344</v>
       </c>
       <c r="ES2" t="n">
-        <v>462.1681518554688</v>
+        <v>459.248291015625</v>
       </c>
       <c r="ET2" t="n">
-        <v>462.4956665039062</v>
+        <v>455.5194702148438</v>
       </c>
       <c r="EU2" t="n">
-        <v>462.8563232421875</v>
+        <v>455.8081359863281</v>
       </c>
       <c r="EV2" t="n">
-        <v>451.71533203125</v>
+        <v>449.8221435546875</v>
       </c>
       <c r="EW2" t="n">
-        <v>439.2725830078125</v>
+        <v>436.8732299804688</v>
       </c>
       <c r="EX2" t="n">
-        <v>421.43310546875</v>
+        <v>437.5976867675781</v>
       </c>
       <c r="EY2" t="n">
-        <v>412.6354370117188</v>
+        <v>437.3668212890625</v>
       </c>
       <c r="EZ2" t="n">
-        <v>392.4056701660156</v>
+        <v>430.457763671875</v>
       </c>
       <c r="FA2" t="n">
-        <v>383.1407165527344</v>
+        <v>407.671875</v>
       </c>
       <c r="FB2" t="n">
-        <v>376.0478210449219</v>
+        <v>393.1381530761719</v>
       </c>
       <c r="FC2" t="n">
-        <v>369.2864990234375</v>
+        <v>333.4288940429688</v>
       </c>
       <c r="FD2" t="n">
-        <v>366.9649658203125</v>
+        <v>333.8400268554688</v>
       </c>
       <c r="FE2" t="n">
-        <v>367.8934936523438</v>
+        <v>333.2724609375</v>
       </c>
       <c r="FF2" t="n">
-        <v>368.7787475585938</v>
+        <v>332.9881591796875</v>
       </c>
       <c r="FG2" t="n">
-        <v>371.0078735351562</v>
+        <v>337.3659057617188</v>
       </c>
       <c r="FH2" t="n">
-        <v>373.9521484375</v>
+        <v>348.8458251953125</v>
       </c>
       <c r="FI2" t="n">
-        <v>374.0155334472656</v>
+        <v>357.34423828125</v>
       </c>
       <c r="FJ2" t="n">
-        <v>373.7777404785156</v>
+        <v>369.7570495605469</v>
       </c>
       <c r="FK2" t="n">
-        <v>371.1400756835938</v>
+        <v>425.2216186523438</v>
       </c>
       <c r="FL2" t="n">
-        <v>362.1845092773438</v>
+        <v>429.9546813964844</v>
       </c>
       <c r="FM2" t="n">
-        <v>362.2416381835938</v>
+        <v>408.72802734375</v>
       </c>
       <c r="FN2" t="n">
-        <v>364.424072265625</v>
+        <v>422.0905151367188</v>
       </c>
       <c r="FO2" t="n">
-        <v>369.1967468261719</v>
+        <v>429.4702758789062</v>
       </c>
       <c r="FP2" t="n">
-        <v>388.2837219238281</v>
+        <v>433.0747680664062</v>
       </c>
       <c r="FQ2" t="n">
-        <v>407.7086181640625</v>
+        <v>442.2806091308594</v>
       </c>
       <c r="FR2" t="n">
-        <v>416.1311340332031</v>
+        <v>446.8494262695312</v>
       </c>
       <c r="FS2" t="n">
-        <v>428.1719970703125</v>
+        <v>453.6904296875</v>
       </c>
       <c r="FT2" t="n">
-        <v>440.7601318359375</v>
+        <v>459.9582214355469</v>
       </c>
       <c r="FU2" t="n">
-        <v>446.2472839355469</v>
+        <v>465.2905883789062</v>
       </c>
       <c r="FV2" t="n">
-        <v>456.8758544921875</v>
+        <v>467.287353515625</v>
       </c>
       <c r="FW2" t="n">
-        <v>461.0757141113281</v>
+        <v>513.9169921875</v>
       </c>
       <c r="FX2" t="n">
-        <v>466.9721984863281</v>
+        <v>519.993408203125</v>
       </c>
       <c r="FY2" t="n">
-        <v>467.6613159179688</v>
+        <v>530.1310424804688</v>
       </c>
       <c r="FZ2" t="n">
-        <v>468.368408203125</v>
+        <v>530.9009399414062</v>
       </c>
       <c r="GA2" t="n">
-        <v>468.2709045410156</v>
+        <v>516.6834716796875</v>
       </c>
       <c r="GB2" t="n">
-        <v>466.0381774902344</v>
+        <v>514.536376953125</v>
       </c>
       <c r="GC2" t="n">
-        <v>459.7410583496094</v>
+        <v>506.0498657226562</v>
       </c>
       <c r="GD2" t="n">
-        <v>451.8396606445312</v>
+        <v>502.08837890625</v>
       </c>
       <c r="GE2" t="n">
-        <v>450.4334106445312</v>
+        <v>479.7346801757812</v>
       </c>
       <c r="GF2" t="n">
-        <v>441.9851989746094</v>
+        <v>458.26220703125</v>
       </c>
       <c r="GG2" t="n">
-        <v>436.992919921875</v>
+        <v>440.4625854492188</v>
       </c>
       <c r="GH2" t="n">
-        <v>428.3026428222656</v>
+        <v>441.8725280761719</v>
       </c>
       <c r="GI2" t="n">
-        <v>424.411865234375</v>
+        <v>441.1405639648438</v>
       </c>
       <c r="GJ2" t="n">
-        <v>416.314208984375</v>
+        <v>438.8131103515625</v>
       </c>
       <c r="GK2" t="n">
-        <v>411.5697631835938</v>
+        <v>432.7941589355469</v>
       </c>
       <c r="GL2" t="n">
-        <v>403.8608093261719</v>
+        <v>429.1954956054688</v>
       </c>
       <c r="GM2" t="n">
-        <v>403.1395263671875</v>
+        <v>430.6649169921875</v>
       </c>
       <c r="GN2" t="n">
-        <v>403.3851318359375</v>
+        <v>438.5656127929688</v>
       </c>
       <c r="GO2" t="n">
-        <v>404.4850158691406</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>406.6046447753906</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>410.9859619140625</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>415.6025695800781</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>424.4264526367188</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>466.3950805664062</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>489.7607421875</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>524.4373779296875</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>566.1141967773438</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>579.9703369140625</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>633.4172973632812</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>676.8428955078125</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>690.1022338867188</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>712.9125366210938</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>681.2763671875</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>705.8676147460938</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>681.2979125976562</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>647.3735961914062</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>634.6699829101562</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>637.8291015625</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>652.736328125</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>656.7637939453125</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>653.390380859375</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>686.0322265625</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>695.9486083984375</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>666.5311279296875</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>675.2369384765625</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>672.4288330078125</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>670.2794189453125</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>651.0674438476562</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>615.174072265625</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>604.2946166992188</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>595.0331420898438</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>599.3573608398438</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>601.2108764648438</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>600.9869384765625</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>600.4151000976562</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>600.1215209960938</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>596.5463256835938</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>590.400634765625</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>584.2369384765625</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>584.4750366210938</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>581.714599609375</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>582.776611328125</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>583.39794921875</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>582.0914916992188</v>
-      </c>
-      <c r="II2" t="n">
-        <v>581.839599609375</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>581.959716796875</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>584.0653076171875</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>584.7673950195312</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>584.6690673828125</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>584.5641479492188</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>584.4235229492188</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>584.5200805664062</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>584.4815063476562</v>
+        <v>449.5670166015625</v>
       </c>
     </row>
     <row r="3">
@@ -1950,754 +1626,592 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>375.9105224609375</v>
+        <v>419.4684143066406</v>
       </c>
       <c r="C3" t="n">
-        <v>375.1758422851562</v>
+        <v>415.1135864257812</v>
       </c>
       <c r="D3" t="n">
-        <v>373.3417358398438</v>
+        <v>413.2482604980469</v>
       </c>
       <c r="E3" t="n">
-        <v>370.5647583007812</v>
+        <v>411.7821960449219</v>
       </c>
       <c r="F3" t="n">
-        <v>367.5694274902344</v>
+        <v>410.8215942382812</v>
       </c>
       <c r="G3" t="n">
-        <v>365.3330993652344</v>
+        <v>410.07958984375</v>
       </c>
       <c r="H3" t="n">
-        <v>364.1680603027344</v>
+        <v>409.5545654296875</v>
       </c>
       <c r="I3" t="n">
-        <v>362.0515441894531</v>
+        <v>409.1255493164062</v>
       </c>
       <c r="J3" t="n">
-        <v>361.7898254394531</v>
+        <v>408.7679138183594</v>
       </c>
       <c r="K3" t="n">
-        <v>362.0155944824219</v>
+        <v>408.4740600585938</v>
       </c>
       <c r="L3" t="n">
-        <v>360.9765319824219</v>
+        <v>408.2232971191406</v>
       </c>
       <c r="M3" t="n">
-        <v>359.5665588378906</v>
+        <v>408.0101013183594</v>
       </c>
       <c r="N3" t="n">
-        <v>357.96435546875</v>
+        <v>407.8265686035156</v>
       </c>
       <c r="O3" t="n">
-        <v>357.053466796875</v>
+        <v>407.6700439453125</v>
       </c>
       <c r="P3" t="n">
-        <v>356.9722595214844</v>
+        <v>407.5321655273438</v>
       </c>
       <c r="Q3" t="n">
-        <v>356.6291809082031</v>
+        <v>407.3978576660156</v>
       </c>
       <c r="R3" t="n">
-        <v>355.8827819824219</v>
+        <v>407.2695007324219</v>
       </c>
       <c r="S3" t="n">
-        <v>354.4314575195312</v>
+        <v>407.1500549316406</v>
       </c>
       <c r="T3" t="n">
-        <v>352.4440002441406</v>
+        <v>407.0357055664062</v>
       </c>
       <c r="U3" t="n">
-        <v>351.7676086425781</v>
+        <v>406.8982543945312</v>
       </c>
       <c r="V3" t="n">
-        <v>350.4569702148438</v>
+        <v>406.7699890136719</v>
       </c>
       <c r="W3" t="n">
-        <v>349.9241943359375</v>
+        <v>406.6381530761719</v>
       </c>
       <c r="X3" t="n">
-        <v>348.1695556640625</v>
+        <v>406.5045166015625</v>
       </c>
       <c r="Y3" t="n">
-        <v>347.6274108886719</v>
+        <v>406.3897094726562</v>
       </c>
       <c r="Z3" t="n">
-        <v>347.4520263671875</v>
+        <v>406.2809753417969</v>
       </c>
       <c r="AA3" t="n">
-        <v>347.6070861816406</v>
+        <v>406.1721496582031</v>
       </c>
       <c r="AB3" t="n">
-        <v>347.892333984375</v>
+        <v>406.0652465820312</v>
       </c>
       <c r="AC3" t="n">
-        <v>348.2930603027344</v>
+        <v>405.9543151855469</v>
       </c>
       <c r="AD3" t="n">
-        <v>348.8021240234375</v>
+        <v>405.839111328125</v>
       </c>
       <c r="AE3" t="n">
-        <v>349.746337890625</v>
+        <v>405.7305297851562</v>
       </c>
       <c r="AF3" t="n">
-        <v>349.0859680175781</v>
+        <v>405.6154174804688</v>
       </c>
       <c r="AG3" t="n">
-        <v>348.1337890625</v>
+        <v>405.4847412109375</v>
       </c>
       <c r="AH3" t="n">
-        <v>346.1138305664062</v>
+        <v>405.3617858886719</v>
       </c>
       <c r="AI3" t="n">
-        <v>344.9712524414062</v>
+        <v>405.2339172363281</v>
       </c>
       <c r="AJ3" t="n">
-        <v>343.4922485351562</v>
+        <v>405.1087951660156</v>
       </c>
       <c r="AK3" t="n">
-        <v>342.6459350585938</v>
+        <v>404.9857482910156</v>
       </c>
       <c r="AL3" t="n">
-        <v>341.6641235351562</v>
+        <v>404.7181396484375</v>
       </c>
       <c r="AM3" t="n">
-        <v>340.9278869628906</v>
+        <v>404.5109252929688</v>
       </c>
       <c r="AN3" t="n">
-        <v>340.3078918457031</v>
+        <v>404.3887023925781</v>
       </c>
       <c r="AO3" t="n">
-        <v>340.73193359375</v>
+        <v>404.2535095214844</v>
       </c>
       <c r="AP3" t="n">
-        <v>340.9873657226562</v>
+        <v>403.8331909179688</v>
       </c>
       <c r="AQ3" t="n">
-        <v>341.0914001464844</v>
+        <v>402.162841796875</v>
       </c>
       <c r="AR3" t="n">
-        <v>341.0973510742188</v>
+        <v>404.1343078613281</v>
       </c>
       <c r="AS3" t="n">
-        <v>341.1315002441406</v>
+        <v>404.8056640625</v>
       </c>
       <c r="AT3" t="n">
-        <v>341.1667785644531</v>
+        <v>402.6557006835938</v>
       </c>
       <c r="AU3" t="n">
-        <v>341.2006225585938</v>
+        <v>402.1334533691406</v>
       </c>
       <c r="AV3" t="n">
-        <v>341.1155700683594</v>
+        <v>402.8698425292969</v>
       </c>
       <c r="AW3" t="n">
-        <v>341.0042114257812</v>
+        <v>401.2987060546875</v>
       </c>
       <c r="AX3" t="n">
-        <v>340.8209228515625</v>
+        <v>402.982177734375</v>
       </c>
       <c r="AY3" t="n">
-        <v>340.5340881347656</v>
+        <v>401.3623046875</v>
       </c>
       <c r="AZ3" t="n">
-        <v>340.3797607421875</v>
+        <v>397.8075256347656</v>
       </c>
       <c r="BA3" t="n">
-        <v>340.7308959960938</v>
+        <v>394.4721984863281</v>
       </c>
       <c r="BB3" t="n">
-        <v>341.5608520507812</v>
+        <v>392.4818115234375</v>
       </c>
       <c r="BC3" t="n">
-        <v>342.6353759765625</v>
+        <v>391.9031677246094</v>
       </c>
       <c r="BD3" t="n">
-        <v>343.45654296875</v>
+        <v>390.951416015625</v>
       </c>
       <c r="BE3" t="n">
-        <v>342.5390014648438</v>
+        <v>390.9495239257812</v>
       </c>
       <c r="BF3" t="n">
-        <v>343.6808471679688</v>
+        <v>390.8392333984375</v>
       </c>
       <c r="BG3" t="n">
-        <v>344.1360778808594</v>
+        <v>390.901611328125</v>
       </c>
       <c r="BH3" t="n">
-        <v>344.5263061523438</v>
+        <v>389.73583984375</v>
       </c>
       <c r="BI3" t="n">
-        <v>343.9297180175781</v>
+        <v>389.1678161621094</v>
       </c>
       <c r="BJ3" t="n">
-        <v>342.6239013671875</v>
+        <v>391.8007202148438</v>
       </c>
       <c r="BK3" t="n">
-        <v>341.5005493164062</v>
+        <v>395.8256225585938</v>
       </c>
       <c r="BL3" t="n">
-        <v>340.1310119628906</v>
+        <v>396.4031372070312</v>
       </c>
       <c r="BM3" t="n">
-        <v>336.5984802246094</v>
+        <v>394.315185546875</v>
       </c>
       <c r="BN3" t="n">
-        <v>332.1905212402344</v>
+        <v>394.5336303710938</v>
       </c>
       <c r="BO3" t="n">
-        <v>324.0473327636719</v>
+        <v>394.2606811523438</v>
       </c>
       <c r="BP3" t="n">
-        <v>314.6531677246094</v>
+        <v>395.7213745117188</v>
       </c>
       <c r="BQ3" t="n">
-        <v>305.2713317871094</v>
+        <v>396.5181884765625</v>
       </c>
       <c r="BR3" t="n">
-        <v>296.9397277832031</v>
+        <v>394.7832946777344</v>
       </c>
       <c r="BS3" t="n">
-        <v>287.3812561035156</v>
+        <v>395.2405395507812</v>
       </c>
       <c r="BT3" t="n">
-        <v>278.75439453125</v>
+        <v>393.8601379394531</v>
       </c>
       <c r="BU3" t="n">
-        <v>271.5040588378906</v>
+        <v>391.564697265625</v>
       </c>
       <c r="BV3" t="n">
-        <v>265.1361999511719</v>
+        <v>388.9942932128906</v>
       </c>
       <c r="BW3" t="n">
-        <v>261.3595886230469</v>
+        <v>387.6015014648438</v>
       </c>
       <c r="BX3" t="n">
-        <v>258.4898376464844</v>
+        <v>385.8280029296875</v>
       </c>
       <c r="BY3" t="n">
-        <v>254.7718963623047</v>
+        <v>386.0722045898438</v>
       </c>
       <c r="BZ3" t="n">
-        <v>254.0438537597656</v>
+        <v>384.753173828125</v>
       </c>
       <c r="CA3" t="n">
-        <v>261.9311828613281</v>
+        <v>386.5044250488281</v>
       </c>
       <c r="CB3" t="n">
-        <v>282.4773254394531</v>
+        <v>385.7132263183594</v>
       </c>
       <c r="CC3" t="n">
-        <v>292.6219787597656</v>
+        <v>386.5745239257812</v>
       </c>
       <c r="CD3" t="n">
-        <v>305.1944885253906</v>
+        <v>385.1160583496094</v>
       </c>
       <c r="CE3" t="n">
-        <v>311.3038330078125</v>
+        <v>384.9149475097656</v>
       </c>
       <c r="CF3" t="n">
-        <v>319.6386413574219</v>
+        <v>385.7833862304688</v>
       </c>
       <c r="CG3" t="n">
-        <v>322.3872680664062</v>
+        <v>385.2916564941406</v>
       </c>
       <c r="CH3" t="n">
-        <v>323.2210388183594</v>
+        <v>385.8070678710938</v>
       </c>
       <c r="CI3" t="n">
-        <v>325.2682800292969</v>
+        <v>385.3309631347656</v>
       </c>
       <c r="CJ3" t="n">
-        <v>325.6396789550781</v>
+        <v>384.2601623535156</v>
       </c>
       <c r="CK3" t="n">
-        <v>324.7951354980469</v>
+        <v>383.5408325195312</v>
       </c>
       <c r="CL3" t="n">
-        <v>322.0004272460938</v>
+        <v>383.2439575195312</v>
       </c>
       <c r="CM3" t="n">
-        <v>320.2234802246094</v>
+        <v>382.6233520507812</v>
       </c>
       <c r="CN3" t="n">
-        <v>315.9329223632812</v>
+        <v>380.4715576171875</v>
       </c>
       <c r="CO3" t="n">
-        <v>310.0514526367188</v>
+        <v>378.0115661621094</v>
       </c>
       <c r="CP3" t="n">
-        <v>308.8514404296875</v>
+        <v>378.1854553222656</v>
       </c>
       <c r="CQ3" t="n">
-        <v>308.0121459960938</v>
+        <v>380.8433227539062</v>
       </c>
       <c r="CR3" t="n">
-        <v>308.32177734375</v>
+        <v>382.6859741210938</v>
       </c>
       <c r="CS3" t="n">
-        <v>308.653076171875</v>
+        <v>384.6820983886719</v>
       </c>
       <c r="CT3" t="n">
-        <v>311.8736877441406</v>
+        <v>384.8706665039062</v>
       </c>
       <c r="CU3" t="n">
-        <v>313.0585327148438</v>
+        <v>387.3839111328125</v>
       </c>
       <c r="CV3" t="n">
-        <v>313.8899841308594</v>
+        <v>387.2335510253906</v>
       </c>
       <c r="CW3" t="n">
-        <v>315.20361328125</v>
+        <v>388.6494750976562</v>
       </c>
       <c r="CX3" t="n">
-        <v>315.8210754394531</v>
+        <v>388.2084350585938</v>
       </c>
       <c r="CY3" t="n">
-        <v>316.7652587890625</v>
+        <v>387.6443786621094</v>
       </c>
       <c r="CZ3" t="n">
-        <v>317.4591674804688</v>
+        <v>389.0478820800781</v>
       </c>
       <c r="DA3" t="n">
-        <v>318.270751953125</v>
+        <v>388.4142150878906</v>
       </c>
       <c r="DB3" t="n">
-        <v>317.8439331054688</v>
+        <v>389.4624328613281</v>
       </c>
       <c r="DC3" t="n">
-        <v>313.7727966308594</v>
+        <v>389.4120788574219</v>
       </c>
       <c r="DD3" t="n">
-        <v>312.6900329589844</v>
+        <v>390.6393737792969</v>
       </c>
       <c r="DE3" t="n">
-        <v>312.8941650390625</v>
+        <v>391.8660888671875</v>
       </c>
       <c r="DF3" t="n">
-        <v>315.5543518066406</v>
+        <v>392.9669189453125</v>
       </c>
       <c r="DG3" t="n">
-        <v>317.7383117675781</v>
+        <v>393.7462768554688</v>
       </c>
       <c r="DH3" t="n">
-        <v>317.5958251953125</v>
+        <v>397.5340881347656</v>
       </c>
       <c r="DI3" t="n">
-        <v>316.0447998046875</v>
+        <v>399.3287353515625</v>
       </c>
       <c r="DJ3" t="n">
-        <v>315.0750427246094</v>
+        <v>401.283203125</v>
       </c>
       <c r="DK3" t="n">
-        <v>314.3033752441406</v>
+        <v>402.857421875</v>
       </c>
       <c r="DL3" t="n">
-        <v>313.8564147949219</v>
+        <v>404.4016723632812</v>
       </c>
       <c r="DM3" t="n">
-        <v>314.17529296875</v>
+        <v>405.5965881347656</v>
       </c>
       <c r="DN3" t="n">
-        <v>313.1730346679688</v>
+        <v>404.0421447753906</v>
       </c>
       <c r="DO3" t="n">
-        <v>313.083740234375</v>
+        <v>400.2669372558594</v>
       </c>
       <c r="DP3" t="n">
-        <v>311.1641540527344</v>
+        <v>398.1225280761719</v>
       </c>
       <c r="DQ3" t="n">
-        <v>310.4814147949219</v>
+        <v>386.4736022949219</v>
       </c>
       <c r="DR3" t="n">
-        <v>311.8858032226562</v>
+        <v>378.9798889160156</v>
       </c>
       <c r="DS3" t="n">
-        <v>313.7120971679688</v>
+        <v>372.1420593261719</v>
       </c>
       <c r="DT3" t="n">
-        <v>314.1438293457031</v>
+        <v>355.6357421875</v>
       </c>
       <c r="DU3" t="n">
-        <v>314.1998901367188</v>
+        <v>349.3732604980469</v>
       </c>
       <c r="DV3" t="n">
-        <v>314.1521301269531</v>
+        <v>340.6252136230469</v>
       </c>
       <c r="DW3" t="n">
-        <v>314.1495361328125</v>
+        <v>326.2816772460938</v>
       </c>
       <c r="DX3" t="n">
-        <v>313.9898681640625</v>
+        <v>320.8753051757812</v>
       </c>
       <c r="DY3" t="n">
-        <v>313.7748107910156</v>
+        <v>313.6549377441406</v>
       </c>
       <c r="DZ3" t="n">
-        <v>313.7797241210938</v>
+        <v>312.6538391113281</v>
       </c>
       <c r="EA3" t="n">
-        <v>314.0252380371094</v>
+        <v>312.5184326171875</v>
       </c>
       <c r="EB3" t="n">
-        <v>314.9774780273438</v>
+        <v>320.1268615722656</v>
       </c>
       <c r="EC3" t="n">
-        <v>316.3701782226562</v>
+        <v>327.1747131347656</v>
       </c>
       <c r="ED3" t="n">
-        <v>315.6401672363281</v>
+        <v>343.5350646972656</v>
       </c>
       <c r="EE3" t="n">
-        <v>313.8803100585938</v>
+        <v>359.3727722167969</v>
       </c>
       <c r="EF3" t="n">
-        <v>312.3408203125</v>
+        <v>363.7528686523438</v>
       </c>
       <c r="EG3" t="n">
-        <v>312.2985534667969</v>
+        <v>379.1851501464844</v>
       </c>
       <c r="EH3" t="n">
-        <v>314.5856323242188</v>
+        <v>389.6072692871094</v>
       </c>
       <c r="EI3" t="n">
-        <v>314.7619018554688</v>
+        <v>393.0409545898438</v>
       </c>
       <c r="EJ3" t="n">
-        <v>318.4086608886719</v>
+        <v>394.0627136230469</v>
       </c>
       <c r="EK3" t="n">
-        <v>319.6169738769531</v>
+        <v>399.5563354492188</v>
       </c>
       <c r="EL3" t="n">
-        <v>317.3982849121094</v>
+        <v>402.2443542480469</v>
       </c>
       <c r="EM3" t="n">
-        <v>305.337158203125</v>
+        <v>402.4582824707031</v>
       </c>
       <c r="EN3" t="n">
-        <v>276.7464294433594</v>
+        <v>401.768798828125</v>
       </c>
       <c r="EO3" t="n">
-        <v>258.2045593261719</v>
+        <v>400.8303833007812</v>
       </c>
       <c r="EP3" t="n">
-        <v>246.5761413574219</v>
+        <v>398.2847595214844</v>
       </c>
       <c r="EQ3" t="n">
-        <v>230.4564819335938</v>
+        <v>396.5591735839844</v>
       </c>
       <c r="ER3" t="n">
-        <v>223.2531433105469</v>
+        <v>396.6365356445312</v>
       </c>
       <c r="ES3" t="n">
-        <v>222.5491485595703</v>
+        <v>395.9858093261719</v>
       </c>
       <c r="ET3" t="n">
-        <v>223.1857604980469</v>
+        <v>402.0431213378906</v>
       </c>
       <c r="EU3" t="n">
-        <v>230.7694244384766</v>
+        <v>407.2599487304688</v>
       </c>
       <c r="EV3" t="n">
-        <v>262.2323913574219</v>
+        <v>408.4528198242188</v>
       </c>
       <c r="EW3" t="n">
-        <v>280.4411315917969</v>
+        <v>416.6406860351562</v>
       </c>
       <c r="EX3" t="n">
-        <v>297.6761779785156</v>
+        <v>413.9346313476562</v>
       </c>
       <c r="EY3" t="n">
-        <v>306.5544128417969</v>
+        <v>411.8330993652344</v>
       </c>
       <c r="EZ3" t="n">
-        <v>318.9588317871094</v>
+        <v>416.2799682617188</v>
       </c>
       <c r="FA3" t="n">
-        <v>325.0591125488281</v>
+        <v>434.0039367675781</v>
       </c>
       <c r="FB3" t="n">
-        <v>328.7146911621094</v>
+        <v>443.0852966308594</v>
       </c>
       <c r="FC3" t="n">
-        <v>331.9144592285156</v>
+        <v>447.91162109375</v>
       </c>
       <c r="FD3" t="n">
-        <v>333.4761962890625</v>
+        <v>443.7624206542969</v>
       </c>
       <c r="FE3" t="n">
-        <v>334.0648803710938</v>
+        <v>437.2935180664062</v>
       </c>
       <c r="FF3" t="n">
-        <v>334.2197265625</v>
+        <v>434.4411010742188</v>
       </c>
       <c r="FG3" t="n">
-        <v>334.1622314453125</v>
+        <v>428.9023742675781</v>
       </c>
       <c r="FH3" t="n">
-        <v>333.7191467285156</v>
+        <v>429.5931091308594</v>
       </c>
       <c r="FI3" t="n">
-        <v>334.9101867675781</v>
+        <v>430.10498046875</v>
       </c>
       <c r="FJ3" t="n">
-        <v>340.0760192871094</v>
+        <v>432.2022705078125</v>
       </c>
       <c r="FK3" t="n">
-        <v>341.6096496582031</v>
+        <v>434.5897827148438</v>
       </c>
       <c r="FL3" t="n">
-        <v>341.5189208984375</v>
+        <v>433.6548156738281</v>
       </c>
       <c r="FM3" t="n">
-        <v>341.9837036132812</v>
+        <v>433.2748107910156</v>
       </c>
       <c r="FN3" t="n">
-        <v>344.1413879394531</v>
+        <v>433.9226684570312</v>
       </c>
       <c r="FO3" t="n">
-        <v>342.2325744628906</v>
+        <v>432.7097778320312</v>
       </c>
       <c r="FP3" t="n">
-        <v>340.6526184082031</v>
+        <v>432.8982238769531</v>
       </c>
       <c r="FQ3" t="n">
-        <v>340.1029968261719</v>
+        <v>430.5850830078125</v>
       </c>
       <c r="FR3" t="n">
-        <v>337.9453735351562</v>
+        <v>431.1180114746094</v>
       </c>
       <c r="FS3" t="n">
-        <v>340.3519287109375</v>
+        <v>427.9028015136719</v>
       </c>
       <c r="FT3" t="n">
-        <v>345.8919677734375</v>
+        <v>426.6666870117188</v>
       </c>
       <c r="FU3" t="n">
-        <v>345.3667602539062</v>
+        <v>425.1383972167969</v>
       </c>
       <c r="FV3" t="n">
-        <v>345.61669921875</v>
+        <v>424.7325134277344</v>
       </c>
       <c r="FW3" t="n">
-        <v>346.7371520996094</v>
+        <v>439.0795288085938</v>
       </c>
       <c r="FX3" t="n">
-        <v>342.6106872558594</v>
+        <v>435.9789428710938</v>
       </c>
       <c r="FY3" t="n">
-        <v>337.1151733398438</v>
+        <v>436.6517944335938</v>
       </c>
       <c r="FZ3" t="n">
-        <v>335.4841613769531</v>
+        <v>435.5023498535156</v>
       </c>
       <c r="GA3" t="n">
-        <v>335.2689819335938</v>
+        <v>428.8973999023438</v>
       </c>
       <c r="GB3" t="n">
-        <v>336.2215881347656</v>
+        <v>431.2228393554688</v>
       </c>
       <c r="GC3" t="n">
-        <v>337.6343994140625</v>
+        <v>418.438232421875</v>
       </c>
       <c r="GD3" t="n">
-        <v>335.2646179199219</v>
+        <v>411.731201171875</v>
       </c>
       <c r="GE3" t="n">
-        <v>332.6791076660156</v>
+        <v>427.6849365234375</v>
       </c>
       <c r="GF3" t="n">
-        <v>329.4997863769531</v>
+        <v>435.2156066894531</v>
       </c>
       <c r="GG3" t="n">
-        <v>331.3386840820312</v>
+        <v>441.20751953125</v>
       </c>
       <c r="GH3" t="n">
-        <v>331.052490234375</v>
+        <v>445.8728332519531</v>
       </c>
       <c r="GI3" t="n">
-        <v>334.3528137207031</v>
+        <v>447.3898315429688</v>
       </c>
       <c r="GJ3" t="n">
-        <v>332.9854431152344</v>
+        <v>448.7049560546875</v>
       </c>
       <c r="GK3" t="n">
-        <v>329.6994018554688</v>
+        <v>451.0599975585938</v>
       </c>
       <c r="GL3" t="n">
-        <v>330.1055603027344</v>
+        <v>450.8140258789062</v>
       </c>
       <c r="GM3" t="n">
-        <v>324.8000793457031</v>
+        <v>452.710693359375</v>
       </c>
       <c r="GN3" t="n">
-        <v>326.9571533203125</v>
+        <v>450.4039306640625</v>
       </c>
       <c r="GO3" t="n">
-        <v>329.0177612304688</v>
-      </c>
-      <c r="GP3" t="n">
-        <v>330.1210021972656</v>
-      </c>
-      <c r="GQ3" t="n">
-        <v>331.06689453125</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>331.6391296386719</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>335.3621215820312</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>339.3173522949219</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>341.4140625</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>341.5657043457031</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>357.4488220214844</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>370.2510375976562</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>422.958740234375</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>442.0441589355469</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>453.5543518066406</v>
-      </c>
-      <c r="HB3" t="n">
-        <v>523.326416015625</v>
-      </c>
-      <c r="HC3" t="n">
-        <v>605.0204467773438</v>
-      </c>
-      <c r="HD3" t="n">
-        <v>544.8292236328125</v>
-      </c>
-      <c r="HE3" t="n">
-        <v>522.8357543945312</v>
-      </c>
-      <c r="HF3" t="n">
-        <v>527.9579467773438</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>524.6065063476562</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>524.9998779296875</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>535.6126098632812</v>
-      </c>
-      <c r="HJ3" t="n">
-        <v>536.8956298828125</v>
-      </c>
-      <c r="HK3" t="n">
-        <v>540.4300537109375</v>
-      </c>
-      <c r="HL3" t="n">
-        <v>557.850830078125</v>
-      </c>
-      <c r="HM3" t="n">
-        <v>563.9364624023438</v>
-      </c>
-      <c r="HN3" t="n">
-        <v>570.3854370117188</v>
-      </c>
-      <c r="HO3" t="n">
-        <v>563.5289916992188</v>
-      </c>
-      <c r="HP3" t="n">
-        <v>548.019775390625</v>
-      </c>
-      <c r="HQ3" t="n">
-        <v>532.619384765625</v>
-      </c>
-      <c r="HR3" t="n">
-        <v>520.299072265625</v>
-      </c>
-      <c r="HS3" t="n">
-        <v>495.4154663085938</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>499.3075561523438</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>510.8371887207031</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>509.6834716796875</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>508.3121032714844</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>511.5518798828125</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>511.0892333984375</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>511.4815673828125</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>509.6976013183594</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>514.0484008789062</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>513.5078125</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>512.7698364257812</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>500.4053955078125</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>500.1459350585938</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>499.887939453125</v>
-      </c>
-      <c r="IH3" t="n">
-        <v>501.8432312011719</v>
-      </c>
-      <c r="II3" t="n">
-        <v>503.8654479980469</v>
-      </c>
-      <c r="IJ3" t="n">
-        <v>504.9425659179688</v>
-      </c>
-      <c r="IK3" t="n">
-        <v>508.8824768066406</v>
-      </c>
-      <c r="IL3" t="n">
-        <v>510.3318786621094</v>
-      </c>
-      <c r="IM3" t="n">
-        <v>509.7157897949219</v>
-      </c>
-      <c r="IN3" t="n">
-        <v>509.2354736328125</v>
-      </c>
-      <c r="IO3" t="n">
-        <v>508.3030090332031</v>
-      </c>
-      <c r="IP3" t="n">
-        <v>508.0003051757812</v>
-      </c>
-      <c r="IQ3" t="n">
-        <v>507.6436767578125</v>
+        <v>446.78369140625</v>
       </c>
     </row>
     <row r="4">
@@ -2705,754 +2219,592 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>1195.968505859375</v>
+        <v>1027.819458007812</v>
       </c>
       <c r="C4" t="n">
-        <v>1203.310302734375</v>
+        <v>1021.419128417969</v>
       </c>
       <c r="D4" t="n">
-        <v>1218.238037109375</v>
+        <v>1021.101806640625</v>
       </c>
       <c r="E4" t="n">
-        <v>1227.532104492188</v>
+        <v>1021.635437011719</v>
       </c>
       <c r="F4" t="n">
-        <v>1233.308227539062</v>
+        <v>1021.750427246094</v>
       </c>
       <c r="G4" t="n">
-        <v>1235.405395507812</v>
+        <v>1021.807495117188</v>
       </c>
       <c r="H4" t="n">
-        <v>1239.712524414062</v>
+        <v>1022.130310058594</v>
       </c>
       <c r="I4" t="n">
-        <v>1243.361206054688</v>
+        <v>1022.422729492188</v>
       </c>
       <c r="J4" t="n">
-        <v>1245.598510742188</v>
+        <v>1022.649841308594</v>
       </c>
       <c r="K4" t="n">
-        <v>1244.327270507812</v>
+        <v>1022.730285644531</v>
       </c>
       <c r="L4" t="n">
-        <v>1244.2998046875</v>
+        <v>1022.806640625</v>
       </c>
       <c r="M4" t="n">
-        <v>1244.953735351562</v>
+        <v>1022.906555175781</v>
       </c>
       <c r="N4" t="n">
-        <v>1245.616577148438</v>
+        <v>1022.947570800781</v>
       </c>
       <c r="O4" t="n">
-        <v>1245.789916992188</v>
+        <v>1022.987609863281</v>
       </c>
       <c r="P4" t="n">
-        <v>1245.108032226562</v>
+        <v>1023.023864746094</v>
       </c>
       <c r="Q4" t="n">
-        <v>1244.39013671875</v>
+        <v>1023.087219238281</v>
       </c>
       <c r="R4" t="n">
-        <v>1243.292846679688</v>
+        <v>1023.146118164062</v>
       </c>
       <c r="S4" t="n">
-        <v>1242.562622070312</v>
+        <v>1023.200927734375</v>
       </c>
       <c r="T4" t="n">
-        <v>1243.1279296875</v>
+        <v>1023.238830566406</v>
       </c>
       <c r="U4" t="n">
-        <v>1243.303955078125</v>
+        <v>1023.286315917969</v>
       </c>
       <c r="V4" t="n">
-        <v>1243.45751953125</v>
+        <v>1023.332092285156</v>
       </c>
       <c r="W4" t="n">
-        <v>1242.383544921875</v>
+        <v>1023.380859375</v>
       </c>
       <c r="X4" t="n">
-        <v>1240.9580078125</v>
+        <v>1023.432678222656</v>
       </c>
       <c r="Y4" t="n">
-        <v>1235.996459960938</v>
+        <v>1023.492919921875</v>
       </c>
       <c r="Z4" t="n">
-        <v>1229.459716796875</v>
+        <v>1023.542907714844</v>
       </c>
       <c r="AA4" t="n">
-        <v>1220.317016601562</v>
+        <v>1023.594299316406</v>
       </c>
       <c r="AB4" t="n">
-        <v>1212.566162109375</v>
+        <v>1023.643432617188</v>
       </c>
       <c r="AC4" t="n">
-        <v>1206.120483398438</v>
+        <v>1023.690673828125</v>
       </c>
       <c r="AD4" t="n">
-        <v>1206.33740234375</v>
+        <v>1023.745239257812</v>
       </c>
       <c r="AE4" t="n">
-        <v>1206.364990234375</v>
+        <v>1023.788818359375</v>
       </c>
       <c r="AF4" t="n">
-        <v>1206.661865234375</v>
+        <v>1023.8447265625</v>
       </c>
       <c r="AG4" t="n">
-        <v>1207.350708007812</v>
+        <v>1023.895812988281</v>
       </c>
       <c r="AH4" t="n">
-        <v>1208.439575195312</v>
+        <v>1023.956726074219</v>
       </c>
       <c r="AI4" t="n">
-        <v>1208.8984375</v>
+        <v>1023.958984375</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1209.305786132812</v>
+        <v>1023.987915039062</v>
       </c>
       <c r="AK4" t="n">
-        <v>1209.950439453125</v>
+        <v>1024.025512695312</v>
       </c>
       <c r="AL4" t="n">
-        <v>1210.058471679688</v>
+        <v>1023.701904296875</v>
       </c>
       <c r="AM4" t="n">
-        <v>1208.278076171875</v>
+        <v>1023.588989257812</v>
       </c>
       <c r="AN4" t="n">
-        <v>1203.666870117188</v>
+        <v>1023.628723144531</v>
       </c>
       <c r="AO4" t="n">
-        <v>1193.685668945312</v>
+        <v>1023.681579589844</v>
       </c>
       <c r="AP4" t="n">
-        <v>1183.928588867188</v>
+        <v>1023.812683105469</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1179.1474609375</v>
+        <v>1024.359497070312</v>
       </c>
       <c r="AR4" t="n">
-        <v>1175.812255859375</v>
+        <v>1023.741821289062</v>
       </c>
       <c r="AS4" t="n">
-        <v>1172.466430664062</v>
+        <v>1023.415283203125</v>
       </c>
       <c r="AT4" t="n">
-        <v>1169.037475585938</v>
+        <v>1023.615051269531</v>
       </c>
       <c r="AU4" t="n">
-        <v>1165.278442382812</v>
+        <v>1022.33984375</v>
       </c>
       <c r="AV4" t="n">
-        <v>1160.896484375</v>
+        <v>1019.868041992188</v>
       </c>
       <c r="AW4" t="n">
-        <v>1155.4912109375</v>
+        <v>1020.640258789062</v>
       </c>
       <c r="AX4" t="n">
-        <v>1151.390869140625</v>
+        <v>1020.033325195312</v>
       </c>
       <c r="AY4" t="n">
-        <v>1148.73388671875</v>
+        <v>1021.558837890625</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1145.118408203125</v>
+        <v>1025.7998046875</v>
       </c>
       <c r="BA4" t="n">
-        <v>1141.4384765625</v>
+        <v>1032.571044921875</v>
       </c>
       <c r="BB4" t="n">
-        <v>1138.0810546875</v>
+        <v>1042.951416015625</v>
       </c>
       <c r="BC4" t="n">
-        <v>1134.606811523438</v>
+        <v>1049.074096679688</v>
       </c>
       <c r="BD4" t="n">
-        <v>1130.948974609375</v>
+        <v>1053.0615234375</v>
       </c>
       <c r="BE4" t="n">
-        <v>1127.870727539062</v>
+        <v>1057.022827148438</v>
       </c>
       <c r="BF4" t="n">
-        <v>1123.30029296875</v>
+        <v>1060.290405273438</v>
       </c>
       <c r="BG4" t="n">
-        <v>1116.568603515625</v>
+        <v>1060.209838867188</v>
       </c>
       <c r="BH4" t="n">
-        <v>1112.0478515625</v>
+        <v>1061.667358398438</v>
       </c>
       <c r="BI4" t="n">
-        <v>1110.945434570312</v>
+        <v>1061.835083007812</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1110.689819335938</v>
+        <v>1059.473999023438</v>
       </c>
       <c r="BK4" t="n">
-        <v>1109.388916015625</v>
+        <v>1055.090209960938</v>
       </c>
       <c r="BL4" t="n">
-        <v>1106.704956054688</v>
+        <v>1053.293701171875</v>
       </c>
       <c r="BM4" t="n">
-        <v>1103.9755859375</v>
+        <v>1046.760009765625</v>
       </c>
       <c r="BN4" t="n">
-        <v>1088.691040039062</v>
+        <v>1038.656005859375</v>
       </c>
       <c r="BO4" t="n">
-        <v>1062.267211914062</v>
+        <v>1031.219848632812</v>
       </c>
       <c r="BP4" t="n">
-        <v>1049.175415039062</v>
+        <v>1025.298583984375</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1046.364379882812</v>
+        <v>1021.823303222656</v>
       </c>
       <c r="BR4" t="n">
-        <v>1039.51123046875</v>
+        <v>1020.178649902344</v>
       </c>
       <c r="BS4" t="n">
-        <v>1036.525268554688</v>
+        <v>1020.977416992188</v>
       </c>
       <c r="BT4" t="n">
-        <v>1035.950073242188</v>
+        <v>1021.527282714844</v>
       </c>
       <c r="BU4" t="n">
-        <v>1033.34814453125</v>
+        <v>1022.262817382812</v>
       </c>
       <c r="BV4" t="n">
-        <v>1024.324951171875</v>
+        <v>1023.027648925781</v>
       </c>
       <c r="BW4" t="n">
-        <v>1015.440551757812</v>
+        <v>1022.305358886719</v>
       </c>
       <c r="BX4" t="n">
-        <v>1007.264770507812</v>
+        <v>1021.646362304688</v>
       </c>
       <c r="BY4" t="n">
-        <v>999.8570556640625</v>
+        <v>1017.602355957031</v>
       </c>
       <c r="BZ4" t="n">
-        <v>992.9027099609375</v>
+        <v>1011.900695800781</v>
       </c>
       <c r="CA4" t="n">
-        <v>977.2047119140625</v>
+        <v>1006.980224609375</v>
       </c>
       <c r="CB4" t="n">
-        <v>988.8605346679688</v>
+        <v>1004.794677734375</v>
       </c>
       <c r="CC4" t="n">
-        <v>994.607177734375</v>
+        <v>1003.662170410156</v>
       </c>
       <c r="CD4" t="n">
-        <v>998.787353515625</v>
+        <v>1004.882263183594</v>
       </c>
       <c r="CE4" t="n">
-        <v>1000.569519042969</v>
+        <v>1005.684448242188</v>
       </c>
       <c r="CF4" t="n">
-        <v>998.555419921875</v>
+        <v>1006.178833007812</v>
       </c>
       <c r="CG4" t="n">
-        <v>1000.464599609375</v>
+        <v>1008.540954589844</v>
       </c>
       <c r="CH4" t="n">
-        <v>1003.528137207031</v>
+        <v>1011.201110839844</v>
       </c>
       <c r="CI4" t="n">
-        <v>1020.889709472656</v>
+        <v>1017.256042480469</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1042.209350585938</v>
+        <v>1027.33056640625</v>
       </c>
       <c r="CK4" t="n">
-        <v>1055.22509765625</v>
+        <v>1035.318969726562</v>
       </c>
       <c r="CL4" t="n">
-        <v>1067.937866210938</v>
+        <v>1040.958129882812</v>
       </c>
       <c r="CM4" t="n">
-        <v>1069.635620117188</v>
+        <v>1044.097900390625</v>
       </c>
       <c r="CN4" t="n">
-        <v>1071.623779296875</v>
+        <v>1049.709350585938</v>
       </c>
       <c r="CO4" t="n">
-        <v>1070.516357421875</v>
+        <v>1055.433349609375</v>
       </c>
       <c r="CP4" t="n">
-        <v>1068.394287109375</v>
+        <v>1059.857666015625</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1064.719848632812</v>
+        <v>1057.21435546875</v>
       </c>
       <c r="CR4" t="n">
-        <v>1059.387817382812</v>
+        <v>1055.572265625</v>
       </c>
       <c r="CS4" t="n">
-        <v>1054.982299804688</v>
+        <v>1054.478393554688</v>
       </c>
       <c r="CT4" t="n">
-        <v>1052.28515625</v>
+        <v>1056.368408203125</v>
       </c>
       <c r="CU4" t="n">
-        <v>1051.904174804688</v>
+        <v>1056.869750976562</v>
       </c>
       <c r="CV4" t="n">
-        <v>1051.145629882812</v>
+        <v>1060.039306640625</v>
       </c>
       <c r="CW4" t="n">
-        <v>1050.166381835938</v>
+        <v>1059.580322265625</v>
       </c>
       <c r="CX4" t="n">
-        <v>1049.601928710938</v>
+        <v>1061.13037109375</v>
       </c>
       <c r="CY4" t="n">
-        <v>1048.641845703125</v>
+        <v>1061.701782226562</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1048.178833007812</v>
+        <v>1060.51708984375</v>
       </c>
       <c r="DA4" t="n">
-        <v>1047.81689453125</v>
+        <v>1061.427612304688</v>
       </c>
       <c r="DB4" t="n">
-        <v>1048.806640625</v>
+        <v>1060.96044921875</v>
       </c>
       <c r="DC4" t="n">
-        <v>1054.269287109375</v>
+        <v>1062.872680664062</v>
       </c>
       <c r="DD4" t="n">
-        <v>1058.228759765625</v>
+        <v>1063.464965820312</v>
       </c>
       <c r="DE4" t="n">
-        <v>1062.885620117188</v>
+        <v>1064.361450195312</v>
       </c>
       <c r="DF4" t="n">
-        <v>1074.157470703125</v>
+        <v>1064.860473632812</v>
       </c>
       <c r="DG4" t="n">
-        <v>1075.475952148438</v>
+        <v>1064.011840820312</v>
       </c>
       <c r="DH4" t="n">
-        <v>1076.852172851562</v>
+        <v>1059.204345703125</v>
       </c>
       <c r="DI4" t="n">
-        <v>1080.077880859375</v>
+        <v>1052.150024414062</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1081.615478515625</v>
+        <v>1036.425048828125</v>
       </c>
       <c r="DK4" t="n">
-        <v>1083.036987304688</v>
+        <v>1023.345336914062</v>
       </c>
       <c r="DL4" t="n">
-        <v>1081.265014648438</v>
+        <v>1012.934204101562</v>
       </c>
       <c r="DM4" t="n">
-        <v>1079.760009765625</v>
+        <v>1006.251159667969</v>
       </c>
       <c r="DN4" t="n">
-        <v>1077.33056640625</v>
+        <v>992.28515625</v>
       </c>
       <c r="DO4" t="n">
-        <v>1075.828979492188</v>
+        <v>973.236328125</v>
       </c>
       <c r="DP4" t="n">
-        <v>1075.228637695312</v>
+        <v>967.93701171875</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1073.964111328125</v>
+        <v>956.9722900390625</v>
       </c>
       <c r="DR4" t="n">
-        <v>1072.429077148438</v>
+        <v>954.4971313476562</v>
       </c>
       <c r="DS4" t="n">
-        <v>1070.03173828125</v>
+        <v>957.730712890625</v>
       </c>
       <c r="DT4" t="n">
-        <v>1070.056518554688</v>
+        <v>963.5374145507812</v>
       </c>
       <c r="DU4" t="n">
-        <v>1070.253173828125</v>
+        <v>966.0169067382812</v>
       </c>
       <c r="DV4" t="n">
-        <v>1070.1494140625</v>
+        <v>970.3045654296875</v>
       </c>
       <c r="DW4" t="n">
-        <v>1070.264526367188</v>
+        <v>973.4495849609375</v>
       </c>
       <c r="DX4" t="n">
-        <v>1070.476318359375</v>
+        <v>976.529052734375</v>
       </c>
       <c r="DY4" t="n">
-        <v>1070.574096679688</v>
+        <v>977.280029296875</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1070.550048828125</v>
+        <v>978.44482421875</v>
       </c>
       <c r="EA4" t="n">
-        <v>1070.396362304688</v>
+        <v>981.5407104492188</v>
       </c>
       <c r="EB4" t="n">
-        <v>1069.883056640625</v>
+        <v>994.77734375</v>
       </c>
       <c r="EC4" t="n">
-        <v>1069.131713867188</v>
+        <v>1012.310119628906</v>
       </c>
       <c r="ED4" t="n">
-        <v>1069.562622070312</v>
+        <v>1028.1728515625</v>
       </c>
       <c r="EE4" t="n">
-        <v>1070.595947265625</v>
+        <v>1022.460083007812</v>
       </c>
       <c r="EF4" t="n">
-        <v>1071.791381835938</v>
+        <v>1017.989624023438</v>
       </c>
       <c r="EG4" t="n">
-        <v>1073.20263671875</v>
+        <v>1024.989868164062</v>
       </c>
       <c r="EH4" t="n">
-        <v>1076.036865234375</v>
+        <v>1142.235595703125</v>
       </c>
       <c r="EI4" t="n">
-        <v>1080.564453125</v>
+        <v>1175.3935546875</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1088.090576171875</v>
+        <v>1189.35888671875</v>
       </c>
       <c r="EK4" t="n">
-        <v>1090.274658203125</v>
+        <v>1214.236572265625</v>
       </c>
       <c r="EL4" t="n">
-        <v>1084.677490234375</v>
+        <v>1218.895385742188</v>
       </c>
       <c r="EM4" t="n">
-        <v>1082.437255859375</v>
+        <v>1219.663208007812</v>
       </c>
       <c r="EN4" t="n">
-        <v>1057.781372070312</v>
+        <v>1216.94873046875</v>
       </c>
       <c r="EO4" t="n">
-        <v>1062.253540039062</v>
+        <v>1217.280883789062</v>
       </c>
       <c r="EP4" t="n">
-        <v>1075.385375976562</v>
+        <v>1218.738037109375</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1099.064697265625</v>
+        <v>1218.878662109375</v>
       </c>
       <c r="ER4" t="n">
-        <v>1100.8935546875</v>
+        <v>1219.019775390625</v>
       </c>
       <c r="ES4" t="n">
-        <v>1100.582763671875</v>
+        <v>1218.776733398438</v>
       </c>
       <c r="ET4" t="n">
-        <v>1100.310668945312</v>
+        <v>1190.769897460938</v>
       </c>
       <c r="EU4" t="n">
-        <v>1097.781860351562</v>
+        <v>1146.828002929688</v>
       </c>
       <c r="EV4" t="n">
-        <v>1093.521484375</v>
+        <v>1130.342041015625</v>
       </c>
       <c r="EW4" t="n">
-        <v>1067.91552734375</v>
+        <v>1085.795288085938</v>
       </c>
       <c r="EX4" t="n">
-        <v>1050.902099609375</v>
+        <v>1064.275512695312</v>
       </c>
       <c r="EY4" t="n">
-        <v>1056.614013671875</v>
+        <v>1046.621459960938</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1057.197265625</v>
+        <v>1014.195068359375</v>
       </c>
       <c r="FA4" t="n">
-        <v>1059.044189453125</v>
+        <v>981.7883911132812</v>
       </c>
       <c r="FB4" t="n">
-        <v>1061.885986328125</v>
+        <v>963.8522338867188</v>
       </c>
       <c r="FC4" t="n">
-        <v>1055.968872070312</v>
+        <v>1083.148803710938</v>
       </c>
       <c r="FD4" t="n">
-        <v>1055.33935546875</v>
+        <v>1082.606567382812</v>
       </c>
       <c r="FE4" t="n">
-        <v>1057.802124023438</v>
+        <v>1074.444091796875</v>
       </c>
       <c r="FF4" t="n">
-        <v>1060.973388671875</v>
+        <v>1065.151000976562</v>
       </c>
       <c r="FG4" t="n">
-        <v>1070.77880859375</v>
+        <v>1053.189453125</v>
       </c>
       <c r="FH4" t="n">
-        <v>1079.124267578125</v>
+        <v>1033.0966796875</v>
       </c>
       <c r="FI4" t="n">
-        <v>1086.241333007812</v>
+        <v>1020.53125</v>
       </c>
       <c r="FJ4" t="n">
-        <v>1097.985107421875</v>
+        <v>1010.009338378906</v>
       </c>
       <c r="FK4" t="n">
-        <v>1112.730224609375</v>
+        <v>962.2808837890625</v>
       </c>
       <c r="FL4" t="n">
-        <v>1130.802368164062</v>
+        <v>957.2044677734375</v>
       </c>
       <c r="FM4" t="n">
-        <v>1135.517456054688</v>
+        <v>978.6510009765625</v>
       </c>
       <c r="FN4" t="n">
-        <v>1137.4052734375</v>
+        <v>974.3148803710938</v>
       </c>
       <c r="FO4" t="n">
-        <v>1141.058227539062</v>
+        <v>971.0160522460938</v>
       </c>
       <c r="FP4" t="n">
-        <v>1145.998657226562</v>
+        <v>969.744873046875</v>
       </c>
       <c r="FQ4" t="n">
-        <v>1146.472534179688</v>
+        <v>964.2654418945312</v>
       </c>
       <c r="FR4" t="n">
-        <v>1142.903198242188</v>
+        <v>956.7635498046875</v>
       </c>
       <c r="FS4" t="n">
-        <v>1123.12646484375</v>
+        <v>948.9917602539062</v>
       </c>
       <c r="FT4" t="n">
-        <v>1083.798583984375</v>
+        <v>938.7427368164062</v>
       </c>
       <c r="FU4" t="n">
-        <v>1077.973266601562</v>
+        <v>927.2145385742188</v>
       </c>
       <c r="FV4" t="n">
-        <v>1067.4580078125</v>
+        <v>919.2619018554688</v>
       </c>
       <c r="FW4" t="n">
-        <v>1054.803466796875</v>
+        <v>757.4801635742188</v>
       </c>
       <c r="FX4" t="n">
-        <v>1028.633911132812</v>
+        <v>735.9292602539062</v>
       </c>
       <c r="FY4" t="n">
-        <v>1025.564331054688</v>
+        <v>688.6131591796875</v>
       </c>
       <c r="FZ4" t="n">
-        <v>1024.435791015625</v>
+        <v>666.2242431640625</v>
       </c>
       <c r="GA4" t="n">
-        <v>1021.990051269531</v>
+        <v>623.4818115234375</v>
       </c>
       <c r="GB4" t="n">
-        <v>992.7203369140625</v>
+        <v>594.5136108398438</v>
       </c>
       <c r="GC4" t="n">
-        <v>984.12841796875</v>
+        <v>552.5433959960938</v>
       </c>
       <c r="GD4" t="n">
-        <v>968.2552490234375</v>
+        <v>534.5267944335938</v>
       </c>
       <c r="GE4" t="n">
-        <v>960.6892700195312</v>
+        <v>522.796875</v>
       </c>
       <c r="GF4" t="n">
-        <v>939.47705078125</v>
+        <v>523.859619140625</v>
       </c>
       <c r="GG4" t="n">
-        <v>909.4517822265625</v>
+        <v>519.0357666015625</v>
       </c>
       <c r="GH4" t="n">
-        <v>879.0243530273438</v>
+        <v>517.328369140625</v>
       </c>
       <c r="GI4" t="n">
-        <v>853.5013427734375</v>
+        <v>518.38720703125</v>
       </c>
       <c r="GJ4" t="n">
-        <v>823.8826904296875</v>
+        <v>519.4906005859375</v>
       </c>
       <c r="GK4" t="n">
-        <v>801.9322509765625</v>
+        <v>524.16748046875</v>
       </c>
       <c r="GL4" t="n">
-        <v>786.8436279296875</v>
+        <v>526.3082885742188</v>
       </c>
       <c r="GM4" t="n">
-        <v>767.4566650390625</v>
+        <v>530.1572265625</v>
       </c>
       <c r="GN4" t="n">
-        <v>731.2415771484375</v>
+        <v>520.4471435546875</v>
       </c>
       <c r="GO4" t="n">
-        <v>700.8370971679688</v>
-      </c>
-      <c r="GP4" t="n">
-        <v>684.1862182617188</v>
-      </c>
-      <c r="GQ4" t="n">
-        <v>654.3261108398438</v>
-      </c>
-      <c r="GR4" t="n">
-        <v>625.851318359375</v>
-      </c>
-      <c r="GS4" t="n">
-        <v>588.7352905273438</v>
-      </c>
-      <c r="GT4" t="n">
-        <v>533.2923583984375</v>
-      </c>
-      <c r="GU4" t="n">
-        <v>499.8839721679688</v>
-      </c>
-      <c r="GV4" t="n">
-        <v>473.8983154296875</v>
-      </c>
-      <c r="GW4" t="n">
-        <v>457.8609313964844</v>
-      </c>
-      <c r="GX4" t="n">
-        <v>450.241455078125</v>
-      </c>
-      <c r="GY4" t="n">
-        <v>444.7119750976562</v>
-      </c>
-      <c r="GZ4" t="n">
-        <v>439.4362487792969</v>
-      </c>
-      <c r="HA4" t="n">
-        <v>438.0121765136719</v>
-      </c>
-      <c r="HB4" t="n">
-        <v>419.6216430664062</v>
-      </c>
-      <c r="HC4" t="n">
-        <v>410.5507507324219</v>
-      </c>
-      <c r="HD4" t="n">
-        <v>451.9075622558594</v>
-      </c>
-      <c r="HE4" t="n">
-        <v>492.4644470214844</v>
-      </c>
-      <c r="HF4" t="n">
-        <v>516.4739379882812</v>
-      </c>
-      <c r="HG4" t="n">
-        <v>528.0158081054688</v>
-      </c>
-      <c r="HH4" t="n">
-        <v>530.5172119140625</v>
-      </c>
-      <c r="HI4" t="n">
-        <v>518.1567993164062</v>
-      </c>
-      <c r="HJ4" t="n">
-        <v>494.1803894042969</v>
-      </c>
-      <c r="HK4" t="n">
-        <v>472.9421997070312</v>
-      </c>
-      <c r="HL4" t="n">
-        <v>400.0323486328125</v>
-      </c>
-      <c r="HM4" t="n">
-        <v>372.0498962402344</v>
-      </c>
-      <c r="HN4" t="n">
-        <v>362.5049438476562</v>
-      </c>
-      <c r="HO4" t="n">
-        <v>367.0587158203125</v>
-      </c>
-      <c r="HP4" t="n">
-        <v>375.6835021972656</v>
-      </c>
-      <c r="HQ4" t="n">
-        <v>380.2711181640625</v>
-      </c>
-      <c r="HR4" t="n">
-        <v>390.2289733886719</v>
-      </c>
-      <c r="HS4" t="n">
-        <v>410.390869140625</v>
-      </c>
-      <c r="HT4" t="n">
-        <v>417.9992065429688</v>
-      </c>
-      <c r="HU4" t="n">
-        <v>429.9573974609375</v>
-      </c>
-      <c r="HV4" t="n">
-        <v>441.0055541992188</v>
-      </c>
-      <c r="HW4" t="n">
-        <v>445.1559448242188</v>
-      </c>
-      <c r="HX4" t="n">
-        <v>442.4941711425781</v>
-      </c>
-      <c r="HY4" t="n">
-        <v>442.1876220703125</v>
-      </c>
-      <c r="HZ4" t="n">
-        <v>440.6893005371094</v>
-      </c>
-      <c r="IA4" t="n">
-        <v>443.369873046875</v>
-      </c>
-      <c r="IB4" t="n">
-        <v>453.0293579101562</v>
-      </c>
-      <c r="IC4" t="n">
-        <v>464.640625</v>
-      </c>
-      <c r="ID4" t="n">
-        <v>466.2676696777344</v>
-      </c>
-      <c r="IE4" t="n">
-        <v>472.7915344238281</v>
-      </c>
-      <c r="IF4" t="n">
-        <v>471.2252807617188</v>
-      </c>
-      <c r="IG4" t="n">
-        <v>470.4834594726562</v>
-      </c>
-      <c r="IH4" t="n">
-        <v>472.3594360351562</v>
-      </c>
-      <c r="II4" t="n">
-        <v>472.847900390625</v>
-      </c>
-      <c r="IJ4" t="n">
-        <v>472.441162109375</v>
-      </c>
-      <c r="IK4" t="n">
-        <v>469.3607788085938</v>
-      </c>
-      <c r="IL4" t="n">
-        <v>468.1500244140625</v>
-      </c>
-      <c r="IM4" t="n">
-        <v>468.6346435546875</v>
-      </c>
-      <c r="IN4" t="n">
-        <v>469.0642700195312</v>
-      </c>
-      <c r="IO4" t="n">
-        <v>469.8856201171875</v>
-      </c>
-      <c r="IP4" t="n">
-        <v>470.2305908203125</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>470.6453857421875</v>
+        <v>508.3478393554688</v>
       </c>
     </row>
   </sheetData>

--- a/left_elbow_Data.xlsx
+++ b/left_elbow_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GO4"/>
+  <dimension ref="A1:JM4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,10 +434,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>START</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="n">
         <v>0</v>
@@ -1025,1786 +1023,2698 @@
         <v>0</v>
       </c>
       <c r="GO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="II1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM1" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>316.2742004394531</v>
       </c>
       <c r="B2" t="n">
-        <v>443.9422302246094</v>
+        <v>315.9382019042969</v>
       </c>
       <c r="C2" t="n">
-        <v>441.2340087890625</v>
+        <v>316.0462646484375</v>
       </c>
       <c r="D2" t="n">
-        <v>441.1314697265625</v>
+        <v>316.1622009277344</v>
       </c>
       <c r="E2" t="n">
-        <v>441.272705078125</v>
+        <v>316.2721862792969</v>
       </c>
       <c r="F2" t="n">
-        <v>441.3867492675781</v>
+        <v>316.3848266601562</v>
       </c>
       <c r="G2" t="n">
-        <v>441.5668334960938</v>
+        <v>316.4710388183594</v>
       </c>
       <c r="H2" t="n">
-        <v>441.2733459472656</v>
+        <v>316.5647583007812</v>
       </c>
       <c r="I2" t="n">
-        <v>441.133056640625</v>
+        <v>316.83837890625</v>
       </c>
       <c r="J2" t="n">
-        <v>441.0531005859375</v>
+        <v>317.0650024414062</v>
       </c>
       <c r="K2" t="n">
-        <v>440.9761047363281</v>
+        <v>317.2526550292969</v>
       </c>
       <c r="L2" t="n">
-        <v>440.8493041992188</v>
+        <v>317.4132690429688</v>
       </c>
       <c r="M2" t="n">
-        <v>440.7485656738281</v>
+        <v>317.7293090820312</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6377563476562</v>
+        <v>318.039794921875</v>
       </c>
       <c r="O2" t="n">
-        <v>440.504150390625</v>
+        <v>318.7345581054688</v>
       </c>
       <c r="P2" t="n">
-        <v>440.35302734375</v>
+        <v>319.59912109375</v>
       </c>
       <c r="Q2" t="n">
-        <v>440.2093811035156</v>
+        <v>319.7124633789062</v>
       </c>
       <c r="R2" t="n">
-        <v>440.08203125</v>
+        <v>320.1392211914062</v>
       </c>
       <c r="S2" t="n">
-        <v>439.9559936523438</v>
+        <v>319.4127197265625</v>
       </c>
       <c r="T2" t="n">
-        <v>439.8458557128906</v>
+        <v>316.4210815429688</v>
       </c>
       <c r="U2" t="n">
-        <v>439.8274230957031</v>
+        <v>304.4541931152344</v>
       </c>
       <c r="V2" t="n">
-        <v>439.8244934082031</v>
+        <v>288.7442626953125</v>
       </c>
       <c r="W2" t="n">
-        <v>439.8137817382812</v>
+        <v>280.7585754394531</v>
       </c>
       <c r="X2" t="n">
-        <v>439.8281860351562</v>
+        <v>276.4406433105469</v>
       </c>
       <c r="Y2" t="n">
-        <v>439.7814331054688</v>
+        <v>275.3138122558594</v>
       </c>
       <c r="Z2" t="n">
-        <v>439.7567749023438</v>
+        <v>273.3989868164062</v>
       </c>
       <c r="AA2" t="n">
-        <v>439.7317199707031</v>
+        <v>270.6730346679688</v>
       </c>
       <c r="AB2" t="n">
-        <v>439.7059631347656</v>
+        <v>266.9906616210938</v>
       </c>
       <c r="AC2" t="n">
-        <v>439.6878662109375</v>
+        <v>263.0846557617188</v>
       </c>
       <c r="AD2" t="n">
-        <v>439.677978515625</v>
+        <v>257.3840026855469</v>
       </c>
       <c r="AE2" t="n">
-        <v>439.6727905273438</v>
+        <v>251.1792602539062</v>
       </c>
       <c r="AF2" t="n">
-        <v>439.6679382324219</v>
+        <v>248.5041961669922</v>
       </c>
       <c r="AG2" t="n">
-        <v>439.6813354492188</v>
+        <v>247.7111511230469</v>
       </c>
       <c r="AH2" t="n">
-        <v>439.6961669921875</v>
+        <v>247.4265747070312</v>
       </c>
       <c r="AI2" t="n">
-        <v>439.7521362304688</v>
+        <v>247.892578125</v>
       </c>
       <c r="AJ2" t="n">
-        <v>439.8068542480469</v>
+        <v>249.9358367919922</v>
       </c>
       <c r="AK2" t="n">
-        <v>439.8397216796875</v>
+        <v>255.5771026611328</v>
       </c>
       <c r="AL2" t="n">
-        <v>440.1086120605469</v>
+        <v>269.3675842285156</v>
       </c>
       <c r="AM2" t="n">
-        <v>440.1244812011719</v>
+        <v>281.3898315429688</v>
       </c>
       <c r="AN2" t="n">
-        <v>440.0255126953125</v>
+        <v>295.9762573242188</v>
       </c>
       <c r="AO2" t="n">
-        <v>439.9241943359375</v>
+        <v>310.4899597167969</v>
       </c>
       <c r="AP2" t="n">
-        <v>439.91943359375</v>
+        <v>320.577880859375</v>
       </c>
       <c r="AQ2" t="n">
-        <v>439.8315124511719</v>
+        <v>327.0186767578125</v>
       </c>
       <c r="AR2" t="n">
-        <v>445.8194580078125</v>
+        <v>335.2202758789062</v>
       </c>
       <c r="AS2" t="n">
-        <v>454.2645874023438</v>
+        <v>341.9713745117188</v>
       </c>
       <c r="AT2" t="n">
-        <v>470.4426879882812</v>
+        <v>348.7500610351562</v>
       </c>
       <c r="AU2" t="n">
-        <v>476.163818359375</v>
+        <v>354.0631103515625</v>
       </c>
       <c r="AV2" t="n">
-        <v>483.0134582519531</v>
+        <v>356.0795593261719</v>
       </c>
       <c r="AW2" t="n">
-        <v>489.224853515625</v>
+        <v>360.3454284667969</v>
       </c>
       <c r="AX2" t="n">
-        <v>494.0631408691406</v>
+        <v>364.1425170898438</v>
       </c>
       <c r="AY2" t="n">
-        <v>497.04638671875</v>
+        <v>366.021484375</v>
       </c>
       <c r="AZ2" t="n">
-        <v>501.4270324707031</v>
+        <v>366.7154235839844</v>
       </c>
       <c r="BA2" t="n">
-        <v>504.9471435546875</v>
+        <v>369.7280578613281</v>
       </c>
       <c r="BB2" t="n">
-        <v>507.466796875</v>
+        <v>370.8319091796875</v>
       </c>
       <c r="BC2" t="n">
-        <v>510.3890686035156</v>
+        <v>372.7450561523438</v>
       </c>
       <c r="BD2" t="n">
-        <v>512.3146362304688</v>
+        <v>375.21826171875</v>
       </c>
       <c r="BE2" t="n">
-        <v>515.5282592773438</v>
+        <v>374.3450622558594</v>
       </c>
       <c r="BF2" t="n">
-        <v>516.593505859375</v>
+        <v>374.2660827636719</v>
       </c>
       <c r="BG2" t="n">
-        <v>516.29248046875</v>
+        <v>375.1092834472656</v>
       </c>
       <c r="BH2" t="n">
-        <v>514.325439453125</v>
+        <v>381.5984802246094</v>
       </c>
       <c r="BI2" t="n">
-        <v>512.37451171875</v>
+        <v>386.748291015625</v>
       </c>
       <c r="BJ2" t="n">
-        <v>501.3932495117188</v>
+        <v>388.4018249511719</v>
       </c>
       <c r="BK2" t="n">
-        <v>492.8201904296875</v>
+        <v>390.3123474121094</v>
       </c>
       <c r="BL2" t="n">
-        <v>486.6505432128906</v>
+        <v>390.8710327148438</v>
       </c>
       <c r="BM2" t="n">
-        <v>473.7433471679688</v>
+        <v>393.0263671875</v>
       </c>
       <c r="BN2" t="n">
-        <v>463.9184265136719</v>
+        <v>397.5545654296875</v>
       </c>
       <c r="BO2" t="n">
-        <v>456.1242370605469</v>
+        <v>397.7410888671875</v>
       </c>
       <c r="BP2" t="n">
-        <v>448.0574951171875</v>
+        <v>398.8528747558594</v>
       </c>
       <c r="BQ2" t="n">
-        <v>439.748046875</v>
+        <v>399.8803100585938</v>
       </c>
       <c r="BR2" t="n">
-        <v>432.4541625976562</v>
+        <v>403.3685913085938</v>
       </c>
       <c r="BS2" t="n">
-        <v>417.5508422851562</v>
+        <v>406.7743530273438</v>
       </c>
       <c r="BT2" t="n">
-        <v>405.3621826171875</v>
+        <v>408.5900573730469</v>
       </c>
       <c r="BU2" t="n">
-        <v>393.4603271484375</v>
+        <v>409.81640625</v>
       </c>
       <c r="BV2" t="n">
-        <v>384.9157104492188</v>
+        <v>411.313720703125</v>
       </c>
       <c r="BW2" t="n">
-        <v>377.1532592773438</v>
+        <v>413.7669372558594</v>
       </c>
       <c r="BX2" t="n">
-        <v>368.6248168945312</v>
+        <v>414.0339660644531</v>
       </c>
       <c r="BY2" t="n">
-        <v>362.0489196777344</v>
+        <v>414.1760559082031</v>
       </c>
       <c r="BZ2" t="n">
-        <v>355.7738647460938</v>
+        <v>414.0516357421875</v>
       </c>
       <c r="CA2" t="n">
-        <v>348.9710998535156</v>
+        <v>414.64013671875</v>
       </c>
       <c r="CB2" t="n">
-        <v>341.92138671875</v>
+        <v>415.0356750488281</v>
       </c>
       <c r="CC2" t="n">
-        <v>337.3821411132812</v>
+        <v>414.5460510253906</v>
       </c>
       <c r="CD2" t="n">
-        <v>334.477783203125</v>
+        <v>415.7003173828125</v>
       </c>
       <c r="CE2" t="n">
-        <v>331.2359008789062</v>
+        <v>415.8984985351562</v>
       </c>
       <c r="CF2" t="n">
-        <v>327.7832641601562</v>
+        <v>415.017578125</v>
       </c>
       <c r="CG2" t="n">
-        <v>326.2338562011719</v>
+        <v>414.1120910644531</v>
       </c>
       <c r="CH2" t="n">
-        <v>325.9068603515625</v>
+        <v>413.0902404785156</v>
       </c>
       <c r="CI2" t="n">
-        <v>326.435791015625</v>
+        <v>412.20068359375</v>
       </c>
       <c r="CJ2" t="n">
-        <v>327.1033325195312</v>
+        <v>411.8995971679688</v>
       </c>
       <c r="CK2" t="n">
-        <v>328.0923156738281</v>
+        <v>411.567626953125</v>
       </c>
       <c r="CL2" t="n">
-        <v>329.5837707519531</v>
+        <v>411.7617797851562</v>
       </c>
       <c r="CM2" t="n">
-        <v>332.6189880371094</v>
+        <v>412.158447265625</v>
       </c>
       <c r="CN2" t="n">
-        <v>343.4430236816406</v>
+        <v>412.41796875</v>
       </c>
       <c r="CO2" t="n">
-        <v>353.1209716796875</v>
+        <v>412.031494140625</v>
       </c>
       <c r="CP2" t="n">
-        <v>360.7855834960938</v>
+        <v>412.1810302734375</v>
       </c>
       <c r="CQ2" t="n">
-        <v>368.418212890625</v>
+        <v>412.0648803710938</v>
       </c>
       <c r="CR2" t="n">
-        <v>386.0440673828125</v>
+        <v>411.9772033691406</v>
       </c>
       <c r="CS2" t="n">
-        <v>391.3119812011719</v>
+        <v>411.6485290527344</v>
       </c>
       <c r="CT2" t="n">
-        <v>399.9755249023438</v>
+        <v>410.8539123535156</v>
       </c>
       <c r="CU2" t="n">
-        <v>406.703125</v>
+        <v>409.666259765625</v>
       </c>
       <c r="CV2" t="n">
-        <v>415.8131103515625</v>
+        <v>409.2077331542969</v>
       </c>
       <c r="CW2" t="n">
-        <v>422.0335388183594</v>
+        <v>410.6329956054688</v>
       </c>
       <c r="CX2" t="n">
-        <v>429.7379150390625</v>
+        <v>411.6198120117188</v>
       </c>
       <c r="CY2" t="n">
-        <v>435.8764953613281</v>
+        <v>413.3692016601562</v>
       </c>
       <c r="CZ2" t="n">
-        <v>442.3866271972656</v>
+        <v>414.4049377441406</v>
       </c>
       <c r="DA2" t="n">
-        <v>449.1300659179688</v>
+        <v>415.9710083007812</v>
       </c>
       <c r="DB2" t="n">
-        <v>463.4194946289062</v>
+        <v>416.5452880859375</v>
       </c>
       <c r="DC2" t="n">
-        <v>467.9024963378906</v>
+        <v>417.8700256347656</v>
       </c>
       <c r="DD2" t="n">
-        <v>471.90283203125</v>
+        <v>419.3750610351562</v>
       </c>
       <c r="DE2" t="n">
-        <v>475.1435852050781</v>
+        <v>419.6301879882812</v>
       </c>
       <c r="DF2" t="n">
-        <v>477.9794006347656</v>
+        <v>419.3020324707031</v>
       </c>
       <c r="DG2" t="n">
-        <v>483.1867065429688</v>
+        <v>419.4027709960938</v>
       </c>
       <c r="DH2" t="n">
-        <v>486.4096374511719</v>
+        <v>419.9129638671875</v>
       </c>
       <c r="DI2" t="n">
-        <v>488.8973693847656</v>
+        <v>421.1339721679688</v>
       </c>
       <c r="DJ2" t="n">
-        <v>492.0708618164062</v>
+        <v>422.0800170898438</v>
       </c>
       <c r="DK2" t="n">
-        <v>493.90380859375</v>
+        <v>422.5993347167969</v>
       </c>
       <c r="DL2" t="n">
-        <v>495.2682495117188</v>
+        <v>422.9175415039062</v>
       </c>
       <c r="DM2" t="n">
-        <v>496.0483093261719</v>
+        <v>423.0879211425781</v>
       </c>
       <c r="DN2" t="n">
-        <v>496.992919921875</v>
+        <v>423.1928100585938</v>
       </c>
       <c r="DO2" t="n">
-        <v>492.5747375488281</v>
+        <v>423.424560546875</v>
       </c>
       <c r="DP2" t="n">
-        <v>486.1860961914062</v>
+        <v>423.2958984375</v>
       </c>
       <c r="DQ2" t="n">
-        <v>473.4707946777344</v>
+        <v>423.2786560058594</v>
       </c>
       <c r="DR2" t="n">
-        <v>467.7368469238281</v>
+        <v>423.3374633789062</v>
       </c>
       <c r="DS2" t="n">
-        <v>463.7157897949219</v>
+        <v>423.4333801269531</v>
       </c>
       <c r="DT2" t="n">
-        <v>452.0416564941406</v>
+        <v>423.4353332519531</v>
       </c>
       <c r="DU2" t="n">
-        <v>447.8569030761719</v>
+        <v>423.4773559570312</v>
       </c>
       <c r="DV2" t="n">
-        <v>444.4898071289062</v>
+        <v>423.5562744140625</v>
       </c>
       <c r="DW2" t="n">
-        <v>439.7084045410156</v>
+        <v>423.7091674804688</v>
       </c>
       <c r="DX2" t="n">
-        <v>432.328125</v>
+        <v>423.9935913085938</v>
       </c>
       <c r="DY2" t="n">
-        <v>425.3743286132812</v>
+        <v>423.9973449707031</v>
       </c>
       <c r="DZ2" t="n">
-        <v>421.52392578125</v>
+        <v>421.3022155761719</v>
       </c>
       <c r="EA2" t="n">
-        <v>412.6130981445312</v>
+        <v>420.0528564453125</v>
       </c>
       <c r="EB2" t="n">
-        <v>410.3324584960938</v>
+        <v>417.8463134765625</v>
       </c>
       <c r="EC2" t="n">
-        <v>406.6560668945312</v>
+        <v>414.6547241210938</v>
       </c>
       <c r="ED2" t="n">
-        <v>412.34521484375</v>
+        <v>412.3234558105469</v>
       </c>
       <c r="EE2" t="n">
-        <v>426.3416137695312</v>
+        <v>407.593017578125</v>
       </c>
       <c r="EF2" t="n">
-        <v>433.5901489257812</v>
+        <v>404.0657348632812</v>
       </c>
       <c r="EG2" t="n">
-        <v>446.5798645019531</v>
+        <v>401.3338012695312</v>
       </c>
       <c r="EH2" t="n">
-        <v>436.7212219238281</v>
+        <v>399.9273376464844</v>
       </c>
       <c r="EI2" t="n">
-        <v>434.6046447753906</v>
+        <v>396.4282836914062</v>
       </c>
       <c r="EJ2" t="n">
-        <v>438.3655395507812</v>
+        <v>389.4979248046875</v>
       </c>
       <c r="EK2" t="n">
-        <v>446.5217590332031</v>
+        <v>388.7852478027344</v>
       </c>
       <c r="EL2" t="n">
-        <v>449.1892700195312</v>
+        <v>388.2625732421875</v>
       </c>
       <c r="EM2" t="n">
-        <v>452.1655883789062</v>
+        <v>387.1043395996094</v>
       </c>
       <c r="EN2" t="n">
-        <v>453.2713623046875</v>
+        <v>388.2069396972656</v>
       </c>
       <c r="EO2" t="n">
-        <v>454.9720764160156</v>
+        <v>388.1216430664062</v>
       </c>
       <c r="EP2" t="n">
-        <v>457.9654541015625</v>
+        <v>388.1016540527344</v>
       </c>
       <c r="EQ2" t="n">
-        <v>459.4578247070312</v>
+        <v>388.2110290527344</v>
       </c>
       <c r="ER2" t="n">
-        <v>459.5743103027344</v>
+        <v>388.5564880371094</v>
       </c>
       <c r="ES2" t="n">
-        <v>459.248291015625</v>
+        <v>388.6080322265625</v>
       </c>
       <c r="ET2" t="n">
-        <v>455.5194702148438</v>
+        <v>388.1885070800781</v>
       </c>
       <c r="EU2" t="n">
-        <v>455.8081359863281</v>
+        <v>388.1279907226562</v>
       </c>
       <c r="EV2" t="n">
-        <v>449.8221435546875</v>
+        <v>388.205078125</v>
       </c>
       <c r="EW2" t="n">
-        <v>436.8732299804688</v>
+        <v>388.4219360351562</v>
       </c>
       <c r="EX2" t="n">
-        <v>437.5976867675781</v>
+        <v>388.7067260742188</v>
       </c>
       <c r="EY2" t="n">
-        <v>437.3668212890625</v>
+        <v>389.1684265136719</v>
       </c>
       <c r="EZ2" t="n">
-        <v>430.457763671875</v>
+        <v>390.1112060546875</v>
       </c>
       <c r="FA2" t="n">
-        <v>407.671875</v>
+        <v>390.7748413085938</v>
       </c>
       <c r="FB2" t="n">
-        <v>393.1381530761719</v>
+        <v>390.9784545898438</v>
       </c>
       <c r="FC2" t="n">
-        <v>333.4288940429688</v>
+        <v>391.1563720703125</v>
       </c>
       <c r="FD2" t="n">
-        <v>333.8400268554688</v>
+        <v>391.520263671875</v>
       </c>
       <c r="FE2" t="n">
-        <v>333.2724609375</v>
+        <v>391.913818359375</v>
       </c>
       <c r="FF2" t="n">
-        <v>332.9881591796875</v>
+        <v>391.5891723632812</v>
       </c>
       <c r="FG2" t="n">
-        <v>337.3659057617188</v>
+        <v>391.4579772949219</v>
       </c>
       <c r="FH2" t="n">
-        <v>348.8458251953125</v>
+        <v>390.8299560546875</v>
       </c>
       <c r="FI2" t="n">
-        <v>357.34423828125</v>
+        <v>390.5957641601562</v>
       </c>
       <c r="FJ2" t="n">
-        <v>369.7570495605469</v>
+        <v>390.6338195800781</v>
       </c>
       <c r="FK2" t="n">
-        <v>425.2216186523438</v>
+        <v>390.6472473144531</v>
       </c>
       <c r="FL2" t="n">
-        <v>429.9546813964844</v>
+        <v>390.6270751953125</v>
       </c>
       <c r="FM2" t="n">
-        <v>408.72802734375</v>
+        <v>390.6857299804688</v>
       </c>
       <c r="FN2" t="n">
-        <v>422.0905151367188</v>
+        <v>390.7277221679688</v>
       </c>
       <c r="FO2" t="n">
-        <v>429.4702758789062</v>
+        <v>390.73388671875</v>
       </c>
       <c r="FP2" t="n">
-        <v>433.0747680664062</v>
+        <v>390.761474609375</v>
       </c>
       <c r="FQ2" t="n">
-        <v>442.2806091308594</v>
+        <v>390.7647094726562</v>
       </c>
       <c r="FR2" t="n">
-        <v>446.8494262695312</v>
+        <v>390.8275756835938</v>
       </c>
       <c r="FS2" t="n">
-        <v>453.6904296875</v>
+        <v>390.8519287109375</v>
       </c>
       <c r="FT2" t="n">
-        <v>459.9582214355469</v>
+        <v>390.8388977050781</v>
       </c>
       <c r="FU2" t="n">
-        <v>465.2905883789062</v>
+        <v>390.8327026367188</v>
       </c>
       <c r="FV2" t="n">
-        <v>467.287353515625</v>
+        <v>390.9747924804688</v>
       </c>
       <c r="FW2" t="n">
-        <v>513.9169921875</v>
+        <v>391.4192199707031</v>
       </c>
       <c r="FX2" t="n">
-        <v>519.993408203125</v>
+        <v>391.36376953125</v>
       </c>
       <c r="FY2" t="n">
-        <v>530.1310424804688</v>
+        <v>389.93505859375</v>
       </c>
       <c r="FZ2" t="n">
-        <v>530.9009399414062</v>
+        <v>388.383544921875</v>
       </c>
       <c r="GA2" t="n">
-        <v>516.6834716796875</v>
+        <v>387.4219055175781</v>
       </c>
       <c r="GB2" t="n">
-        <v>514.536376953125</v>
+        <v>387.8411254882812</v>
       </c>
       <c r="GC2" t="n">
-        <v>506.0498657226562</v>
+        <v>387.77685546875</v>
       </c>
       <c r="GD2" t="n">
-        <v>502.08837890625</v>
+        <v>386.9244384765625</v>
       </c>
       <c r="GE2" t="n">
-        <v>479.7346801757812</v>
+        <v>386.9900512695312</v>
       </c>
       <c r="GF2" t="n">
-        <v>458.26220703125</v>
+        <v>395.6610107421875</v>
       </c>
       <c r="GG2" t="n">
-        <v>440.4625854492188</v>
+        <v>401.8111572265625</v>
       </c>
       <c r="GH2" t="n">
-        <v>441.8725280761719</v>
+        <v>409.6033020019531</v>
       </c>
       <c r="GI2" t="n">
-        <v>441.1405639648438</v>
+        <v>414.8137817382812</v>
       </c>
       <c r="GJ2" t="n">
-        <v>438.8131103515625</v>
+        <v>417.6808471679688</v>
       </c>
       <c r="GK2" t="n">
-        <v>432.7941589355469</v>
+        <v>420.4642028808594</v>
       </c>
       <c r="GL2" t="n">
-        <v>429.1954956054688</v>
+        <v>422.257568359375</v>
       </c>
       <c r="GM2" t="n">
-        <v>430.6649169921875</v>
+        <v>422.4051513671875</v>
       </c>
       <c r="GN2" t="n">
-        <v>438.5656127929688</v>
+        <v>421.6720886230469</v>
       </c>
       <c r="GO2" t="n">
-        <v>449.5670166015625</v>
+        <v>420.966796875</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>416.7822875976562</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>411.4053955078125</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>407.7853088378906</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>404.2912292480469</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>398.5250244140625</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>395.8153991699219</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>385.0549926757812</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>378.6400756835938</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>378.408935546875</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>377.5927124023438</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>375.0400085449219</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>374.2716064453125</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>373.7486572265625</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>373.9149780273438</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>373.94189453125</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>373.2803955078125</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>373.8161926269531</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>375.3191833496094</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>376.4675598144531</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>378.2373657226562</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>377.5372924804688</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>373.2485656738281</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>374.537109375</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>376.0522766113281</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>376.4874877929688</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>376.5762939453125</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>377.34619140625</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>377.7783508300781</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>376.9839782714844</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>376.9800415039062</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>374.4964599609375</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>371.2971801757812</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>369.3528442382812</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>364.4033203125</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>361.2655334472656</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>359.7301635742188</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>356.5975341796875</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>354.481201171875</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>356.0057373046875</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>357.06298828125</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>361.0903930664062</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>366.7865600585938</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>374.5394592285156</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>387.2406616210938</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>397.037109375</v>
+      </c>
+      <c r="II2" t="n">
+        <v>405.324951171875</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>414.3887329101562</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>414.7614135742188</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>357.150634765625</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>320.5000305175781</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>295.9362487792969</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>389.3074951171875</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>348.4989929199219</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>247.3156127929688</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>220.946044921875</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>215.4324645996094</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>322.0715637207031</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>304.8012084960938</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>333.5900573730469</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>310.9146423339844</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>319.4284057617188</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>325.1037292480469</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>332.7167053222656</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>334.0119018554688</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>333.1015319824219</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>319.0714721679688</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>307.456298828125</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>303.80029296875</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>296.6046447753906</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>283.1757507324219</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>273.084716796875</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>286.2358703613281</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>303.3663330078125</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>304.9884948730469</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>307.8225708007812</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>335.7686767578125</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>286.9312438964844</v>
       </c>
       <c r="B3" t="n">
-        <v>419.4684143066406</v>
+        <v>286.7286376953125</v>
       </c>
       <c r="C3" t="n">
-        <v>415.1135864257812</v>
+        <v>286.6819458007812</v>
       </c>
       <c r="D3" t="n">
-        <v>413.2482604980469</v>
+        <v>286.6658935546875</v>
       </c>
       <c r="E3" t="n">
-        <v>411.7821960449219</v>
+        <v>286.6637878417969</v>
       </c>
       <c r="F3" t="n">
-        <v>410.8215942382812</v>
+        <v>286.6676025390625</v>
       </c>
       <c r="G3" t="n">
-        <v>410.07958984375</v>
+        <v>286.6761169433594</v>
       </c>
       <c r="H3" t="n">
-        <v>409.5545654296875</v>
+        <v>286.7017822265625</v>
       </c>
       <c r="I3" t="n">
-        <v>409.1255493164062</v>
+        <v>286.7256164550781</v>
       </c>
       <c r="J3" t="n">
-        <v>408.7679138183594</v>
+        <v>286.7642211914062</v>
       </c>
       <c r="K3" t="n">
-        <v>408.4740600585938</v>
+        <v>286.8002014160156</v>
       </c>
       <c r="L3" t="n">
-        <v>408.2232971191406</v>
+        <v>286.7494201660156</v>
       </c>
       <c r="M3" t="n">
-        <v>408.0101013183594</v>
+        <v>286.6720581054688</v>
       </c>
       <c r="N3" t="n">
-        <v>407.8265686035156</v>
+        <v>286.5950012207031</v>
       </c>
       <c r="O3" t="n">
-        <v>407.6700439453125</v>
+        <v>286.4136962890625</v>
       </c>
       <c r="P3" t="n">
-        <v>407.5321655273438</v>
+        <v>285.9184265136719</v>
       </c>
       <c r="Q3" t="n">
-        <v>407.3978576660156</v>
+        <v>284.9150695800781</v>
       </c>
       <c r="R3" t="n">
-        <v>407.2695007324219</v>
+        <v>281.9464721679688</v>
       </c>
       <c r="S3" t="n">
-        <v>407.1500549316406</v>
+        <v>277.7384948730469</v>
       </c>
       <c r="T3" t="n">
-        <v>407.0357055664062</v>
+        <v>273.4366455078125</v>
       </c>
       <c r="U3" t="n">
-        <v>406.8982543945312</v>
+        <v>272.1886596679688</v>
       </c>
       <c r="V3" t="n">
-        <v>406.7699890136719</v>
+        <v>267.1563110351562</v>
       </c>
       <c r="W3" t="n">
-        <v>406.6381530761719</v>
+        <v>263.7200012207031</v>
       </c>
       <c r="X3" t="n">
-        <v>406.5045166015625</v>
+        <v>265.4202575683594</v>
       </c>
       <c r="Y3" t="n">
-        <v>406.3897094726562</v>
+        <v>266.6446228027344</v>
       </c>
       <c r="Z3" t="n">
-        <v>406.2809753417969</v>
+        <v>267.7624816894531</v>
       </c>
       <c r="AA3" t="n">
-        <v>406.1721496582031</v>
+        <v>266.3134460449219</v>
       </c>
       <c r="AB3" t="n">
-        <v>406.0652465820312</v>
+        <v>265.11474609375</v>
       </c>
       <c r="AC3" t="n">
-        <v>405.9543151855469</v>
+        <v>265.3709411621094</v>
       </c>
       <c r="AD3" t="n">
-        <v>405.839111328125</v>
+        <v>264.4459838867188</v>
       </c>
       <c r="AE3" t="n">
-        <v>405.7305297851562</v>
+        <v>265.5357971191406</v>
       </c>
       <c r="AF3" t="n">
-        <v>405.6154174804688</v>
+        <v>267.6694030761719</v>
       </c>
       <c r="AG3" t="n">
-        <v>405.4847412109375</v>
+        <v>270.6798095703125</v>
       </c>
       <c r="AH3" t="n">
-        <v>405.3617858886719</v>
+        <v>273.1718444824219</v>
       </c>
       <c r="AI3" t="n">
-        <v>405.2339172363281</v>
+        <v>275.0095825195312</v>
       </c>
       <c r="AJ3" t="n">
-        <v>405.1087951660156</v>
+        <v>276.6421203613281</v>
       </c>
       <c r="AK3" t="n">
-        <v>404.9857482910156</v>
+        <v>278.3231811523438</v>
       </c>
       <c r="AL3" t="n">
-        <v>404.7181396484375</v>
+        <v>282.0016784667969</v>
       </c>
       <c r="AM3" t="n">
-        <v>404.5109252929688</v>
+        <v>285.0144653320312</v>
       </c>
       <c r="AN3" t="n">
-        <v>404.3887023925781</v>
+        <v>282.9804077148438</v>
       </c>
       <c r="AO3" t="n">
-        <v>404.2535095214844</v>
+        <v>285.7900390625</v>
       </c>
       <c r="AP3" t="n">
-        <v>403.8331909179688</v>
+        <v>282.8658142089844</v>
       </c>
       <c r="AQ3" t="n">
-        <v>402.162841796875</v>
+        <v>282.4191284179688</v>
       </c>
       <c r="AR3" t="n">
-        <v>404.1343078613281</v>
+        <v>280.002685546875</v>
       </c>
       <c r="AS3" t="n">
-        <v>404.8056640625</v>
+        <v>281.8396911621094</v>
       </c>
       <c r="AT3" t="n">
-        <v>402.6557006835938</v>
+        <v>286.2605285644531</v>
       </c>
       <c r="AU3" t="n">
-        <v>402.1334533691406</v>
+        <v>293.4314270019531</v>
       </c>
       <c r="AV3" t="n">
-        <v>402.8698425292969</v>
+        <v>295.5709533691406</v>
       </c>
       <c r="AW3" t="n">
-        <v>401.2987060546875</v>
+        <v>296.8462829589844</v>
       </c>
       <c r="AX3" t="n">
-        <v>402.982177734375</v>
+        <v>297.2931823730469</v>
       </c>
       <c r="AY3" t="n">
-        <v>401.3623046875</v>
+        <v>298.376708984375</v>
       </c>
       <c r="AZ3" t="n">
-        <v>397.8075256347656</v>
+        <v>299.0552673339844</v>
       </c>
       <c r="BA3" t="n">
-        <v>394.4721984863281</v>
+        <v>298.2440490722656</v>
       </c>
       <c r="BB3" t="n">
-        <v>392.4818115234375</v>
+        <v>296.9220886230469</v>
       </c>
       <c r="BC3" t="n">
-        <v>391.9031677246094</v>
+        <v>294.7135620117188</v>
       </c>
       <c r="BD3" t="n">
-        <v>390.951416015625</v>
+        <v>293.1090698242188</v>
       </c>
       <c r="BE3" t="n">
-        <v>390.9495239257812</v>
+        <v>293.5162048339844</v>
       </c>
       <c r="BF3" t="n">
-        <v>390.8392333984375</v>
+        <v>292.4654541015625</v>
       </c>
       <c r="BG3" t="n">
-        <v>390.901611328125</v>
+        <v>290.3440246582031</v>
       </c>
       <c r="BH3" t="n">
-        <v>389.73583984375</v>
+        <v>288.9139404296875</v>
       </c>
       <c r="BI3" t="n">
-        <v>389.1678161621094</v>
+        <v>287.94970703125</v>
       </c>
       <c r="BJ3" t="n">
-        <v>391.8007202148438</v>
+        <v>287.6275634765625</v>
       </c>
       <c r="BK3" t="n">
-        <v>395.8256225585938</v>
+        <v>287.9221496582031</v>
       </c>
       <c r="BL3" t="n">
-        <v>396.4031372070312</v>
+        <v>289.3535461425781</v>
       </c>
       <c r="BM3" t="n">
-        <v>394.315185546875</v>
+        <v>289.8580017089844</v>
       </c>
       <c r="BN3" t="n">
-        <v>394.5336303710938</v>
+        <v>289.0108642578125</v>
       </c>
       <c r="BO3" t="n">
-        <v>394.2606811523438</v>
+        <v>290.2275390625</v>
       </c>
       <c r="BP3" t="n">
-        <v>395.7213745117188</v>
+        <v>291.9968872070312</v>
       </c>
       <c r="BQ3" t="n">
-        <v>396.5181884765625</v>
+        <v>292.7338256835938</v>
       </c>
       <c r="BR3" t="n">
-        <v>394.7832946777344</v>
+        <v>292.8341064453125</v>
       </c>
       <c r="BS3" t="n">
-        <v>395.2405395507812</v>
+        <v>291.1958312988281</v>
       </c>
       <c r="BT3" t="n">
-        <v>393.8601379394531</v>
+        <v>293.504150390625</v>
       </c>
       <c r="BU3" t="n">
-        <v>391.564697265625</v>
+        <v>293.4649353027344</v>
       </c>
       <c r="BV3" t="n">
-        <v>388.9942932128906</v>
+        <v>294.3787231445312</v>
       </c>
       <c r="BW3" t="n">
-        <v>387.6015014648438</v>
+        <v>293.5515441894531</v>
       </c>
       <c r="BX3" t="n">
-        <v>385.8280029296875</v>
+        <v>294.1758422851562</v>
       </c>
       <c r="BY3" t="n">
-        <v>386.0722045898438</v>
+        <v>295.099365234375</v>
       </c>
       <c r="BZ3" t="n">
-        <v>384.753173828125</v>
+        <v>295.1504821777344</v>
       </c>
       <c r="CA3" t="n">
-        <v>386.5044250488281</v>
+        <v>294.9587097167969</v>
       </c>
       <c r="CB3" t="n">
-        <v>385.7132263183594</v>
+        <v>295.1728820800781</v>
       </c>
       <c r="CC3" t="n">
-        <v>386.5745239257812</v>
+        <v>294.8720092773438</v>
       </c>
       <c r="CD3" t="n">
-        <v>385.1160583496094</v>
+        <v>293.9125061035156</v>
       </c>
       <c r="CE3" t="n">
-        <v>384.9149475097656</v>
+        <v>293.9261169433594</v>
       </c>
       <c r="CF3" t="n">
-        <v>385.7833862304688</v>
+        <v>292.6830444335938</v>
       </c>
       <c r="CG3" t="n">
-        <v>385.2916564941406</v>
+        <v>292.970458984375</v>
       </c>
       <c r="CH3" t="n">
-        <v>385.8070678710938</v>
+        <v>292.822509765625</v>
       </c>
       <c r="CI3" t="n">
-        <v>385.3309631347656</v>
+        <v>292.80419921875</v>
       </c>
       <c r="CJ3" t="n">
-        <v>384.2601623535156</v>
+        <v>293.6513366699219</v>
       </c>
       <c r="CK3" t="n">
-        <v>383.5408325195312</v>
+        <v>293.3304748535156</v>
       </c>
       <c r="CL3" t="n">
-        <v>383.2439575195312</v>
+        <v>294.2773132324219</v>
       </c>
       <c r="CM3" t="n">
-        <v>382.6233520507812</v>
+        <v>295.0214233398438</v>
       </c>
       <c r="CN3" t="n">
-        <v>380.4715576171875</v>
+        <v>295.6564331054688</v>
       </c>
       <c r="CO3" t="n">
-        <v>378.0115661621094</v>
+        <v>295.139892578125</v>
       </c>
       <c r="CP3" t="n">
-        <v>378.1854553222656</v>
+        <v>295.910888671875</v>
       </c>
       <c r="CQ3" t="n">
-        <v>380.8433227539062</v>
+        <v>295.8442687988281</v>
       </c>
       <c r="CR3" t="n">
-        <v>382.6859741210938</v>
+        <v>296.1653442382812</v>
       </c>
       <c r="CS3" t="n">
-        <v>384.6820983886719</v>
+        <v>295.5668640136719</v>
       </c>
       <c r="CT3" t="n">
-        <v>384.8706665039062</v>
+        <v>295.4385375976562</v>
       </c>
       <c r="CU3" t="n">
-        <v>387.3839111328125</v>
+        <v>294.7809753417969</v>
       </c>
       <c r="CV3" t="n">
-        <v>387.2335510253906</v>
+        <v>294.7677917480469</v>
       </c>
       <c r="CW3" t="n">
-        <v>388.6494750976562</v>
+        <v>293.3577270507812</v>
       </c>
       <c r="CX3" t="n">
-        <v>388.2084350585938</v>
+        <v>290.530517578125</v>
       </c>
       <c r="CY3" t="n">
-        <v>387.6443786621094</v>
+        <v>286.4145812988281</v>
       </c>
       <c r="CZ3" t="n">
-        <v>389.0478820800781</v>
+        <v>284.8564147949219</v>
       </c>
       <c r="DA3" t="n">
-        <v>388.4142150878906</v>
+        <v>280.948974609375</v>
       </c>
       <c r="DB3" t="n">
-        <v>389.4624328613281</v>
+        <v>279.8653869628906</v>
       </c>
       <c r="DC3" t="n">
-        <v>389.4120788574219</v>
+        <v>278.3688659667969</v>
       </c>
       <c r="DD3" t="n">
-        <v>390.6393737792969</v>
+        <v>275.8783264160156</v>
       </c>
       <c r="DE3" t="n">
-        <v>391.8660888671875</v>
+        <v>273.9365234375</v>
       </c>
       <c r="DF3" t="n">
-        <v>392.9669189453125</v>
+        <v>272.3331298828125</v>
       </c>
       <c r="DG3" t="n">
-        <v>393.7462768554688</v>
+        <v>270.2915954589844</v>
       </c>
       <c r="DH3" t="n">
-        <v>397.5340881347656</v>
+        <v>266.531494140625</v>
       </c>
       <c r="DI3" t="n">
-        <v>399.3287353515625</v>
+        <v>263.9893188476562</v>
       </c>
       <c r="DJ3" t="n">
-        <v>401.283203125</v>
+        <v>261.4461975097656</v>
       </c>
       <c r="DK3" t="n">
-        <v>402.857421875</v>
+        <v>259.1650085449219</v>
       </c>
       <c r="DL3" t="n">
-        <v>404.4016723632812</v>
+        <v>257.3433227539062</v>
       </c>
       <c r="DM3" t="n">
-        <v>405.5965881347656</v>
+        <v>255.9272918701172</v>
       </c>
       <c r="DN3" t="n">
-        <v>404.0421447753906</v>
+        <v>254.4351806640625</v>
       </c>
       <c r="DO3" t="n">
-        <v>400.2669372558594</v>
+        <v>250.9679565429688</v>
       </c>
       <c r="DP3" t="n">
-        <v>398.1225280761719</v>
+        <v>250.10791015625</v>
       </c>
       <c r="DQ3" t="n">
-        <v>386.4736022949219</v>
+        <v>249.0784912109375</v>
       </c>
       <c r="DR3" t="n">
-        <v>378.9798889160156</v>
+        <v>248.5289916992188</v>
       </c>
       <c r="DS3" t="n">
-        <v>372.1420593261719</v>
+        <v>247.8245849609375</v>
       </c>
       <c r="DT3" t="n">
-        <v>355.6357421875</v>
+        <v>247.5119018554688</v>
       </c>
       <c r="DU3" t="n">
-        <v>349.3732604980469</v>
+        <v>247.1143951416016</v>
       </c>
       <c r="DV3" t="n">
-        <v>340.6252136230469</v>
+        <v>246.6812286376953</v>
       </c>
       <c r="DW3" t="n">
-        <v>326.2816772460938</v>
+        <v>246.3902893066406</v>
       </c>
       <c r="DX3" t="n">
-        <v>320.8753051757812</v>
+        <v>246.7433166503906</v>
       </c>
       <c r="DY3" t="n">
-        <v>313.6549377441406</v>
+        <v>247.480224609375</v>
       </c>
       <c r="DZ3" t="n">
-        <v>312.6538391113281</v>
+        <v>257.2402038574219</v>
       </c>
       <c r="EA3" t="n">
-        <v>312.5184326171875</v>
+        <v>261.5702514648438</v>
       </c>
       <c r="EB3" t="n">
-        <v>320.1268615722656</v>
+        <v>266.4894714355469</v>
       </c>
       <c r="EC3" t="n">
-        <v>327.1747131347656</v>
+        <v>271.9688415527344</v>
       </c>
       <c r="ED3" t="n">
-        <v>343.5350646972656</v>
+        <v>274.3604736328125</v>
       </c>
       <c r="EE3" t="n">
-        <v>359.3727722167969</v>
+        <v>280.8416748046875</v>
       </c>
       <c r="EF3" t="n">
-        <v>363.7528686523438</v>
+        <v>286.0198669433594</v>
       </c>
       <c r="EG3" t="n">
-        <v>379.1851501464844</v>
+        <v>289.3665161132812</v>
       </c>
       <c r="EH3" t="n">
-        <v>389.6072692871094</v>
+        <v>290.9639282226562</v>
       </c>
       <c r="EI3" t="n">
-        <v>393.0409545898438</v>
+        <v>293.3252868652344</v>
       </c>
       <c r="EJ3" t="n">
-        <v>394.0627136230469</v>
+        <v>296.1748962402344</v>
       </c>
       <c r="EK3" t="n">
-        <v>399.5563354492188</v>
+        <v>295.66748046875</v>
       </c>
       <c r="EL3" t="n">
-        <v>402.2443542480469</v>
+        <v>295.0202941894531</v>
       </c>
       <c r="EM3" t="n">
-        <v>402.4582824707031</v>
+        <v>295.5458984375</v>
       </c>
       <c r="EN3" t="n">
-        <v>401.768798828125</v>
+        <v>296.7860717773438</v>
       </c>
       <c r="EO3" t="n">
-        <v>400.8303833007812</v>
+        <v>296.9662780761719</v>
       </c>
       <c r="EP3" t="n">
-        <v>398.2847595214844</v>
+        <v>296.8052062988281</v>
       </c>
       <c r="EQ3" t="n">
-        <v>396.5591735839844</v>
+        <v>296.7928161621094</v>
       </c>
       <c r="ER3" t="n">
-        <v>396.6365356445312</v>
+        <v>297.0335693359375</v>
       </c>
       <c r="ES3" t="n">
-        <v>395.9858093261719</v>
+        <v>297.4052429199219</v>
       </c>
       <c r="ET3" t="n">
-        <v>402.0431213378906</v>
+        <v>298.4594421386719</v>
       </c>
       <c r="EU3" t="n">
-        <v>407.2599487304688</v>
+        <v>299.17822265625</v>
       </c>
       <c r="EV3" t="n">
-        <v>408.4528198242188</v>
+        <v>299.7180786132812</v>
       </c>
       <c r="EW3" t="n">
-        <v>416.6406860351562</v>
+        <v>300.3172302246094</v>
       </c>
       <c r="EX3" t="n">
-        <v>413.9346313476562</v>
+        <v>300.4094848632812</v>
       </c>
       <c r="EY3" t="n">
-        <v>411.8330993652344</v>
+        <v>300.4046020507812</v>
       </c>
       <c r="EZ3" t="n">
-        <v>416.2799682617188</v>
+        <v>300.2824096679688</v>
       </c>
       <c r="FA3" t="n">
-        <v>434.0039367675781</v>
+        <v>299.9136352539062</v>
       </c>
       <c r="FB3" t="n">
-        <v>443.0852966308594</v>
+        <v>299.9053649902344</v>
       </c>
       <c r="FC3" t="n">
-        <v>447.91162109375</v>
+        <v>299.8486022949219</v>
       </c>
       <c r="FD3" t="n">
-        <v>443.7624206542969</v>
+        <v>299.6438598632812</v>
       </c>
       <c r="FE3" t="n">
-        <v>437.2935180664062</v>
+        <v>299.2792053222656</v>
       </c>
       <c r="FF3" t="n">
-        <v>434.4411010742188</v>
+        <v>299.1605224609375</v>
       </c>
       <c r="FG3" t="n">
-        <v>428.9023742675781</v>
+        <v>299.3070983886719</v>
       </c>
       <c r="FH3" t="n">
-        <v>429.5931091308594</v>
+        <v>298.9474792480469</v>
       </c>
       <c r="FI3" t="n">
-        <v>430.10498046875</v>
+        <v>298.7298889160156</v>
       </c>
       <c r="FJ3" t="n">
-        <v>432.2022705078125</v>
+        <v>298.7494506835938</v>
       </c>
       <c r="FK3" t="n">
-        <v>434.5897827148438</v>
+        <v>298.6022338867188</v>
       </c>
       <c r="FL3" t="n">
-        <v>433.6548156738281</v>
+        <v>298.4462280273438</v>
       </c>
       <c r="FM3" t="n">
-        <v>433.2748107910156</v>
+        <v>298.5238952636719</v>
       </c>
       <c r="FN3" t="n">
-        <v>433.9226684570312</v>
+        <v>298.5375671386719</v>
       </c>
       <c r="FO3" t="n">
-        <v>432.7097778320312</v>
+        <v>298.5555114746094</v>
       </c>
       <c r="FP3" t="n">
-        <v>432.8982238769531</v>
+        <v>298.5828552246094</v>
       </c>
       <c r="FQ3" t="n">
-        <v>430.5850830078125</v>
+        <v>298.6096801757812</v>
       </c>
       <c r="FR3" t="n">
-        <v>431.1180114746094</v>
+        <v>298.5806274414062</v>
       </c>
       <c r="FS3" t="n">
-        <v>427.9028015136719</v>
+        <v>298.3214111328125</v>
       </c>
       <c r="FT3" t="n">
-        <v>426.6666870117188</v>
+        <v>298.2957763671875</v>
       </c>
       <c r="FU3" t="n">
-        <v>425.1383972167969</v>
+        <v>298.1285705566406</v>
       </c>
       <c r="FV3" t="n">
-        <v>424.7325134277344</v>
+        <v>298.1741333007812</v>
       </c>
       <c r="FW3" t="n">
-        <v>439.0795288085938</v>
+        <v>298.5668029785156</v>
       </c>
       <c r="FX3" t="n">
-        <v>435.9789428710938</v>
+        <v>298.6379699707031</v>
       </c>
       <c r="FY3" t="n">
-        <v>436.6517944335938</v>
+        <v>298.8746032714844</v>
       </c>
       <c r="FZ3" t="n">
-        <v>435.5023498535156</v>
+        <v>299.0970153808594</v>
       </c>
       <c r="GA3" t="n">
-        <v>428.8973999023438</v>
+        <v>299.0929565429688</v>
       </c>
       <c r="GB3" t="n">
-        <v>431.2228393554688</v>
+        <v>298.9900207519531</v>
       </c>
       <c r="GC3" t="n">
-        <v>418.438232421875</v>
+        <v>299.1512145996094</v>
       </c>
       <c r="GD3" t="n">
-        <v>411.731201171875</v>
+        <v>298.5730590820312</v>
       </c>
       <c r="GE3" t="n">
-        <v>427.6849365234375</v>
+        <v>298.1872863769531</v>
       </c>
       <c r="GF3" t="n">
-        <v>435.2156066894531</v>
+        <v>295.3477783203125</v>
       </c>
       <c r="GG3" t="n">
-        <v>441.20751953125</v>
+        <v>292.577880859375</v>
       </c>
       <c r="GH3" t="n">
-        <v>445.8728332519531</v>
+        <v>287.7359619140625</v>
       </c>
       <c r="GI3" t="n">
-        <v>447.3898315429688</v>
+        <v>280.8359680175781</v>
       </c>
       <c r="GJ3" t="n">
-        <v>448.7049560546875</v>
+        <v>277.82763671875</v>
       </c>
       <c r="GK3" t="n">
-        <v>451.0599975585938</v>
+        <v>274.8350524902344</v>
       </c>
       <c r="GL3" t="n">
-        <v>450.8140258789062</v>
+        <v>273.2331237792969</v>
       </c>
       <c r="GM3" t="n">
-        <v>452.710693359375</v>
+        <v>273.28515625</v>
       </c>
       <c r="GN3" t="n">
-        <v>450.4039306640625</v>
+        <v>273.8089599609375</v>
       </c>
       <c r="GO3" t="n">
-        <v>446.78369140625</v>
+        <v>274.2856140136719</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>276.7805480957031</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>280.0003967285156</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>282.975830078125</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>286.2556762695312</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>289.2691040039062</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>290.8897399902344</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>293.8861999511719</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>295.8552551269531</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>297.1691589355469</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>297.5755615234375</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>297.8067016601562</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>297.6599426269531</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>297.4754638671875</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>298.1095886230469</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>298.4832763671875</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>299.8328857421875</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>300.4757995605469</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>302.8648681640625</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>303.5662841796875</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>301.5860290527344</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>300.5324401855469</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>297.8350830078125</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>296.8483276367188</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>297.2964477539062</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>297.6701965332031</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>297.0656433105469</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>295.9959106445312</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>296.6706237792969</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>297.2128601074219</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>295.9462585449219</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>294.1295776367188</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>292.080322265625</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>291.1723937988281</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>287.314697265625</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>283.1896362304688</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>282.3719787597656</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>283.4197387695312</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>282.5438537597656</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>276.9797058105469</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>275.5106506347656</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>273.0354919433594</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>272.6083679199219</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>269.6206359863281</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>266.6565856933594</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>268.2249450683594</v>
+      </c>
+      <c r="II3" t="n">
+        <v>268.3609924316406</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>265.0903625488281</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>262.140380859375</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>260.3053588867188</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>245.9708099365234</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>247.0903625488281</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>477.9994201660156</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>510.0347900390625</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>340.8305053710938</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>386.3231811523438</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>404.3828430175781</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>340.9712524414062</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>349.2074584960938</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>337.5025024414062</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>381.7577819824219</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>381.3074645996094</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>402.633544921875</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>438.0234985351562</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>448.5271911621094</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>432.6924133300781</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>407.4319152832031</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>397.4077758789062</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>386.0578002929688</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>359.0619201660156</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>358.4158325195312</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>366.9368591308594</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>355.31103515625</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>356.2236328125</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>368.98974609375</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>393.138916015625</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>411.6161193847656</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>853.3414916992188</v>
       </c>
       <c r="B4" t="n">
-        <v>1027.819458007812</v>
+        <v>854.1148681640625</v>
       </c>
       <c r="C4" t="n">
-        <v>1021.419128417969</v>
+        <v>854.0692138671875</v>
       </c>
       <c r="D4" t="n">
-        <v>1021.101806640625</v>
+        <v>854.1152954101562</v>
       </c>
       <c r="E4" t="n">
-        <v>1021.635437011719</v>
+        <v>854.1642456054688</v>
       </c>
       <c r="F4" t="n">
-        <v>1021.750427246094</v>
+        <v>854.1795654296875</v>
       </c>
       <c r="G4" t="n">
-        <v>1021.807495117188</v>
+        <v>854.1954956054688</v>
       </c>
       <c r="H4" t="n">
-        <v>1022.130310058594</v>
+        <v>854.2174682617188</v>
       </c>
       <c r="I4" t="n">
-        <v>1022.422729492188</v>
+        <v>854.2374877929688</v>
       </c>
       <c r="J4" t="n">
-        <v>1022.649841308594</v>
+        <v>854.2486572265625</v>
       </c>
       <c r="K4" t="n">
-        <v>1022.730285644531</v>
+        <v>854.22900390625</v>
       </c>
       <c r="L4" t="n">
-        <v>1022.806640625</v>
+        <v>854.3837280273438</v>
       </c>
       <c r="M4" t="n">
-        <v>1022.906555175781</v>
+        <v>854.3756103515625</v>
       </c>
       <c r="N4" t="n">
-        <v>1022.947570800781</v>
+        <v>854.3280639648438</v>
       </c>
       <c r="O4" t="n">
-        <v>1022.987609863281</v>
+        <v>854.1705322265625</v>
       </c>
       <c r="P4" t="n">
-        <v>1023.023864746094</v>
+        <v>853.2130126953125</v>
       </c>
       <c r="Q4" t="n">
-        <v>1023.087219238281</v>
+        <v>849.0606079101562</v>
       </c>
       <c r="R4" t="n">
-        <v>1023.146118164062</v>
+        <v>832.7109985351562</v>
       </c>
       <c r="S4" t="n">
-        <v>1023.200927734375</v>
+        <v>802.9920043945312</v>
       </c>
       <c r="T4" t="n">
-        <v>1023.238830566406</v>
+        <v>773.66064453125</v>
       </c>
       <c r="U4" t="n">
-        <v>1023.286315917969</v>
+        <v>757.0560913085938</v>
       </c>
       <c r="V4" t="n">
-        <v>1023.332092285156</v>
+        <v>731.0300903320312</v>
       </c>
       <c r="W4" t="n">
-        <v>1023.380859375</v>
+        <v>706.40576171875</v>
       </c>
       <c r="X4" t="n">
-        <v>1023.432678222656</v>
+        <v>692.69482421875</v>
       </c>
       <c r="Y4" t="n">
-        <v>1023.492919921875</v>
+        <v>677.6286010742188</v>
       </c>
       <c r="Z4" t="n">
-        <v>1023.542907714844</v>
+        <v>663.6464233398438</v>
       </c>
       <c r="AA4" t="n">
-        <v>1023.594299316406</v>
+        <v>647.109130859375</v>
       </c>
       <c r="AB4" t="n">
-        <v>1023.643432617188</v>
+        <v>626.241943359375</v>
       </c>
       <c r="AC4" t="n">
-        <v>1023.690673828125</v>
+        <v>618.61181640625</v>
       </c>
       <c r="AD4" t="n">
-        <v>1023.745239257812</v>
+        <v>614.7578735351562</v>
       </c>
       <c r="AE4" t="n">
-        <v>1023.788818359375</v>
+        <v>613.0540161132812</v>
       </c>
       <c r="AF4" t="n">
-        <v>1023.8447265625</v>
+        <v>611.8565673828125</v>
       </c>
       <c r="AG4" t="n">
-        <v>1023.895812988281</v>
+        <v>610.0228881835938</v>
       </c>
       <c r="AH4" t="n">
-        <v>1023.956726074219</v>
+        <v>608.4059448242188</v>
       </c>
       <c r="AI4" t="n">
-        <v>1023.958984375</v>
+        <v>607.9288940429688</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1023.987915039062</v>
+        <v>609.1917114257812</v>
       </c>
       <c r="AK4" t="n">
-        <v>1024.025512695312</v>
+        <v>616.7494506835938</v>
       </c>
       <c r="AL4" t="n">
-        <v>1023.701904296875</v>
+        <v>641.955322265625</v>
       </c>
       <c r="AM4" t="n">
-        <v>1023.588989257812</v>
+        <v>669.1171875</v>
       </c>
       <c r="AN4" t="n">
-        <v>1023.628723144531</v>
+        <v>698.7384033203125</v>
       </c>
       <c r="AO4" t="n">
-        <v>1023.681579589844</v>
+        <v>731.15771484375</v>
       </c>
       <c r="AP4" t="n">
-        <v>1023.812683105469</v>
+        <v>776.3916015625</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1024.359497070312</v>
+        <v>816.6464233398438</v>
       </c>
       <c r="AR4" t="n">
-        <v>1023.741821289062</v>
+        <v>853.4069213867188</v>
       </c>
       <c r="AS4" t="n">
-        <v>1023.415283203125</v>
+        <v>895.8987426757812</v>
       </c>
       <c r="AT4" t="n">
-        <v>1023.615051269531</v>
+        <v>931.9820556640625</v>
       </c>
       <c r="AU4" t="n">
-        <v>1022.33984375</v>
+        <v>964.661376953125</v>
       </c>
       <c r="AV4" t="n">
-        <v>1019.868041992188</v>
+        <v>1007.377136230469</v>
       </c>
       <c r="AW4" t="n">
-        <v>1020.640258789062</v>
+        <v>1052.078735351562</v>
       </c>
       <c r="AX4" t="n">
-        <v>1020.033325195312</v>
+        <v>1103.922119140625</v>
       </c>
       <c r="AY4" t="n">
-        <v>1021.558837890625</v>
+        <v>1153.459716796875</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1025.7998046875</v>
+        <v>1202.616333007812</v>
       </c>
       <c r="BA4" t="n">
-        <v>1032.571044921875</v>
+        <v>1241.6376953125</v>
       </c>
       <c r="BB4" t="n">
-        <v>1042.951416015625</v>
+        <v>1272.1123046875</v>
       </c>
       <c r="BC4" t="n">
-        <v>1049.074096679688</v>
+        <v>1310.3466796875</v>
       </c>
       <c r="BD4" t="n">
-        <v>1053.0615234375</v>
+        <v>1345.5166015625</v>
       </c>
       <c r="BE4" t="n">
-        <v>1057.022827148438</v>
+        <v>1367.703735351562</v>
       </c>
       <c r="BF4" t="n">
-        <v>1060.290405273438</v>
+        <v>1396.015747070312</v>
       </c>
       <c r="BG4" t="n">
-        <v>1060.209838867188</v>
+        <v>1420.281982421875</v>
       </c>
       <c r="BH4" t="n">
-        <v>1061.667358398438</v>
+        <v>1433.242919921875</v>
       </c>
       <c r="BI4" t="n">
-        <v>1061.835083007812</v>
+        <v>1465.621826171875</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1059.473999023438</v>
+        <v>1478.779907226562</v>
       </c>
       <c r="BK4" t="n">
-        <v>1055.090209960938</v>
+        <v>1483.353637695312</v>
       </c>
       <c r="BL4" t="n">
-        <v>1053.293701171875</v>
+        <v>1492.355224609375</v>
       </c>
       <c r="BM4" t="n">
-        <v>1046.760009765625</v>
+        <v>1492.757080078125</v>
       </c>
       <c r="BN4" t="n">
-        <v>1038.656005859375</v>
+        <v>1493.17626953125</v>
       </c>
       <c r="BO4" t="n">
-        <v>1031.219848632812</v>
+        <v>1497.369018554688</v>
       </c>
       <c r="BP4" t="n">
-        <v>1025.298583984375</v>
+        <v>1510.919555664062</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1021.823303222656</v>
+        <v>1536.267211914062</v>
       </c>
       <c r="BR4" t="n">
-        <v>1020.178649902344</v>
+        <v>1532.703735351562</v>
       </c>
       <c r="BS4" t="n">
-        <v>1020.977416992188</v>
+        <v>1541.822143554688</v>
       </c>
       <c r="BT4" t="n">
-        <v>1021.527282714844</v>
+        <v>1565.389770507812</v>
       </c>
       <c r="BU4" t="n">
-        <v>1022.262817382812</v>
+        <v>1590.013061523438</v>
       </c>
       <c r="BV4" t="n">
-        <v>1023.027648925781</v>
+        <v>1616.729858398438</v>
       </c>
       <c r="BW4" t="n">
-        <v>1022.305358886719</v>
+        <v>1655.21875</v>
       </c>
       <c r="BX4" t="n">
-        <v>1021.646362304688</v>
+        <v>1690.14990234375</v>
       </c>
       <c r="BY4" t="n">
-        <v>1017.602355957031</v>
+        <v>1713.544189453125</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1011.900695800781</v>
+        <v>1734.232666015625</v>
       </c>
       <c r="CA4" t="n">
-        <v>1006.980224609375</v>
+        <v>1766.421020507812</v>
       </c>
       <c r="CB4" t="n">
-        <v>1004.794677734375</v>
+        <v>1799.12060546875</v>
       </c>
       <c r="CC4" t="n">
-        <v>1003.662170410156</v>
+        <v>1831.157958984375</v>
       </c>
       <c r="CD4" t="n">
-        <v>1004.882263183594</v>
+        <v>1857.477905273438</v>
       </c>
       <c r="CE4" t="n">
-        <v>1005.684448242188</v>
+        <v>1875.577514648438</v>
       </c>
       <c r="CF4" t="n">
-        <v>1006.178833007812</v>
+        <v>1914.580810546875</v>
       </c>
       <c r="CG4" t="n">
-        <v>1008.540954589844</v>
+        <v>1933.2919921875</v>
       </c>
       <c r="CH4" t="n">
-        <v>1011.201110839844</v>
+        <v>1955.633911132812</v>
       </c>
       <c r="CI4" t="n">
-        <v>1017.256042480469</v>
+        <v>1977.083740234375</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1027.33056640625</v>
+        <v>1992.012084960938</v>
       </c>
       <c r="CK4" t="n">
-        <v>1035.318969726562</v>
+        <v>2006.1630859375</v>
       </c>
       <c r="CL4" t="n">
-        <v>1040.958129882812</v>
+        <v>2015.04296875</v>
       </c>
       <c r="CM4" t="n">
-        <v>1044.097900390625</v>
+        <v>2008.255249023438</v>
       </c>
       <c r="CN4" t="n">
-        <v>1049.709350585938</v>
+        <v>2003.098022460938</v>
       </c>
       <c r="CO4" t="n">
-        <v>1055.433349609375</v>
+        <v>2008.267333984375</v>
       </c>
       <c r="CP4" t="n">
-        <v>1059.857666015625</v>
+        <v>2007.514404296875</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1057.21435546875</v>
+        <v>2006.683227539062</v>
       </c>
       <c r="CR4" t="n">
-        <v>1055.572265625</v>
+        <v>2005.94140625</v>
       </c>
       <c r="CS4" t="n">
-        <v>1054.478393554688</v>
+        <v>2005.037719726562</v>
       </c>
       <c r="CT4" t="n">
-        <v>1056.368408203125</v>
+        <v>2003.859741210938</v>
       </c>
       <c r="CU4" t="n">
-        <v>1056.869750976562</v>
+        <v>2001.88037109375</v>
       </c>
       <c r="CV4" t="n">
-        <v>1060.039306640625</v>
+        <v>1996.668579101562</v>
       </c>
       <c r="CW4" t="n">
-        <v>1059.580322265625</v>
+        <v>1989.255126953125</v>
       </c>
       <c r="CX4" t="n">
-        <v>1061.13037109375</v>
+        <v>1986.184936523438</v>
       </c>
       <c r="CY4" t="n">
-        <v>1061.701782226562</v>
+        <v>1985.383666992188</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1060.51708984375</v>
+        <v>1985.629516601562</v>
       </c>
       <c r="DA4" t="n">
-        <v>1061.427612304688</v>
+        <v>1998.400756835938</v>
       </c>
       <c r="DB4" t="n">
-        <v>1060.96044921875</v>
+        <v>2008.686157226562</v>
       </c>
       <c r="DC4" t="n">
-        <v>1062.872680664062</v>
+        <v>2024.425903320312</v>
       </c>
       <c r="DD4" t="n">
-        <v>1063.464965820312</v>
+        <v>2041.037841796875</v>
       </c>
       <c r="DE4" t="n">
-        <v>1064.361450195312</v>
+        <v>2055.02880859375</v>
       </c>
       <c r="DF4" t="n">
-        <v>1064.860473632812</v>
+        <v>2055.4443359375</v>
       </c>
       <c r="DG4" t="n">
-        <v>1064.011840820312</v>
+        <v>2057.49267578125</v>
       </c>
       <c r="DH4" t="n">
-        <v>1059.204345703125</v>
+        <v>2078.616943359375</v>
       </c>
       <c r="DI4" t="n">
-        <v>1052.150024414062</v>
+        <v>2091.17333984375</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1036.425048828125</v>
+        <v>2109.10400390625</v>
       </c>
       <c r="DK4" t="n">
-        <v>1023.345336914062</v>
+        <v>2107.290283203125</v>
       </c>
       <c r="DL4" t="n">
-        <v>1012.934204101562</v>
+        <v>2107.95556640625</v>
       </c>
       <c r="DM4" t="n">
-        <v>1006.251159667969</v>
+        <v>2109.29736328125</v>
       </c>
       <c r="DN4" t="n">
-        <v>992.28515625</v>
+        <v>2114.859619140625</v>
       </c>
       <c r="DO4" t="n">
-        <v>973.236328125</v>
+        <v>2133.780029296875</v>
       </c>
       <c r="DP4" t="n">
-        <v>967.93701171875</v>
+        <v>2140.841064453125</v>
       </c>
       <c r="DQ4" t="n">
-        <v>956.9722900390625</v>
+        <v>2143.91015625</v>
       </c>
       <c r="DR4" t="n">
-        <v>954.4971313476562</v>
+        <v>2141.599365234375</v>
       </c>
       <c r="DS4" t="n">
-        <v>957.730712890625</v>
+        <v>2142.368408203125</v>
       </c>
       <c r="DT4" t="n">
-        <v>963.5374145507812</v>
+        <v>2144.3720703125</v>
       </c>
       <c r="DU4" t="n">
-        <v>966.0169067382812</v>
+        <v>2145.283203125</v>
       </c>
       <c r="DV4" t="n">
-        <v>970.3045654296875</v>
+        <v>2145.195556640625</v>
       </c>
       <c r="DW4" t="n">
-        <v>973.4495849609375</v>
+        <v>2141.966796875</v>
       </c>
       <c r="DX4" t="n">
-        <v>976.529052734375</v>
+        <v>2123.2529296875</v>
       </c>
       <c r="DY4" t="n">
-        <v>977.280029296875</v>
+        <v>2115.72412109375</v>
       </c>
       <c r="DZ4" t="n">
-        <v>978.44482421875</v>
+        <v>2097.912109375</v>
       </c>
       <c r="EA4" t="n">
-        <v>981.5407104492188</v>
+        <v>2100.6640625</v>
       </c>
       <c r="EB4" t="n">
-        <v>994.77734375</v>
+        <v>2093.38525390625</v>
       </c>
       <c r="EC4" t="n">
-        <v>1012.310119628906</v>
+        <v>2077.77880859375</v>
       </c>
       <c r="ED4" t="n">
-        <v>1028.1728515625</v>
+        <v>2071.54248046875</v>
       </c>
       <c r="EE4" t="n">
-        <v>1022.460083007812</v>
+        <v>2067.361572265625</v>
       </c>
       <c r="EF4" t="n">
-        <v>1017.989624023438</v>
+        <v>2060.00927734375</v>
       </c>
       <c r="EG4" t="n">
-        <v>1024.989868164062</v>
+        <v>2083.291015625</v>
       </c>
       <c r="EH4" t="n">
-        <v>1142.235595703125</v>
+        <v>2091.91015625</v>
       </c>
       <c r="EI4" t="n">
-        <v>1175.3935546875</v>
+        <v>2102.219970703125</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1189.35888671875</v>
+        <v>2148.57470703125</v>
       </c>
       <c r="EK4" t="n">
-        <v>1214.236572265625</v>
+        <v>2157.15380859375</v>
       </c>
       <c r="EL4" t="n">
-        <v>1218.895385742188</v>
+        <v>2164.487548828125</v>
       </c>
       <c r="EM4" t="n">
-        <v>1219.663208007812</v>
+        <v>2152.411376953125</v>
       </c>
       <c r="EN4" t="n">
-        <v>1216.94873046875</v>
+        <v>2129.316650390625</v>
       </c>
       <c r="EO4" t="n">
-        <v>1217.280883789062</v>
+        <v>2134.735595703125</v>
       </c>
       <c r="EP4" t="n">
-        <v>1218.738037109375</v>
+        <v>2131.5537109375</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1218.878662109375</v>
+        <v>2123.46826171875</v>
       </c>
       <c r="ER4" t="n">
-        <v>1219.019775390625</v>
+        <v>2104.281005859375</v>
       </c>
       <c r="ES4" t="n">
-        <v>1218.776733398438</v>
+        <v>2097.171142578125</v>
       </c>
       <c r="ET4" t="n">
-        <v>1190.769897460938</v>
+        <v>2099.209228515625</v>
       </c>
       <c r="EU4" t="n">
-        <v>1146.828002929688</v>
+        <v>2098.943603515625</v>
       </c>
       <c r="EV4" t="n">
-        <v>1130.342041015625</v>
+        <v>2097.8525390625</v>
       </c>
       <c r="EW4" t="n">
-        <v>1085.795288085938</v>
+        <v>2096.18701171875</v>
       </c>
       <c r="EX4" t="n">
-        <v>1064.275512695312</v>
+        <v>2095.76220703125</v>
       </c>
       <c r="EY4" t="n">
-        <v>1046.621459960938</v>
+        <v>2095.63671875</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1014.195068359375</v>
+        <v>2095.736572265625</v>
       </c>
       <c r="FA4" t="n">
-        <v>981.7883911132812</v>
+        <v>2097.009033203125</v>
       </c>
       <c r="FB4" t="n">
-        <v>963.8522338867188</v>
+        <v>2096.840576171875</v>
       </c>
       <c r="FC4" t="n">
-        <v>1083.148803710938</v>
+        <v>2097.0380859375</v>
       </c>
       <c r="FD4" t="n">
-        <v>1082.606567382812</v>
+        <v>2098.142333984375</v>
       </c>
       <c r="FE4" t="n">
-        <v>1074.444091796875</v>
+        <v>2100.41064453125</v>
       </c>
       <c r="FF4" t="n">
-        <v>1065.151000976562</v>
+        <v>2103.65234375</v>
       </c>
       <c r="FG4" t="n">
-        <v>1053.189453125</v>
+        <v>2105.445068359375</v>
       </c>
       <c r="FH4" t="n">
-        <v>1033.0966796875</v>
+        <v>2114.5625</v>
       </c>
       <c r="FI4" t="n">
-        <v>1020.53125</v>
+        <v>2117.259033203125</v>
       </c>
       <c r="FJ4" t="n">
-        <v>1010.009338378906</v>
+        <v>2118.089599609375</v>
       </c>
       <c r="FK4" t="n">
-        <v>962.2808837890625</v>
+        <v>2117.97998046875</v>
       </c>
       <c r="FL4" t="n">
-        <v>957.2044677734375</v>
+        <v>2117.98046875</v>
       </c>
       <c r="FM4" t="n">
-        <v>978.6510009765625</v>
+        <v>2118.227294921875</v>
       </c>
       <c r="FN4" t="n">
-        <v>974.3148803710938</v>
+        <v>2118.328369140625</v>
       </c>
       <c r="FO4" t="n">
-        <v>971.0160522460938</v>
+        <v>2118.5556640625</v>
       </c>
       <c r="FP4" t="n">
-        <v>969.744873046875</v>
+        <v>2118.592529296875</v>
       </c>
       <c r="FQ4" t="n">
-        <v>964.2654418945312</v>
+        <v>2118.82080078125</v>
       </c>
       <c r="FR4" t="n">
-        <v>956.7635498046875</v>
+        <v>2118.58154296875</v>
       </c>
       <c r="FS4" t="n">
-        <v>948.9917602539062</v>
+        <v>2118.475341796875</v>
       </c>
       <c r="FT4" t="n">
-        <v>938.7427368164062</v>
+        <v>2118.020263671875</v>
       </c>
       <c r="FU4" t="n">
-        <v>927.2145385742188</v>
+        <v>2115.0556640625</v>
       </c>
       <c r="FV4" t="n">
-        <v>919.2619018554688</v>
+        <v>2109.32958984375</v>
       </c>
       <c r="FW4" t="n">
-        <v>757.4801635742188</v>
+        <v>2087.66259765625</v>
       </c>
       <c r="FX4" t="n">
-        <v>735.9292602539062</v>
+        <v>2074.161376953125</v>
       </c>
       <c r="FY4" t="n">
-        <v>688.6131591796875</v>
+        <v>2072.587158203125</v>
       </c>
       <c r="FZ4" t="n">
-        <v>666.2242431640625</v>
+        <v>2071.60498046875</v>
       </c>
       <c r="GA4" t="n">
-        <v>623.4818115234375</v>
+        <v>2071.811767578125</v>
       </c>
       <c r="GB4" t="n">
-        <v>594.5136108398438</v>
+        <v>2071.794677734375</v>
       </c>
       <c r="GC4" t="n">
-        <v>552.5433959960938</v>
+        <v>2072.017333984375</v>
       </c>
       <c r="GD4" t="n">
-        <v>534.5267944335938</v>
+        <v>2107.0498046875</v>
       </c>
       <c r="GE4" t="n">
-        <v>522.796875</v>
+        <v>2115.876953125</v>
       </c>
       <c r="GF4" t="n">
-        <v>523.859619140625</v>
+        <v>2110.29443359375</v>
       </c>
       <c r="GG4" t="n">
-        <v>519.0357666015625</v>
+        <v>2095.869384765625</v>
       </c>
       <c r="GH4" t="n">
-        <v>517.328369140625</v>
+        <v>2028.569458007812</v>
       </c>
       <c r="GI4" t="n">
-        <v>518.38720703125</v>
+        <v>2026.90478515625</v>
       </c>
       <c r="GJ4" t="n">
-        <v>519.4906005859375</v>
+        <v>2028.233520507812</v>
       </c>
       <c r="GK4" t="n">
-        <v>524.16748046875</v>
+        <v>2028.434692382812</v>
       </c>
       <c r="GL4" t="n">
-        <v>526.3082885742188</v>
+        <v>2034.032958984375</v>
       </c>
       <c r="GM4" t="n">
-        <v>530.1572265625</v>
+        <v>2045.07373046875</v>
       </c>
       <c r="GN4" t="n">
-        <v>520.4471435546875</v>
+        <v>2038.476806640625</v>
       </c>
       <c r="GO4" t="n">
-        <v>508.3478393554688</v>
+        <v>2036.827392578125</v>
+      </c>
+      <c r="GP4" t="n">
+        <v>2042.37451171875</v>
+      </c>
+      <c r="GQ4" t="n">
+        <v>2040.077270507812</v>
+      </c>
+      <c r="GR4" t="n">
+        <v>2035.390991210938</v>
+      </c>
+      <c r="GS4" t="n">
+        <v>2039.241943359375</v>
+      </c>
+      <c r="GT4" t="n">
+        <v>2068.728759765625</v>
+      </c>
+      <c r="GU4" t="n">
+        <v>2083.051025390625</v>
+      </c>
+      <c r="GV4" t="n">
+        <v>2121.7080078125</v>
+      </c>
+      <c r="GW4" t="n">
+        <v>2116.883544921875</v>
+      </c>
+      <c r="GX4" t="n">
+        <v>2097.609619140625</v>
+      </c>
+      <c r="GY4" t="n">
+        <v>2059.612060546875</v>
+      </c>
+      <c r="GZ4" t="n">
+        <v>2059.08203125</v>
+      </c>
+      <c r="HA4" t="n">
+        <v>2059.5478515625</v>
+      </c>
+      <c r="HB4" t="n">
+        <v>2057.742431640625</v>
+      </c>
+      <c r="HC4" t="n">
+        <v>2026.310791015625</v>
+      </c>
+      <c r="HD4" t="n">
+        <v>2010.80126953125</v>
+      </c>
+      <c r="HE4" t="n">
+        <v>1960.315185546875</v>
+      </c>
+      <c r="HF4" t="n">
+        <v>1938.310913085938</v>
+      </c>
+      <c r="HG4" t="n">
+        <v>1878.209106445312</v>
+      </c>
+      <c r="HH4" t="n">
+        <v>1826.801879882812</v>
+      </c>
+      <c r="HI4" t="n">
+        <v>1750.929077148438</v>
+      </c>
+      <c r="HJ4" t="n">
+        <v>1719.338989257812</v>
+      </c>
+      <c r="HK4" t="n">
+        <v>1673.256103515625</v>
+      </c>
+      <c r="HL4" t="n">
+        <v>1623.122192382812</v>
+      </c>
+      <c r="HM4" t="n">
+        <v>1577.097412109375</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>1559.181640625</v>
+      </c>
+      <c r="HO4" t="n">
+        <v>1536.266845703125</v>
+      </c>
+      <c r="HP4" t="n">
+        <v>1504.868530273438</v>
+      </c>
+      <c r="HQ4" t="n">
+        <v>1476.858520507812</v>
+      </c>
+      <c r="HR4" t="n">
+        <v>1458.401245117188</v>
+      </c>
+      <c r="HS4" t="n">
+        <v>1432.131225585938</v>
+      </c>
+      <c r="HT4" t="n">
+        <v>1415.368041992188</v>
+      </c>
+      <c r="HU4" t="n">
+        <v>1391.5703125</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>1380.259887695312</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>1355.736450195312</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>1321.874755859375</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>1292.447021484375</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>1245.196899414062</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>1216.044555664062</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>1153.485595703125</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>1128.093139648438</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>1080.08984375</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>1026.743530273438</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>967.153564453125</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>891.879150390625</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>792.118408203125</v>
+      </c>
+      <c r="II4" t="n">
+        <v>698.4057006835938</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>610.5067749023438</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>507.0184326171875</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>424.8763732910156</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>370.2364196777344</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>355.179931640625</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>542.4772338867188</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>582.4598388671875</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>295.970703125</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>302.4896545410156</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>314.395751953125</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>432.5930480957031</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>435.4579772949219</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>757.6124877929688</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>495.8382568359375</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>514.5888061523438</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>525.6529541015625</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>516.5863037109375</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>504.3824768066406</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>488.3872375488281</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>522.048095703125</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>558.6943359375</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>570.6680297851562</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>565.347900390625</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>581.0653076171875</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>591.7033081054688</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>580.2172241210938</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>566.0173950195312</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>550.8927612304688</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>532.5296020507812</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>506.6036376953125</v>
       </c>
     </row>
   </sheetData>

--- a/left_elbow_Data.xlsx
+++ b/left_elbow_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JM4"/>
+  <dimension ref="A1:GQ4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,2690 +1031,1802 @@
       <c r="GQ1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="GR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="II1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JM1" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>316.2742004394531</v>
+        <v>561.2420654296875</v>
       </c>
       <c r="B2" t="n">
-        <v>315.9382019042969</v>
+        <v>560.3722534179688</v>
       </c>
       <c r="C2" t="n">
-        <v>316.0462646484375</v>
+        <v>560.6224365234375</v>
       </c>
       <c r="D2" t="n">
-        <v>316.1622009277344</v>
+        <v>557.7268676757812</v>
       </c>
       <c r="E2" t="n">
-        <v>316.2721862792969</v>
+        <v>555.763427734375</v>
       </c>
       <c r="F2" t="n">
-        <v>316.3848266601562</v>
+        <v>554.3943481445312</v>
       </c>
       <c r="G2" t="n">
-        <v>316.4710388183594</v>
+        <v>554.190673828125</v>
       </c>
       <c r="H2" t="n">
-        <v>316.5647583007812</v>
+        <v>553.3862915039062</v>
       </c>
       <c r="I2" t="n">
-        <v>316.83837890625</v>
+        <v>555.1990966796875</v>
       </c>
       <c r="J2" t="n">
-        <v>317.0650024414062</v>
+        <v>551.9349365234375</v>
       </c>
       <c r="K2" t="n">
-        <v>317.2526550292969</v>
+        <v>539.3720092773438</v>
       </c>
       <c r="L2" t="n">
-        <v>317.4132690429688</v>
+        <v>528.2341918945312</v>
       </c>
       <c r="M2" t="n">
-        <v>317.7293090820312</v>
+        <v>523.4398193359375</v>
       </c>
       <c r="N2" t="n">
-        <v>318.039794921875</v>
+        <v>511.9833984375</v>
       </c>
       <c r="O2" t="n">
-        <v>318.7345581054688</v>
+        <v>496.0155639648438</v>
       </c>
       <c r="P2" t="n">
-        <v>319.59912109375</v>
+        <v>482.9129638671875</v>
       </c>
       <c r="Q2" t="n">
-        <v>319.7124633789062</v>
+        <v>473.0550537109375</v>
       </c>
       <c r="R2" t="n">
-        <v>320.1392211914062</v>
+        <v>469.88818359375</v>
       </c>
       <c r="S2" t="n">
-        <v>319.4127197265625</v>
+        <v>470.05712890625</v>
       </c>
       <c r="T2" t="n">
-        <v>316.4210815429688</v>
+        <v>468.3481140136719</v>
       </c>
       <c r="U2" t="n">
-        <v>304.4541931152344</v>
+        <v>463.7521667480469</v>
       </c>
       <c r="V2" t="n">
-        <v>288.7442626953125</v>
+        <v>458.2669372558594</v>
       </c>
       <c r="W2" t="n">
-        <v>280.7585754394531</v>
+        <v>453.332275390625</v>
       </c>
       <c r="X2" t="n">
-        <v>276.4406433105469</v>
+        <v>451.1880493164062</v>
       </c>
       <c r="Y2" t="n">
-        <v>275.3138122558594</v>
+        <v>450.1930541992188</v>
       </c>
       <c r="Z2" t="n">
-        <v>273.3989868164062</v>
+        <v>450.2233276367188</v>
       </c>
       <c r="AA2" t="n">
-        <v>270.6730346679688</v>
+        <v>453.0244445800781</v>
       </c>
       <c r="AB2" t="n">
-        <v>266.9906616210938</v>
+        <v>456.8073120117188</v>
       </c>
       <c r="AC2" t="n">
-        <v>263.0846557617188</v>
+        <v>459.9168701171875</v>
       </c>
       <c r="AD2" t="n">
-        <v>257.3840026855469</v>
+        <v>460.9264526367188</v>
       </c>
       <c r="AE2" t="n">
-        <v>251.1792602539062</v>
+        <v>462.966064453125</v>
       </c>
       <c r="AF2" t="n">
-        <v>248.5041961669922</v>
+        <v>465.7702026367188</v>
       </c>
       <c r="AG2" t="n">
-        <v>247.7111511230469</v>
+        <v>468.3075561523438</v>
       </c>
       <c r="AH2" t="n">
-        <v>247.4265747070312</v>
+        <v>470.9317016601562</v>
       </c>
       <c r="AI2" t="n">
-        <v>247.892578125</v>
+        <v>472.8399353027344</v>
       </c>
       <c r="AJ2" t="n">
-        <v>249.9358367919922</v>
+        <v>474.9673156738281</v>
       </c>
       <c r="AK2" t="n">
-        <v>255.5771026611328</v>
+        <v>477.2882385253906</v>
       </c>
       <c r="AL2" t="n">
-        <v>269.3675842285156</v>
+        <v>479.3414001464844</v>
       </c>
       <c r="AM2" t="n">
-        <v>281.3898315429688</v>
+        <v>482.7028198242188</v>
       </c>
       <c r="AN2" t="n">
-        <v>295.9762573242188</v>
+        <v>486.1255187988281</v>
       </c>
       <c r="AO2" t="n">
-        <v>310.4899597167969</v>
+        <v>486.4637756347656</v>
       </c>
       <c r="AP2" t="n">
-        <v>320.577880859375</v>
+        <v>485.6942749023438</v>
       </c>
       <c r="AQ2" t="n">
-        <v>327.0186767578125</v>
+        <v>476.8958129882812</v>
       </c>
       <c r="AR2" t="n">
-        <v>335.2202758789062</v>
+        <v>469.1787414550781</v>
       </c>
       <c r="AS2" t="n">
-        <v>341.9713745117188</v>
+        <v>461.1673278808594</v>
       </c>
       <c r="AT2" t="n">
-        <v>348.7500610351562</v>
+        <v>453.236328125</v>
       </c>
       <c r="AU2" t="n">
-        <v>354.0631103515625</v>
+        <v>449.7015991210938</v>
       </c>
       <c r="AV2" t="n">
-        <v>356.0795593261719</v>
+        <v>440.5359497070312</v>
       </c>
       <c r="AW2" t="n">
-        <v>360.3454284667969</v>
+        <v>429.33251953125</v>
       </c>
       <c r="AX2" t="n">
-        <v>364.1425170898438</v>
+        <v>423.4127197265625</v>
       </c>
       <c r="AY2" t="n">
-        <v>366.021484375</v>
+        <v>416.4130249023438</v>
       </c>
       <c r="AZ2" t="n">
-        <v>366.7154235839844</v>
+        <v>408.0726928710938</v>
       </c>
       <c r="BA2" t="n">
-        <v>369.7280578613281</v>
+        <v>396.73486328125</v>
       </c>
       <c r="BB2" t="n">
-        <v>370.8319091796875</v>
+        <v>387.1120910644531</v>
       </c>
       <c r="BC2" t="n">
-        <v>372.7450561523438</v>
+        <v>374.075439453125</v>
       </c>
       <c r="BD2" t="n">
-        <v>375.21826171875</v>
+        <v>366.4840087890625</v>
       </c>
       <c r="BE2" t="n">
-        <v>374.3450622558594</v>
+        <v>359.9218139648438</v>
       </c>
       <c r="BF2" t="n">
-        <v>374.2660827636719</v>
+        <v>352.5016479492188</v>
       </c>
       <c r="BG2" t="n">
-        <v>375.1092834472656</v>
+        <v>346.030029296875</v>
       </c>
       <c r="BH2" t="n">
-        <v>381.5984802246094</v>
+        <v>339.7346496582031</v>
       </c>
       <c r="BI2" t="n">
-        <v>386.748291015625</v>
+        <v>333.3007202148438</v>
       </c>
       <c r="BJ2" t="n">
-        <v>388.4018249511719</v>
+        <v>329.2854614257812</v>
       </c>
       <c r="BK2" t="n">
-        <v>390.3123474121094</v>
+        <v>326.6201477050781</v>
       </c>
       <c r="BL2" t="n">
-        <v>390.8710327148438</v>
+        <v>323.1064453125</v>
       </c>
       <c r="BM2" t="n">
-        <v>393.0263671875</v>
+        <v>321.9016723632812</v>
       </c>
       <c r="BN2" t="n">
-        <v>397.5545654296875</v>
+        <v>322.1297912597656</v>
       </c>
       <c r="BO2" t="n">
-        <v>397.7410888671875</v>
+        <v>324.3788452148438</v>
       </c>
       <c r="BP2" t="n">
-        <v>398.8528747558594</v>
+        <v>332.9631958007812</v>
       </c>
       <c r="BQ2" t="n">
-        <v>399.8803100585938</v>
+        <v>339.34716796875</v>
       </c>
       <c r="BR2" t="n">
-        <v>403.3685913085938</v>
+        <v>343.0514526367188</v>
       </c>
       <c r="BS2" t="n">
-        <v>406.7743530273438</v>
+        <v>346.5023803710938</v>
       </c>
       <c r="BT2" t="n">
-        <v>408.5900573730469</v>
+        <v>346.8145141601562</v>
       </c>
       <c r="BU2" t="n">
-        <v>409.81640625</v>
+        <v>348.3901977539062</v>
       </c>
       <c r="BV2" t="n">
-        <v>411.313720703125</v>
+        <v>348.8623352050781</v>
       </c>
       <c r="BW2" t="n">
-        <v>413.7669372558594</v>
+        <v>349.2510375976562</v>
       </c>
       <c r="BX2" t="n">
-        <v>414.0339660644531</v>
+        <v>349.0472412109375</v>
       </c>
       <c r="BY2" t="n">
-        <v>414.1760559082031</v>
+        <v>348.7732238769531</v>
       </c>
       <c r="BZ2" t="n">
-        <v>414.0516357421875</v>
+        <v>348.3284912109375</v>
       </c>
       <c r="CA2" t="n">
-        <v>414.64013671875</v>
+        <v>347.4042358398438</v>
       </c>
       <c r="CB2" t="n">
-        <v>415.0356750488281</v>
+        <v>344.9566345214844</v>
       </c>
       <c r="CC2" t="n">
-        <v>414.5460510253906</v>
+        <v>338.0798950195312</v>
       </c>
       <c r="CD2" t="n">
-        <v>415.7003173828125</v>
+        <v>331.1686401367188</v>
       </c>
       <c r="CE2" t="n">
-        <v>415.8984985351562</v>
+        <v>326.3268432617188</v>
       </c>
       <c r="CF2" t="n">
-        <v>415.017578125</v>
+        <v>321.7638854980469</v>
       </c>
       <c r="CG2" t="n">
-        <v>414.1120910644531</v>
+        <v>319.8586120605469</v>
       </c>
       <c r="CH2" t="n">
-        <v>413.0902404785156</v>
+        <v>317.180419921875</v>
       </c>
       <c r="CI2" t="n">
-        <v>412.20068359375</v>
+        <v>313.3114013671875</v>
       </c>
       <c r="CJ2" t="n">
-        <v>411.8995971679688</v>
+        <v>310.876953125</v>
       </c>
       <c r="CK2" t="n">
-        <v>411.567626953125</v>
+        <v>308.7831115722656</v>
       </c>
       <c r="CL2" t="n">
-        <v>411.7617797851562</v>
+        <v>308.0490417480469</v>
       </c>
       <c r="CM2" t="n">
-        <v>412.158447265625</v>
+        <v>307.5534362792969</v>
       </c>
       <c r="CN2" t="n">
-        <v>412.41796875</v>
+        <v>307.3382263183594</v>
       </c>
       <c r="CO2" t="n">
-        <v>412.031494140625</v>
+        <v>307.7518005371094</v>
       </c>
       <c r="CP2" t="n">
-        <v>412.1810302734375</v>
+        <v>308.02197265625</v>
       </c>
       <c r="CQ2" t="n">
-        <v>412.0648803710938</v>
+        <v>308.8727722167969</v>
       </c>
       <c r="CR2" t="n">
-        <v>411.9772033691406</v>
+        <v>312.3444519042969</v>
       </c>
       <c r="CS2" t="n">
-        <v>411.6485290527344</v>
+        <v>313.265380859375</v>
       </c>
       <c r="CT2" t="n">
-        <v>410.8539123535156</v>
+        <v>316.6206970214844</v>
       </c>
       <c r="CU2" t="n">
-        <v>409.666259765625</v>
+        <v>321.49072265625</v>
       </c>
       <c r="CV2" t="n">
-        <v>409.2077331542969</v>
+        <v>324.98681640625</v>
       </c>
       <c r="CW2" t="n">
-        <v>410.6329956054688</v>
+        <v>326.9915161132812</v>
       </c>
       <c r="CX2" t="n">
-        <v>411.6198120117188</v>
+        <v>327.4983520507812</v>
       </c>
       <c r="CY2" t="n">
-        <v>413.3692016601562</v>
+        <v>328.215087890625</v>
       </c>
       <c r="CZ2" t="n">
-        <v>414.4049377441406</v>
+        <v>328.5977783203125</v>
       </c>
       <c r="DA2" t="n">
-        <v>415.9710083007812</v>
+        <v>326.2342529296875</v>
       </c>
       <c r="DB2" t="n">
-        <v>416.5452880859375</v>
+        <v>318.0035095214844</v>
       </c>
       <c r="DC2" t="n">
-        <v>417.8700256347656</v>
+        <v>308.8990173339844</v>
       </c>
       <c r="DD2" t="n">
-        <v>419.3750610351562</v>
+        <v>316.4041748046875</v>
       </c>
       <c r="DE2" t="n">
-        <v>419.6301879882812</v>
+        <v>328.3574829101562</v>
       </c>
       <c r="DF2" t="n">
-        <v>419.3020324707031</v>
+        <v>329.6057434082031</v>
       </c>
       <c r="DG2" t="n">
-        <v>419.4027709960938</v>
+        <v>330.8578491210938</v>
       </c>
       <c r="DH2" t="n">
-        <v>419.9129638671875</v>
+        <v>332.8423461914062</v>
       </c>
       <c r="DI2" t="n">
-        <v>421.1339721679688</v>
+        <v>336.6411743164062</v>
       </c>
       <c r="DJ2" t="n">
-        <v>422.0800170898438</v>
+        <v>338.9945983886719</v>
       </c>
       <c r="DK2" t="n">
-        <v>422.5993347167969</v>
+        <v>344.2545166015625</v>
       </c>
       <c r="DL2" t="n">
-        <v>422.9175415039062</v>
+        <v>352.4364624023438</v>
       </c>
       <c r="DM2" t="n">
-        <v>423.0879211425781</v>
+        <v>357.8674621582031</v>
       </c>
       <c r="DN2" t="n">
-        <v>423.1928100585938</v>
+        <v>365.806396484375</v>
       </c>
       <c r="DO2" t="n">
-        <v>423.424560546875</v>
+        <v>374.7451782226562</v>
       </c>
       <c r="DP2" t="n">
-        <v>423.2958984375</v>
+        <v>395.1340942382812</v>
       </c>
       <c r="DQ2" t="n">
-        <v>423.2786560058594</v>
+        <v>403.5680847167969</v>
       </c>
       <c r="DR2" t="n">
-        <v>423.3374633789062</v>
+        <v>414.41455078125</v>
       </c>
       <c r="DS2" t="n">
-        <v>423.4333801269531</v>
+        <v>428.9728088378906</v>
       </c>
       <c r="DT2" t="n">
-        <v>423.4353332519531</v>
+        <v>437.4648742675781</v>
       </c>
       <c r="DU2" t="n">
-        <v>423.4773559570312</v>
+        <v>443.6992797851562</v>
       </c>
       <c r="DV2" t="n">
-        <v>423.5562744140625</v>
+        <v>455.3357543945312</v>
       </c>
       <c r="DW2" t="n">
-        <v>423.7091674804688</v>
+        <v>467.5739135742188</v>
       </c>
       <c r="DX2" t="n">
-        <v>423.9935913085938</v>
+        <v>471.1917114257812</v>
       </c>
       <c r="DY2" t="n">
-        <v>423.9973449707031</v>
+        <v>474.3991394042969</v>
       </c>
       <c r="DZ2" t="n">
-        <v>421.3022155761719</v>
+        <v>477.58642578125</v>
       </c>
       <c r="EA2" t="n">
-        <v>420.0528564453125</v>
+        <v>479.9773864746094</v>
       </c>
       <c r="EB2" t="n">
-        <v>417.8463134765625</v>
+        <v>483.3422241210938</v>
       </c>
       <c r="EC2" t="n">
-        <v>414.6547241210938</v>
+        <v>484.0780639648438</v>
       </c>
       <c r="ED2" t="n">
-        <v>412.3234558105469</v>
+        <v>485.4366455078125</v>
       </c>
       <c r="EE2" t="n">
-        <v>407.593017578125</v>
+        <v>486.142822265625</v>
       </c>
       <c r="EF2" t="n">
-        <v>404.0657348632812</v>
+        <v>486.6650085449219</v>
       </c>
       <c r="EG2" t="n">
-        <v>401.3338012695312</v>
+        <v>484.5608825683594</v>
       </c>
       <c r="EH2" t="n">
-        <v>399.9273376464844</v>
+        <v>480.3451843261719</v>
       </c>
       <c r="EI2" t="n">
-        <v>396.4282836914062</v>
+        <v>471.8982543945312</v>
       </c>
       <c r="EJ2" t="n">
-        <v>389.4979248046875</v>
+        <v>469.5896911621094</v>
       </c>
       <c r="EK2" t="n">
-        <v>388.7852478027344</v>
+        <v>463.0372619628906</v>
       </c>
       <c r="EL2" t="n">
-        <v>388.2625732421875</v>
+        <v>458.3172302246094</v>
       </c>
       <c r="EM2" t="n">
-        <v>387.1043395996094</v>
+        <v>443.6816711425781</v>
       </c>
       <c r="EN2" t="n">
-        <v>388.2069396972656</v>
+        <v>439.0753173828125</v>
       </c>
       <c r="EO2" t="n">
-        <v>388.1216430664062</v>
+        <v>425.7705078125</v>
       </c>
       <c r="EP2" t="n">
-        <v>388.1016540527344</v>
+        <v>432.3921508789062</v>
       </c>
       <c r="EQ2" t="n">
-        <v>388.2110290527344</v>
+        <v>404.6135864257812</v>
       </c>
       <c r="ER2" t="n">
-        <v>388.5564880371094</v>
+        <v>417.9617919921875</v>
       </c>
       <c r="ES2" t="n">
-        <v>388.6080322265625</v>
+        <v>392.3743286132812</v>
       </c>
       <c r="ET2" t="n">
-        <v>388.1885070800781</v>
+        <v>385.5484619140625</v>
       </c>
       <c r="EU2" t="n">
-        <v>388.1279907226562</v>
+        <v>380.4042358398438</v>
       </c>
       <c r="EV2" t="n">
-        <v>388.205078125</v>
+        <v>380.0094909667969</v>
       </c>
       <c r="EW2" t="n">
-        <v>388.4219360351562</v>
+        <v>382.8766479492188</v>
       </c>
       <c r="EX2" t="n">
-        <v>388.7067260742188</v>
+        <v>381.8613891601562</v>
       </c>
       <c r="EY2" t="n">
-        <v>389.1684265136719</v>
+        <v>379.9703674316406</v>
       </c>
       <c r="EZ2" t="n">
-        <v>390.1112060546875</v>
+        <v>402.3493957519531</v>
       </c>
       <c r="FA2" t="n">
-        <v>390.7748413085938</v>
+        <v>401.9183044433594</v>
       </c>
       <c r="FB2" t="n">
-        <v>390.9784545898438</v>
+        <v>400.6599426269531</v>
       </c>
       <c r="FC2" t="n">
-        <v>391.1563720703125</v>
+        <v>408.1308288574219</v>
       </c>
       <c r="FD2" t="n">
-        <v>391.520263671875</v>
+        <v>414.0619201660156</v>
       </c>
       <c r="FE2" t="n">
-        <v>391.913818359375</v>
+        <v>419.0647888183594</v>
       </c>
       <c r="FF2" t="n">
-        <v>391.5891723632812</v>
+        <v>428.6695861816406</v>
       </c>
       <c r="FG2" t="n">
-        <v>391.4579772949219</v>
+        <v>432.9635620117188</v>
       </c>
       <c r="FH2" t="n">
-        <v>390.8299560546875</v>
+        <v>441.0900268554688</v>
       </c>
       <c r="FI2" t="n">
-        <v>390.5957641601562</v>
+        <v>450.193115234375</v>
       </c>
       <c r="FJ2" t="n">
-        <v>390.6338195800781</v>
+        <v>476.3228759765625</v>
       </c>
       <c r="FK2" t="n">
-        <v>390.6472473144531</v>
+        <v>494.9298706054688</v>
       </c>
       <c r="FL2" t="n">
-        <v>390.6270751953125</v>
+        <v>536.4148559570312</v>
       </c>
       <c r="FM2" t="n">
-        <v>390.6857299804688</v>
+        <v>550.45654296875</v>
       </c>
       <c r="FN2" t="n">
-        <v>390.7277221679688</v>
+        <v>566.5632934570312</v>
       </c>
       <c r="FO2" t="n">
-        <v>390.73388671875</v>
+        <v>603.4168090820312</v>
       </c>
       <c r="FP2" t="n">
-        <v>390.761474609375</v>
+        <v>629.447021484375</v>
       </c>
       <c r="FQ2" t="n">
-        <v>390.7647094726562</v>
+        <v>632.961669921875</v>
       </c>
       <c r="FR2" t="n">
-        <v>390.8275756835938</v>
+        <v>664.376953125</v>
       </c>
       <c r="FS2" t="n">
-        <v>390.8519287109375</v>
+        <v>688.400634765625</v>
       </c>
       <c r="FT2" t="n">
-        <v>390.8388977050781</v>
+        <v>704.8794555664062</v>
       </c>
       <c r="FU2" t="n">
-        <v>390.8327026367188</v>
+        <v>693.4365234375</v>
       </c>
       <c r="FV2" t="n">
-        <v>390.9747924804688</v>
+        <v>661.886474609375</v>
       </c>
       <c r="FW2" t="n">
-        <v>391.4192199707031</v>
+        <v>656.7162475585938</v>
       </c>
       <c r="FX2" t="n">
-        <v>391.36376953125</v>
+        <v>654.7625732421875</v>
       </c>
       <c r="FY2" t="n">
-        <v>389.93505859375</v>
+        <v>639.7495727539062</v>
       </c>
       <c r="FZ2" t="n">
-        <v>388.383544921875</v>
+        <v>606.4856567382812</v>
       </c>
       <c r="GA2" t="n">
-        <v>387.4219055175781</v>
+        <v>574.7402954101562</v>
       </c>
       <c r="GB2" t="n">
-        <v>387.8411254882812</v>
+        <v>604.0985107421875</v>
       </c>
       <c r="GC2" t="n">
-        <v>387.77685546875</v>
+        <v>621.0963134765625</v>
       </c>
       <c r="GD2" t="n">
-        <v>386.9244384765625</v>
+        <v>622.1813354492188</v>
       </c>
       <c r="GE2" t="n">
-        <v>386.9900512695312</v>
+        <v>611.9832153320312</v>
       </c>
       <c r="GF2" t="n">
-        <v>395.6610107421875</v>
+        <v>606.2188110351562</v>
       </c>
       <c r="GG2" t="n">
-        <v>401.8111572265625</v>
+        <v>573.8890991210938</v>
       </c>
       <c r="GH2" t="n">
-        <v>409.6033020019531</v>
+        <v>555.4345703125</v>
       </c>
       <c r="GI2" t="n">
-        <v>414.8137817382812</v>
+        <v>529.1306762695312</v>
       </c>
       <c r="GJ2" t="n">
-        <v>417.6808471679688</v>
+        <v>528.724365234375</v>
       </c>
       <c r="GK2" t="n">
-        <v>420.4642028808594</v>
+        <v>510.6138916015625</v>
       </c>
       <c r="GL2" t="n">
-        <v>422.257568359375</v>
+        <v>511.8468627929688</v>
       </c>
       <c r="GM2" t="n">
-        <v>422.4051513671875</v>
+        <v>516.0529174804688</v>
       </c>
       <c r="GN2" t="n">
-        <v>421.6720886230469</v>
+        <v>529.0357666015625</v>
       </c>
       <c r="GO2" t="n">
-        <v>420.966796875</v>
+        <v>524.6544189453125</v>
       </c>
       <c r="GP2" t="n">
-        <v>416.7822875976562</v>
+        <v>518.004150390625</v>
       </c>
       <c r="GQ2" t="n">
-        <v>411.4053955078125</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>407.7853088378906</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>404.2912292480469</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>398.5250244140625</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>395.8153991699219</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>385.0549926757812</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>378.6400756835938</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>378.408935546875</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>377.5927124023438</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>375.0400085449219</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>374.2716064453125</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>373.7486572265625</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>373.9149780273438</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>373.94189453125</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>373.2803955078125</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>373.8161926269531</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>375.3191833496094</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>376.4675598144531</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>378.2373657226562</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>377.5372924804688</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>373.2485656738281</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>374.537109375</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>376.0522766113281</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>376.4874877929688</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>376.5762939453125</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>377.34619140625</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>377.7783508300781</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>376.9839782714844</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>376.9800415039062</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>374.4964599609375</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>371.2971801757812</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>369.3528442382812</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>364.4033203125</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>361.2655334472656</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>359.7301635742188</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>356.5975341796875</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>354.481201171875</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>356.0057373046875</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>357.06298828125</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>361.0903930664062</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>366.7865600585938</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>374.5394592285156</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>387.2406616210938</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>397.037109375</v>
-      </c>
-      <c r="II2" t="n">
-        <v>405.324951171875</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>414.3887329101562</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>414.7614135742188</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>357.150634765625</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>320.5000305175781</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>295.9362487792969</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>389.3074951171875</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>348.4989929199219</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>247.3156127929688</v>
-      </c>
-      <c r="IR2" t="n">
-        <v>220.946044921875</v>
-      </c>
-      <c r="IS2" t="n">
-        <v>215.4324645996094</v>
-      </c>
-      <c r="IT2" t="n">
-        <v>322.0715637207031</v>
-      </c>
-      <c r="IU2" t="n">
-        <v>304.8012084960938</v>
-      </c>
-      <c r="IV2" t="n">
-        <v>333.5900573730469</v>
-      </c>
-      <c r="IW2" t="n">
-        <v>310.9146423339844</v>
-      </c>
-      <c r="IX2" t="n">
-        <v>319.4284057617188</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>325.1037292480469</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>332.7167053222656</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>334.0119018554688</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>333.1015319824219</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>319.0714721679688</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>307.456298828125</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>303.80029296875</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>296.6046447753906</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>283.1757507324219</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>273.084716796875</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>286.2358703613281</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>303.3663330078125</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>304.9884948730469</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>307.8225708007812</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>335.7686767578125</v>
+        <v>512.7378540039062</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>286.9312438964844</v>
+        <v>303.3401489257812</v>
       </c>
       <c r="B3" t="n">
-        <v>286.7286376953125</v>
+        <v>303.3326110839844</v>
       </c>
       <c r="C3" t="n">
-        <v>286.6819458007812</v>
+        <v>301.7195434570312</v>
       </c>
       <c r="D3" t="n">
-        <v>286.6658935546875</v>
+        <v>301.1876831054688</v>
       </c>
       <c r="E3" t="n">
-        <v>286.6637878417969</v>
+        <v>300.3437805175781</v>
       </c>
       <c r="F3" t="n">
-        <v>286.6676025390625</v>
+        <v>301.1430053710938</v>
       </c>
       <c r="G3" t="n">
-        <v>286.6761169433594</v>
+        <v>300.1084289550781</v>
       </c>
       <c r="H3" t="n">
-        <v>286.7017822265625</v>
+        <v>299.1076049804688</v>
       </c>
       <c r="I3" t="n">
-        <v>286.7256164550781</v>
+        <v>296.7639465332031</v>
       </c>
       <c r="J3" t="n">
-        <v>286.7642211914062</v>
+        <v>293.1858825683594</v>
       </c>
       <c r="K3" t="n">
-        <v>286.8002014160156</v>
+        <v>293.1935424804688</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7494201660156</v>
+        <v>291.4887084960938</v>
       </c>
       <c r="M3" t="n">
-        <v>286.6720581054688</v>
+        <v>286.2711181640625</v>
       </c>
       <c r="N3" t="n">
-        <v>286.5950012207031</v>
+        <v>279.7112731933594</v>
       </c>
       <c r="O3" t="n">
-        <v>286.4136962890625</v>
+        <v>272.5555419921875</v>
       </c>
       <c r="P3" t="n">
-        <v>285.9184265136719</v>
+        <v>267.0662231445312</v>
       </c>
       <c r="Q3" t="n">
-        <v>284.9150695800781</v>
+        <v>264.3705139160156</v>
       </c>
       <c r="R3" t="n">
-        <v>281.9464721679688</v>
+        <v>258.9186706542969</v>
       </c>
       <c r="S3" t="n">
-        <v>277.7384948730469</v>
+        <v>252.3670349121094</v>
       </c>
       <c r="T3" t="n">
-        <v>273.4366455078125</v>
+        <v>246.1498260498047</v>
       </c>
       <c r="U3" t="n">
-        <v>272.1886596679688</v>
+        <v>242.6922454833984</v>
       </c>
       <c r="V3" t="n">
-        <v>267.1563110351562</v>
+        <v>240.8007507324219</v>
       </c>
       <c r="W3" t="n">
-        <v>263.7200012207031</v>
+        <v>238.7724914550781</v>
       </c>
       <c r="X3" t="n">
-        <v>265.4202575683594</v>
+        <v>236.9717712402344</v>
       </c>
       <c r="Y3" t="n">
-        <v>266.6446228027344</v>
+        <v>234.7262268066406</v>
       </c>
       <c r="Z3" t="n">
-        <v>267.7624816894531</v>
+        <v>231.1531677246094</v>
       </c>
       <c r="AA3" t="n">
-        <v>266.3134460449219</v>
+        <v>226.1950531005859</v>
       </c>
       <c r="AB3" t="n">
-        <v>265.11474609375</v>
+        <v>220.3919677734375</v>
       </c>
       <c r="AC3" t="n">
-        <v>265.3709411621094</v>
+        <v>216.0649719238281</v>
       </c>
       <c r="AD3" t="n">
-        <v>264.4459838867188</v>
+        <v>214.1896514892578</v>
       </c>
       <c r="AE3" t="n">
-        <v>265.5357971191406</v>
+        <v>212.6756286621094</v>
       </c>
       <c r="AF3" t="n">
-        <v>267.6694030761719</v>
+        <v>211.4929504394531</v>
       </c>
       <c r="AG3" t="n">
-        <v>270.6798095703125</v>
+        <v>211.2431335449219</v>
       </c>
       <c r="AH3" t="n">
-        <v>273.1718444824219</v>
+        <v>211.3012542724609</v>
       </c>
       <c r="AI3" t="n">
-        <v>275.0095825195312</v>
+        <v>212.1243286132812</v>
       </c>
       <c r="AJ3" t="n">
-        <v>276.6421203613281</v>
+        <v>212.5482940673828</v>
       </c>
       <c r="AK3" t="n">
-        <v>278.3231811523438</v>
+        <v>212.242919921875</v>
       </c>
       <c r="AL3" t="n">
-        <v>282.0016784667969</v>
+        <v>212.0816650390625</v>
       </c>
       <c r="AM3" t="n">
-        <v>285.0144653320312</v>
+        <v>211.895751953125</v>
       </c>
       <c r="AN3" t="n">
-        <v>282.9804077148438</v>
+        <v>212.1493682861328</v>
       </c>
       <c r="AO3" t="n">
-        <v>285.7900390625</v>
+        <v>213.1021423339844</v>
       </c>
       <c r="AP3" t="n">
-        <v>282.8658142089844</v>
+        <v>215.6820068359375</v>
       </c>
       <c r="AQ3" t="n">
-        <v>282.4191284179688</v>
+        <v>223.2425231933594</v>
       </c>
       <c r="AR3" t="n">
-        <v>280.002685546875</v>
+        <v>228.8815765380859</v>
       </c>
       <c r="AS3" t="n">
-        <v>281.8396911621094</v>
+        <v>233.8710021972656</v>
       </c>
       <c r="AT3" t="n">
-        <v>286.2605285644531</v>
+        <v>237.7216644287109</v>
       </c>
       <c r="AU3" t="n">
-        <v>293.4314270019531</v>
+        <v>237.2462310791016</v>
       </c>
       <c r="AV3" t="n">
-        <v>295.5709533691406</v>
+        <v>239.1333923339844</v>
       </c>
       <c r="AW3" t="n">
-        <v>296.8462829589844</v>
+        <v>242.4695739746094</v>
       </c>
       <c r="AX3" t="n">
-        <v>297.2931823730469</v>
+        <v>243.1366271972656</v>
       </c>
       <c r="AY3" t="n">
-        <v>298.376708984375</v>
+        <v>243.8875274658203</v>
       </c>
       <c r="AZ3" t="n">
-        <v>299.0552673339844</v>
+        <v>247.4660339355469</v>
       </c>
       <c r="BA3" t="n">
-        <v>298.2440490722656</v>
+        <v>248.7742919921875</v>
       </c>
       <c r="BB3" t="n">
-        <v>296.9220886230469</v>
+        <v>250.4476623535156</v>
       </c>
       <c r="BC3" t="n">
-        <v>294.7135620117188</v>
+        <v>251.9868316650391</v>
       </c>
       <c r="BD3" t="n">
-        <v>293.1090698242188</v>
+        <v>251.9237365722656</v>
       </c>
       <c r="BE3" t="n">
-        <v>293.5162048339844</v>
+        <v>251.5072326660156</v>
       </c>
       <c r="BF3" t="n">
-        <v>292.4654541015625</v>
+        <v>249.2095489501953</v>
       </c>
       <c r="BG3" t="n">
-        <v>290.3440246582031</v>
+        <v>247.5103912353516</v>
       </c>
       <c r="BH3" t="n">
-        <v>288.9139404296875</v>
+        <v>246.8919677734375</v>
       </c>
       <c r="BI3" t="n">
-        <v>287.94970703125</v>
+        <v>246.5624694824219</v>
       </c>
       <c r="BJ3" t="n">
-        <v>287.6275634765625</v>
+        <v>246.9775695800781</v>
       </c>
       <c r="BK3" t="n">
-        <v>287.9221496582031</v>
+        <v>246.8532104492188</v>
       </c>
       <c r="BL3" t="n">
-        <v>289.3535461425781</v>
+        <v>247.6245727539062</v>
       </c>
       <c r="BM3" t="n">
-        <v>289.8580017089844</v>
+        <v>247.0347747802734</v>
       </c>
       <c r="BN3" t="n">
-        <v>289.0108642578125</v>
+        <v>246.2954254150391</v>
       </c>
       <c r="BO3" t="n">
-        <v>290.2275390625</v>
+        <v>245.1455841064453</v>
       </c>
       <c r="BP3" t="n">
-        <v>291.9968872070312</v>
+        <v>239.869140625</v>
       </c>
       <c r="BQ3" t="n">
-        <v>292.7338256835938</v>
+        <v>234.2357025146484</v>
       </c>
       <c r="BR3" t="n">
-        <v>292.8341064453125</v>
+        <v>229.4744873046875</v>
       </c>
       <c r="BS3" t="n">
-        <v>291.1958312988281</v>
+        <v>226.9975738525391</v>
       </c>
       <c r="BT3" t="n">
-        <v>293.504150390625</v>
+        <v>226.0735321044922</v>
       </c>
       <c r="BU3" t="n">
-        <v>293.4649353027344</v>
+        <v>224.2417297363281</v>
       </c>
       <c r="BV3" t="n">
-        <v>294.3787231445312</v>
+        <v>223.7219085693359</v>
       </c>
       <c r="BW3" t="n">
-        <v>293.5515441894531</v>
+        <v>223.1259155273438</v>
       </c>
       <c r="BX3" t="n">
-        <v>294.1758422851562</v>
+        <v>223.1949615478516</v>
       </c>
       <c r="BY3" t="n">
-        <v>295.099365234375</v>
+        <v>223.2633666992188</v>
       </c>
       <c r="BZ3" t="n">
-        <v>295.1504821777344</v>
+        <v>223.4545593261719</v>
       </c>
       <c r="CA3" t="n">
-        <v>294.9587097167969</v>
+        <v>224.4088592529297</v>
       </c>
       <c r="CB3" t="n">
-        <v>295.1728820800781</v>
+        <v>227.4555206298828</v>
       </c>
       <c r="CC3" t="n">
-        <v>294.8720092773438</v>
+        <v>233.6418151855469</v>
       </c>
       <c r="CD3" t="n">
-        <v>293.9125061035156</v>
+        <v>238.8981323242188</v>
       </c>
       <c r="CE3" t="n">
-        <v>293.9261169433594</v>
+        <v>240.5047760009766</v>
       </c>
       <c r="CF3" t="n">
-        <v>292.6830444335938</v>
+        <v>242.2031860351562</v>
       </c>
       <c r="CG3" t="n">
-        <v>292.970458984375</v>
+        <v>243.1401214599609</v>
       </c>
       <c r="CH3" t="n">
-        <v>292.822509765625</v>
+        <v>244.7968444824219</v>
       </c>
       <c r="CI3" t="n">
-        <v>292.80419921875</v>
+        <v>247.5063781738281</v>
       </c>
       <c r="CJ3" t="n">
-        <v>293.6513366699219</v>
+        <v>249.8549957275391</v>
       </c>
       <c r="CK3" t="n">
-        <v>293.3304748535156</v>
+        <v>252.1150360107422</v>
       </c>
       <c r="CL3" t="n">
-        <v>294.2773132324219</v>
+        <v>254.4312591552734</v>
       </c>
       <c r="CM3" t="n">
-        <v>295.0214233398438</v>
+        <v>255.2109375</v>
       </c>
       <c r="CN3" t="n">
-        <v>295.6564331054688</v>
+        <v>255.7985076904297</v>
       </c>
       <c r="CO3" t="n">
-        <v>295.139892578125</v>
+        <v>255.9252777099609</v>
       </c>
       <c r="CP3" t="n">
-        <v>295.910888671875</v>
+        <v>256.1245727539062</v>
       </c>
       <c r="CQ3" t="n">
-        <v>295.8442687988281</v>
+        <v>256.1221618652344</v>
       </c>
       <c r="CR3" t="n">
-        <v>296.1653442382812</v>
+        <v>255.6333160400391</v>
       </c>
       <c r="CS3" t="n">
-        <v>295.5668640136719</v>
+        <v>255.3219299316406</v>
       </c>
       <c r="CT3" t="n">
-        <v>295.4385375976562</v>
+        <v>252.9057006835938</v>
       </c>
       <c r="CU3" t="n">
-        <v>294.7809753417969</v>
+        <v>249.2770690917969</v>
       </c>
       <c r="CV3" t="n">
-        <v>294.7677917480469</v>
+        <v>245.0087890625</v>
       </c>
       <c r="CW3" t="n">
-        <v>293.3577270507812</v>
+        <v>241.9776000976562</v>
       </c>
       <c r="CX3" t="n">
-        <v>290.530517578125</v>
+        <v>241.2556457519531</v>
       </c>
       <c r="CY3" t="n">
-        <v>286.4145812988281</v>
+        <v>242.6628723144531</v>
       </c>
       <c r="CZ3" t="n">
-        <v>284.8564147949219</v>
+        <v>243.8120269775391</v>
       </c>
       <c r="DA3" t="n">
-        <v>280.948974609375</v>
+        <v>241.1642303466797</v>
       </c>
       <c r="DB3" t="n">
-        <v>279.8653869628906</v>
+        <v>236.8461608886719</v>
       </c>
       <c r="DC3" t="n">
-        <v>278.3688659667969</v>
+        <v>233.6824798583984</v>
       </c>
       <c r="DD3" t="n">
-        <v>275.8783264160156</v>
+        <v>242.4550170898438</v>
       </c>
       <c r="DE3" t="n">
-        <v>273.9365234375</v>
+        <v>243.5591735839844</v>
       </c>
       <c r="DF3" t="n">
-        <v>272.3331298828125</v>
+        <v>245.0201263427734</v>
       </c>
       <c r="DG3" t="n">
-        <v>270.2915954589844</v>
+        <v>245.6960144042969</v>
       </c>
       <c r="DH3" t="n">
-        <v>266.531494140625</v>
+        <v>246.5869903564453</v>
       </c>
       <c r="DI3" t="n">
-        <v>263.9893188476562</v>
+        <v>247.5424499511719</v>
       </c>
       <c r="DJ3" t="n">
-        <v>261.4461975097656</v>
+        <v>248.9810638427734</v>
       </c>
       <c r="DK3" t="n">
-        <v>259.1650085449219</v>
+        <v>248.1969757080078</v>
       </c>
       <c r="DL3" t="n">
-        <v>257.3433227539062</v>
+        <v>249.0846862792969</v>
       </c>
       <c r="DM3" t="n">
-        <v>255.9272918701172</v>
+        <v>248.9167175292969</v>
       </c>
       <c r="DN3" t="n">
-        <v>254.4351806640625</v>
+        <v>254.0276184082031</v>
       </c>
       <c r="DO3" t="n">
-        <v>250.9679565429688</v>
+        <v>258.8287963867188</v>
       </c>
       <c r="DP3" t="n">
-        <v>250.10791015625</v>
+        <v>258.6600341796875</v>
       </c>
       <c r="DQ3" t="n">
-        <v>249.0784912109375</v>
+        <v>257.4297790527344</v>
       </c>
       <c r="DR3" t="n">
-        <v>248.5289916992188</v>
+        <v>255.4595642089844</v>
       </c>
       <c r="DS3" t="n">
-        <v>247.8245849609375</v>
+        <v>253.5683135986328</v>
       </c>
       <c r="DT3" t="n">
-        <v>247.5119018554688</v>
+        <v>252.6664428710938</v>
       </c>
       <c r="DU3" t="n">
-        <v>247.1143951416016</v>
+        <v>252.9712829589844</v>
       </c>
       <c r="DV3" t="n">
-        <v>246.6812286376953</v>
+        <v>253.5949554443359</v>
       </c>
       <c r="DW3" t="n">
-        <v>246.3902893066406</v>
+        <v>249.364501953125</v>
       </c>
       <c r="DX3" t="n">
-        <v>246.7433166503906</v>
+        <v>247.8821411132812</v>
       </c>
       <c r="DY3" t="n">
-        <v>247.480224609375</v>
+        <v>247.5921020507812</v>
       </c>
       <c r="DZ3" t="n">
-        <v>257.2402038574219</v>
+        <v>249.5613403320312</v>
       </c>
       <c r="EA3" t="n">
-        <v>261.5702514648438</v>
+        <v>250.1804656982422</v>
       </c>
       <c r="EB3" t="n">
-        <v>266.4894714355469</v>
+        <v>251.75</v>
       </c>
       <c r="EC3" t="n">
-        <v>271.9688415527344</v>
+        <v>252.4913330078125</v>
       </c>
       <c r="ED3" t="n">
-        <v>274.3604736328125</v>
+        <v>253.8723602294922</v>
       </c>
       <c r="EE3" t="n">
-        <v>280.8416748046875</v>
+        <v>254.6688385009766</v>
       </c>
       <c r="EF3" t="n">
-        <v>286.0198669433594</v>
+        <v>255.6297454833984</v>
       </c>
       <c r="EG3" t="n">
-        <v>289.3665161132812</v>
+        <v>259.7064208984375</v>
       </c>
       <c r="EH3" t="n">
-        <v>290.9639282226562</v>
+        <v>263.1114501953125</v>
       </c>
       <c r="EI3" t="n">
-        <v>293.3252868652344</v>
+        <v>264.2507629394531</v>
       </c>
       <c r="EJ3" t="n">
-        <v>296.1748962402344</v>
+        <v>262.1616821289062</v>
       </c>
       <c r="EK3" t="n">
-        <v>295.66748046875</v>
+        <v>265.984130859375</v>
       </c>
       <c r="EL3" t="n">
-        <v>295.0202941894531</v>
+        <v>269.3208312988281</v>
       </c>
       <c r="EM3" t="n">
-        <v>295.5458984375</v>
+        <v>269.0353088378906</v>
       </c>
       <c r="EN3" t="n">
-        <v>296.7860717773438</v>
+        <v>269.2004699707031</v>
       </c>
       <c r="EO3" t="n">
-        <v>296.9662780761719</v>
+        <v>273.4501647949219</v>
       </c>
       <c r="EP3" t="n">
-        <v>296.8052062988281</v>
+        <v>273.1125793457031</v>
       </c>
       <c r="EQ3" t="n">
-        <v>296.7928161621094</v>
+        <v>278.3357543945312</v>
       </c>
       <c r="ER3" t="n">
-        <v>297.0335693359375</v>
+        <v>275.7705993652344</v>
       </c>
       <c r="ES3" t="n">
-        <v>297.4052429199219</v>
+        <v>273.3974914550781</v>
       </c>
       <c r="ET3" t="n">
-        <v>298.4594421386719</v>
+        <v>275.9613952636719</v>
       </c>
       <c r="EU3" t="n">
-        <v>299.17822265625</v>
+        <v>282.0166015625</v>
       </c>
       <c r="EV3" t="n">
-        <v>299.7180786132812</v>
+        <v>281.2516479492188</v>
       </c>
       <c r="EW3" t="n">
-        <v>300.3172302246094</v>
+        <v>279.4450988769531</v>
       </c>
       <c r="EX3" t="n">
-        <v>300.4094848632812</v>
+        <v>275.7686767578125</v>
       </c>
       <c r="EY3" t="n">
-        <v>300.4046020507812</v>
+        <v>280.61767578125</v>
       </c>
       <c r="EZ3" t="n">
-        <v>300.2824096679688</v>
+        <v>275.1139221191406</v>
       </c>
       <c r="FA3" t="n">
-        <v>299.9136352539062</v>
+        <v>274.3773803710938</v>
       </c>
       <c r="FB3" t="n">
-        <v>299.9053649902344</v>
+        <v>275.8775024414062</v>
       </c>
       <c r="FC3" t="n">
-        <v>299.8486022949219</v>
+        <v>274.7957763671875</v>
       </c>
       <c r="FD3" t="n">
-        <v>299.6438598632812</v>
+        <v>274.1736450195312</v>
       </c>
       <c r="FE3" t="n">
-        <v>299.2792053222656</v>
+        <v>274.6265258789062</v>
       </c>
       <c r="FF3" t="n">
-        <v>299.1605224609375</v>
+        <v>275.92529296875</v>
       </c>
       <c r="FG3" t="n">
-        <v>299.3070983886719</v>
+        <v>277.8581237792969</v>
       </c>
       <c r="FH3" t="n">
-        <v>298.9474792480469</v>
+        <v>279.2476501464844</v>
       </c>
       <c r="FI3" t="n">
-        <v>298.7298889160156</v>
+        <v>276.9812622070312</v>
       </c>
       <c r="FJ3" t="n">
-        <v>298.7494506835938</v>
+        <v>281.4915161132812</v>
       </c>
       <c r="FK3" t="n">
-        <v>298.6022338867188</v>
+        <v>286.5179748535156</v>
       </c>
       <c r="FL3" t="n">
-        <v>298.4462280273438</v>
+        <v>285.6254272460938</v>
       </c>
       <c r="FM3" t="n">
-        <v>298.5238952636719</v>
+        <v>283.0481567382812</v>
       </c>
       <c r="FN3" t="n">
-        <v>298.5375671386719</v>
+        <v>285.4802856445312</v>
       </c>
       <c r="FO3" t="n">
-        <v>298.5555114746094</v>
+        <v>288.1506042480469</v>
       </c>
       <c r="FP3" t="n">
-        <v>298.5828552246094</v>
+        <v>357.9497680664062</v>
       </c>
       <c r="FQ3" t="n">
-        <v>298.6096801757812</v>
+        <v>395.2251586914062</v>
       </c>
       <c r="FR3" t="n">
-        <v>298.5806274414062</v>
+        <v>394.1678466796875</v>
       </c>
       <c r="FS3" t="n">
-        <v>298.3214111328125</v>
+        <v>372.2043762207031</v>
       </c>
       <c r="FT3" t="n">
-        <v>298.2957763671875</v>
+        <v>352.9231567382812</v>
       </c>
       <c r="FU3" t="n">
-        <v>298.1285705566406</v>
+        <v>378.8214111328125</v>
       </c>
       <c r="FV3" t="n">
-        <v>298.1741333007812</v>
+        <v>397.1083679199219</v>
       </c>
       <c r="FW3" t="n">
-        <v>298.5668029785156</v>
+        <v>396.5262451171875</v>
       </c>
       <c r="FX3" t="n">
-        <v>298.6379699707031</v>
+        <v>403.9700012207031</v>
       </c>
       <c r="FY3" t="n">
-        <v>298.8746032714844</v>
+        <v>409.693603515625</v>
       </c>
       <c r="FZ3" t="n">
-        <v>299.0970153808594</v>
+        <v>420.3375854492188</v>
       </c>
       <c r="GA3" t="n">
-        <v>299.0929565429688</v>
+        <v>412.43994140625</v>
       </c>
       <c r="GB3" t="n">
-        <v>298.9900207519531</v>
+        <v>396.6356506347656</v>
       </c>
       <c r="GC3" t="n">
-        <v>299.1512145996094</v>
+        <v>385.3566589355469</v>
       </c>
       <c r="GD3" t="n">
-        <v>298.5730590820312</v>
+        <v>386.7656860351562</v>
       </c>
       <c r="GE3" t="n">
-        <v>298.1872863769531</v>
+        <v>387.6273498535156</v>
       </c>
       <c r="GF3" t="n">
-        <v>295.3477783203125</v>
+        <v>387.7464294433594</v>
       </c>
       <c r="GG3" t="n">
-        <v>292.577880859375</v>
+        <v>379.4722900390625</v>
       </c>
       <c r="GH3" t="n">
-        <v>287.7359619140625</v>
+        <v>370.4471130371094</v>
       </c>
       <c r="GI3" t="n">
-        <v>280.8359680175781</v>
+        <v>378.1397399902344</v>
       </c>
       <c r="GJ3" t="n">
-        <v>277.82763671875</v>
+        <v>400.6720275878906</v>
       </c>
       <c r="GK3" t="n">
-        <v>274.8350524902344</v>
+        <v>376.0933837890625</v>
       </c>
       <c r="GL3" t="n">
-        <v>273.2331237792969</v>
+        <v>387.0116577148438</v>
       </c>
       <c r="GM3" t="n">
-        <v>273.28515625</v>
+        <v>395.80078125</v>
       </c>
       <c r="GN3" t="n">
-        <v>273.8089599609375</v>
+        <v>415.6184387207031</v>
       </c>
       <c r="GO3" t="n">
-        <v>274.2856140136719</v>
+        <v>416.8351135253906</v>
       </c>
       <c r="GP3" t="n">
-        <v>276.7805480957031</v>
+        <v>415.7143249511719</v>
       </c>
       <c r="GQ3" t="n">
-        <v>280.0003967285156</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>282.975830078125</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>286.2556762695312</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>289.2691040039062</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>290.8897399902344</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>293.8861999511719</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>295.8552551269531</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>297.1691589355469</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>297.5755615234375</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>297.8067016601562</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>297.6599426269531</v>
-      </c>
-      <c r="HB3" t="n">
-        <v>297.4754638671875</v>
-      </c>
-      <c r="HC3" t="n">
-        <v>298.1095886230469</v>
-      </c>
-      <c r="HD3" t="n">
-        <v>298.4832763671875</v>
-      </c>
-      <c r="HE3" t="n">
-        <v>299.8328857421875</v>
-      </c>
-      <c r="HF3" t="n">
-        <v>300.4757995605469</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>302.8648681640625</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>303.5662841796875</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>301.5860290527344</v>
-      </c>
-      <c r="HJ3" t="n">
-        <v>300.5324401855469</v>
-      </c>
-      <c r="HK3" t="n">
-        <v>297.8350830078125</v>
-      </c>
-      <c r="HL3" t="n">
-        <v>296.8483276367188</v>
-      </c>
-      <c r="HM3" t="n">
-        <v>297.2964477539062</v>
-      </c>
-      <c r="HN3" t="n">
-        <v>297.6701965332031</v>
-      </c>
-      <c r="HO3" t="n">
-        <v>297.0656433105469</v>
-      </c>
-      <c r="HP3" t="n">
-        <v>295.9959106445312</v>
-      </c>
-      <c r="HQ3" t="n">
-        <v>296.6706237792969</v>
-      </c>
-      <c r="HR3" t="n">
-        <v>297.2128601074219</v>
-      </c>
-      <c r="HS3" t="n">
-        <v>295.9462585449219</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>294.1295776367188</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>292.080322265625</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>291.1723937988281</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>287.314697265625</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>283.1896362304688</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>282.3719787597656</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>283.4197387695312</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>282.5438537597656</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>276.9797058105469</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>275.5106506347656</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>273.0354919433594</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>272.6083679199219</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>269.6206359863281</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>266.6565856933594</v>
-      </c>
-      <c r="IH3" t="n">
-        <v>268.2249450683594</v>
-      </c>
-      <c r="II3" t="n">
-        <v>268.3609924316406</v>
-      </c>
-      <c r="IJ3" t="n">
-        <v>265.0903625488281</v>
-      </c>
-      <c r="IK3" t="n">
-        <v>262.140380859375</v>
-      </c>
-      <c r="IL3" t="n">
-        <v>260.3053588867188</v>
-      </c>
-      <c r="IM3" t="n">
-        <v>245.9708099365234</v>
-      </c>
-      <c r="IN3" t="n">
-        <v>247.0903625488281</v>
-      </c>
-      <c r="IO3" t="n">
-        <v>477.9994201660156</v>
-      </c>
-      <c r="IP3" t="n">
-        <v>510.0347900390625</v>
-      </c>
-      <c r="IQ3" t="n">
-        <v>340.8305053710938</v>
-      </c>
-      <c r="IR3" t="n">
-        <v>386.3231811523438</v>
-      </c>
-      <c r="IS3" t="n">
-        <v>404.3828430175781</v>
-      </c>
-      <c r="IT3" t="n">
-        <v>340.9712524414062</v>
-      </c>
-      <c r="IU3" t="n">
-        <v>349.2074584960938</v>
-      </c>
-      <c r="IV3" t="n">
-        <v>337.5025024414062</v>
-      </c>
-      <c r="IW3" t="n">
-        <v>381.7577819824219</v>
-      </c>
-      <c r="IX3" t="n">
-        <v>381.3074645996094</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>402.633544921875</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>438.0234985351562</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>448.5271911621094</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>432.6924133300781</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>407.4319152832031</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>397.4077758789062</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>386.0578002929688</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>359.0619201660156</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>358.4158325195312</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>366.9368591308594</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>355.31103515625</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>356.2236328125</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>368.98974609375</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>393.138916015625</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>411.6161193847656</v>
+        <v>412.2909851074219</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>853.3414916992188</v>
+        <v>1199.320068359375</v>
       </c>
       <c r="B4" t="n">
-        <v>854.1148681640625</v>
+        <v>1187.875366210938</v>
       </c>
       <c r="C4" t="n">
-        <v>854.0692138671875</v>
+        <v>1179.519287109375</v>
       </c>
       <c r="D4" t="n">
-        <v>854.1152954101562</v>
+        <v>1179.363525390625</v>
       </c>
       <c r="E4" t="n">
-        <v>854.1642456054688</v>
+        <v>1175.521606445312</v>
       </c>
       <c r="F4" t="n">
-        <v>854.1795654296875</v>
+        <v>1169.580688476562</v>
       </c>
       <c r="G4" t="n">
-        <v>854.1954956054688</v>
+        <v>1162.833862304688</v>
       </c>
       <c r="H4" t="n">
-        <v>854.2174682617188</v>
+        <v>1150.834594726562</v>
       </c>
       <c r="I4" t="n">
-        <v>854.2374877929688</v>
+        <v>1136.911254882812</v>
       </c>
       <c r="J4" t="n">
-        <v>854.2486572265625</v>
+        <v>1127.908569335938</v>
       </c>
       <c r="K4" t="n">
-        <v>854.22900390625</v>
+        <v>1141.099365234375</v>
       </c>
       <c r="L4" t="n">
-        <v>854.3837280273438</v>
+        <v>1153.852905273438</v>
       </c>
       <c r="M4" t="n">
-        <v>854.3756103515625</v>
+        <v>1157.65869140625</v>
       </c>
       <c r="N4" t="n">
-        <v>854.3280639648438</v>
+        <v>1154.428466796875</v>
       </c>
       <c r="O4" t="n">
-        <v>854.1705322265625</v>
+        <v>1158.632080078125</v>
       </c>
       <c r="P4" t="n">
-        <v>853.2130126953125</v>
+        <v>1170.666259765625</v>
       </c>
       <c r="Q4" t="n">
-        <v>849.0606079101562</v>
+        <v>1183.917602539062</v>
       </c>
       <c r="R4" t="n">
-        <v>832.7109985351562</v>
+        <v>1188.09033203125</v>
       </c>
       <c r="S4" t="n">
-        <v>802.9920043945312</v>
+        <v>1201.220581054688</v>
       </c>
       <c r="T4" t="n">
-        <v>773.66064453125</v>
+        <v>1217.0791015625</v>
       </c>
       <c r="U4" t="n">
-        <v>757.0560913085938</v>
+        <v>1234.509643554688</v>
       </c>
       <c r="V4" t="n">
-        <v>731.0300903320312</v>
+        <v>1241.073852539062</v>
       </c>
       <c r="W4" t="n">
-        <v>706.40576171875</v>
+        <v>1249.88623046875</v>
       </c>
       <c r="X4" t="n">
-        <v>692.69482421875</v>
+        <v>1255.5078125</v>
       </c>
       <c r="Y4" t="n">
-        <v>677.6286010742188</v>
+        <v>1265.764282226562</v>
       </c>
       <c r="Z4" t="n">
-        <v>663.6464233398438</v>
+        <v>1287.68505859375</v>
       </c>
       <c r="AA4" t="n">
-        <v>647.109130859375</v>
+        <v>1301.696411132812</v>
       </c>
       <c r="AB4" t="n">
-        <v>626.241943359375</v>
+        <v>1315.433837890625</v>
       </c>
       <c r="AC4" t="n">
-        <v>618.61181640625</v>
+        <v>1317.945678710938</v>
       </c>
       <c r="AD4" t="n">
-        <v>614.7578735351562</v>
+        <v>1319.333251953125</v>
       </c>
       <c r="AE4" t="n">
-        <v>613.0540161132812</v>
+        <v>1321.161010742188</v>
       </c>
       <c r="AF4" t="n">
-        <v>611.8565673828125</v>
+        <v>1321.139404296875</v>
       </c>
       <c r="AG4" t="n">
-        <v>610.0228881835938</v>
+        <v>1320.93310546875</v>
       </c>
       <c r="AH4" t="n">
-        <v>608.4059448242188</v>
+        <v>1320.603149414062</v>
       </c>
       <c r="AI4" t="n">
-        <v>607.9288940429688</v>
+        <v>1319.912719726562</v>
       </c>
       <c r="AJ4" t="n">
-        <v>609.1917114257812</v>
+        <v>1318.831909179688</v>
       </c>
       <c r="AK4" t="n">
-        <v>616.7494506835938</v>
+        <v>1316.38671875</v>
       </c>
       <c r="AL4" t="n">
-        <v>641.955322265625</v>
+        <v>1307.261596679688</v>
       </c>
       <c r="AM4" t="n">
-        <v>669.1171875</v>
+        <v>1286.967041015625</v>
       </c>
       <c r="AN4" t="n">
-        <v>698.7384033203125</v>
+        <v>1260.60009765625</v>
       </c>
       <c r="AO4" t="n">
-        <v>731.15771484375</v>
+        <v>1252.637084960938</v>
       </c>
       <c r="AP4" t="n">
-        <v>776.3916015625</v>
+        <v>1238.282836914062</v>
       </c>
       <c r="AQ4" t="n">
-        <v>816.6464233398438</v>
+        <v>1218.270751953125</v>
       </c>
       <c r="AR4" t="n">
-        <v>853.4069213867188</v>
+        <v>1203.727905273438</v>
       </c>
       <c r="AS4" t="n">
-        <v>895.8987426757812</v>
+        <v>1192.935302734375</v>
       </c>
       <c r="AT4" t="n">
-        <v>931.9820556640625</v>
+        <v>1182.400756835938</v>
       </c>
       <c r="AU4" t="n">
-        <v>964.661376953125</v>
+        <v>1172.583618164062</v>
       </c>
       <c r="AV4" t="n">
-        <v>1007.377136230469</v>
+        <v>1172.253173828125</v>
       </c>
       <c r="AW4" t="n">
-        <v>1052.078735351562</v>
+        <v>1171.302612304688</v>
       </c>
       <c r="AX4" t="n">
-        <v>1103.922119140625</v>
+        <v>1171.862548828125</v>
       </c>
       <c r="AY4" t="n">
-        <v>1153.459716796875</v>
+        <v>1174.45361328125</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1202.616333007812</v>
+        <v>1184.176147460938</v>
       </c>
       <c r="BA4" t="n">
-        <v>1241.6376953125</v>
+        <v>1209.1943359375</v>
       </c>
       <c r="BB4" t="n">
-        <v>1272.1123046875</v>
+        <v>1222.4677734375</v>
       </c>
       <c r="BC4" t="n">
-        <v>1310.3466796875</v>
+        <v>1231.3701171875</v>
       </c>
       <c r="BD4" t="n">
-        <v>1345.5166015625</v>
+        <v>1243.3671875</v>
       </c>
       <c r="BE4" t="n">
-        <v>1367.703735351562</v>
+        <v>1258.583740234375</v>
       </c>
       <c r="BF4" t="n">
-        <v>1396.015747070312</v>
+        <v>1272.413208007812</v>
       </c>
       <c r="BG4" t="n">
-        <v>1420.281982421875</v>
+        <v>1285.265014648438</v>
       </c>
       <c r="BH4" t="n">
-        <v>1433.242919921875</v>
+        <v>1294.034301757812</v>
       </c>
       <c r="BI4" t="n">
-        <v>1465.621826171875</v>
+        <v>1309.401123046875</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1478.779907226562</v>
+        <v>1318.788452148438</v>
       </c>
       <c r="BK4" t="n">
-        <v>1483.353637695312</v>
+        <v>1320.987670898438</v>
       </c>
       <c r="BL4" t="n">
-        <v>1492.355224609375</v>
+        <v>1324.5859375</v>
       </c>
       <c r="BM4" t="n">
-        <v>1492.757080078125</v>
+        <v>1324.276000976562</v>
       </c>
       <c r="BN4" t="n">
-        <v>1493.17626953125</v>
+        <v>1323.4716796875</v>
       </c>
       <c r="BO4" t="n">
-        <v>1497.369018554688</v>
+        <v>1318.625244140625</v>
       </c>
       <c r="BP4" t="n">
-        <v>1510.919555664062</v>
+        <v>1294.579467773438</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1536.267211914062</v>
+        <v>1274.359497070312</v>
       </c>
       <c r="BR4" t="n">
-        <v>1532.703735351562</v>
+        <v>1257.210205078125</v>
       </c>
       <c r="BS4" t="n">
-        <v>1541.822143554688</v>
+        <v>1265.5888671875</v>
       </c>
       <c r="BT4" t="n">
-        <v>1565.389770507812</v>
+        <v>1261.530883789062</v>
       </c>
       <c r="BU4" t="n">
-        <v>1590.013061523438</v>
+        <v>1260.514282226562</v>
       </c>
       <c r="BV4" t="n">
-        <v>1616.729858398438</v>
+        <v>1261.453247070312</v>
       </c>
       <c r="BW4" t="n">
-        <v>1655.21875</v>
+        <v>1260.02783203125</v>
       </c>
       <c r="BX4" t="n">
-        <v>1690.14990234375</v>
+        <v>1260.077758789062</v>
       </c>
       <c r="BY4" t="n">
-        <v>1713.544189453125</v>
+        <v>1260.038818359375</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1734.232666015625</v>
+        <v>1260.023559570312</v>
       </c>
       <c r="CA4" t="n">
-        <v>1766.421020507812</v>
+        <v>1262.799194335938</v>
       </c>
       <c r="CB4" t="n">
-        <v>1799.12060546875</v>
+        <v>1269.412963867188</v>
       </c>
       <c r="CC4" t="n">
-        <v>1831.157958984375</v>
+        <v>1274.335571289062</v>
       </c>
       <c r="CD4" t="n">
-        <v>1857.477905273438</v>
+        <v>1280.660522460938</v>
       </c>
       <c r="CE4" t="n">
-        <v>1875.577514648438</v>
+        <v>1284.084716796875</v>
       </c>
       <c r="CF4" t="n">
-        <v>1914.580810546875</v>
+        <v>1290.2041015625</v>
       </c>
       <c r="CG4" t="n">
-        <v>1933.2919921875</v>
+        <v>1292.601806640625</v>
       </c>
       <c r="CH4" t="n">
-        <v>1955.633911132812</v>
+        <v>1294.336303710938</v>
       </c>
       <c r="CI4" t="n">
-        <v>1977.083740234375</v>
+        <v>1297.425170898438</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1992.012084960938</v>
+        <v>1301.754760742188</v>
       </c>
       <c r="CK4" t="n">
-        <v>2006.1630859375</v>
+        <v>1308.708374023438</v>
       </c>
       <c r="CL4" t="n">
-        <v>2015.04296875</v>
+        <v>1330.006591796875</v>
       </c>
       <c r="CM4" t="n">
-        <v>2008.255249023438</v>
+        <v>1337.24462890625</v>
       </c>
       <c r="CN4" t="n">
-        <v>2003.098022460938</v>
+        <v>1341.73291015625</v>
       </c>
       <c r="CO4" t="n">
-        <v>2008.267333984375</v>
+        <v>1345.583740234375</v>
       </c>
       <c r="CP4" t="n">
-        <v>2007.514404296875</v>
+        <v>1344.663208007812</v>
       </c>
       <c r="CQ4" t="n">
-        <v>2006.683227539062</v>
+        <v>1343.493408203125</v>
       </c>
       <c r="CR4" t="n">
-        <v>2005.94140625</v>
+        <v>1338.564575195312</v>
       </c>
       <c r="CS4" t="n">
-        <v>2005.037719726562</v>
+        <v>1333.7802734375</v>
       </c>
       <c r="CT4" t="n">
-        <v>2003.859741210938</v>
+        <v>1323.092163085938</v>
       </c>
       <c r="CU4" t="n">
-        <v>2001.88037109375</v>
+        <v>1310.302856445312</v>
       </c>
       <c r="CV4" t="n">
-        <v>1996.668579101562</v>
+        <v>1301.411743164062</v>
       </c>
       <c r="CW4" t="n">
-        <v>1989.255126953125</v>
+        <v>1294.260498046875</v>
       </c>
       <c r="CX4" t="n">
-        <v>1986.184936523438</v>
+        <v>1297.3447265625</v>
       </c>
       <c r="CY4" t="n">
-        <v>1985.383666992188</v>
+        <v>1300.604736328125</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1985.629516601562</v>
+        <v>1305.393432617188</v>
       </c>
       <c r="DA4" t="n">
-        <v>1998.400756835938</v>
+        <v>1265.00390625</v>
       </c>
       <c r="DB4" t="n">
-        <v>2008.686157226562</v>
+        <v>1220.671142578125</v>
       </c>
       <c r="DC4" t="n">
-        <v>2024.425903320312</v>
+        <v>1200.176391601562</v>
       </c>
       <c r="DD4" t="n">
-        <v>2041.037841796875</v>
+        <v>1244.005981445312</v>
       </c>
       <c r="DE4" t="n">
-        <v>2055.02880859375</v>
+        <v>1283.204467773438</v>
       </c>
       <c r="DF4" t="n">
-        <v>2055.4443359375</v>
+        <v>1289.588012695312</v>
       </c>
       <c r="DG4" t="n">
-        <v>2057.49267578125</v>
+        <v>1291.969116210938</v>
       </c>
       <c r="DH4" t="n">
-        <v>2078.616943359375</v>
+        <v>1292.243896484375</v>
       </c>
       <c r="DI4" t="n">
-        <v>2091.17333984375</v>
+        <v>1291.11181640625</v>
       </c>
       <c r="DJ4" t="n">
-        <v>2109.10400390625</v>
+        <v>1286.754150390625</v>
       </c>
       <c r="DK4" t="n">
-        <v>2107.290283203125</v>
+        <v>1276.48681640625</v>
       </c>
       <c r="DL4" t="n">
-        <v>2107.95556640625</v>
+        <v>1243.319580078125</v>
       </c>
       <c r="DM4" t="n">
-        <v>2109.29736328125</v>
+        <v>1238.308837890625</v>
       </c>
       <c r="DN4" t="n">
-        <v>2114.859619140625</v>
+        <v>1230.64501953125</v>
       </c>
       <c r="DO4" t="n">
-        <v>2133.780029296875</v>
+        <v>1236.475341796875</v>
       </c>
       <c r="DP4" t="n">
-        <v>2140.841064453125</v>
+        <v>1260.218139648438</v>
       </c>
       <c r="DQ4" t="n">
-        <v>2143.91015625</v>
+        <v>1270.85791015625</v>
       </c>
       <c r="DR4" t="n">
-        <v>2141.599365234375</v>
+        <v>1274.552001953125</v>
       </c>
       <c r="DS4" t="n">
-        <v>2142.368408203125</v>
+        <v>1273.741943359375</v>
       </c>
       <c r="DT4" t="n">
-        <v>2144.3720703125</v>
+        <v>1273.961669921875</v>
       </c>
       <c r="DU4" t="n">
-        <v>2145.283203125</v>
+        <v>1273.953125</v>
       </c>
       <c r="DV4" t="n">
-        <v>2145.195556640625</v>
+        <v>1274.1005859375</v>
       </c>
       <c r="DW4" t="n">
-        <v>2141.966796875</v>
+        <v>1278.038818359375</v>
       </c>
       <c r="DX4" t="n">
-        <v>2123.2529296875</v>
+        <v>1282.501586914062</v>
       </c>
       <c r="DY4" t="n">
-        <v>2115.72412109375</v>
+        <v>1283.844604492188</v>
       </c>
       <c r="DZ4" t="n">
-        <v>2097.912109375</v>
+        <v>1273.825317382812</v>
       </c>
       <c r="EA4" t="n">
-        <v>2100.6640625</v>
+        <v>1263.098022460938</v>
       </c>
       <c r="EB4" t="n">
-        <v>2093.38525390625</v>
+        <v>1251.911254882812</v>
       </c>
       <c r="EC4" t="n">
-        <v>2077.77880859375</v>
+        <v>1247.335693359375</v>
       </c>
       <c r="ED4" t="n">
-        <v>2071.54248046875</v>
+        <v>1235.394165039062</v>
       </c>
       <c r="EE4" t="n">
-        <v>2067.361572265625</v>
+        <v>1227.284423828125</v>
       </c>
       <c r="EF4" t="n">
-        <v>2060.00927734375</v>
+        <v>1217.56494140625</v>
       </c>
       <c r="EG4" t="n">
-        <v>2083.291015625</v>
+        <v>1196.060180664062</v>
       </c>
       <c r="EH4" t="n">
-        <v>2091.91015625</v>
+        <v>1189.646728515625</v>
       </c>
       <c r="EI4" t="n">
-        <v>2102.219970703125</v>
+        <v>1173.416381835938</v>
       </c>
       <c r="EJ4" t="n">
-        <v>2148.57470703125</v>
+        <v>1157.54150390625</v>
       </c>
       <c r="EK4" t="n">
-        <v>2157.15380859375</v>
+        <v>1130.96533203125</v>
       </c>
       <c r="EL4" t="n">
-        <v>2164.487548828125</v>
+        <v>1124.281860351562</v>
       </c>
       <c r="EM4" t="n">
-        <v>2152.411376953125</v>
+        <v>1111.679443359375</v>
       </c>
       <c r="EN4" t="n">
-        <v>2129.316650390625</v>
+        <v>1094.174072265625</v>
       </c>
       <c r="EO4" t="n">
-        <v>2134.735595703125</v>
+        <v>1075.411010742188</v>
       </c>
       <c r="EP4" t="n">
-        <v>2131.5537109375</v>
+        <v>1054.875122070312</v>
       </c>
       <c r="EQ4" t="n">
-        <v>2123.46826171875</v>
+        <v>1066.30029296875</v>
       </c>
       <c r="ER4" t="n">
-        <v>2104.281005859375</v>
+        <v>1038.33447265625</v>
       </c>
       <c r="ES4" t="n">
-        <v>2097.171142578125</v>
+        <v>1051.238403320312</v>
       </c>
       <c r="ET4" t="n">
-        <v>2099.209228515625</v>
+        <v>1038.326416015625</v>
       </c>
       <c r="EU4" t="n">
-        <v>2098.943603515625</v>
+        <v>1011.353088378906</v>
       </c>
       <c r="EV4" t="n">
-        <v>2097.8525390625</v>
+        <v>980.8164672851562</v>
       </c>
       <c r="EW4" t="n">
-        <v>2096.18701171875</v>
+        <v>947.65185546875</v>
       </c>
       <c r="EX4" t="n">
-        <v>2095.76220703125</v>
+        <v>933.7843017578125</v>
       </c>
       <c r="EY4" t="n">
-        <v>2095.63671875</v>
+        <v>879.3692016601562</v>
       </c>
       <c r="EZ4" t="n">
-        <v>2095.736572265625</v>
+        <v>808.6990356445312</v>
       </c>
       <c r="FA4" t="n">
-        <v>2097.009033203125</v>
+        <v>780.2027587890625</v>
       </c>
       <c r="FB4" t="n">
-        <v>2096.840576171875</v>
+        <v>751.5949096679688</v>
       </c>
       <c r="FC4" t="n">
-        <v>2097.0380859375</v>
+        <v>704.01513671875</v>
       </c>
       <c r="FD4" t="n">
-        <v>2098.142333984375</v>
+        <v>678.4303588867188</v>
       </c>
       <c r="FE4" t="n">
-        <v>2100.41064453125</v>
+        <v>667.6923217773438</v>
       </c>
       <c r="FF4" t="n">
-        <v>2103.65234375</v>
+        <v>653.5467529296875</v>
       </c>
       <c r="FG4" t="n">
-        <v>2105.445068359375</v>
+        <v>642.8525390625</v>
       </c>
       <c r="FH4" t="n">
-        <v>2114.5625</v>
+        <v>634.2402954101562</v>
       </c>
       <c r="FI4" t="n">
-        <v>2117.259033203125</v>
+        <v>631.967041015625</v>
       </c>
       <c r="FJ4" t="n">
-        <v>2118.089599609375</v>
+        <v>622.8919067382812</v>
       </c>
       <c r="FK4" t="n">
-        <v>2117.97998046875</v>
+        <v>615.5271606445312</v>
       </c>
       <c r="FL4" t="n">
-        <v>2117.98046875</v>
+        <v>595.259521484375</v>
       </c>
       <c r="FM4" t="n">
-        <v>2118.227294921875</v>
+        <v>596.4367065429688</v>
       </c>
       <c r="FN4" t="n">
-        <v>2118.328369140625</v>
+        <v>594.3456420898438</v>
       </c>
       <c r="FO4" t="n">
-        <v>2118.5556640625</v>
+        <v>597.2999267578125</v>
       </c>
       <c r="FP4" t="n">
-        <v>2118.592529296875</v>
+        <v>590.837890625</v>
       </c>
       <c r="FQ4" t="n">
-        <v>2118.82080078125</v>
+        <v>585.848876953125</v>
       </c>
       <c r="FR4" t="n">
-        <v>2118.58154296875</v>
+        <v>568.1434326171875</v>
       </c>
       <c r="FS4" t="n">
-        <v>2118.475341796875</v>
+        <v>562.108154296875</v>
       </c>
       <c r="FT4" t="n">
-        <v>2118.020263671875</v>
+        <v>569.2094116210938</v>
       </c>
       <c r="FU4" t="n">
-        <v>2115.0556640625</v>
+        <v>582.30712890625</v>
       </c>
       <c r="FV4" t="n">
-        <v>2109.32958984375</v>
+        <v>605.9022216796875</v>
       </c>
       <c r="FW4" t="n">
-        <v>2087.66259765625</v>
+        <v>606.99609375</v>
       </c>
       <c r="FX4" t="n">
-        <v>2074.161376953125</v>
+        <v>611.0640258789062</v>
       </c>
       <c r="FY4" t="n">
-        <v>2072.587158203125</v>
+        <v>626.1842651367188</v>
       </c>
       <c r="FZ4" t="n">
-        <v>2071.60498046875</v>
+        <v>670.4520263671875</v>
       </c>
       <c r="GA4" t="n">
-        <v>2071.811767578125</v>
+        <v>667.2567138671875</v>
       </c>
       <c r="GB4" t="n">
-        <v>2071.794677734375</v>
+        <v>616.28515625</v>
       </c>
       <c r="GC4" t="n">
-        <v>2072.017333984375</v>
+        <v>577.6655883789062</v>
       </c>
       <c r="GD4" t="n">
-        <v>2107.0498046875</v>
+        <v>543.3935546875</v>
       </c>
       <c r="GE4" t="n">
-        <v>2115.876953125</v>
+        <v>527.2496337890625</v>
       </c>
       <c r="GF4" t="n">
-        <v>2110.29443359375</v>
+        <v>503.3128051757812</v>
       </c>
       <c r="GG4" t="n">
-        <v>2095.869384765625</v>
+        <v>471.6879272460938</v>
       </c>
       <c r="GH4" t="n">
-        <v>2028.569458007812</v>
+        <v>468.3184204101562</v>
       </c>
       <c r="GI4" t="n">
-        <v>2026.90478515625</v>
+        <v>440.6035766601562</v>
       </c>
       <c r="GJ4" t="n">
-        <v>2028.233520507812</v>
+        <v>401.9137878417969</v>
       </c>
       <c r="GK4" t="n">
-        <v>2028.434692382812</v>
+        <v>422.5552062988281</v>
       </c>
       <c r="GL4" t="n">
-        <v>2034.032958984375</v>
+        <v>408.1526184082031</v>
       </c>
       <c r="GM4" t="n">
-        <v>2045.07373046875</v>
+        <v>397.5466003417969</v>
       </c>
       <c r="GN4" t="n">
-        <v>2038.476806640625</v>
+        <v>373.0162963867188</v>
       </c>
       <c r="GO4" t="n">
-        <v>2036.827392578125</v>
+        <v>379.6796875</v>
       </c>
       <c r="GP4" t="n">
-        <v>2042.37451171875</v>
+        <v>386.2013244628906</v>
       </c>
       <c r="GQ4" t="n">
-        <v>2040.077270507812</v>
-      </c>
-      <c r="GR4" t="n">
-        <v>2035.390991210938</v>
-      </c>
-      <c r="GS4" t="n">
-        <v>2039.241943359375</v>
-      </c>
-      <c r="GT4" t="n">
-        <v>2068.728759765625</v>
-      </c>
-      <c r="GU4" t="n">
-        <v>2083.051025390625</v>
-      </c>
-      <c r="GV4" t="n">
-        <v>2121.7080078125</v>
-      </c>
-      <c r="GW4" t="n">
-        <v>2116.883544921875</v>
-      </c>
-      <c r="GX4" t="n">
-        <v>2097.609619140625</v>
-      </c>
-      <c r="GY4" t="n">
-        <v>2059.612060546875</v>
-      </c>
-      <c r="GZ4" t="n">
-        <v>2059.08203125</v>
-      </c>
-      <c r="HA4" t="n">
-        <v>2059.5478515625</v>
-      </c>
-      <c r="HB4" t="n">
-        <v>2057.742431640625</v>
-      </c>
-      <c r="HC4" t="n">
-        <v>2026.310791015625</v>
-      </c>
-      <c r="HD4" t="n">
-        <v>2010.80126953125</v>
-      </c>
-      <c r="HE4" t="n">
-        <v>1960.315185546875</v>
-      </c>
-      <c r="HF4" t="n">
-        <v>1938.310913085938</v>
-      </c>
-      <c r="HG4" t="n">
-        <v>1878.209106445312</v>
-      </c>
-      <c r="HH4" t="n">
-        <v>1826.801879882812</v>
-      </c>
-      <c r="HI4" t="n">
-        <v>1750.929077148438</v>
-      </c>
-      <c r="HJ4" t="n">
-        <v>1719.338989257812</v>
-      </c>
-      <c r="HK4" t="n">
-        <v>1673.256103515625</v>
-      </c>
-      <c r="HL4" t="n">
-        <v>1623.122192382812</v>
-      </c>
-      <c r="HM4" t="n">
-        <v>1577.097412109375</v>
-      </c>
-      <c r="HN4" t="n">
-        <v>1559.181640625</v>
-      </c>
-      <c r="HO4" t="n">
-        <v>1536.266845703125</v>
-      </c>
-      <c r="HP4" t="n">
-        <v>1504.868530273438</v>
-      </c>
-      <c r="HQ4" t="n">
-        <v>1476.858520507812</v>
-      </c>
-      <c r="HR4" t="n">
-        <v>1458.401245117188</v>
-      </c>
-      <c r="HS4" t="n">
-        <v>1432.131225585938</v>
-      </c>
-      <c r="HT4" t="n">
-        <v>1415.368041992188</v>
-      </c>
-      <c r="HU4" t="n">
-        <v>1391.5703125</v>
-      </c>
-      <c r="HV4" t="n">
-        <v>1380.259887695312</v>
-      </c>
-      <c r="HW4" t="n">
-        <v>1355.736450195312</v>
-      </c>
-      <c r="HX4" t="n">
-        <v>1321.874755859375</v>
-      </c>
-      <c r="HY4" t="n">
-        <v>1292.447021484375</v>
-      </c>
-      <c r="HZ4" t="n">
-        <v>1245.196899414062</v>
-      </c>
-      <c r="IA4" t="n">
-        <v>1216.044555664062</v>
-      </c>
-      <c r="IB4" t="n">
-        <v>1153.485595703125</v>
-      </c>
-      <c r="IC4" t="n">
-        <v>1128.093139648438</v>
-      </c>
-      <c r="ID4" t="n">
-        <v>1080.08984375</v>
-      </c>
-      <c r="IE4" t="n">
-        <v>1026.743530273438</v>
-      </c>
-      <c r="IF4" t="n">
-        <v>967.153564453125</v>
-      </c>
-      <c r="IG4" t="n">
-        <v>891.879150390625</v>
-      </c>
-      <c r="IH4" t="n">
-        <v>792.118408203125</v>
-      </c>
-      <c r="II4" t="n">
-        <v>698.4057006835938</v>
-      </c>
-      <c r="IJ4" t="n">
-        <v>610.5067749023438</v>
-      </c>
-      <c r="IK4" t="n">
-        <v>507.0184326171875</v>
-      </c>
-      <c r="IL4" t="n">
-        <v>424.8763732910156</v>
-      </c>
-      <c r="IM4" t="n">
-        <v>370.2364196777344</v>
-      </c>
-      <c r="IN4" t="n">
-        <v>355.179931640625</v>
-      </c>
-      <c r="IO4" t="n">
-        <v>542.4772338867188</v>
-      </c>
-      <c r="IP4" t="n">
-        <v>582.4598388671875</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>295.970703125</v>
-      </c>
-      <c r="IR4" t="n">
-        <v>302.4896545410156</v>
-      </c>
-      <c r="IS4" t="n">
-        <v>314.395751953125</v>
-      </c>
-      <c r="IT4" t="n">
-        <v>432.5930480957031</v>
-      </c>
-      <c r="IU4" t="n">
-        <v>435.4579772949219</v>
-      </c>
-      <c r="IV4" t="n">
-        <v>757.6124877929688</v>
-      </c>
-      <c r="IW4" t="n">
-        <v>495.8382568359375</v>
-      </c>
-      <c r="IX4" t="n">
-        <v>514.5888061523438</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>525.6529541015625</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>516.5863037109375</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>504.3824768066406</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>488.3872375488281</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>522.048095703125</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>558.6943359375</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>570.6680297851562</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>565.347900390625</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>581.0653076171875</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>591.7033081054688</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>580.2172241210938</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>566.0173950195312</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>550.8927612304688</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>532.5296020507812</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>506.6036376953125</v>
+        <v>400.6455078125</v>
       </c>
     </row>
   </sheetData>

--- a/left_elbow_Data.xlsx
+++ b/left_elbow_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GQ4"/>
+  <dimension ref="A1:LD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,1802 +1031,3206 @@
       <c r="GQ1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="GR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="II1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>561.2420654296875</v>
+        <v>453.3816223144531</v>
       </c>
       <c r="B2" t="n">
-        <v>560.3722534179688</v>
+        <v>450.5805969238281</v>
       </c>
       <c r="C2" t="n">
-        <v>560.6224365234375</v>
+        <v>446.899169921875</v>
       </c>
       <c r="D2" t="n">
-        <v>557.7268676757812</v>
+        <v>444.5169067382812</v>
       </c>
       <c r="E2" t="n">
-        <v>555.763427734375</v>
+        <v>444.744384765625</v>
       </c>
       <c r="F2" t="n">
-        <v>554.3943481445312</v>
+        <v>441.1786193847656</v>
       </c>
       <c r="G2" t="n">
-        <v>554.190673828125</v>
+        <v>437.4853210449219</v>
       </c>
       <c r="H2" t="n">
-        <v>553.3862915039062</v>
+        <v>429.772216796875</v>
       </c>
       <c r="I2" t="n">
-        <v>555.1990966796875</v>
+        <v>422.7837524414062</v>
       </c>
       <c r="J2" t="n">
-        <v>551.9349365234375</v>
+        <v>415.7269897460938</v>
       </c>
       <c r="K2" t="n">
-        <v>539.3720092773438</v>
+        <v>409.6842956542969</v>
       </c>
       <c r="L2" t="n">
-        <v>528.2341918945312</v>
+        <v>405.7043151855469</v>
       </c>
       <c r="M2" t="n">
-        <v>523.4398193359375</v>
+        <v>402.9248352050781</v>
       </c>
       <c r="N2" t="n">
-        <v>511.9833984375</v>
+        <v>400.1498413085938</v>
       </c>
       <c r="O2" t="n">
-        <v>496.0155639648438</v>
+        <v>397.7785034179688</v>
       </c>
       <c r="P2" t="n">
-        <v>482.9129638671875</v>
+        <v>396.5541381835938</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0550537109375</v>
+        <v>394.9723510742188</v>
       </c>
       <c r="R2" t="n">
-        <v>469.88818359375</v>
+        <v>394.1134033203125</v>
       </c>
       <c r="S2" t="n">
-        <v>470.05712890625</v>
+        <v>392.451416015625</v>
       </c>
       <c r="T2" t="n">
-        <v>468.3481140136719</v>
+        <v>390.7516784667969</v>
       </c>
       <c r="U2" t="n">
-        <v>463.7521667480469</v>
+        <v>389.1537475585938</v>
       </c>
       <c r="V2" t="n">
-        <v>458.2669372558594</v>
+        <v>388.1824035644531</v>
       </c>
       <c r="W2" t="n">
-        <v>453.332275390625</v>
+        <v>387.5817260742188</v>
       </c>
       <c r="X2" t="n">
-        <v>451.1880493164062</v>
+        <v>385.9126281738281</v>
       </c>
       <c r="Y2" t="n">
-        <v>450.1930541992188</v>
+        <v>383.8381958007812</v>
       </c>
       <c r="Z2" t="n">
-        <v>450.2233276367188</v>
+        <v>382.1094970703125</v>
       </c>
       <c r="AA2" t="n">
-        <v>453.0244445800781</v>
+        <v>379.3818664550781</v>
       </c>
       <c r="AB2" t="n">
-        <v>456.8073120117188</v>
+        <v>374.7308959960938</v>
       </c>
       <c r="AC2" t="n">
-        <v>459.9168701171875</v>
+        <v>369.9317016601562</v>
       </c>
       <c r="AD2" t="n">
-        <v>460.9264526367188</v>
+        <v>367.7685241699219</v>
       </c>
       <c r="AE2" t="n">
-        <v>462.966064453125</v>
+        <v>367.1919555664062</v>
       </c>
       <c r="AF2" t="n">
-        <v>465.7702026367188</v>
+        <v>366.7322082519531</v>
       </c>
       <c r="AG2" t="n">
-        <v>468.3075561523438</v>
+        <v>366.4480590820312</v>
       </c>
       <c r="AH2" t="n">
-        <v>470.9317016601562</v>
+        <v>365.5592041015625</v>
       </c>
       <c r="AI2" t="n">
-        <v>472.8399353027344</v>
+        <v>364.2106628417969</v>
       </c>
       <c r="AJ2" t="n">
-        <v>474.9673156738281</v>
+        <v>363.8020324707031</v>
       </c>
       <c r="AK2" t="n">
-        <v>477.2882385253906</v>
+        <v>363.6703491210938</v>
       </c>
       <c r="AL2" t="n">
-        <v>479.3414001464844</v>
+        <v>364.1798400878906</v>
       </c>
       <c r="AM2" t="n">
-        <v>482.7028198242188</v>
+        <v>364.7374877929688</v>
       </c>
       <c r="AN2" t="n">
-        <v>486.1255187988281</v>
+        <v>365.927490234375</v>
       </c>
       <c r="AO2" t="n">
-        <v>486.4637756347656</v>
+        <v>367.1463623046875</v>
       </c>
       <c r="AP2" t="n">
-        <v>485.6942749023438</v>
+        <v>367.7607421875</v>
       </c>
       <c r="AQ2" t="n">
-        <v>476.8958129882812</v>
+        <v>367.6653442382812</v>
       </c>
       <c r="AR2" t="n">
-        <v>469.1787414550781</v>
+        <v>367.7130737304688</v>
       </c>
       <c r="AS2" t="n">
-        <v>461.1673278808594</v>
+        <v>367.8720397949219</v>
       </c>
       <c r="AT2" t="n">
-        <v>453.236328125</v>
+        <v>368.4216918945312</v>
       </c>
       <c r="AU2" t="n">
-        <v>449.7015991210938</v>
+        <v>369.1989440917969</v>
       </c>
       <c r="AV2" t="n">
-        <v>440.5359497070312</v>
+        <v>370.2041625976562</v>
       </c>
       <c r="AW2" t="n">
-        <v>429.33251953125</v>
+        <v>371.762939453125</v>
       </c>
       <c r="AX2" t="n">
-        <v>423.4127197265625</v>
+        <v>373.6080322265625</v>
       </c>
       <c r="AY2" t="n">
-        <v>416.4130249023438</v>
+        <v>375.3822326660156</v>
       </c>
       <c r="AZ2" t="n">
-        <v>408.0726928710938</v>
+        <v>375.7157592773438</v>
       </c>
       <c r="BA2" t="n">
-        <v>396.73486328125</v>
+        <v>375.4789733886719</v>
       </c>
       <c r="BB2" t="n">
-        <v>387.1120910644531</v>
+        <v>374.9766540527344</v>
       </c>
       <c r="BC2" t="n">
-        <v>374.075439453125</v>
+        <v>374.1221923828125</v>
       </c>
       <c r="BD2" t="n">
-        <v>366.4840087890625</v>
+        <v>372.13037109375</v>
       </c>
       <c r="BE2" t="n">
-        <v>359.9218139648438</v>
+        <v>370.2804565429688</v>
       </c>
       <c r="BF2" t="n">
-        <v>352.5016479492188</v>
+        <v>370.2783508300781</v>
       </c>
       <c r="BG2" t="n">
-        <v>346.030029296875</v>
+        <v>370.3182983398438</v>
       </c>
       <c r="BH2" t="n">
-        <v>339.7346496582031</v>
+        <v>370.37353515625</v>
       </c>
       <c r="BI2" t="n">
-        <v>333.3007202148438</v>
+        <v>370.3348388671875</v>
       </c>
       <c r="BJ2" t="n">
-        <v>329.2854614257812</v>
+        <v>370.1006469726562</v>
       </c>
       <c r="BK2" t="n">
-        <v>326.6201477050781</v>
+        <v>369.44970703125</v>
       </c>
       <c r="BL2" t="n">
-        <v>323.1064453125</v>
+        <v>368.16259765625</v>
       </c>
       <c r="BM2" t="n">
-        <v>321.9016723632812</v>
+        <v>366.1624450683594</v>
       </c>
       <c r="BN2" t="n">
-        <v>322.1297912597656</v>
+        <v>368.6035461425781</v>
       </c>
       <c r="BO2" t="n">
-        <v>324.3788452148438</v>
+        <v>372.4476623535156</v>
       </c>
       <c r="BP2" t="n">
-        <v>332.9631958007812</v>
+        <v>371.3551330566406</v>
       </c>
       <c r="BQ2" t="n">
-        <v>339.34716796875</v>
+        <v>370.9668579101562</v>
       </c>
       <c r="BR2" t="n">
-        <v>343.0514526367188</v>
+        <v>370.890869140625</v>
       </c>
       <c r="BS2" t="n">
-        <v>346.5023803710938</v>
+        <v>370.752685546875</v>
       </c>
       <c r="BT2" t="n">
-        <v>346.8145141601562</v>
+        <v>370.4775390625</v>
       </c>
       <c r="BU2" t="n">
-        <v>348.3901977539062</v>
+        <v>370.2359008789062</v>
       </c>
       <c r="BV2" t="n">
-        <v>348.8623352050781</v>
+        <v>369.987060546875</v>
       </c>
       <c r="BW2" t="n">
-        <v>349.2510375976562</v>
+        <v>369.8308715820312</v>
       </c>
       <c r="BX2" t="n">
-        <v>349.0472412109375</v>
+        <v>369.7421875</v>
       </c>
       <c r="BY2" t="n">
-        <v>348.7732238769531</v>
+        <v>369.9492797851562</v>
       </c>
       <c r="BZ2" t="n">
-        <v>348.3284912109375</v>
+        <v>370.0567016601562</v>
       </c>
       <c r="CA2" t="n">
-        <v>347.4042358398438</v>
+        <v>370.3173217773438</v>
       </c>
       <c r="CB2" t="n">
-        <v>344.9566345214844</v>
+        <v>370.4821166992188</v>
       </c>
       <c r="CC2" t="n">
-        <v>338.0798950195312</v>
+        <v>370.6610412597656</v>
       </c>
       <c r="CD2" t="n">
-        <v>331.1686401367188</v>
+        <v>370.7007141113281</v>
       </c>
       <c r="CE2" t="n">
-        <v>326.3268432617188</v>
+        <v>370.6854553222656</v>
       </c>
       <c r="CF2" t="n">
-        <v>321.7638854980469</v>
+        <v>370.6748657226562</v>
       </c>
       <c r="CG2" t="n">
-        <v>319.8586120605469</v>
+        <v>370.6310729980469</v>
       </c>
       <c r="CH2" t="n">
-        <v>317.180419921875</v>
+        <v>370.5763549804688</v>
       </c>
       <c r="CI2" t="n">
-        <v>313.3114013671875</v>
+        <v>370.5556945800781</v>
       </c>
       <c r="CJ2" t="n">
-        <v>310.876953125</v>
+        <v>370.5340576171875</v>
       </c>
       <c r="CK2" t="n">
-        <v>308.7831115722656</v>
+        <v>370.6321716308594</v>
       </c>
       <c r="CL2" t="n">
-        <v>308.0490417480469</v>
+        <v>370.8703918457031</v>
       </c>
       <c r="CM2" t="n">
-        <v>307.5534362792969</v>
+        <v>370.8728637695312</v>
       </c>
       <c r="CN2" t="n">
-        <v>307.3382263183594</v>
+        <v>371.0499267578125</v>
       </c>
       <c r="CO2" t="n">
-        <v>307.7518005371094</v>
+        <v>371.74560546875</v>
       </c>
       <c r="CP2" t="n">
-        <v>308.02197265625</v>
+        <v>371.9293823242188</v>
       </c>
       <c r="CQ2" t="n">
-        <v>308.8727722167969</v>
+        <v>367.8624877929688</v>
       </c>
       <c r="CR2" t="n">
-        <v>312.3444519042969</v>
+        <v>364.7508544921875</v>
       </c>
       <c r="CS2" t="n">
-        <v>313.265380859375</v>
+        <v>363.125732421875</v>
       </c>
       <c r="CT2" t="n">
-        <v>316.6206970214844</v>
+        <v>364.0147399902344</v>
       </c>
       <c r="CU2" t="n">
-        <v>321.49072265625</v>
+        <v>362.2797241210938</v>
       </c>
       <c r="CV2" t="n">
-        <v>324.98681640625</v>
+        <v>364.816650390625</v>
       </c>
       <c r="CW2" t="n">
-        <v>326.9915161132812</v>
+        <v>366.9835815429688</v>
       </c>
       <c r="CX2" t="n">
-        <v>327.4983520507812</v>
+        <v>365.7916870117188</v>
       </c>
       <c r="CY2" t="n">
-        <v>328.215087890625</v>
+        <v>365.9585266113281</v>
       </c>
       <c r="CZ2" t="n">
-        <v>328.5977783203125</v>
+        <v>366.0490112304688</v>
       </c>
       <c r="DA2" t="n">
-        <v>326.2342529296875</v>
+        <v>366.1031494140625</v>
       </c>
       <c r="DB2" t="n">
-        <v>318.0035095214844</v>
+        <v>365.7456665039062</v>
       </c>
       <c r="DC2" t="n">
-        <v>308.8990173339844</v>
+        <v>365.4644775390625</v>
       </c>
       <c r="DD2" t="n">
-        <v>316.4041748046875</v>
+        <v>365.4028015136719</v>
       </c>
       <c r="DE2" t="n">
-        <v>328.3574829101562</v>
+        <v>365.2274780273438</v>
       </c>
       <c r="DF2" t="n">
-        <v>329.6057434082031</v>
+        <v>365.0928039550781</v>
       </c>
       <c r="DG2" t="n">
-        <v>330.8578491210938</v>
+        <v>364.9962158203125</v>
       </c>
       <c r="DH2" t="n">
-        <v>332.8423461914062</v>
+        <v>364.7442932128906</v>
       </c>
       <c r="DI2" t="n">
-        <v>336.6411743164062</v>
+        <v>364.8511962890625</v>
       </c>
       <c r="DJ2" t="n">
-        <v>338.9945983886719</v>
+        <v>364.8767395019531</v>
       </c>
       <c r="DK2" t="n">
-        <v>344.2545166015625</v>
+        <v>363.7866821289062</v>
       </c>
       <c r="DL2" t="n">
-        <v>352.4364624023438</v>
+        <v>363.6902465820312</v>
       </c>
       <c r="DM2" t="n">
-        <v>357.8674621582031</v>
+        <v>364.7580261230469</v>
       </c>
       <c r="DN2" t="n">
-        <v>365.806396484375</v>
+        <v>368.8852233886719</v>
       </c>
       <c r="DO2" t="n">
-        <v>374.7451782226562</v>
+        <v>368.4468994140625</v>
       </c>
       <c r="DP2" t="n">
-        <v>395.1340942382812</v>
+        <v>367.5401000976562</v>
       </c>
       <c r="DQ2" t="n">
-        <v>403.5680847167969</v>
+        <v>366.4963989257812</v>
       </c>
       <c r="DR2" t="n">
-        <v>414.41455078125</v>
+        <v>366.072265625</v>
       </c>
       <c r="DS2" t="n">
-        <v>428.9728088378906</v>
+        <v>365.787353515625</v>
       </c>
       <c r="DT2" t="n">
-        <v>437.4648742675781</v>
+        <v>365.9663391113281</v>
       </c>
       <c r="DU2" t="n">
-        <v>443.6992797851562</v>
+        <v>366.1784057617188</v>
       </c>
       <c r="DV2" t="n">
-        <v>455.3357543945312</v>
+        <v>366.4483337402344</v>
       </c>
       <c r="DW2" t="n">
-        <v>467.5739135742188</v>
+        <v>366.6229553222656</v>
       </c>
       <c r="DX2" t="n">
-        <v>471.1917114257812</v>
+        <v>366.6092529296875</v>
       </c>
       <c r="DY2" t="n">
-        <v>474.3991394042969</v>
+        <v>366.7191772460938</v>
       </c>
       <c r="DZ2" t="n">
-        <v>477.58642578125</v>
+        <v>366.7410583496094</v>
       </c>
       <c r="EA2" t="n">
-        <v>479.9773864746094</v>
+        <v>366.7492370605469</v>
       </c>
       <c r="EB2" t="n">
-        <v>483.3422241210938</v>
+        <v>366.7767944335938</v>
       </c>
       <c r="EC2" t="n">
-        <v>484.0780639648438</v>
+        <v>366.7837524414062</v>
       </c>
       <c r="ED2" t="n">
-        <v>485.4366455078125</v>
+        <v>366.7822570800781</v>
       </c>
       <c r="EE2" t="n">
-        <v>486.142822265625</v>
+        <v>366.788330078125</v>
       </c>
       <c r="EF2" t="n">
-        <v>486.6650085449219</v>
+        <v>366.6719970703125</v>
       </c>
       <c r="EG2" t="n">
-        <v>484.5608825683594</v>
+        <v>366.4878540039062</v>
       </c>
       <c r="EH2" t="n">
-        <v>480.3451843261719</v>
+        <v>366.2514953613281</v>
       </c>
       <c r="EI2" t="n">
-        <v>471.8982543945312</v>
+        <v>366.0285949707031</v>
       </c>
       <c r="EJ2" t="n">
-        <v>469.5896911621094</v>
+        <v>365.6191711425781</v>
       </c>
       <c r="EK2" t="n">
-        <v>463.0372619628906</v>
+        <v>358.6455078125</v>
       </c>
       <c r="EL2" t="n">
-        <v>458.3172302246094</v>
+        <v>358.8984375</v>
       </c>
       <c r="EM2" t="n">
-        <v>443.6816711425781</v>
+        <v>359.0376586914062</v>
       </c>
       <c r="EN2" t="n">
-        <v>439.0753173828125</v>
+        <v>359.208984375</v>
       </c>
       <c r="EO2" t="n">
-        <v>425.7705078125</v>
+        <v>359.5111389160156</v>
       </c>
       <c r="EP2" t="n">
-        <v>432.3921508789062</v>
+        <v>360.0721435546875</v>
       </c>
       <c r="EQ2" t="n">
-        <v>404.6135864257812</v>
+        <v>362.322021484375</v>
       </c>
       <c r="ER2" t="n">
-        <v>417.9617919921875</v>
+        <v>363.3374633789062</v>
       </c>
       <c r="ES2" t="n">
-        <v>392.3743286132812</v>
+        <v>363.8699340820312</v>
       </c>
       <c r="ET2" t="n">
-        <v>385.5484619140625</v>
+        <v>363.4153442382812</v>
       </c>
       <c r="EU2" t="n">
-        <v>380.4042358398438</v>
+        <v>363.2809143066406</v>
       </c>
       <c r="EV2" t="n">
-        <v>380.0094909667969</v>
+        <v>363.394287109375</v>
       </c>
       <c r="EW2" t="n">
-        <v>382.8766479492188</v>
+        <v>363.5902404785156</v>
       </c>
       <c r="EX2" t="n">
-        <v>381.8613891601562</v>
+        <v>363.0906982421875</v>
       </c>
       <c r="EY2" t="n">
-        <v>379.9703674316406</v>
+        <v>362.4916076660156</v>
       </c>
       <c r="EZ2" t="n">
-        <v>402.3493957519531</v>
+        <v>360.1731567382812</v>
       </c>
       <c r="FA2" t="n">
-        <v>401.9183044433594</v>
+        <v>362.9588012695312</v>
       </c>
       <c r="FB2" t="n">
-        <v>400.6599426269531</v>
+        <v>364.61962890625</v>
       </c>
       <c r="FC2" t="n">
-        <v>408.1308288574219</v>
+        <v>365.6701354980469</v>
       </c>
       <c r="FD2" t="n">
-        <v>414.0619201660156</v>
+        <v>364.6102294921875</v>
       </c>
       <c r="FE2" t="n">
-        <v>419.0647888183594</v>
+        <v>363.7213134765625</v>
       </c>
       <c r="FF2" t="n">
-        <v>428.6695861816406</v>
+        <v>362.6323852539062</v>
       </c>
       <c r="FG2" t="n">
-        <v>432.9635620117188</v>
+        <v>361.9287414550781</v>
       </c>
       <c r="FH2" t="n">
-        <v>441.0900268554688</v>
+        <v>361.8768920898438</v>
       </c>
       <c r="FI2" t="n">
-        <v>450.193115234375</v>
+        <v>361.7366027832031</v>
       </c>
       <c r="FJ2" t="n">
-        <v>476.3228759765625</v>
+        <v>361.5578918457031</v>
       </c>
       <c r="FK2" t="n">
-        <v>494.9298706054688</v>
+        <v>361.457275390625</v>
       </c>
       <c r="FL2" t="n">
-        <v>536.4148559570312</v>
+        <v>361.3196411132812</v>
       </c>
       <c r="FM2" t="n">
-        <v>550.45654296875</v>
+        <v>361.2403869628906</v>
       </c>
       <c r="FN2" t="n">
-        <v>566.5632934570312</v>
+        <v>361.119873046875</v>
       </c>
       <c r="FO2" t="n">
-        <v>603.4168090820312</v>
+        <v>361.0848693847656</v>
       </c>
       <c r="FP2" t="n">
-        <v>629.447021484375</v>
+        <v>361.1207275390625</v>
       </c>
       <c r="FQ2" t="n">
-        <v>632.961669921875</v>
+        <v>361.2304992675781</v>
       </c>
       <c r="FR2" t="n">
-        <v>664.376953125</v>
+        <v>361.4807739257812</v>
       </c>
       <c r="FS2" t="n">
-        <v>688.400634765625</v>
+        <v>361.6321411132812</v>
       </c>
       <c r="FT2" t="n">
-        <v>704.8794555664062</v>
+        <v>361.9677429199219</v>
       </c>
       <c r="FU2" t="n">
-        <v>693.4365234375</v>
+        <v>362.6107482910156</v>
       </c>
       <c r="FV2" t="n">
-        <v>661.886474609375</v>
+        <v>361.6249389648438</v>
       </c>
       <c r="FW2" t="n">
-        <v>656.7162475585938</v>
+        <v>352.6714782714844</v>
       </c>
       <c r="FX2" t="n">
-        <v>654.7625732421875</v>
+        <v>357.1829833984375</v>
       </c>
       <c r="FY2" t="n">
-        <v>639.7495727539062</v>
+        <v>358.1636962890625</v>
       </c>
       <c r="FZ2" t="n">
-        <v>606.4856567382812</v>
+        <v>358.8953247070312</v>
       </c>
       <c r="GA2" t="n">
-        <v>574.7402954101562</v>
+        <v>360.182373046875</v>
       </c>
       <c r="GB2" t="n">
-        <v>604.0985107421875</v>
+        <v>360.3072814941406</v>
       </c>
       <c r="GC2" t="n">
-        <v>621.0963134765625</v>
+        <v>360.1712646484375</v>
       </c>
       <c r="GD2" t="n">
-        <v>622.1813354492188</v>
+        <v>360.1968994140625</v>
       </c>
       <c r="GE2" t="n">
-        <v>611.9832153320312</v>
+        <v>360.4022827148438</v>
       </c>
       <c r="GF2" t="n">
-        <v>606.2188110351562</v>
+        <v>360.0716552734375</v>
       </c>
       <c r="GG2" t="n">
-        <v>573.8890991210938</v>
+        <v>359.9737854003906</v>
       </c>
       <c r="GH2" t="n">
-        <v>555.4345703125</v>
+        <v>359.8549194335938</v>
       </c>
       <c r="GI2" t="n">
-        <v>529.1306762695312</v>
+        <v>359.7627563476562</v>
       </c>
       <c r="GJ2" t="n">
-        <v>528.724365234375</v>
+        <v>359.9908142089844</v>
       </c>
       <c r="GK2" t="n">
-        <v>510.6138916015625</v>
+        <v>359.7008666992188</v>
       </c>
       <c r="GL2" t="n">
-        <v>511.8468627929688</v>
+        <v>359.1922607421875</v>
       </c>
       <c r="GM2" t="n">
-        <v>516.0529174804688</v>
+        <v>359.6943969726562</v>
       </c>
       <c r="GN2" t="n">
-        <v>529.0357666015625</v>
+        <v>360.1300354003906</v>
       </c>
       <c r="GO2" t="n">
-        <v>524.6544189453125</v>
+        <v>361.1963195800781</v>
       </c>
       <c r="GP2" t="n">
-        <v>518.004150390625</v>
+        <v>362.6394958496094</v>
       </c>
       <c r="GQ2" t="n">
-        <v>512.7378540039062</v>
+        <v>362.6824340820312</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>362.4097290039062</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>361.7322998046875</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>360.9779663085938</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>360.6448059082031</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>360.9949340820312</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>361.127197265625</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>361.1334838867188</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>361.2591247558594</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>361.5352783203125</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>361.7843017578125</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>362.1569519042969</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>362.7890625</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>359.8097534179688</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>358.431640625</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>358.6741943359375</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>359.2518310546875</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>359.6058654785156</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>359.781982421875</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>359.9412231445312</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>359.9228210449219</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>359.91748046875</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>359.96337890625</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>360.0841979980469</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>360.1484985351562</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>360.212158203125</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>359.8633422851562</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>357.739501953125</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>356.4775085449219</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>362.4098205566406</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>362.0465698242188</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>360.9701232910156</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>360.7776184082031</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>360.7143859863281</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>360.4486694335938</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>360.2666015625</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>360.1581420898438</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>360.1723022460938</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>360.3024597167969</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>360.3016357421875</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>360.3206176757812</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>360.3376770019531</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>360.360595703125</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>360.44775390625</v>
+      </c>
+      <c r="II2" t="n">
+        <v>360.7230224609375</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>361.5873718261719</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>360.91064453125</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>358.3358154296875</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>359.1441345214844</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>360.981689453125</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>362.1774291992188</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>362.2259521484375</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>362.231689453125</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>361.6130065917969</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>361.7355041503906</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>361.812744140625</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>361.9616088867188</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>361.8777465820312</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>361.2032470703125</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>360.4251098632812</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>362.8192138671875</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>362.46435546875</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>362.3015747070312</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>362.026123046875</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>361.9247436523438</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>361.7308044433594</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>361.4563598632812</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>361.3003540039062</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>361.2320556640625</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>361.0413208007812</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>360.7684020996094</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>360.2647705078125</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>359.6937866210938</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>359.6109313964844</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>360.1619873046875</v>
+      </c>
+      <c r="JN2" t="n">
+        <v>361.1223754882812</v>
+      </c>
+      <c r="JO2" t="n">
+        <v>361.0928039550781</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>355.4290161132812</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>358.5077514648438</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>359.1573791503906</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>359.28369140625</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>359.6492919921875</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>359.6372985839844</v>
+      </c>
+      <c r="JV2" t="n">
+        <v>359.4684448242188</v>
+      </c>
+      <c r="JW2" t="n">
+        <v>359.4104614257812</v>
+      </c>
+      <c r="JX2" t="n">
+        <v>358.8683471679688</v>
+      </c>
+      <c r="JY2" t="n">
+        <v>358.8939819335938</v>
+      </c>
+      <c r="JZ2" t="n">
+        <v>359.8339538574219</v>
+      </c>
+      <c r="KA2" t="n">
+        <v>359.0560302734375</v>
+      </c>
+      <c r="KB2" t="n">
+        <v>355.6813354492188</v>
+      </c>
+      <c r="KC2" t="n">
+        <v>355.6165161132812</v>
+      </c>
+      <c r="KD2" t="n">
+        <v>354.9896240234375</v>
+      </c>
+      <c r="KE2" t="n">
+        <v>353.8570556640625</v>
+      </c>
+      <c r="KF2" t="n">
+        <v>351.5666198730469</v>
+      </c>
+      <c r="KG2" t="n">
+        <v>350.3533630371094</v>
+      </c>
+      <c r="KH2" t="n">
+        <v>349.6654663085938</v>
+      </c>
+      <c r="KI2" t="n">
+        <v>350.2843933105469</v>
+      </c>
+      <c r="KJ2" t="n">
+        <v>350.3060607910156</v>
+      </c>
+      <c r="KK2" t="n">
+        <v>350.8954162597656</v>
+      </c>
+      <c r="KL2" t="n">
+        <v>353.2713317871094</v>
+      </c>
+      <c r="KM2" t="n">
+        <v>355.2870178222656</v>
+      </c>
+      <c r="KN2" t="n">
+        <v>360.6998291015625</v>
+      </c>
+      <c r="KO2" t="n">
+        <v>374.3016967773438</v>
+      </c>
+      <c r="KP2" t="n">
+        <v>378.8247680664062</v>
+      </c>
+      <c r="KQ2" t="n">
+        <v>384.2167358398438</v>
+      </c>
+      <c r="KR2" t="n">
+        <v>391.3414916992188</v>
+      </c>
+      <c r="KS2" t="n">
+        <v>398.7667236328125</v>
+      </c>
+      <c r="KT2" t="n">
+        <v>403.6353149414062</v>
+      </c>
+      <c r="KU2" t="n">
+        <v>410.3829345703125</v>
+      </c>
+      <c r="KV2" t="n">
+        <v>415.0503234863281</v>
+      </c>
+      <c r="KW2" t="n">
+        <v>418.9578552246094</v>
+      </c>
+      <c r="KX2" t="n">
+        <v>425.2467041015625</v>
+      </c>
+      <c r="KY2" t="n">
+        <v>430.619384765625</v>
+      </c>
+      <c r="KZ2" t="n">
+        <v>435.6058044433594</v>
+      </c>
+      <c r="LA2" t="n">
+        <v>446.0833129882812</v>
+      </c>
+      <c r="LB2" t="n">
+        <v>450.1438903808594</v>
+      </c>
+      <c r="LC2" t="n">
+        <v>451.9277648925781</v>
+      </c>
+      <c r="LD2" t="n">
+        <v>455.5886535644531</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>303.3401489257812</v>
+        <v>306.3917236328125</v>
       </c>
       <c r="B3" t="n">
-        <v>303.3326110839844</v>
+        <v>307.1426086425781</v>
       </c>
       <c r="C3" t="n">
-        <v>301.7195434570312</v>
+        <v>307.8325500488281</v>
       </c>
       <c r="D3" t="n">
-        <v>301.1876831054688</v>
+        <v>309.5595703125</v>
       </c>
       <c r="E3" t="n">
-        <v>300.3437805175781</v>
+        <v>306.6343994140625</v>
       </c>
       <c r="F3" t="n">
-        <v>301.1430053710938</v>
+        <v>306.7405395507812</v>
       </c>
       <c r="G3" t="n">
-        <v>300.1084289550781</v>
+        <v>307.9879150390625</v>
       </c>
       <c r="H3" t="n">
-        <v>299.1076049804688</v>
+        <v>307.9347839355469</v>
       </c>
       <c r="I3" t="n">
-        <v>296.7639465332031</v>
+        <v>307.789794921875</v>
       </c>
       <c r="J3" t="n">
-        <v>293.1858825683594</v>
+        <v>307.5048828125</v>
       </c>
       <c r="K3" t="n">
-        <v>293.1935424804688</v>
+        <v>310.9263305664062</v>
       </c>
       <c r="L3" t="n">
-        <v>291.4887084960938</v>
+        <v>311.5164794921875</v>
       </c>
       <c r="M3" t="n">
-        <v>286.2711181640625</v>
+        <v>314.4076538085938</v>
       </c>
       <c r="N3" t="n">
-        <v>279.7112731933594</v>
+        <v>315.5698852539062</v>
       </c>
       <c r="O3" t="n">
-        <v>272.5555419921875</v>
+        <v>314.9133605957031</v>
       </c>
       <c r="P3" t="n">
-        <v>267.0662231445312</v>
+        <v>313.9516906738281</v>
       </c>
       <c r="Q3" t="n">
-        <v>264.3705139160156</v>
+        <v>311.8658447265625</v>
       </c>
       <c r="R3" t="n">
-        <v>258.9186706542969</v>
+        <v>309.1095886230469</v>
       </c>
       <c r="S3" t="n">
-        <v>252.3670349121094</v>
+        <v>307.3746948242188</v>
       </c>
       <c r="T3" t="n">
-        <v>246.1498260498047</v>
+        <v>305.3568115234375</v>
       </c>
       <c r="U3" t="n">
-        <v>242.6922454833984</v>
+        <v>303.7882995605469</v>
       </c>
       <c r="V3" t="n">
-        <v>240.8007507324219</v>
+        <v>303.4212646484375</v>
       </c>
       <c r="W3" t="n">
-        <v>238.7724914550781</v>
+        <v>305.1777038574219</v>
       </c>
       <c r="X3" t="n">
-        <v>236.9717712402344</v>
+        <v>306.4349975585938</v>
       </c>
       <c r="Y3" t="n">
-        <v>234.7262268066406</v>
+        <v>306.9222412109375</v>
       </c>
       <c r="Z3" t="n">
-        <v>231.1531677246094</v>
+        <v>309.1517639160156</v>
       </c>
       <c r="AA3" t="n">
-        <v>226.1950531005859</v>
+        <v>312.048095703125</v>
       </c>
       <c r="AB3" t="n">
-        <v>220.3919677734375</v>
+        <v>315.3130493164062</v>
       </c>
       <c r="AC3" t="n">
-        <v>216.0649719238281</v>
+        <v>316.9795227050781</v>
       </c>
       <c r="AD3" t="n">
-        <v>214.1896514892578</v>
+        <v>318.7543334960938</v>
       </c>
       <c r="AE3" t="n">
-        <v>212.6756286621094</v>
+        <v>318.7616577148438</v>
       </c>
       <c r="AF3" t="n">
-        <v>211.4929504394531</v>
+        <v>319.1654663085938</v>
       </c>
       <c r="AG3" t="n">
-        <v>211.2431335449219</v>
+        <v>319.4653015136719</v>
       </c>
       <c r="AH3" t="n">
-        <v>211.3012542724609</v>
+        <v>318.652099609375</v>
       </c>
       <c r="AI3" t="n">
-        <v>212.1243286132812</v>
+        <v>316.9001770019531</v>
       </c>
       <c r="AJ3" t="n">
-        <v>212.5482940673828</v>
+        <v>315.9421997070312</v>
       </c>
       <c r="AK3" t="n">
-        <v>212.242919921875</v>
+        <v>314.7986755371094</v>
       </c>
       <c r="AL3" t="n">
-        <v>212.0816650390625</v>
+        <v>313.9700622558594</v>
       </c>
       <c r="AM3" t="n">
-        <v>211.895751953125</v>
+        <v>312.8437805175781</v>
       </c>
       <c r="AN3" t="n">
-        <v>212.1493682861328</v>
+        <v>311.8077392578125</v>
       </c>
       <c r="AO3" t="n">
-        <v>213.1021423339844</v>
+        <v>310.69140625</v>
       </c>
       <c r="AP3" t="n">
-        <v>215.6820068359375</v>
+        <v>309.9381713867188</v>
       </c>
       <c r="AQ3" t="n">
-        <v>223.2425231933594</v>
+        <v>309.9776916503906</v>
       </c>
       <c r="AR3" t="n">
-        <v>228.8815765380859</v>
+        <v>310.1277465820312</v>
       </c>
       <c r="AS3" t="n">
-        <v>233.8710021972656</v>
+        <v>309.9894409179688</v>
       </c>
       <c r="AT3" t="n">
-        <v>237.7216644287109</v>
+        <v>310.5892639160156</v>
       </c>
       <c r="AU3" t="n">
-        <v>237.2462310791016</v>
+        <v>311.6401977539062</v>
       </c>
       <c r="AV3" t="n">
-        <v>239.1333923339844</v>
+        <v>312.5649719238281</v>
       </c>
       <c r="AW3" t="n">
-        <v>242.4695739746094</v>
+        <v>313.9211120605469</v>
       </c>
       <c r="AX3" t="n">
-        <v>243.1366271972656</v>
+        <v>314.5923461914062</v>
       </c>
       <c r="AY3" t="n">
-        <v>243.8875274658203</v>
+        <v>314.0697631835938</v>
       </c>
       <c r="AZ3" t="n">
-        <v>247.4660339355469</v>
+        <v>313.7138366699219</v>
       </c>
       <c r="BA3" t="n">
-        <v>248.7742919921875</v>
+        <v>313.5456237792969</v>
       </c>
       <c r="BB3" t="n">
-        <v>250.4476623535156</v>
+        <v>313.229248046875</v>
       </c>
       <c r="BC3" t="n">
-        <v>251.9868316650391</v>
+        <v>313.50439453125</v>
       </c>
       <c r="BD3" t="n">
-        <v>251.9237365722656</v>
+        <v>313.6218566894531</v>
       </c>
       <c r="BE3" t="n">
-        <v>251.5072326660156</v>
+        <v>314.7557983398438</v>
       </c>
       <c r="BF3" t="n">
-        <v>249.2095489501953</v>
+        <v>315.3431701660156</v>
       </c>
       <c r="BG3" t="n">
-        <v>247.5103912353516</v>
+        <v>314.8768615722656</v>
       </c>
       <c r="BH3" t="n">
-        <v>246.8919677734375</v>
+        <v>314.5205078125</v>
       </c>
       <c r="BI3" t="n">
-        <v>246.5624694824219</v>
+        <v>313.9698181152344</v>
       </c>
       <c r="BJ3" t="n">
-        <v>246.9775695800781</v>
+        <v>312.4015502929688</v>
       </c>
       <c r="BK3" t="n">
-        <v>246.8532104492188</v>
+        <v>311.9938049316406</v>
       </c>
       <c r="BL3" t="n">
-        <v>247.6245727539062</v>
+        <v>311.4996643066406</v>
       </c>
       <c r="BM3" t="n">
-        <v>247.0347747802734</v>
+        <v>313.206298828125</v>
       </c>
       <c r="BN3" t="n">
-        <v>246.2954254150391</v>
+        <v>312.7010498046875</v>
       </c>
       <c r="BO3" t="n">
-        <v>245.1455841064453</v>
+        <v>312.0701599121094</v>
       </c>
       <c r="BP3" t="n">
-        <v>239.869140625</v>
+        <v>312.8077087402344</v>
       </c>
       <c r="BQ3" t="n">
-        <v>234.2357025146484</v>
+        <v>312.3835144042969</v>
       </c>
       <c r="BR3" t="n">
-        <v>229.4744873046875</v>
+        <v>312.2566223144531</v>
       </c>
       <c r="BS3" t="n">
-        <v>226.9975738525391</v>
+        <v>312.2740478515625</v>
       </c>
       <c r="BT3" t="n">
-        <v>226.0735321044922</v>
+        <v>312.0613403320312</v>
       </c>
       <c r="BU3" t="n">
-        <v>224.2417297363281</v>
+        <v>312.2424926757812</v>
       </c>
       <c r="BV3" t="n">
-        <v>223.7219085693359</v>
+        <v>312.50634765625</v>
       </c>
       <c r="BW3" t="n">
-        <v>223.1259155273438</v>
+        <v>312.8726501464844</v>
       </c>
       <c r="BX3" t="n">
-        <v>223.1949615478516</v>
+        <v>313.3024291992188</v>
       </c>
       <c r="BY3" t="n">
-        <v>223.2633666992188</v>
+        <v>313.5102233886719</v>
       </c>
       <c r="BZ3" t="n">
-        <v>223.4545593261719</v>
+        <v>313.7229919433594</v>
       </c>
       <c r="CA3" t="n">
-        <v>224.4088592529297</v>
+        <v>313.9194030761719</v>
       </c>
       <c r="CB3" t="n">
-        <v>227.4555206298828</v>
+        <v>313.9752502441406</v>
       </c>
       <c r="CC3" t="n">
-        <v>233.6418151855469</v>
+        <v>314.0659484863281</v>
       </c>
       <c r="CD3" t="n">
-        <v>238.8981323242188</v>
+        <v>314.125732421875</v>
       </c>
       <c r="CE3" t="n">
-        <v>240.5047760009766</v>
+        <v>314.0953979492188</v>
       </c>
       <c r="CF3" t="n">
-        <v>242.2031860351562</v>
+        <v>314.0655822753906</v>
       </c>
       <c r="CG3" t="n">
-        <v>243.1401214599609</v>
+        <v>314.0801696777344</v>
       </c>
       <c r="CH3" t="n">
-        <v>244.7968444824219</v>
+        <v>314.0748901367188</v>
       </c>
       <c r="CI3" t="n">
-        <v>247.5063781738281</v>
+        <v>314.1000671386719</v>
       </c>
       <c r="CJ3" t="n">
-        <v>249.8549957275391</v>
+        <v>314.1305847167969</v>
       </c>
       <c r="CK3" t="n">
-        <v>252.1150360107422</v>
+        <v>314.1734313964844</v>
       </c>
       <c r="CL3" t="n">
-        <v>254.4312591552734</v>
+        <v>314.2579650878906</v>
       </c>
       <c r="CM3" t="n">
-        <v>255.2109375</v>
+        <v>314.2014465332031</v>
       </c>
       <c r="CN3" t="n">
-        <v>255.7985076904297</v>
+        <v>314.0680236816406</v>
       </c>
       <c r="CO3" t="n">
-        <v>255.9252777099609</v>
+        <v>313.6726379394531</v>
       </c>
       <c r="CP3" t="n">
-        <v>256.1245727539062</v>
+        <v>313.1702270507812</v>
       </c>
       <c r="CQ3" t="n">
-        <v>256.1221618652344</v>
+        <v>315.0634155273438</v>
       </c>
       <c r="CR3" t="n">
-        <v>255.6333160400391</v>
+        <v>315.2899780273438</v>
       </c>
       <c r="CS3" t="n">
-        <v>255.3219299316406</v>
+        <v>313.4211120605469</v>
       </c>
       <c r="CT3" t="n">
-        <v>252.9057006835938</v>
+        <v>312.8880004882812</v>
       </c>
       <c r="CU3" t="n">
-        <v>249.2770690917969</v>
+        <v>312.205810546875</v>
       </c>
       <c r="CV3" t="n">
-        <v>245.0087890625</v>
+        <v>313.1908874511719</v>
       </c>
       <c r="CW3" t="n">
-        <v>241.9776000976562</v>
+        <v>313.622314453125</v>
       </c>
       <c r="CX3" t="n">
-        <v>241.2556457519531</v>
+        <v>313.6483154296875</v>
       </c>
       <c r="CY3" t="n">
-        <v>242.6628723144531</v>
+        <v>313.8887634277344</v>
       </c>
       <c r="CZ3" t="n">
-        <v>243.8120269775391</v>
+        <v>314.4065551757812</v>
       </c>
       <c r="DA3" t="n">
-        <v>241.1642303466797</v>
+        <v>314.8702087402344</v>
       </c>
       <c r="DB3" t="n">
-        <v>236.8461608886719</v>
+        <v>313.9293518066406</v>
       </c>
       <c r="DC3" t="n">
-        <v>233.6824798583984</v>
+        <v>313.1742553710938</v>
       </c>
       <c r="DD3" t="n">
-        <v>242.4550170898438</v>
+        <v>312.55419921875</v>
       </c>
       <c r="DE3" t="n">
-        <v>243.5591735839844</v>
+        <v>311.903564453125</v>
       </c>
       <c r="DF3" t="n">
-        <v>245.0201263427734</v>
+        <v>311.5596923828125</v>
       </c>
       <c r="DG3" t="n">
-        <v>245.6960144042969</v>
+        <v>311.2445373535156</v>
       </c>
       <c r="DH3" t="n">
-        <v>246.5869903564453</v>
+        <v>310.94677734375</v>
       </c>
       <c r="DI3" t="n">
-        <v>247.5424499511719</v>
+        <v>311.6220092773438</v>
       </c>
       <c r="DJ3" t="n">
-        <v>248.9810638427734</v>
+        <v>312.1697387695312</v>
       </c>
       <c r="DK3" t="n">
-        <v>248.1969757080078</v>
+        <v>310.8873901367188</v>
       </c>
       <c r="DL3" t="n">
-        <v>249.0846862792969</v>
+        <v>312.728759765625</v>
       </c>
       <c r="DM3" t="n">
-        <v>248.9167175292969</v>
+        <v>314.7781372070312</v>
       </c>
       <c r="DN3" t="n">
-        <v>254.0276184082031</v>
+        <v>314.541259765625</v>
       </c>
       <c r="DO3" t="n">
-        <v>258.8287963867188</v>
+        <v>314.9013366699219</v>
       </c>
       <c r="DP3" t="n">
-        <v>258.6600341796875</v>
+        <v>314.4174194335938</v>
       </c>
       <c r="DQ3" t="n">
-        <v>257.4297790527344</v>
+        <v>314.1892700195312</v>
       </c>
       <c r="DR3" t="n">
-        <v>255.4595642089844</v>
+        <v>313.9540710449219</v>
       </c>
       <c r="DS3" t="n">
-        <v>253.5683135986328</v>
+        <v>314.044921875</v>
       </c>
       <c r="DT3" t="n">
-        <v>252.6664428710938</v>
+        <v>314.0154724121094</v>
       </c>
       <c r="DU3" t="n">
-        <v>252.9712829589844</v>
+        <v>313.880126953125</v>
       </c>
       <c r="DV3" t="n">
-        <v>253.5949554443359</v>
+        <v>313.7863159179688</v>
       </c>
       <c r="DW3" t="n">
-        <v>249.364501953125</v>
+        <v>313.7570190429688</v>
       </c>
       <c r="DX3" t="n">
-        <v>247.8821411132812</v>
+        <v>313.7912902832031</v>
       </c>
       <c r="DY3" t="n">
-        <v>247.5921020507812</v>
+        <v>313.7710266113281</v>
       </c>
       <c r="DZ3" t="n">
-        <v>249.5613403320312</v>
+        <v>313.7650146484375</v>
       </c>
       <c r="EA3" t="n">
-        <v>250.1804656982422</v>
+        <v>313.7276611328125</v>
       </c>
       <c r="EB3" t="n">
-        <v>251.75</v>
+        <v>313.6776428222656</v>
       </c>
       <c r="EC3" t="n">
-        <v>252.4913330078125</v>
+        <v>313.58544921875</v>
       </c>
       <c r="ED3" t="n">
-        <v>253.8723602294922</v>
+        <v>313.3393249511719</v>
       </c>
       <c r="EE3" t="n">
-        <v>254.6688385009766</v>
+        <v>313.1925659179688</v>
       </c>
       <c r="EF3" t="n">
-        <v>255.6297454833984</v>
+        <v>312.9371337890625</v>
       </c>
       <c r="EG3" t="n">
-        <v>259.7064208984375</v>
+        <v>312.8029479980469</v>
       </c>
       <c r="EH3" t="n">
-        <v>263.1114501953125</v>
+        <v>312.7266235351562</v>
       </c>
       <c r="EI3" t="n">
-        <v>264.2507629394531</v>
+        <v>312.2186584472656</v>
       </c>
       <c r="EJ3" t="n">
-        <v>262.1616821289062</v>
+        <v>312.0194396972656</v>
       </c>
       <c r="EK3" t="n">
-        <v>265.984130859375</v>
+        <v>313.8692932128906</v>
       </c>
       <c r="EL3" t="n">
-        <v>269.3208312988281</v>
+        <v>314.0731201171875</v>
       </c>
       <c r="EM3" t="n">
-        <v>269.0353088378906</v>
+        <v>312.4158325195312</v>
       </c>
       <c r="EN3" t="n">
-        <v>269.2004699707031</v>
+        <v>312.8692626953125</v>
       </c>
       <c r="EO3" t="n">
-        <v>273.4501647949219</v>
+        <v>315.1105041503906</v>
       </c>
       <c r="EP3" t="n">
-        <v>273.1125793457031</v>
+        <v>315.9250183105469</v>
       </c>
       <c r="EQ3" t="n">
-        <v>278.3357543945312</v>
+        <v>314.5257568359375</v>
       </c>
       <c r="ER3" t="n">
-        <v>275.7705993652344</v>
+        <v>314.8734436035156</v>
       </c>
       <c r="ES3" t="n">
-        <v>273.3974914550781</v>
+        <v>314.9070129394531</v>
       </c>
       <c r="ET3" t="n">
-        <v>275.9613952636719</v>
+        <v>315.3462524414062</v>
       </c>
       <c r="EU3" t="n">
-        <v>282.0166015625</v>
+        <v>315.5547485351562</v>
       </c>
       <c r="EV3" t="n">
-        <v>281.2516479492188</v>
+        <v>315.675048828125</v>
       </c>
       <c r="EW3" t="n">
-        <v>279.4450988769531</v>
+        <v>315.6965942382812</v>
       </c>
       <c r="EX3" t="n">
-        <v>275.7686767578125</v>
+        <v>315.5955505371094</v>
       </c>
       <c r="EY3" t="n">
-        <v>280.61767578125</v>
+        <v>315.1522827148438</v>
       </c>
       <c r="EZ3" t="n">
-        <v>275.1139221191406</v>
+        <v>313.8886108398438</v>
       </c>
       <c r="FA3" t="n">
-        <v>274.3773803710938</v>
+        <v>314.7015075683594</v>
       </c>
       <c r="FB3" t="n">
-        <v>275.8775024414062</v>
+        <v>314.9339599609375</v>
       </c>
       <c r="FC3" t="n">
-        <v>274.7957763671875</v>
+        <v>315.9039001464844</v>
       </c>
       <c r="FD3" t="n">
-        <v>274.1736450195312</v>
+        <v>315.5631408691406</v>
       </c>
       <c r="FE3" t="n">
-        <v>274.6265258789062</v>
+        <v>315.3700561523438</v>
       </c>
       <c r="FF3" t="n">
-        <v>275.92529296875</v>
+        <v>315.579833984375</v>
       </c>
       <c r="FG3" t="n">
-        <v>277.8581237792969</v>
+        <v>315.7668151855469</v>
       </c>
       <c r="FH3" t="n">
-        <v>279.2476501464844</v>
+        <v>315.7999267578125</v>
       </c>
       <c r="FI3" t="n">
-        <v>276.9812622070312</v>
+        <v>315.7848510742188</v>
       </c>
       <c r="FJ3" t="n">
-        <v>281.4915161132812</v>
+        <v>315.6843566894531</v>
       </c>
       <c r="FK3" t="n">
-        <v>286.5179748535156</v>
+        <v>315.6287841796875</v>
       </c>
       <c r="FL3" t="n">
-        <v>285.6254272460938</v>
+        <v>315.3634643554688</v>
       </c>
       <c r="FM3" t="n">
-        <v>283.0481567382812</v>
+        <v>315.0899963378906</v>
       </c>
       <c r="FN3" t="n">
-        <v>285.4802856445312</v>
+        <v>314.6539306640625</v>
       </c>
       <c r="FO3" t="n">
-        <v>288.1506042480469</v>
+        <v>314.5394287109375</v>
       </c>
       <c r="FP3" t="n">
-        <v>357.9497680664062</v>
+        <v>314.4881896972656</v>
       </c>
       <c r="FQ3" t="n">
-        <v>395.2251586914062</v>
+        <v>314.4459533691406</v>
       </c>
       <c r="FR3" t="n">
-        <v>394.1678466796875</v>
+        <v>314.3301391601562</v>
       </c>
       <c r="FS3" t="n">
-        <v>372.2043762207031</v>
+        <v>314.2192077636719</v>
       </c>
       <c r="FT3" t="n">
-        <v>352.9231567382812</v>
+        <v>313.8609008789062</v>
       </c>
       <c r="FU3" t="n">
-        <v>378.8214111328125</v>
+        <v>312.4548950195312</v>
       </c>
       <c r="FV3" t="n">
-        <v>397.1083679199219</v>
+        <v>312.7914428710938</v>
       </c>
       <c r="FW3" t="n">
-        <v>396.5262451171875</v>
+        <v>314.0133972167969</v>
       </c>
       <c r="FX3" t="n">
-        <v>403.9700012207031</v>
+        <v>312.6741943359375</v>
       </c>
       <c r="FY3" t="n">
-        <v>409.693603515625</v>
+        <v>313.1189575195312</v>
       </c>
       <c r="FZ3" t="n">
-        <v>420.3375854492188</v>
+        <v>313.8307189941406</v>
       </c>
       <c r="GA3" t="n">
-        <v>412.43994140625</v>
+        <v>314.0634155273438</v>
       </c>
       <c r="GB3" t="n">
-        <v>396.6356506347656</v>
+        <v>314.8624572753906</v>
       </c>
       <c r="GC3" t="n">
-        <v>385.3566589355469</v>
+        <v>315.1717224121094</v>
       </c>
       <c r="GD3" t="n">
-        <v>386.7656860351562</v>
+        <v>315.165283203125</v>
       </c>
       <c r="GE3" t="n">
-        <v>387.6273498535156</v>
+        <v>315.2519226074219</v>
       </c>
       <c r="GF3" t="n">
-        <v>387.7464294433594</v>
+        <v>314.0856323242188</v>
       </c>
       <c r="GG3" t="n">
-        <v>379.4722900390625</v>
+        <v>313.6414489746094</v>
       </c>
       <c r="GH3" t="n">
-        <v>370.4471130371094</v>
+        <v>312.9739379882812</v>
       </c>
       <c r="GI3" t="n">
-        <v>378.1397399902344</v>
+        <v>312.7988891601562</v>
       </c>
       <c r="GJ3" t="n">
-        <v>400.6720275878906</v>
+        <v>312.7970886230469</v>
       </c>
       <c r="GK3" t="n">
-        <v>376.0933837890625</v>
+        <v>311.8302307128906</v>
       </c>
       <c r="GL3" t="n">
-        <v>387.0116577148438</v>
+        <v>311.6719665527344</v>
       </c>
       <c r="GM3" t="n">
-        <v>395.80078125</v>
+        <v>314.9446716308594</v>
       </c>
       <c r="GN3" t="n">
-        <v>415.6184387207031</v>
+        <v>316.2536926269531</v>
       </c>
       <c r="GO3" t="n">
-        <v>416.8351135253906</v>
+        <v>316.6577758789062</v>
       </c>
       <c r="GP3" t="n">
-        <v>415.7143249511719</v>
+        <v>315.9824523925781</v>
       </c>
       <c r="GQ3" t="n">
-        <v>412.2909851074219</v>
+        <v>315.8350830078125</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>315.8685913085938</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>315.9615478515625</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>316.1365661621094</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>316.2217407226562</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>316.0693969726562</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>316.0335083007812</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>316.0477905273438</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>316.0345153808594</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>315.9486694335938</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>315.7855529785156</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>315.3631286621094</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>313.4273376464844</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>314.5466613769531</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>313.5923156738281</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>312.8592834472656</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>312.5541076660156</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>313.3507690429688</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>314.4231872558594</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>314.9917297363281</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>315.18603515625</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>315.0281372070312</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>315.0301513671875</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>315.0608520507812</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>315.0621337890625</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>314.7508850097656</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>314.5608215332031</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>315.5931701660156</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>316.8639831542969</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>315.4537658691406</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>315.5349731445312</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>315.7192077636719</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>315.7809753417969</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>315.8108520507812</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>315.6018981933594</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>315.4591674804688</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>315.4479370117188</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>315.6222534179688</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>315.8328247070312</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>315.8741760253906</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>315.9571228027344</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>316.0174560546875</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>316.0238952636719</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>315.9778442382812</v>
+      </c>
+      <c r="II3" t="n">
+        <v>315.82861328125</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>314.9293518066406</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>314.5423889160156</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>313.898193359375</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>313.0602416992188</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>314.4715881347656</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>313.6649169921875</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>312.5635681152344</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>313.5294189453125</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>315.6851501464844</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>316.0265502929688</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>316.0581359863281</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>316.0131225585938</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>315.2445068359375</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>312.4608154296875</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>315.0586547851562</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>315.5962524414062</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>315.89794921875</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>315.4806823730469</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>314.9449768066406</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>314.8488159179688</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>315.7045593261719</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>316.0335083007812</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>316.2621765136719</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>316.34130859375</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>316.1172485351562</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>315.7499389648438</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>315.3975219726562</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>314.9688720703125</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>314.4619445800781</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>315.3579711914062</v>
+      </c>
+      <c r="JN3" t="n">
+        <v>315.6446228027344</v>
+      </c>
+      <c r="JO3" t="n">
+        <v>313.7716674804688</v>
+      </c>
+      <c r="JP3" t="n">
+        <v>315.1361694335938</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>311.1585083007812</v>
+      </c>
+      <c r="JR3" t="n">
+        <v>313.5500793457031</v>
+      </c>
+      <c r="JS3" t="n">
+        <v>314.2173156738281</v>
+      </c>
+      <c r="JT3" t="n">
+        <v>314.5750427246094</v>
+      </c>
+      <c r="JU3" t="n">
+        <v>314.7913818359375</v>
+      </c>
+      <c r="JV3" t="n">
+        <v>314.8943786621094</v>
+      </c>
+      <c r="JW3" t="n">
+        <v>315.6703186035156</v>
+      </c>
+      <c r="JX3" t="n">
+        <v>316.7131042480469</v>
+      </c>
+      <c r="JY3" t="n">
+        <v>317.5476684570312</v>
+      </c>
+      <c r="JZ3" t="n">
+        <v>317.8346862792969</v>
+      </c>
+      <c r="KA3" t="n">
+        <v>318.541259765625</v>
+      </c>
+      <c r="KB3" t="n">
+        <v>319.923828125</v>
+      </c>
+      <c r="KC3" t="n">
+        <v>320.0195007324219</v>
+      </c>
+      <c r="KD3" t="n">
+        <v>319.5685119628906</v>
+      </c>
+      <c r="KE3" t="n">
+        <v>319.5654296875</v>
+      </c>
+      <c r="KF3" t="n">
+        <v>320.1587524414062</v>
+      </c>
+      <c r="KG3" t="n">
+        <v>319.8785095214844</v>
+      </c>
+      <c r="KH3" t="n">
+        <v>317.8131103515625</v>
+      </c>
+      <c r="KI3" t="n">
+        <v>316.6452941894531</v>
+      </c>
+      <c r="KJ3" t="n">
+        <v>315.2159118652344</v>
+      </c>
+      <c r="KK3" t="n">
+        <v>316.2973022460938</v>
+      </c>
+      <c r="KL3" t="n">
+        <v>323.4194030761719</v>
+      </c>
+      <c r="KM3" t="n">
+        <v>327.3602294921875</v>
+      </c>
+      <c r="KN3" t="n">
+        <v>332.2255249023438</v>
+      </c>
+      <c r="KO3" t="n">
+        <v>324.5797729492188</v>
+      </c>
+      <c r="KP3" t="n">
+        <v>320.5227966308594</v>
+      </c>
+      <c r="KQ3" t="n">
+        <v>317.4778137207031</v>
+      </c>
+      <c r="KR3" t="n">
+        <v>312.37353515625</v>
+      </c>
+      <c r="KS3" t="n">
+        <v>301.2190551757812</v>
+      </c>
+      <c r="KT3" t="n">
+        <v>298.4851379394531</v>
+      </c>
+      <c r="KU3" t="n">
+        <v>291.9214477539062</v>
+      </c>
+      <c r="KV3" t="n">
+        <v>291.3704833984375</v>
+      </c>
+      <c r="KW3" t="n">
+        <v>297.5404052734375</v>
+      </c>
+      <c r="KX3" t="n">
+        <v>298.06298828125</v>
+      </c>
+      <c r="KY3" t="n">
+        <v>294.4846801757812</v>
+      </c>
+      <c r="KZ3" t="n">
+        <v>292.9802551269531</v>
+      </c>
+      <c r="LA3" t="n">
+        <v>302.0123291015625</v>
+      </c>
+      <c r="LB3" t="n">
+        <v>307.7416687011719</v>
+      </c>
+      <c r="LC3" t="n">
+        <v>314.0128479003906</v>
+      </c>
+      <c r="LD3" t="n">
+        <v>317.8740234375</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1199.320068359375</v>
+        <v>699.91064453125</v>
       </c>
       <c r="B4" t="n">
-        <v>1187.875366210938</v>
+        <v>740.2631225585938</v>
       </c>
       <c r="C4" t="n">
-        <v>1179.519287109375</v>
+        <v>778.10205078125</v>
       </c>
       <c r="D4" t="n">
-        <v>1179.363525390625</v>
+        <v>815.5144653320312</v>
       </c>
       <c r="E4" t="n">
-        <v>1175.521606445312</v>
+        <v>854.3461303710938</v>
       </c>
       <c r="F4" t="n">
-        <v>1169.580688476562</v>
+        <v>908.1022338867188</v>
       </c>
       <c r="G4" t="n">
-        <v>1162.833862304688</v>
+        <v>962.0814819335938</v>
       </c>
       <c r="H4" t="n">
-        <v>1150.834594726562</v>
+        <v>1017.336853027344</v>
       </c>
       <c r="I4" t="n">
-        <v>1136.911254882812</v>
+        <v>1067.939697265625</v>
       </c>
       <c r="J4" t="n">
-        <v>1127.908569335938</v>
+        <v>1126.447875976562</v>
       </c>
       <c r="K4" t="n">
-        <v>1141.099365234375</v>
+        <v>1183.7685546875</v>
       </c>
       <c r="L4" t="n">
-        <v>1153.852905273438</v>
+        <v>1239.110717773438</v>
       </c>
       <c r="M4" t="n">
-        <v>1157.65869140625</v>
+        <v>1284.47216796875</v>
       </c>
       <c r="N4" t="n">
-        <v>1154.428466796875</v>
+        <v>1323.077880859375</v>
       </c>
       <c r="O4" t="n">
-        <v>1158.632080078125</v>
+        <v>1371.292114257812</v>
       </c>
       <c r="P4" t="n">
-        <v>1170.666259765625</v>
+        <v>1414.438232421875</v>
       </c>
       <c r="Q4" t="n">
-        <v>1183.917602539062</v>
+        <v>1454.963623046875</v>
       </c>
       <c r="R4" t="n">
-        <v>1188.09033203125</v>
+        <v>1489.607666015625</v>
       </c>
       <c r="S4" t="n">
-        <v>1201.220581054688</v>
+        <v>1518.750366210938</v>
       </c>
       <c r="T4" t="n">
-        <v>1217.0791015625</v>
+        <v>1551.346801757812</v>
       </c>
       <c r="U4" t="n">
-        <v>1234.509643554688</v>
+        <v>1586.6015625</v>
       </c>
       <c r="V4" t="n">
-        <v>1241.073852539062</v>
+        <v>1611.96728515625</v>
       </c>
       <c r="W4" t="n">
-        <v>1249.88623046875</v>
+        <v>1634.844360351562</v>
       </c>
       <c r="X4" t="n">
-        <v>1255.5078125</v>
+        <v>1661.912475585938</v>
       </c>
       <c r="Y4" t="n">
-        <v>1265.764282226562</v>
+        <v>1693.036865234375</v>
       </c>
       <c r="Z4" t="n">
-        <v>1287.68505859375</v>
+        <v>1722.778564453125</v>
       </c>
       <c r="AA4" t="n">
-        <v>1301.696411132812</v>
+        <v>1742.427124023438</v>
       </c>
       <c r="AB4" t="n">
-        <v>1315.433837890625</v>
+        <v>1763.014282226562</v>
       </c>
       <c r="AC4" t="n">
-        <v>1317.945678710938</v>
+        <v>1802.65869140625</v>
       </c>
       <c r="AD4" t="n">
-        <v>1319.333251953125</v>
+        <v>1829.594360351562</v>
       </c>
       <c r="AE4" t="n">
-        <v>1321.161010742188</v>
+        <v>1859.4580078125</v>
       </c>
       <c r="AF4" t="n">
-        <v>1321.139404296875</v>
+        <v>1881.930786132812</v>
       </c>
       <c r="AG4" t="n">
-        <v>1320.93310546875</v>
+        <v>1892.53173828125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1320.603149414062</v>
+        <v>1918.815185546875</v>
       </c>
       <c r="AI4" t="n">
-        <v>1319.912719726562</v>
+        <v>1959.20654296875</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1318.831909179688</v>
+        <v>1968.789672851562</v>
       </c>
       <c r="AK4" t="n">
-        <v>1316.38671875</v>
+        <v>1982.81396484375</v>
       </c>
       <c r="AL4" t="n">
-        <v>1307.261596679688</v>
+        <v>1986.716674804688</v>
       </c>
       <c r="AM4" t="n">
-        <v>1286.967041015625</v>
+        <v>1996.953979492188</v>
       </c>
       <c r="AN4" t="n">
-        <v>1260.60009765625</v>
+        <v>1991.756103515625</v>
       </c>
       <c r="AO4" t="n">
-        <v>1252.637084960938</v>
+        <v>1990.682983398438</v>
       </c>
       <c r="AP4" t="n">
-        <v>1238.282836914062</v>
+        <v>1991.945556640625</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1218.270751953125</v>
+        <v>1991.252807617188</v>
       </c>
       <c r="AR4" t="n">
-        <v>1203.727905273438</v>
+        <v>1990.317626953125</v>
       </c>
       <c r="AS4" t="n">
-        <v>1192.935302734375</v>
+        <v>1989.661010742188</v>
       </c>
       <c r="AT4" t="n">
-        <v>1182.400756835938</v>
+        <v>1988.546875</v>
       </c>
       <c r="AU4" t="n">
-        <v>1172.583618164062</v>
+        <v>1986.0419921875</v>
       </c>
       <c r="AV4" t="n">
-        <v>1172.253173828125</v>
+        <v>1983.271850585938</v>
       </c>
       <c r="AW4" t="n">
-        <v>1171.302612304688</v>
+        <v>1980.337158203125</v>
       </c>
       <c r="AX4" t="n">
-        <v>1171.862548828125</v>
+        <v>1978.435546875</v>
       </c>
       <c r="AY4" t="n">
-        <v>1174.45361328125</v>
+        <v>1977.998657226562</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1184.176147460938</v>
+        <v>1977.71630859375</v>
       </c>
       <c r="BA4" t="n">
-        <v>1209.1943359375</v>
+        <v>1977.892456054688</v>
       </c>
       <c r="BB4" t="n">
-        <v>1222.4677734375</v>
+        <v>1978.307006835938</v>
       </c>
       <c r="BC4" t="n">
-        <v>1231.3701171875</v>
+        <v>1979.4384765625</v>
       </c>
       <c r="BD4" t="n">
-        <v>1243.3671875</v>
+        <v>1983.160888671875</v>
       </c>
       <c r="BE4" t="n">
-        <v>1258.583740234375</v>
+        <v>1990.026733398438</v>
       </c>
       <c r="BF4" t="n">
-        <v>1272.413208007812</v>
+        <v>2001.309814453125</v>
       </c>
       <c r="BG4" t="n">
-        <v>1285.265014648438</v>
+        <v>2001.02197265625</v>
       </c>
       <c r="BH4" t="n">
-        <v>1294.034301757812</v>
+        <v>2003.62255859375</v>
       </c>
       <c r="BI4" t="n">
-        <v>1309.401123046875</v>
+        <v>2011.6962890625</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1318.788452148438</v>
+        <v>2013.898071289062</v>
       </c>
       <c r="BK4" t="n">
-        <v>1320.987670898438</v>
+        <v>2010.955322265625</v>
       </c>
       <c r="BL4" t="n">
-        <v>1324.5859375</v>
+        <v>2010.3935546875</v>
       </c>
       <c r="BM4" t="n">
-        <v>1324.276000976562</v>
+        <v>2027.712768554688</v>
       </c>
       <c r="BN4" t="n">
-        <v>1323.4716796875</v>
+        <v>2029.131591796875</v>
       </c>
       <c r="BO4" t="n">
-        <v>1318.625244140625</v>
+        <v>2039.205078125</v>
       </c>
       <c r="BP4" t="n">
-        <v>1294.579467773438</v>
+        <v>2075.854736328125</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1274.359497070312</v>
+        <v>2094.92041015625</v>
       </c>
       <c r="BR4" t="n">
-        <v>1257.210205078125</v>
+        <v>2101.212890625</v>
       </c>
       <c r="BS4" t="n">
-        <v>1265.5888671875</v>
+        <v>2110.37646484375</v>
       </c>
       <c r="BT4" t="n">
-        <v>1261.530883789062</v>
+        <v>2121.05712890625</v>
       </c>
       <c r="BU4" t="n">
-        <v>1260.514282226562</v>
+        <v>2119.875244140625</v>
       </c>
       <c r="BV4" t="n">
-        <v>1261.453247070312</v>
+        <v>2120.998779296875</v>
       </c>
       <c r="BW4" t="n">
-        <v>1260.02783203125</v>
+        <v>2122.172607421875</v>
       </c>
       <c r="BX4" t="n">
-        <v>1260.077758789062</v>
+        <v>2122.5244140625</v>
       </c>
       <c r="BY4" t="n">
-        <v>1260.038818359375</v>
+        <v>2123.348388671875</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1260.023559570312</v>
+        <v>2124.05322265625</v>
       </c>
       <c r="CA4" t="n">
-        <v>1262.799194335938</v>
+        <v>2126.551025390625</v>
       </c>
       <c r="CB4" t="n">
-        <v>1269.412963867188</v>
+        <v>2127.7646484375</v>
       </c>
       <c r="CC4" t="n">
-        <v>1274.335571289062</v>
+        <v>2126.46044921875</v>
       </c>
       <c r="CD4" t="n">
-        <v>1280.660522460938</v>
+        <v>2125.164306640625</v>
       </c>
       <c r="CE4" t="n">
-        <v>1284.084716796875</v>
+        <v>2125.605224609375</v>
       </c>
       <c r="CF4" t="n">
-        <v>1290.2041015625</v>
+        <v>2125.9306640625</v>
       </c>
       <c r="CG4" t="n">
-        <v>1292.601806640625</v>
+        <v>2125.824462890625</v>
       </c>
       <c r="CH4" t="n">
-        <v>1294.336303710938</v>
+        <v>2125.73974609375</v>
       </c>
       <c r="CI4" t="n">
-        <v>1297.425170898438</v>
+        <v>2124.2841796875</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1301.754760742188</v>
+        <v>2121.93798828125</v>
       </c>
       <c r="CK4" t="n">
-        <v>1308.708374023438</v>
+        <v>2116.913330078125</v>
       </c>
       <c r="CL4" t="n">
-        <v>1330.006591796875</v>
+        <v>2107.141845703125</v>
       </c>
       <c r="CM4" t="n">
-        <v>1337.24462890625</v>
+        <v>2108.229248046875</v>
       </c>
       <c r="CN4" t="n">
-        <v>1341.73291015625</v>
+        <v>2100.72900390625</v>
       </c>
       <c r="CO4" t="n">
-        <v>1345.583740234375</v>
+        <v>2063.385498046875</v>
       </c>
       <c r="CP4" t="n">
-        <v>1344.663208007812</v>
+        <v>2038.635131835938</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1343.493408203125</v>
+        <v>2033.84521484375</v>
       </c>
       <c r="CR4" t="n">
-        <v>1338.564575195312</v>
+        <v>2018.101684570312</v>
       </c>
       <c r="CS4" t="n">
-        <v>1333.7802734375</v>
+        <v>1999.21337890625</v>
       </c>
       <c r="CT4" t="n">
-        <v>1323.092163085938</v>
+        <v>1999.34326171875</v>
       </c>
       <c r="CU4" t="n">
-        <v>1310.302856445312</v>
+        <v>1989.968627929688</v>
       </c>
       <c r="CV4" t="n">
-        <v>1301.411743164062</v>
+        <v>2005.307983398438</v>
       </c>
       <c r="CW4" t="n">
-        <v>1294.260498046875</v>
+        <v>2019.868286132812</v>
       </c>
       <c r="CX4" t="n">
-        <v>1297.3447265625</v>
+        <v>2016.131103515625</v>
       </c>
       <c r="CY4" t="n">
-        <v>1300.604736328125</v>
+        <v>2018.681396484375</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1305.393432617188</v>
+        <v>2021.464111328125</v>
       </c>
       <c r="DA4" t="n">
-        <v>1265.00390625</v>
+        <v>2024.177001953125</v>
       </c>
       <c r="DB4" t="n">
-        <v>1220.671142578125</v>
+        <v>2027.058349609375</v>
       </c>
       <c r="DC4" t="n">
-        <v>1200.176391601562</v>
+        <v>2027.62744140625</v>
       </c>
       <c r="DD4" t="n">
-        <v>1244.005981445312</v>
+        <v>2029.44287109375</v>
       </c>
       <c r="DE4" t="n">
-        <v>1283.204467773438</v>
+        <v>2030.773071289062</v>
       </c>
       <c r="DF4" t="n">
-        <v>1289.588012695312</v>
+        <v>2032.40966796875</v>
       </c>
       <c r="DG4" t="n">
-        <v>1291.969116210938</v>
+        <v>2033.158813476562</v>
       </c>
       <c r="DH4" t="n">
-        <v>1292.243896484375</v>
+        <v>2033.341186523438</v>
       </c>
       <c r="DI4" t="n">
-        <v>1291.11181640625</v>
+        <v>2030.753173828125</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1286.754150390625</v>
+        <v>2028.669677734375</v>
       </c>
       <c r="DK4" t="n">
-        <v>1276.48681640625</v>
+        <v>2007.924560546875</v>
       </c>
       <c r="DL4" t="n">
-        <v>1243.319580078125</v>
+        <v>2024.341674804688</v>
       </c>
       <c r="DM4" t="n">
-        <v>1238.308837890625</v>
+        <v>2057.9501953125</v>
       </c>
       <c r="DN4" t="n">
-        <v>1230.64501953125</v>
+        <v>2077.83154296875</v>
       </c>
       <c r="DO4" t="n">
-        <v>1236.475341796875</v>
+        <v>2081.21533203125</v>
       </c>
       <c r="DP4" t="n">
-        <v>1260.218139648438</v>
+        <v>2089.480224609375</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1270.85791015625</v>
+        <v>2099.0087890625</v>
       </c>
       <c r="DR4" t="n">
-        <v>1274.552001953125</v>
+        <v>2105.192626953125</v>
       </c>
       <c r="DS4" t="n">
-        <v>1273.741943359375</v>
+        <v>2106.868896484375</v>
       </c>
       <c r="DT4" t="n">
-        <v>1273.961669921875</v>
+        <v>2099.441650390625</v>
       </c>
       <c r="DU4" t="n">
-        <v>1273.953125</v>
+        <v>2095.927734375</v>
       </c>
       <c r="DV4" t="n">
-        <v>1274.1005859375</v>
+        <v>2098.2529296875</v>
       </c>
       <c r="DW4" t="n">
-        <v>1278.038818359375</v>
+        <v>2098.033447265625</v>
       </c>
       <c r="DX4" t="n">
-        <v>1282.501586914062</v>
+        <v>2098.03515625</v>
       </c>
       <c r="DY4" t="n">
-        <v>1283.844604492188</v>
+        <v>2096.79736328125</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1273.825317382812</v>
+        <v>2096.793212890625</v>
       </c>
       <c r="EA4" t="n">
-        <v>1263.098022460938</v>
+        <v>2095.837646484375</v>
       </c>
       <c r="EB4" t="n">
-        <v>1251.911254882812</v>
+        <v>2094.718505859375</v>
       </c>
       <c r="EC4" t="n">
-        <v>1247.335693359375</v>
+        <v>2094.891357421875</v>
       </c>
       <c r="ED4" t="n">
-        <v>1235.394165039062</v>
+        <v>2095.013916015625</v>
       </c>
       <c r="EE4" t="n">
-        <v>1227.284423828125</v>
+        <v>2094.67138671875</v>
       </c>
       <c r="EF4" t="n">
-        <v>1217.56494140625</v>
+        <v>2093.023681640625</v>
       </c>
       <c r="EG4" t="n">
-        <v>1196.060180664062</v>
+        <v>2092.21875</v>
       </c>
       <c r="EH4" t="n">
-        <v>1189.646728515625</v>
+        <v>2085.09326171875</v>
       </c>
       <c r="EI4" t="n">
-        <v>1173.416381835938</v>
+        <v>2051.327880859375</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1157.54150390625</v>
+        <v>2036.699584960938</v>
       </c>
       <c r="EK4" t="n">
-        <v>1130.96533203125</v>
+        <v>2022.607788085938</v>
       </c>
       <c r="EL4" t="n">
-        <v>1124.281860351562</v>
+        <v>2018.512329101562</v>
       </c>
       <c r="EM4" t="n">
-        <v>1111.679443359375</v>
+        <v>1990.816284179688</v>
       </c>
       <c r="EN4" t="n">
-        <v>1094.174072265625</v>
+        <v>1993.844482421875</v>
       </c>
       <c r="EO4" t="n">
-        <v>1075.411010742188</v>
+        <v>2023.494384765625</v>
       </c>
       <c r="EP4" t="n">
-        <v>1054.875122070312</v>
+        <v>2028.780151367188</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1066.30029296875</v>
+        <v>2015.052490234375</v>
       </c>
       <c r="ER4" t="n">
-        <v>1038.33447265625</v>
+        <v>2020.435546875</v>
       </c>
       <c r="ES4" t="n">
-        <v>1051.238403320312</v>
+        <v>2022.263549804688</v>
       </c>
       <c r="ET4" t="n">
-        <v>1038.326416015625</v>
+        <v>2022.116088867188</v>
       </c>
       <c r="EU4" t="n">
-        <v>1011.353088378906</v>
+        <v>2021.474853515625</v>
       </c>
       <c r="EV4" t="n">
-        <v>980.8164672851562</v>
+        <v>2021.16796875</v>
       </c>
       <c r="EW4" t="n">
-        <v>947.65185546875</v>
+        <v>2019.3427734375</v>
       </c>
       <c r="EX4" t="n">
-        <v>933.7843017578125</v>
+        <v>2018.14208984375</v>
       </c>
       <c r="EY4" t="n">
-        <v>879.3692016601562</v>
+        <v>2011.797241210938</v>
       </c>
       <c r="EZ4" t="n">
-        <v>808.6990356445312</v>
+        <v>1994.774536132812</v>
       </c>
       <c r="FA4" t="n">
-        <v>780.2027587890625</v>
+        <v>2017.46484375</v>
       </c>
       <c r="FB4" t="n">
-        <v>751.5949096679688</v>
+        <v>2045.553466796875</v>
       </c>
       <c r="FC4" t="n">
-        <v>704.01513671875</v>
+        <v>2069.871826171875</v>
       </c>
       <c r="FD4" t="n">
-        <v>678.4303588867188</v>
+        <v>2067.51611328125</v>
       </c>
       <c r="FE4" t="n">
-        <v>667.6923217773438</v>
+        <v>2070.1064453125</v>
       </c>
       <c r="FF4" t="n">
-        <v>653.5467529296875</v>
+        <v>2072.691162109375</v>
       </c>
       <c r="FG4" t="n">
-        <v>642.8525390625</v>
+        <v>2072.375244140625</v>
       </c>
       <c r="FH4" t="n">
-        <v>634.2402954101562</v>
+        <v>2073.050048828125</v>
       </c>
       <c r="FI4" t="n">
-        <v>631.967041015625</v>
+        <v>2076.262451171875</v>
       </c>
       <c r="FJ4" t="n">
-        <v>622.8919067382812</v>
+        <v>2077.908447265625</v>
       </c>
       <c r="FK4" t="n">
-        <v>615.5271606445312</v>
+        <v>2078.080810546875</v>
       </c>
       <c r="FL4" t="n">
-        <v>595.259521484375</v>
+        <v>2079.624755859375</v>
       </c>
       <c r="FM4" t="n">
-        <v>596.4367065429688</v>
+        <v>2079.873291015625</v>
       </c>
       <c r="FN4" t="n">
-        <v>594.3456420898438</v>
+        <v>2080.472412109375</v>
       </c>
       <c r="FO4" t="n">
-        <v>597.2999267578125</v>
+        <v>2080.52880859375</v>
       </c>
       <c r="FP4" t="n">
-        <v>590.837890625</v>
+        <v>2080.311767578125</v>
       </c>
       <c r="FQ4" t="n">
-        <v>585.848876953125</v>
+        <v>2080.11376953125</v>
       </c>
       <c r="FR4" t="n">
-        <v>568.1434326171875</v>
+        <v>2079.52392578125</v>
       </c>
       <c r="FS4" t="n">
-        <v>562.108154296875</v>
+        <v>2078.80615234375</v>
       </c>
       <c r="FT4" t="n">
-        <v>569.2094116210938</v>
+        <v>2073.68408203125</v>
       </c>
       <c r="FU4" t="n">
-        <v>582.30712890625</v>
+        <v>2024.589721679688</v>
       </c>
       <c r="FV4" t="n">
-        <v>605.9022216796875</v>
+        <v>2021.26708984375</v>
       </c>
       <c r="FW4" t="n">
-        <v>606.99609375</v>
+        <v>2015.0439453125</v>
       </c>
       <c r="FX4" t="n">
-        <v>611.0640258789062</v>
+        <v>2011.8076171875</v>
       </c>
       <c r="FY4" t="n">
-        <v>626.1842651367188</v>
+        <v>2007.011596679688</v>
       </c>
       <c r="FZ4" t="n">
-        <v>670.4520263671875</v>
+        <v>2013.306274414062</v>
       </c>
       <c r="GA4" t="n">
-        <v>667.2567138671875</v>
+        <v>2013.99951171875</v>
       </c>
       <c r="GB4" t="n">
-        <v>616.28515625</v>
+        <v>2007.717041015625</v>
       </c>
       <c r="GC4" t="n">
-        <v>577.6655883789062</v>
+        <v>2006.44775390625</v>
       </c>
       <c r="GD4" t="n">
-        <v>543.3935546875</v>
+        <v>2007.210571289062</v>
       </c>
       <c r="GE4" t="n">
-        <v>527.2496337890625</v>
+        <v>2009.114624023438</v>
       </c>
       <c r="GF4" t="n">
-        <v>503.3128051757812</v>
+        <v>2011.169921875</v>
       </c>
       <c r="GG4" t="n">
-        <v>471.6879272460938</v>
+        <v>2012.138427734375</v>
       </c>
       <c r="GH4" t="n">
-        <v>468.3184204101562</v>
+        <v>2013.931884765625</v>
       </c>
       <c r="GI4" t="n">
-        <v>440.6035766601562</v>
+        <v>2014.085815429688</v>
       </c>
       <c r="GJ4" t="n">
-        <v>401.9137878417969</v>
+        <v>2013.009155273438</v>
       </c>
       <c r="GK4" t="n">
-        <v>422.5552062988281</v>
+        <v>2009.630615234375</v>
       </c>
       <c r="GL4" t="n">
-        <v>408.1526184082031</v>
+        <v>2002.93603515625</v>
       </c>
       <c r="GM4" t="n">
-        <v>397.5466003417969</v>
+        <v>2026.568725585938</v>
       </c>
       <c r="GN4" t="n">
-        <v>373.0162963867188</v>
+        <v>2055.638916015625</v>
       </c>
       <c r="GO4" t="n">
-        <v>379.6796875</v>
+        <v>2061.70556640625</v>
       </c>
       <c r="GP4" t="n">
-        <v>386.2013244628906</v>
+        <v>2067.203125</v>
       </c>
       <c r="GQ4" t="n">
-        <v>400.6455078125</v>
+        <v>2069.099609375</v>
+      </c>
+      <c r="GR4" t="n">
+        <v>2071.015625</v>
+      </c>
+      <c r="GS4" t="n">
+        <v>2080.048095703125</v>
+      </c>
+      <c r="GT4" t="n">
+        <v>2083.576904296875</v>
+      </c>
+      <c r="GU4" t="n">
+        <v>2083.5693359375</v>
+      </c>
+      <c r="GV4" t="n">
+        <v>2084.4794921875</v>
+      </c>
+      <c r="GW4" t="n">
+        <v>2084.096435546875</v>
+      </c>
+      <c r="GX4" t="n">
+        <v>2082.219970703125</v>
+      </c>
+      <c r="GY4" t="n">
+        <v>2080.197021484375</v>
+      </c>
+      <c r="GZ4" t="n">
+        <v>2073.218994140625</v>
+      </c>
+      <c r="HA4" t="n">
+        <v>2061.32568359375</v>
+      </c>
+      <c r="HB4" t="n">
+        <v>2046.858276367188</v>
+      </c>
+      <c r="HC4" t="n">
+        <v>2010.816650390625</v>
+      </c>
+      <c r="HD4" t="n">
+        <v>2004.322021484375</v>
+      </c>
+      <c r="HE4" t="n">
+        <v>2007.756469726562</v>
+      </c>
+      <c r="HF4" t="n">
+        <v>2005.34228515625</v>
+      </c>
+      <c r="HG4" t="n">
+        <v>2002.318603515625</v>
+      </c>
+      <c r="HH4" t="n">
+        <v>2002.6708984375</v>
+      </c>
+      <c r="HI4" t="n">
+        <v>2010.532470703125</v>
+      </c>
+      <c r="HJ4" t="n">
+        <v>2003.37548828125</v>
+      </c>
+      <c r="HK4" t="n">
+        <v>2004.4853515625</v>
+      </c>
+      <c r="HL4" t="n">
+        <v>2002.489868164062</v>
+      </c>
+      <c r="HM4" t="n">
+        <v>2003.353637695312</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>2005.8994140625</v>
+      </c>
+      <c r="HO4" t="n">
+        <v>2008.5439453125</v>
+      </c>
+      <c r="HP4" t="n">
+        <v>2008.752807617188</v>
+      </c>
+      <c r="HQ4" t="n">
+        <v>2009.413940429688</v>
+      </c>
+      <c r="HR4" t="n">
+        <v>2012.39501953125</v>
+      </c>
+      <c r="HS4" t="n">
+        <v>2016.813232421875</v>
+      </c>
+      <c r="HT4" t="n">
+        <v>2028.21142578125</v>
+      </c>
+      <c r="HU4" t="n">
+        <v>2061.8232421875</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>2064.479248046875</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>2067.443603515625</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>2072.160400390625</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>2088.426513671875</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>2095.1591796875</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>2093.186767578125</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>2090.38134765625</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>2082.709716796875</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>2083.673583984375</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>2083.751708984375</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>2084.148193359375</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>2083.774658203125</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>2082.523193359375</v>
+      </c>
+      <c r="II4" t="n">
+        <v>2076.201171875</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>2036.874389648438</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>2023.566040039062</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>2003.105346679688</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>1985.611694335938</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>2015.52978515625</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>2006.26708984375</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>2000.692626953125</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>2006.11962890625</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>2013.641235351562</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>2016.647338867188</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>2013.925537109375</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>2013.222412109375</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>2003.911376953125</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>1978.300048828125</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>2010.7421875</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>2051.10693359375</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>2056.5693359375</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>2060.84619140625</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>2067.719482421875</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>2066.906982421875</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>2074.710693359375</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>2087.89111328125</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>2079.127197265625</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>2079.482177734375</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>2080.308349609375</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>2081.492431640625</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>2081.52587890625</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>2081.433837890625</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>2080.314697265625</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>2067.493408203125</v>
+      </c>
+      <c r="JN4" t="n">
+        <v>2061.632080078125</v>
+      </c>
+      <c r="JO4" t="n">
+        <v>2007.440063476562</v>
+      </c>
+      <c r="JP4" t="n">
+        <v>2008.432495117188</v>
+      </c>
+      <c r="JQ4" t="n">
+        <v>1990.346435546875</v>
+      </c>
+      <c r="JR4" t="n">
+        <v>2021.893310546875</v>
+      </c>
+      <c r="JS4" t="n">
+        <v>2017.834350585938</v>
+      </c>
+      <c r="JT4" t="n">
+        <v>2015.146484375</v>
+      </c>
+      <c r="JU4" t="n">
+        <v>2014.808715820312</v>
+      </c>
+      <c r="JV4" t="n">
+        <v>2013.829467773438</v>
+      </c>
+      <c r="JW4" t="n">
+        <v>2010.094482421875</v>
+      </c>
+      <c r="JX4" t="n">
+        <v>2002.642456054688</v>
+      </c>
+      <c r="JY4" t="n">
+        <v>2002.56298828125</v>
+      </c>
+      <c r="JZ4" t="n">
+        <v>1991.172119140625</v>
+      </c>
+      <c r="KA4" t="n">
+        <v>1969.020385742188</v>
+      </c>
+      <c r="KB4" t="n">
+        <v>1978.051391601562</v>
+      </c>
+      <c r="KC4" t="n">
+        <v>1977.078491210938</v>
+      </c>
+      <c r="KD4" t="n">
+        <v>1975.398681640625</v>
+      </c>
+      <c r="KE4" t="n">
+        <v>1975.739990234375</v>
+      </c>
+      <c r="KF4" t="n">
+        <v>1968.050537109375</v>
+      </c>
+      <c r="KG4" t="n">
+        <v>1993.386840820312</v>
+      </c>
+      <c r="KH4" t="n">
+        <v>2033.205688476562</v>
+      </c>
+      <c r="KI4" t="n">
+        <v>2035.9345703125</v>
+      </c>
+      <c r="KJ4" t="n">
+        <v>2023.654174804688</v>
+      </c>
+      <c r="KK4" t="n">
+        <v>1977.24658203125</v>
+      </c>
+      <c r="KL4" t="n">
+        <v>1885.290405273438</v>
+      </c>
+      <c r="KM4" t="n">
+        <v>1813.789184570312</v>
+      </c>
+      <c r="KN4" t="n">
+        <v>1715.486083984375</v>
+      </c>
+      <c r="KO4" t="n">
+        <v>1567.868286132812</v>
+      </c>
+      <c r="KP4" t="n">
+        <v>1471.497192382812</v>
+      </c>
+      <c r="KQ4" t="n">
+        <v>1386.557495117188</v>
+      </c>
+      <c r="KR4" t="n">
+        <v>1308.648681640625</v>
+      </c>
+      <c r="KS4" t="n">
+        <v>1210.428833007812</v>
+      </c>
+      <c r="KT4" t="n">
+        <v>1142.955078125</v>
+      </c>
+      <c r="KU4" t="n">
+        <v>1021.823425292969</v>
+      </c>
+      <c r="KV4" t="n">
+        <v>938.7584228515625</v>
+      </c>
+      <c r="KW4" t="n">
+        <v>870.6314086914062</v>
+      </c>
+      <c r="KX4" t="n">
+        <v>777.076904296875</v>
+      </c>
+      <c r="KY4" t="n">
+        <v>723.19921875</v>
+      </c>
+      <c r="KZ4" t="n">
+        <v>682.9291381835938</v>
+      </c>
+      <c r="LA4" t="n">
+        <v>634.7572021484375</v>
+      </c>
+      <c r="LB4" t="n">
+        <v>623.7174072265625</v>
+      </c>
+      <c r="LC4" t="n">
+        <v>624.9642333984375</v>
+      </c>
+      <c r="LD4" t="n">
+        <v>622.911376953125</v>
       </c>
     </row>
   </sheetData>

--- a/left_elbow_Data.xlsx
+++ b/left_elbow_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:LD4"/>
+  <dimension ref="A1:MF4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1382,2855 +1382,3191 @@
       <c r="LD1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="LE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>453.3816223144531</v>
+        <v>432.0317993164062</v>
       </c>
       <c r="B2" t="n">
-        <v>450.5805969238281</v>
+        <v>426.427001953125</v>
       </c>
       <c r="C2" t="n">
-        <v>446.899169921875</v>
+        <v>418.6741333007812</v>
       </c>
       <c r="D2" t="n">
-        <v>444.5169067382812</v>
+        <v>411.2836303710938</v>
       </c>
       <c r="E2" t="n">
-        <v>444.744384765625</v>
+        <v>402.1546020507812</v>
       </c>
       <c r="F2" t="n">
-        <v>441.1786193847656</v>
+        <v>394.532958984375</v>
       </c>
       <c r="G2" t="n">
-        <v>437.4853210449219</v>
+        <v>391.1357116699219</v>
       </c>
       <c r="H2" t="n">
-        <v>429.772216796875</v>
+        <v>385.6226806640625</v>
       </c>
       <c r="I2" t="n">
-        <v>422.7837524414062</v>
+        <v>379.0448608398438</v>
       </c>
       <c r="J2" t="n">
-        <v>415.7269897460938</v>
+        <v>375.1901550292969</v>
       </c>
       <c r="K2" t="n">
-        <v>409.6842956542969</v>
+        <v>373.2244262695312</v>
       </c>
       <c r="L2" t="n">
-        <v>405.7043151855469</v>
+        <v>371.6333618164062</v>
       </c>
       <c r="M2" t="n">
-        <v>402.9248352050781</v>
+        <v>369.734375</v>
       </c>
       <c r="N2" t="n">
-        <v>400.1498413085938</v>
+        <v>367.5177001953125</v>
       </c>
       <c r="O2" t="n">
-        <v>397.7785034179688</v>
+        <v>365.8533325195312</v>
       </c>
       <c r="P2" t="n">
-        <v>396.5541381835938</v>
+        <v>363.3600463867188</v>
       </c>
       <c r="Q2" t="n">
-        <v>394.9723510742188</v>
+        <v>361.6743469238281</v>
       </c>
       <c r="R2" t="n">
-        <v>394.1134033203125</v>
+        <v>361.9993286132812</v>
       </c>
       <c r="S2" t="n">
-        <v>392.451416015625</v>
+        <v>362.9785766601562</v>
       </c>
       <c r="T2" t="n">
-        <v>390.7516784667969</v>
+        <v>363.6149597167969</v>
       </c>
       <c r="U2" t="n">
-        <v>389.1537475585938</v>
+        <v>364.3966979980469</v>
       </c>
       <c r="V2" t="n">
-        <v>388.1824035644531</v>
+        <v>365.0677490234375</v>
       </c>
       <c r="W2" t="n">
-        <v>387.5817260742188</v>
+        <v>365.9228515625</v>
       </c>
       <c r="X2" t="n">
-        <v>385.9126281738281</v>
+        <v>366.4459533691406</v>
       </c>
       <c r="Y2" t="n">
-        <v>383.8381958007812</v>
+        <v>367.1792297363281</v>
       </c>
       <c r="Z2" t="n">
-        <v>382.1094970703125</v>
+        <v>368.9482421875</v>
       </c>
       <c r="AA2" t="n">
-        <v>379.3818664550781</v>
+        <v>370.58203125</v>
       </c>
       <c r="AB2" t="n">
-        <v>374.7308959960938</v>
+        <v>370.1883239746094</v>
       </c>
       <c r="AC2" t="n">
-        <v>369.9317016601562</v>
+        <v>369.4866943359375</v>
       </c>
       <c r="AD2" t="n">
-        <v>367.7685241699219</v>
+        <v>369.3599853515625</v>
       </c>
       <c r="AE2" t="n">
-        <v>367.1919555664062</v>
+        <v>370.4126281738281</v>
       </c>
       <c r="AF2" t="n">
-        <v>366.7322082519531</v>
+        <v>370.3384399414062</v>
       </c>
       <c r="AG2" t="n">
-        <v>366.4480590820312</v>
+        <v>368.681884765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>365.5592041015625</v>
+        <v>367.8475341796875</v>
       </c>
       <c r="AI2" t="n">
-        <v>364.2106628417969</v>
+        <v>367.0284729003906</v>
       </c>
       <c r="AJ2" t="n">
-        <v>363.8020324707031</v>
+        <v>366.408203125</v>
       </c>
       <c r="AK2" t="n">
-        <v>363.6703491210938</v>
+        <v>365.8657531738281</v>
       </c>
       <c r="AL2" t="n">
-        <v>364.1798400878906</v>
+        <v>365.2420043945312</v>
       </c>
       <c r="AM2" t="n">
-        <v>364.7374877929688</v>
+        <v>364.7487182617188</v>
       </c>
       <c r="AN2" t="n">
-        <v>365.927490234375</v>
+        <v>364.594482421875</v>
       </c>
       <c r="AO2" t="n">
-        <v>367.1463623046875</v>
+        <v>364.4506225585938</v>
       </c>
       <c r="AP2" t="n">
-        <v>367.7607421875</v>
+        <v>364.0050964355469</v>
       </c>
       <c r="AQ2" t="n">
-        <v>367.6653442382812</v>
+        <v>363.3703308105469</v>
       </c>
       <c r="AR2" t="n">
-        <v>367.7130737304688</v>
+        <v>361.7178649902344</v>
       </c>
       <c r="AS2" t="n">
-        <v>367.8720397949219</v>
+        <v>357.6907958984375</v>
       </c>
       <c r="AT2" t="n">
-        <v>368.4216918945312</v>
+        <v>355.1589965820312</v>
       </c>
       <c r="AU2" t="n">
-        <v>369.1989440917969</v>
+        <v>352.8186340332031</v>
       </c>
       <c r="AV2" t="n">
-        <v>370.2041625976562</v>
+        <v>351.4446411132812</v>
       </c>
       <c r="AW2" t="n">
-        <v>371.762939453125</v>
+        <v>349.509033203125</v>
       </c>
       <c r="AX2" t="n">
-        <v>373.6080322265625</v>
+        <v>345.9801940917969</v>
       </c>
       <c r="AY2" t="n">
-        <v>375.3822326660156</v>
+        <v>343.8427734375</v>
       </c>
       <c r="AZ2" t="n">
-        <v>375.7157592773438</v>
+        <v>343.6912841796875</v>
       </c>
       <c r="BA2" t="n">
-        <v>375.4789733886719</v>
+        <v>343.6423950195312</v>
       </c>
       <c r="BB2" t="n">
-        <v>374.9766540527344</v>
+        <v>343.0816650390625</v>
       </c>
       <c r="BC2" t="n">
-        <v>374.1221923828125</v>
+        <v>342.8496704101562</v>
       </c>
       <c r="BD2" t="n">
-        <v>372.13037109375</v>
+        <v>342.846923828125</v>
       </c>
       <c r="BE2" t="n">
-        <v>370.2804565429688</v>
+        <v>342.8104248046875</v>
       </c>
       <c r="BF2" t="n">
-        <v>370.2783508300781</v>
+        <v>343.3596496582031</v>
       </c>
       <c r="BG2" t="n">
-        <v>370.3182983398438</v>
+        <v>343.619140625</v>
       </c>
       <c r="BH2" t="n">
-        <v>370.37353515625</v>
+        <v>342.9344482421875</v>
       </c>
       <c r="BI2" t="n">
-        <v>370.3348388671875</v>
+        <v>342.7586364746094</v>
       </c>
       <c r="BJ2" t="n">
-        <v>370.1006469726562</v>
+        <v>343.58935546875</v>
       </c>
       <c r="BK2" t="n">
-        <v>369.44970703125</v>
+        <v>345.9756164550781</v>
       </c>
       <c r="BL2" t="n">
-        <v>368.16259765625</v>
+        <v>349.4744262695312</v>
       </c>
       <c r="BM2" t="n">
-        <v>366.1624450683594</v>
+        <v>350.4962768554688</v>
       </c>
       <c r="BN2" t="n">
-        <v>368.6035461425781</v>
+        <v>352.3994140625</v>
       </c>
       <c r="BO2" t="n">
-        <v>372.4476623535156</v>
+        <v>353.9901428222656</v>
       </c>
       <c r="BP2" t="n">
-        <v>371.3551330566406</v>
+        <v>355.1654663085938</v>
       </c>
       <c r="BQ2" t="n">
-        <v>370.9668579101562</v>
+        <v>355.383056640625</v>
       </c>
       <c r="BR2" t="n">
-        <v>370.890869140625</v>
+        <v>355.8556518554688</v>
       </c>
       <c r="BS2" t="n">
-        <v>370.752685546875</v>
+        <v>355.9533386230469</v>
       </c>
       <c r="BT2" t="n">
-        <v>370.4775390625</v>
+        <v>355.9910888671875</v>
       </c>
       <c r="BU2" t="n">
-        <v>370.2359008789062</v>
+        <v>355.8681945800781</v>
       </c>
       <c r="BV2" t="n">
-        <v>369.987060546875</v>
+        <v>355.4220886230469</v>
       </c>
       <c r="BW2" t="n">
-        <v>369.8308715820312</v>
+        <v>354.7171325683594</v>
       </c>
       <c r="BX2" t="n">
-        <v>369.7421875</v>
+        <v>354.2221374511719</v>
       </c>
       <c r="BY2" t="n">
-        <v>369.9492797851562</v>
+        <v>356.1627807617188</v>
       </c>
       <c r="BZ2" t="n">
-        <v>370.0567016601562</v>
+        <v>353.8598327636719</v>
       </c>
       <c r="CA2" t="n">
-        <v>370.3173217773438</v>
+        <v>352.1221923828125</v>
       </c>
       <c r="CB2" t="n">
-        <v>370.4821166992188</v>
+        <v>351.6385498046875</v>
       </c>
       <c r="CC2" t="n">
-        <v>370.6610412597656</v>
+        <v>351.9132080078125</v>
       </c>
       <c r="CD2" t="n">
-        <v>370.7007141113281</v>
+        <v>352.5529174804688</v>
       </c>
       <c r="CE2" t="n">
-        <v>370.6854553222656</v>
+        <v>353.05908203125</v>
       </c>
       <c r="CF2" t="n">
-        <v>370.6748657226562</v>
+        <v>353.4653930664062</v>
       </c>
       <c r="CG2" t="n">
-        <v>370.6310729980469</v>
+        <v>353.4880981445312</v>
       </c>
       <c r="CH2" t="n">
-        <v>370.5763549804688</v>
+        <v>352.4123840332031</v>
       </c>
       <c r="CI2" t="n">
-        <v>370.5556945800781</v>
+        <v>351.3488159179688</v>
       </c>
       <c r="CJ2" t="n">
-        <v>370.5340576171875</v>
+        <v>349.5404663085938</v>
       </c>
       <c r="CK2" t="n">
-        <v>370.6321716308594</v>
+        <v>350.6902465820312</v>
       </c>
       <c r="CL2" t="n">
-        <v>370.8703918457031</v>
+        <v>350.3207397460938</v>
       </c>
       <c r="CM2" t="n">
-        <v>370.8728637695312</v>
+        <v>349.9751281738281</v>
       </c>
       <c r="CN2" t="n">
-        <v>371.0499267578125</v>
+        <v>349.48095703125</v>
       </c>
       <c r="CO2" t="n">
-        <v>371.74560546875</v>
+        <v>348.9465637207031</v>
       </c>
       <c r="CP2" t="n">
-        <v>371.9293823242188</v>
+        <v>348.774169921875</v>
       </c>
       <c r="CQ2" t="n">
-        <v>367.8624877929688</v>
+        <v>348.7650146484375</v>
       </c>
       <c r="CR2" t="n">
-        <v>364.7508544921875</v>
+        <v>348.9043579101562</v>
       </c>
       <c r="CS2" t="n">
-        <v>363.125732421875</v>
+        <v>348.944580078125</v>
       </c>
       <c r="CT2" t="n">
-        <v>364.0147399902344</v>
+        <v>348.9765014648438</v>
       </c>
       <c r="CU2" t="n">
-        <v>362.2797241210938</v>
+        <v>348.9469604492188</v>
       </c>
       <c r="CV2" t="n">
-        <v>364.816650390625</v>
+        <v>348.9470825195312</v>
       </c>
       <c r="CW2" t="n">
-        <v>366.9835815429688</v>
+        <v>349.0066223144531</v>
       </c>
       <c r="CX2" t="n">
-        <v>365.7916870117188</v>
+        <v>349.0601806640625</v>
       </c>
       <c r="CY2" t="n">
-        <v>365.9585266113281</v>
+        <v>349.2218627929688</v>
       </c>
       <c r="CZ2" t="n">
-        <v>366.0490112304688</v>
+        <v>349.4086303710938</v>
       </c>
       <c r="DA2" t="n">
-        <v>366.1031494140625</v>
+        <v>349.5662841796875</v>
       </c>
       <c r="DB2" t="n">
-        <v>365.7456665039062</v>
+        <v>349.6633911132812</v>
       </c>
       <c r="DC2" t="n">
-        <v>365.4644775390625</v>
+        <v>349.724853515625</v>
       </c>
       <c r="DD2" t="n">
-        <v>365.4028015136719</v>
+        <v>349.5320129394531</v>
       </c>
       <c r="DE2" t="n">
-        <v>365.2274780273438</v>
+        <v>349.3446044921875</v>
       </c>
       <c r="DF2" t="n">
-        <v>365.0928039550781</v>
+        <v>349.2462768554688</v>
       </c>
       <c r="DG2" t="n">
-        <v>364.9962158203125</v>
+        <v>348.4961242675781</v>
       </c>
       <c r="DH2" t="n">
-        <v>364.7442932128906</v>
+        <v>348.5525817871094</v>
       </c>
       <c r="DI2" t="n">
-        <v>364.8511962890625</v>
+        <v>349.2833862304688</v>
       </c>
       <c r="DJ2" t="n">
-        <v>364.8767395019531</v>
+        <v>349.8052368164062</v>
       </c>
       <c r="DK2" t="n">
-        <v>363.7866821289062</v>
+        <v>349.856201171875</v>
       </c>
       <c r="DL2" t="n">
-        <v>363.6902465820312</v>
+        <v>349.779541015625</v>
       </c>
       <c r="DM2" t="n">
-        <v>364.7580261230469</v>
+        <v>349.8707275390625</v>
       </c>
       <c r="DN2" t="n">
-        <v>368.8852233886719</v>
+        <v>349.8247680664062</v>
       </c>
       <c r="DO2" t="n">
-        <v>368.4468994140625</v>
+        <v>349.8276977539062</v>
       </c>
       <c r="DP2" t="n">
-        <v>367.5401000976562</v>
+        <v>349.9069519042969</v>
       </c>
       <c r="DQ2" t="n">
-        <v>366.4963989257812</v>
+        <v>349.8882446289062</v>
       </c>
       <c r="DR2" t="n">
-        <v>366.072265625</v>
+        <v>349.7950744628906</v>
       </c>
       <c r="DS2" t="n">
-        <v>365.787353515625</v>
+        <v>349.9397583007812</v>
       </c>
       <c r="DT2" t="n">
-        <v>365.9663391113281</v>
+        <v>349.9199829101562</v>
       </c>
       <c r="DU2" t="n">
-        <v>366.1784057617188</v>
+        <v>349.8939819335938</v>
       </c>
       <c r="DV2" t="n">
-        <v>366.4483337402344</v>
+        <v>349.9368896484375</v>
       </c>
       <c r="DW2" t="n">
-        <v>366.6229553222656</v>
+        <v>350.0277404785156</v>
       </c>
       <c r="DX2" t="n">
-        <v>366.6092529296875</v>
+        <v>349.9234313964844</v>
       </c>
       <c r="DY2" t="n">
-        <v>366.7191772460938</v>
+        <v>349.9070434570312</v>
       </c>
       <c r="DZ2" t="n">
-        <v>366.7410583496094</v>
+        <v>349.94775390625</v>
       </c>
       <c r="EA2" t="n">
-        <v>366.7492370605469</v>
+        <v>349.7424621582031</v>
       </c>
       <c r="EB2" t="n">
-        <v>366.7767944335938</v>
+        <v>348.7899169921875</v>
       </c>
       <c r="EC2" t="n">
-        <v>366.7837524414062</v>
+        <v>347.4995727539062</v>
       </c>
       <c r="ED2" t="n">
-        <v>366.7822570800781</v>
+        <v>344.5889587402344</v>
       </c>
       <c r="EE2" t="n">
-        <v>366.788330078125</v>
+        <v>343.4908752441406</v>
       </c>
       <c r="EF2" t="n">
-        <v>366.6719970703125</v>
+        <v>342.7783203125</v>
       </c>
       <c r="EG2" t="n">
-        <v>366.4878540039062</v>
+        <v>343.4423217773438</v>
       </c>
       <c r="EH2" t="n">
-        <v>366.2514953613281</v>
+        <v>344.7342529296875</v>
       </c>
       <c r="EI2" t="n">
-        <v>366.0285949707031</v>
+        <v>345.8911437988281</v>
       </c>
       <c r="EJ2" t="n">
-        <v>365.6191711425781</v>
+        <v>343.5353088378906</v>
       </c>
       <c r="EK2" t="n">
-        <v>358.6455078125</v>
+        <v>343.856689453125</v>
       </c>
       <c r="EL2" t="n">
-        <v>358.8984375</v>
+        <v>344.0618591308594</v>
       </c>
       <c r="EM2" t="n">
-        <v>359.0376586914062</v>
+        <v>344.2123718261719</v>
       </c>
       <c r="EN2" t="n">
-        <v>359.208984375</v>
+        <v>344.2935791015625</v>
       </c>
       <c r="EO2" t="n">
-        <v>359.5111389160156</v>
+        <v>344.6611328125</v>
       </c>
       <c r="EP2" t="n">
-        <v>360.0721435546875</v>
+        <v>347.6994323730469</v>
       </c>
       <c r="EQ2" t="n">
-        <v>362.322021484375</v>
+        <v>349.510498046875</v>
       </c>
       <c r="ER2" t="n">
-        <v>363.3374633789062</v>
+        <v>350.9671630859375</v>
       </c>
       <c r="ES2" t="n">
-        <v>363.8699340820312</v>
+        <v>351.2299194335938</v>
       </c>
       <c r="ET2" t="n">
-        <v>363.4153442382812</v>
+        <v>352.6529541015625</v>
       </c>
       <c r="EU2" t="n">
-        <v>363.2809143066406</v>
+        <v>353.2754211425781</v>
       </c>
       <c r="EV2" t="n">
-        <v>363.394287109375</v>
+        <v>353.3850402832031</v>
       </c>
       <c r="EW2" t="n">
-        <v>363.5902404785156</v>
+        <v>353.6279602050781</v>
       </c>
       <c r="EX2" t="n">
-        <v>363.0906982421875</v>
+        <v>353.89990234375</v>
       </c>
       <c r="EY2" t="n">
-        <v>362.4916076660156</v>
+        <v>353.8184814453125</v>
       </c>
       <c r="EZ2" t="n">
-        <v>360.1731567382812</v>
+        <v>353.7174682617188</v>
       </c>
       <c r="FA2" t="n">
-        <v>362.9588012695312</v>
+        <v>353.599365234375</v>
       </c>
       <c r="FB2" t="n">
-        <v>364.61962890625</v>
+        <v>353.3828125</v>
       </c>
       <c r="FC2" t="n">
-        <v>365.6701354980469</v>
+        <v>352.8230590820312</v>
       </c>
       <c r="FD2" t="n">
-        <v>364.6102294921875</v>
+        <v>352.1298522949219</v>
       </c>
       <c r="FE2" t="n">
-        <v>363.7213134765625</v>
+        <v>350.0291442871094</v>
       </c>
       <c r="FF2" t="n">
-        <v>362.6323852539062</v>
+        <v>349.8344421386719</v>
       </c>
       <c r="FG2" t="n">
-        <v>361.9287414550781</v>
+        <v>349.8520202636719</v>
       </c>
       <c r="FH2" t="n">
-        <v>361.8768920898438</v>
+        <v>350.1363830566406</v>
       </c>
       <c r="FI2" t="n">
-        <v>361.7366027832031</v>
+        <v>350.0088195800781</v>
       </c>
       <c r="FJ2" t="n">
-        <v>361.5578918457031</v>
+        <v>349.8054504394531</v>
       </c>
       <c r="FK2" t="n">
-        <v>361.457275390625</v>
+        <v>347.8325805664062</v>
       </c>
       <c r="FL2" t="n">
-        <v>361.3196411132812</v>
+        <v>342.9013061523438</v>
       </c>
       <c r="FM2" t="n">
-        <v>361.2403869628906</v>
+        <v>343.6360168457031</v>
       </c>
       <c r="FN2" t="n">
-        <v>361.119873046875</v>
+        <v>344.1346435546875</v>
       </c>
       <c r="FO2" t="n">
-        <v>361.0848693847656</v>
+        <v>345.0961608886719</v>
       </c>
       <c r="FP2" t="n">
-        <v>361.1207275390625</v>
+        <v>345.0359497070312</v>
       </c>
       <c r="FQ2" t="n">
-        <v>361.2304992675781</v>
+        <v>345.6244506835938</v>
       </c>
       <c r="FR2" t="n">
-        <v>361.4807739257812</v>
+        <v>347.0894775390625</v>
       </c>
       <c r="FS2" t="n">
-        <v>361.6321411132812</v>
+        <v>348.9155883789062</v>
       </c>
       <c r="FT2" t="n">
-        <v>361.9677429199219</v>
+        <v>350.7899475097656</v>
       </c>
       <c r="FU2" t="n">
-        <v>362.6107482910156</v>
+        <v>351.1570739746094</v>
       </c>
       <c r="FV2" t="n">
-        <v>361.6249389648438</v>
+        <v>351.7783203125</v>
       </c>
       <c r="FW2" t="n">
-        <v>352.6714782714844</v>
+        <v>354.0585021972656</v>
       </c>
       <c r="FX2" t="n">
-        <v>357.1829833984375</v>
+        <v>355.354736328125</v>
       </c>
       <c r="FY2" t="n">
-        <v>358.1636962890625</v>
+        <v>354.9470825195312</v>
       </c>
       <c r="FZ2" t="n">
-        <v>358.8953247070312</v>
+        <v>354.2241821289062</v>
       </c>
       <c r="GA2" t="n">
-        <v>360.182373046875</v>
+        <v>354.3748779296875</v>
       </c>
       <c r="GB2" t="n">
-        <v>360.3072814941406</v>
+        <v>354.3478393554688</v>
       </c>
       <c r="GC2" t="n">
-        <v>360.1712646484375</v>
+        <v>354.4931640625</v>
       </c>
       <c r="GD2" t="n">
-        <v>360.1968994140625</v>
+        <v>354.4686584472656</v>
       </c>
       <c r="GE2" t="n">
-        <v>360.4022827148438</v>
+        <v>354.3969116210938</v>
       </c>
       <c r="GF2" t="n">
-        <v>360.0716552734375</v>
+        <v>354.0390014648438</v>
       </c>
       <c r="GG2" t="n">
-        <v>359.9737854003906</v>
+        <v>351.96630859375</v>
       </c>
       <c r="GH2" t="n">
-        <v>359.8549194335938</v>
+        <v>349.8040161132812</v>
       </c>
       <c r="GI2" t="n">
-        <v>359.7627563476562</v>
+        <v>346.7675476074219</v>
       </c>
       <c r="GJ2" t="n">
-        <v>359.9908142089844</v>
+        <v>346.897216796875</v>
       </c>
       <c r="GK2" t="n">
-        <v>359.7008666992188</v>
+        <v>346.2768859863281</v>
       </c>
       <c r="GL2" t="n">
-        <v>359.1922607421875</v>
+        <v>345.7001342773438</v>
       </c>
       <c r="GM2" t="n">
-        <v>359.6943969726562</v>
+        <v>345.6890258789062</v>
       </c>
       <c r="GN2" t="n">
-        <v>360.1300354003906</v>
+        <v>346.1235961914062</v>
       </c>
       <c r="GO2" t="n">
-        <v>361.1963195800781</v>
+        <v>346.1976318359375</v>
       </c>
       <c r="GP2" t="n">
-        <v>362.6394958496094</v>
+        <v>346.1120300292969</v>
       </c>
       <c r="GQ2" t="n">
-        <v>362.6824340820312</v>
+        <v>346.16796875</v>
       </c>
       <c r="GR2" t="n">
-        <v>362.4097290039062</v>
+        <v>346.271484375</v>
       </c>
       <c r="GS2" t="n">
-        <v>361.7322998046875</v>
+        <v>346.2879638671875</v>
       </c>
       <c r="GT2" t="n">
-        <v>360.9779663085938</v>
+        <v>345.5032958984375</v>
       </c>
       <c r="GU2" t="n">
-        <v>360.6448059082031</v>
+        <v>345.818115234375</v>
       </c>
       <c r="GV2" t="n">
-        <v>360.9949340820312</v>
+        <v>346.3243408203125</v>
       </c>
       <c r="GW2" t="n">
-        <v>361.127197265625</v>
+        <v>350.0950317382812</v>
       </c>
       <c r="GX2" t="n">
-        <v>361.1334838867188</v>
+        <v>351.1431274414062</v>
       </c>
       <c r="GY2" t="n">
-        <v>361.2591247558594</v>
+        <v>353.4127502441406</v>
       </c>
       <c r="GZ2" t="n">
-        <v>361.5352783203125</v>
+        <v>353.10986328125</v>
       </c>
       <c r="HA2" t="n">
-        <v>361.7843017578125</v>
+        <v>353.301513671875</v>
       </c>
       <c r="HB2" t="n">
-        <v>362.1569519042969</v>
+        <v>353.6216735839844</v>
       </c>
       <c r="HC2" t="n">
-        <v>362.7890625</v>
+        <v>354.6968994140625</v>
       </c>
       <c r="HD2" t="n">
-        <v>359.8097534179688</v>
+        <v>354.7990112304688</v>
       </c>
       <c r="HE2" t="n">
-        <v>358.431640625</v>
+        <v>354.6201171875</v>
       </c>
       <c r="HF2" t="n">
-        <v>358.6741943359375</v>
+        <v>354.6174621582031</v>
       </c>
       <c r="HG2" t="n">
-        <v>359.2518310546875</v>
+        <v>354.6029052734375</v>
       </c>
       <c r="HH2" t="n">
-        <v>359.6058654785156</v>
+        <v>354.287109375</v>
       </c>
       <c r="HI2" t="n">
-        <v>359.781982421875</v>
+        <v>353.7276916503906</v>
       </c>
       <c r="HJ2" t="n">
-        <v>359.9412231445312</v>
+        <v>350.0433959960938</v>
       </c>
       <c r="HK2" t="n">
-        <v>359.9228210449219</v>
+        <v>349.6829833984375</v>
       </c>
       <c r="HL2" t="n">
-        <v>359.91748046875</v>
+        <v>349.4834594726562</v>
       </c>
       <c r="HM2" t="n">
-        <v>359.96337890625</v>
+        <v>349.4495239257812</v>
       </c>
       <c r="HN2" t="n">
-        <v>360.0841979980469</v>
+        <v>348.058349609375</v>
       </c>
       <c r="HO2" t="n">
-        <v>360.1484985351562</v>
+        <v>348.010009765625</v>
       </c>
       <c r="HP2" t="n">
-        <v>360.212158203125</v>
+        <v>347.1316833496094</v>
       </c>
       <c r="HQ2" t="n">
-        <v>359.8633422851562</v>
+        <v>345.2745971679688</v>
       </c>
       <c r="HR2" t="n">
-        <v>357.739501953125</v>
+        <v>344.733642578125</v>
       </c>
       <c r="HS2" t="n">
-        <v>356.4775085449219</v>
+        <v>346.0999145507812</v>
       </c>
       <c r="HT2" t="n">
-        <v>362.4098205566406</v>
+        <v>345.2478637695312</v>
       </c>
       <c r="HU2" t="n">
-        <v>362.0465698242188</v>
+        <v>345.19921875</v>
       </c>
       <c r="HV2" t="n">
-        <v>360.9701232910156</v>
+        <v>345.1195068359375</v>
       </c>
       <c r="HW2" t="n">
-        <v>360.7776184082031</v>
+        <v>348.7112121582031</v>
       </c>
       <c r="HX2" t="n">
-        <v>360.7143859863281</v>
+        <v>353.3000183105469</v>
       </c>
       <c r="HY2" t="n">
-        <v>360.4486694335938</v>
+        <v>355.5029907226562</v>
       </c>
       <c r="HZ2" t="n">
-        <v>360.2666015625</v>
+        <v>353.9377136230469</v>
       </c>
       <c r="IA2" t="n">
-        <v>360.1581420898438</v>
+        <v>354.8187866210938</v>
       </c>
       <c r="IB2" t="n">
-        <v>360.1723022460938</v>
+        <v>355.6298217773438</v>
       </c>
       <c r="IC2" t="n">
-        <v>360.3024597167969</v>
+        <v>356.3349914550781</v>
       </c>
       <c r="ID2" t="n">
-        <v>360.3016357421875</v>
+        <v>356.550048828125</v>
       </c>
       <c r="IE2" t="n">
-        <v>360.3206176757812</v>
+        <v>356.0272827148438</v>
       </c>
       <c r="IF2" t="n">
-        <v>360.3376770019531</v>
+        <v>355.7282104492188</v>
       </c>
       <c r="IG2" t="n">
-        <v>360.360595703125</v>
+        <v>355.9814758300781</v>
       </c>
       <c r="IH2" t="n">
-        <v>360.44775390625</v>
+        <v>356.1466064453125</v>
       </c>
       <c r="II2" t="n">
-        <v>360.7230224609375</v>
+        <v>353.7767333984375</v>
       </c>
       <c r="IJ2" t="n">
-        <v>361.5873718261719</v>
+        <v>349.9123840332031</v>
       </c>
       <c r="IK2" t="n">
-        <v>360.91064453125</v>
+        <v>350.9398803710938</v>
       </c>
       <c r="IL2" t="n">
-        <v>358.3358154296875</v>
+        <v>344.3861389160156</v>
       </c>
       <c r="IM2" t="n">
-        <v>359.1441345214844</v>
+        <v>345.0301513671875</v>
       </c>
       <c r="IN2" t="n">
-        <v>360.981689453125</v>
+        <v>345.6800842285156</v>
       </c>
       <c r="IO2" t="n">
-        <v>362.1774291992188</v>
+        <v>346.2247314453125</v>
       </c>
       <c r="IP2" t="n">
-        <v>362.2259521484375</v>
+        <v>346.4481201171875</v>
       </c>
       <c r="IQ2" t="n">
-        <v>362.231689453125</v>
+        <v>346.1983642578125</v>
       </c>
       <c r="IR2" t="n">
-        <v>361.6130065917969</v>
+        <v>345.4894714355469</v>
       </c>
       <c r="IS2" t="n">
-        <v>361.7355041503906</v>
+        <v>345.3882446289062</v>
       </c>
       <c r="IT2" t="n">
-        <v>361.812744140625</v>
+        <v>345.7988891601562</v>
       </c>
       <c r="IU2" t="n">
-        <v>361.9616088867188</v>
+        <v>350.277099609375</v>
       </c>
       <c r="IV2" t="n">
-        <v>361.8777465820312</v>
+        <v>354.8162536621094</v>
       </c>
       <c r="IW2" t="n">
-        <v>361.2032470703125</v>
+        <v>354.558349609375</v>
       </c>
       <c r="IX2" t="n">
-        <v>360.4251098632812</v>
+        <v>353.4394836425781</v>
       </c>
       <c r="IY2" t="n">
-        <v>362.8192138671875</v>
+        <v>352.7397155761719</v>
       </c>
       <c r="IZ2" t="n">
-        <v>362.46435546875</v>
+        <v>352.891357421875</v>
       </c>
       <c r="JA2" t="n">
-        <v>362.3015747070312</v>
+        <v>351.7411804199219</v>
       </c>
       <c r="JB2" t="n">
-        <v>362.026123046875</v>
+        <v>351.6798400878906</v>
       </c>
       <c r="JC2" t="n">
-        <v>361.9247436523438</v>
+        <v>351.8660278320312</v>
       </c>
       <c r="JD2" t="n">
-        <v>361.7308044433594</v>
+        <v>348.3658447265625</v>
       </c>
       <c r="JE2" t="n">
-        <v>361.4563598632812</v>
+        <v>350.4942321777344</v>
       </c>
       <c r="JF2" t="n">
-        <v>361.3003540039062</v>
+        <v>348.2227783203125</v>
       </c>
       <c r="JG2" t="n">
-        <v>361.2320556640625</v>
+        <v>342.5283203125</v>
       </c>
       <c r="JH2" t="n">
-        <v>361.0413208007812</v>
+        <v>347.3974609375</v>
       </c>
       <c r="JI2" t="n">
-        <v>360.7684020996094</v>
+        <v>348.23583984375</v>
       </c>
       <c r="JJ2" t="n">
-        <v>360.2647705078125</v>
+        <v>346.9815673828125</v>
       </c>
       <c r="JK2" t="n">
-        <v>359.6937866210938</v>
+        <v>347.0852661132812</v>
       </c>
       <c r="JL2" t="n">
-        <v>359.6109313964844</v>
+        <v>345.8831176757812</v>
       </c>
       <c r="JM2" t="n">
-        <v>360.1619873046875</v>
+        <v>345.2611999511719</v>
       </c>
       <c r="JN2" t="n">
-        <v>361.1223754882812</v>
+        <v>353.2962646484375</v>
       </c>
       <c r="JO2" t="n">
-        <v>361.0928039550781</v>
+        <v>352.6072692871094</v>
       </c>
       <c r="JP2" t="n">
-        <v>355.4290161132812</v>
+        <v>352.9397583007812</v>
       </c>
       <c r="JQ2" t="n">
-        <v>358.5077514648438</v>
+        <v>354.7418212890625</v>
       </c>
       <c r="JR2" t="n">
-        <v>359.1573791503906</v>
+        <v>354.8486938476562</v>
       </c>
       <c r="JS2" t="n">
-        <v>359.28369140625</v>
+        <v>355.04931640625</v>
       </c>
       <c r="JT2" t="n">
-        <v>359.6492919921875</v>
+        <v>355.5684814453125</v>
       </c>
       <c r="JU2" t="n">
-        <v>359.6372985839844</v>
+        <v>355.6750793457031</v>
       </c>
       <c r="JV2" t="n">
-        <v>359.4684448242188</v>
+        <v>354.8501586914062</v>
       </c>
       <c r="JW2" t="n">
-        <v>359.4104614257812</v>
+        <v>354.6495971679688</v>
       </c>
       <c r="JX2" t="n">
-        <v>358.8683471679688</v>
+        <v>354.6228637695312</v>
       </c>
       <c r="JY2" t="n">
-        <v>358.8939819335938</v>
+        <v>354.4848022460938</v>
       </c>
       <c r="JZ2" t="n">
-        <v>359.8339538574219</v>
+        <v>354.5299072265625</v>
       </c>
       <c r="KA2" t="n">
-        <v>359.0560302734375</v>
+        <v>355.4399108886719</v>
       </c>
       <c r="KB2" t="n">
-        <v>355.6813354492188</v>
+        <v>357.5118713378906</v>
       </c>
       <c r="KC2" t="n">
-        <v>355.6165161132812</v>
+        <v>357.5494995117188</v>
       </c>
       <c r="KD2" t="n">
-        <v>354.9896240234375</v>
+        <v>357.2525329589844</v>
       </c>
       <c r="KE2" t="n">
-        <v>353.8570556640625</v>
+        <v>356.563720703125</v>
       </c>
       <c r="KF2" t="n">
-        <v>351.5666198730469</v>
+        <v>355.7589416503906</v>
       </c>
       <c r="KG2" t="n">
-        <v>350.3533630371094</v>
+        <v>354.2404174804688</v>
       </c>
       <c r="KH2" t="n">
-        <v>349.6654663085938</v>
+        <v>352.3780822753906</v>
       </c>
       <c r="KI2" t="n">
-        <v>350.2843933105469</v>
+        <v>354.5667114257812</v>
       </c>
       <c r="KJ2" t="n">
-        <v>350.3060607910156</v>
+        <v>357.2562866210938</v>
       </c>
       <c r="KK2" t="n">
-        <v>350.8954162597656</v>
+        <v>357.6336975097656</v>
       </c>
       <c r="KL2" t="n">
-        <v>353.2713317871094</v>
+        <v>357.57958984375</v>
       </c>
       <c r="KM2" t="n">
-        <v>355.2870178222656</v>
+        <v>356.3894653320312</v>
       </c>
       <c r="KN2" t="n">
-        <v>360.6998291015625</v>
+        <v>355.0377197265625</v>
       </c>
       <c r="KO2" t="n">
-        <v>374.3016967773438</v>
+        <v>354.6652221679688</v>
       </c>
       <c r="KP2" t="n">
-        <v>378.8247680664062</v>
+        <v>354.6861572265625</v>
       </c>
       <c r="KQ2" t="n">
-        <v>384.2167358398438</v>
+        <v>359.5384521484375</v>
       </c>
       <c r="KR2" t="n">
-        <v>391.3414916992188</v>
+        <v>363.9811706542969</v>
       </c>
       <c r="KS2" t="n">
-        <v>398.7667236328125</v>
+        <v>364.282958984375</v>
       </c>
       <c r="KT2" t="n">
-        <v>403.6353149414062</v>
+        <v>366.567138671875</v>
       </c>
       <c r="KU2" t="n">
-        <v>410.3829345703125</v>
+        <v>373.0076293945312</v>
       </c>
       <c r="KV2" t="n">
-        <v>415.0503234863281</v>
+        <v>374.795166015625</v>
       </c>
       <c r="KW2" t="n">
-        <v>418.9578552246094</v>
+        <v>377.7611694335938</v>
       </c>
       <c r="KX2" t="n">
-        <v>425.2467041015625</v>
+        <v>373.4805908203125</v>
       </c>
       <c r="KY2" t="n">
-        <v>430.619384765625</v>
+        <v>372.7578430175781</v>
       </c>
       <c r="KZ2" t="n">
-        <v>435.6058044433594</v>
+        <v>374.1174011230469</v>
       </c>
       <c r="LA2" t="n">
-        <v>446.0833129882812</v>
+        <v>376.1348266601562</v>
       </c>
       <c r="LB2" t="n">
-        <v>450.1438903808594</v>
+        <v>379.306396484375</v>
       </c>
       <c r="LC2" t="n">
-        <v>451.9277648925781</v>
+        <v>385.6474609375</v>
       </c>
       <c r="LD2" t="n">
-        <v>455.5886535644531</v>
+        <v>403.0755615234375</v>
+      </c>
+      <c r="LE2" t="n">
+        <v>427.0044555664062</v>
+      </c>
+      <c r="LF2" t="n">
+        <v>458.0584411621094</v>
+      </c>
+      <c r="LG2" t="n">
+        <v>475.3318481445312</v>
+      </c>
+      <c r="LH2" t="n">
+        <v>518.0216674804688</v>
+      </c>
+      <c r="LI2" t="n">
+        <v>582.316650390625</v>
+      </c>
+      <c r="LJ2" t="n">
+        <v>669.893798828125</v>
+      </c>
+      <c r="LK2" t="n">
+        <v>735.453857421875</v>
+      </c>
+      <c r="LL2" t="n">
+        <v>798.7350463867188</v>
+      </c>
+      <c r="LM2" t="n">
+        <v>711.1607666015625</v>
+      </c>
+      <c r="LN2" t="n">
+        <v>605.57470703125</v>
+      </c>
+      <c r="LO2" t="n">
+        <v>379.2870483398438</v>
+      </c>
+      <c r="LP2" t="n">
+        <v>523.612060546875</v>
+      </c>
+      <c r="LQ2" t="n">
+        <v>578.0045166015625</v>
+      </c>
+      <c r="LR2" t="n">
+        <v>603.8372192382812</v>
+      </c>
+      <c r="LS2" t="n">
+        <v>576.405029296875</v>
+      </c>
+      <c r="LT2" t="n">
+        <v>609.3421630859375</v>
+      </c>
+      <c r="LU2" t="n">
+        <v>620.5433349609375</v>
+      </c>
+      <c r="LV2" t="n">
+        <v>619.1016235351562</v>
+      </c>
+      <c r="LW2" t="n">
+        <v>619.398681640625</v>
+      </c>
+      <c r="LX2" t="n">
+        <v>623.7682495117188</v>
+      </c>
+      <c r="LY2" t="n">
+        <v>624.0665893554688</v>
+      </c>
+      <c r="LZ2" t="n">
+        <v>638.5634765625</v>
+      </c>
+      <c r="MA2" t="n">
+        <v>651.8294677734375</v>
+      </c>
+      <c r="MB2" t="n">
+        <v>495.0087890625</v>
+      </c>
+      <c r="MC2" t="n">
+        <v>544.88232421875</v>
+      </c>
+      <c r="MD2" t="n">
+        <v>552.408203125</v>
+      </c>
+      <c r="ME2" t="n">
+        <v>523.5266723632812</v>
+      </c>
+      <c r="MF2" t="n">
+        <v>501.1355285644531</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>306.3917236328125</v>
+        <v>301.8837890625</v>
       </c>
       <c r="B3" t="n">
-        <v>307.1426086425781</v>
+        <v>300.2090148925781</v>
       </c>
       <c r="C3" t="n">
-        <v>307.8325500488281</v>
+        <v>297.5633239746094</v>
       </c>
       <c r="D3" t="n">
-        <v>309.5595703125</v>
+        <v>295.9082946777344</v>
       </c>
       <c r="E3" t="n">
-        <v>306.6343994140625</v>
+        <v>294.2979431152344</v>
       </c>
       <c r="F3" t="n">
-        <v>306.7405395507812</v>
+        <v>293.5248107910156</v>
       </c>
       <c r="G3" t="n">
-        <v>307.9879150390625</v>
+        <v>293.1182556152344</v>
       </c>
       <c r="H3" t="n">
-        <v>307.9347839355469</v>
+        <v>294.3028564453125</v>
       </c>
       <c r="I3" t="n">
-        <v>307.789794921875</v>
+        <v>294.4613647460938</v>
       </c>
       <c r="J3" t="n">
-        <v>307.5048828125</v>
+        <v>293.9178466796875</v>
       </c>
       <c r="K3" t="n">
-        <v>310.9263305664062</v>
+        <v>292.1704711914062</v>
       </c>
       <c r="L3" t="n">
-        <v>311.5164794921875</v>
+        <v>289.4312438964844</v>
       </c>
       <c r="M3" t="n">
-        <v>314.4076538085938</v>
+        <v>285.0201110839844</v>
       </c>
       <c r="N3" t="n">
-        <v>315.5698852539062</v>
+        <v>280.2817993164062</v>
       </c>
       <c r="O3" t="n">
-        <v>314.9133605957031</v>
+        <v>277.633056640625</v>
       </c>
       <c r="P3" t="n">
-        <v>313.9516906738281</v>
+        <v>275.760009765625</v>
       </c>
       <c r="Q3" t="n">
-        <v>311.8658447265625</v>
+        <v>274.6162414550781</v>
       </c>
       <c r="R3" t="n">
-        <v>309.1095886230469</v>
+        <v>273.6067810058594</v>
       </c>
       <c r="S3" t="n">
-        <v>307.3746948242188</v>
+        <v>272.751953125</v>
       </c>
       <c r="T3" t="n">
-        <v>305.3568115234375</v>
+        <v>272.9044799804688</v>
       </c>
       <c r="U3" t="n">
-        <v>303.7882995605469</v>
+        <v>273.4912414550781</v>
       </c>
       <c r="V3" t="n">
-        <v>303.4212646484375</v>
+        <v>274.617431640625</v>
       </c>
       <c r="W3" t="n">
-        <v>305.1777038574219</v>
+        <v>276.2398986816406</v>
       </c>
       <c r="X3" t="n">
-        <v>306.4349975585938</v>
+        <v>276.7641296386719</v>
       </c>
       <c r="Y3" t="n">
-        <v>306.9222412109375</v>
+        <v>276.7947387695312</v>
       </c>
       <c r="Z3" t="n">
-        <v>309.1517639160156</v>
+        <v>277.0382995605469</v>
       </c>
       <c r="AA3" t="n">
-        <v>312.048095703125</v>
+        <v>277.894287109375</v>
       </c>
       <c r="AB3" t="n">
-        <v>315.3130493164062</v>
+        <v>278.7144165039062</v>
       </c>
       <c r="AC3" t="n">
-        <v>316.9795227050781</v>
+        <v>277.8370971679688</v>
       </c>
       <c r="AD3" t="n">
-        <v>318.7543334960938</v>
+        <v>276.6815185546875</v>
       </c>
       <c r="AE3" t="n">
-        <v>318.7616577148438</v>
+        <v>275.54248046875</v>
       </c>
       <c r="AF3" t="n">
-        <v>319.1654663085938</v>
+        <v>273.2494201660156</v>
       </c>
       <c r="AG3" t="n">
-        <v>319.4653015136719</v>
+        <v>268.927490234375</v>
       </c>
       <c r="AH3" t="n">
-        <v>318.652099609375</v>
+        <v>264.4296264648438</v>
       </c>
       <c r="AI3" t="n">
-        <v>316.9001770019531</v>
+        <v>262.5733032226562</v>
       </c>
       <c r="AJ3" t="n">
-        <v>315.9421997070312</v>
+        <v>260.6666870117188</v>
       </c>
       <c r="AK3" t="n">
-        <v>314.7986755371094</v>
+        <v>259.984130859375</v>
       </c>
       <c r="AL3" t="n">
-        <v>313.9700622558594</v>
+        <v>258.4768371582031</v>
       </c>
       <c r="AM3" t="n">
-        <v>312.8437805175781</v>
+        <v>257.8092956542969</v>
       </c>
       <c r="AN3" t="n">
-        <v>311.8077392578125</v>
+        <v>257.7093811035156</v>
       </c>
       <c r="AO3" t="n">
-        <v>310.69140625</v>
+        <v>257.8162841796875</v>
       </c>
       <c r="AP3" t="n">
-        <v>309.9381713867188</v>
+        <v>258.2717895507812</v>
       </c>
       <c r="AQ3" t="n">
-        <v>309.9776916503906</v>
+        <v>258.3079833984375</v>
       </c>
       <c r="AR3" t="n">
-        <v>310.1277465820312</v>
+        <v>258.8933410644531</v>
       </c>
       <c r="AS3" t="n">
-        <v>309.9894409179688</v>
+        <v>259.4496154785156</v>
       </c>
       <c r="AT3" t="n">
-        <v>310.5892639160156</v>
+        <v>261.9375915527344</v>
       </c>
       <c r="AU3" t="n">
-        <v>311.6401977539062</v>
+        <v>261.59814453125</v>
       </c>
       <c r="AV3" t="n">
-        <v>312.5649719238281</v>
+        <v>262.9691162109375</v>
       </c>
       <c r="AW3" t="n">
-        <v>313.9211120605469</v>
+        <v>261.4886779785156</v>
       </c>
       <c r="AX3" t="n">
-        <v>314.5923461914062</v>
+        <v>261.8653259277344</v>
       </c>
       <c r="AY3" t="n">
-        <v>314.0697631835938</v>
+        <v>261.8239440917969</v>
       </c>
       <c r="AZ3" t="n">
-        <v>313.7138366699219</v>
+        <v>263.0104370117188</v>
       </c>
       <c r="BA3" t="n">
-        <v>313.5456237792969</v>
+        <v>262.7420654296875</v>
       </c>
       <c r="BB3" t="n">
-        <v>313.229248046875</v>
+        <v>260.6776428222656</v>
       </c>
       <c r="BC3" t="n">
-        <v>313.50439453125</v>
+        <v>259.3922119140625</v>
       </c>
       <c r="BD3" t="n">
-        <v>313.6218566894531</v>
+        <v>258.3515319824219</v>
       </c>
       <c r="BE3" t="n">
-        <v>314.7557983398438</v>
+        <v>257.3701171875</v>
       </c>
       <c r="BF3" t="n">
-        <v>315.3431701660156</v>
+        <v>258.700927734375</v>
       </c>
       <c r="BG3" t="n">
-        <v>314.8768615722656</v>
+        <v>259.4386596679688</v>
       </c>
       <c r="BH3" t="n">
-        <v>314.5205078125</v>
+        <v>257.8471984863281</v>
       </c>
       <c r="BI3" t="n">
-        <v>313.9698181152344</v>
+        <v>257.1130981445312</v>
       </c>
       <c r="BJ3" t="n">
-        <v>312.4015502929688</v>
+        <v>257.4127807617188</v>
       </c>
       <c r="BK3" t="n">
-        <v>311.9938049316406</v>
+        <v>256.3244018554688</v>
       </c>
       <c r="BL3" t="n">
-        <v>311.4996643066406</v>
+        <v>254.5226440429688</v>
       </c>
       <c r="BM3" t="n">
-        <v>313.206298828125</v>
+        <v>254.0575256347656</v>
       </c>
       <c r="BN3" t="n">
-        <v>312.7010498046875</v>
+        <v>253.8598785400391</v>
       </c>
       <c r="BO3" t="n">
-        <v>312.0701599121094</v>
+        <v>256.0346374511719</v>
       </c>
       <c r="BP3" t="n">
-        <v>312.8077087402344</v>
+        <v>256.9679260253906</v>
       </c>
       <c r="BQ3" t="n">
-        <v>312.3835144042969</v>
+        <v>255.8842010498047</v>
       </c>
       <c r="BR3" t="n">
-        <v>312.2566223144531</v>
+        <v>255.2696838378906</v>
       </c>
       <c r="BS3" t="n">
-        <v>312.2740478515625</v>
+        <v>255.6271667480469</v>
       </c>
       <c r="BT3" t="n">
-        <v>312.0613403320312</v>
+        <v>255.8721771240234</v>
       </c>
       <c r="BU3" t="n">
-        <v>312.2424926757812</v>
+        <v>255.7537689208984</v>
       </c>
       <c r="BV3" t="n">
-        <v>312.50634765625</v>
+        <v>256.2059631347656</v>
       </c>
       <c r="BW3" t="n">
-        <v>312.8726501464844</v>
+        <v>256.4743957519531</v>
       </c>
       <c r="BX3" t="n">
-        <v>313.3024291992188</v>
+        <v>257.4008178710938</v>
       </c>
       <c r="BY3" t="n">
-        <v>313.5102233886719</v>
+        <v>259.5</v>
       </c>
       <c r="BZ3" t="n">
-        <v>313.7229919433594</v>
+        <v>259.3554992675781</v>
       </c>
       <c r="CA3" t="n">
-        <v>313.9194030761719</v>
+        <v>260.3000183105469</v>
       </c>
       <c r="CB3" t="n">
-        <v>313.9752502441406</v>
+        <v>260.8603515625</v>
       </c>
       <c r="CC3" t="n">
-        <v>314.0659484863281</v>
+        <v>260.2947998046875</v>
       </c>
       <c r="CD3" t="n">
-        <v>314.125732421875</v>
+        <v>259.816162109375</v>
       </c>
       <c r="CE3" t="n">
-        <v>314.0953979492188</v>
+        <v>260.5306396484375</v>
       </c>
       <c r="CF3" t="n">
-        <v>314.0655822753906</v>
+        <v>261.3949890136719</v>
       </c>
       <c r="CG3" t="n">
-        <v>314.0801696777344</v>
+        <v>261.6831970214844</v>
       </c>
       <c r="CH3" t="n">
-        <v>314.0748901367188</v>
+        <v>261.9035949707031</v>
       </c>
       <c r="CI3" t="n">
-        <v>314.1000671386719</v>
+        <v>262.2827453613281</v>
       </c>
       <c r="CJ3" t="n">
-        <v>314.1305847167969</v>
+        <v>262.8935241699219</v>
       </c>
       <c r="CK3" t="n">
-        <v>314.1734313964844</v>
+        <v>262.8728332519531</v>
       </c>
       <c r="CL3" t="n">
-        <v>314.2579650878906</v>
+        <v>263.1580505371094</v>
       </c>
       <c r="CM3" t="n">
-        <v>314.2014465332031</v>
+        <v>263.3710021972656</v>
       </c>
       <c r="CN3" t="n">
-        <v>314.0680236816406</v>
+        <v>263.5961303710938</v>
       </c>
       <c r="CO3" t="n">
-        <v>313.6726379394531</v>
+        <v>263.7697448730469</v>
       </c>
       <c r="CP3" t="n">
-        <v>313.1702270507812</v>
+        <v>264.2859191894531</v>
       </c>
       <c r="CQ3" t="n">
-        <v>315.0634155273438</v>
+        <v>264.475341796875</v>
       </c>
       <c r="CR3" t="n">
-        <v>315.2899780273438</v>
+        <v>264.6788940429688</v>
       </c>
       <c r="CS3" t="n">
-        <v>313.4211120605469</v>
+        <v>264.5879211425781</v>
       </c>
       <c r="CT3" t="n">
-        <v>312.8880004882812</v>
+        <v>264.5374755859375</v>
       </c>
       <c r="CU3" t="n">
-        <v>312.205810546875</v>
+        <v>264.2708129882812</v>
       </c>
       <c r="CV3" t="n">
-        <v>313.1908874511719</v>
+        <v>264.2903137207031</v>
       </c>
       <c r="CW3" t="n">
-        <v>313.622314453125</v>
+        <v>264.2033996582031</v>
       </c>
       <c r="CX3" t="n">
-        <v>313.6483154296875</v>
+        <v>264.1445617675781</v>
       </c>
       <c r="CY3" t="n">
-        <v>313.8887634277344</v>
+        <v>264.0475769042969</v>
       </c>
       <c r="CZ3" t="n">
-        <v>314.4065551757812</v>
+        <v>264.0092163085938</v>
       </c>
       <c r="DA3" t="n">
-        <v>314.8702087402344</v>
+        <v>263.9490661621094</v>
       </c>
       <c r="DB3" t="n">
-        <v>313.9293518066406</v>
+        <v>263.8355102539062</v>
       </c>
       <c r="DC3" t="n">
-        <v>313.1742553710938</v>
+        <v>263.7634582519531</v>
       </c>
       <c r="DD3" t="n">
-        <v>312.55419921875</v>
+        <v>263.7325744628906</v>
       </c>
       <c r="DE3" t="n">
-        <v>311.903564453125</v>
+        <v>263.7162780761719</v>
       </c>
       <c r="DF3" t="n">
-        <v>311.5596923828125</v>
+        <v>263.5580444335938</v>
       </c>
       <c r="DG3" t="n">
-        <v>311.2445373535156</v>
+        <v>262.1557006835938</v>
       </c>
       <c r="DH3" t="n">
-        <v>310.94677734375</v>
+        <v>261.9039001464844</v>
       </c>
       <c r="DI3" t="n">
-        <v>311.6220092773438</v>
+        <v>261.6409301757812</v>
       </c>
       <c r="DJ3" t="n">
-        <v>312.1697387695312</v>
+        <v>261.3907165527344</v>
       </c>
       <c r="DK3" t="n">
-        <v>310.8873901367188</v>
+        <v>260.9008178710938</v>
       </c>
       <c r="DL3" t="n">
-        <v>312.728759765625</v>
+        <v>260.6869812011719</v>
       </c>
       <c r="DM3" t="n">
-        <v>314.7781372070312</v>
+        <v>260.6571350097656</v>
       </c>
       <c r="DN3" t="n">
-        <v>314.541259765625</v>
+        <v>260.5494995117188</v>
       </c>
       <c r="DO3" t="n">
-        <v>314.9013366699219</v>
+        <v>260.6891784667969</v>
       </c>
       <c r="DP3" t="n">
-        <v>314.4174194335938</v>
+        <v>260.7347106933594</v>
       </c>
       <c r="DQ3" t="n">
-        <v>314.1892700195312</v>
+        <v>260.7969360351562</v>
       </c>
       <c r="DR3" t="n">
-        <v>313.9540710449219</v>
+        <v>260.6073303222656</v>
       </c>
       <c r="DS3" t="n">
-        <v>314.044921875</v>
+        <v>260.974609375</v>
       </c>
       <c r="DT3" t="n">
-        <v>314.0154724121094</v>
+        <v>260.8863830566406</v>
       </c>
       <c r="DU3" t="n">
-        <v>313.880126953125</v>
+        <v>260.7350158691406</v>
       </c>
       <c r="DV3" t="n">
-        <v>313.7863159179688</v>
+        <v>260.6205444335938</v>
       </c>
       <c r="DW3" t="n">
-        <v>313.7570190429688</v>
+        <v>260.8934326171875</v>
       </c>
       <c r="DX3" t="n">
-        <v>313.7912902832031</v>
+        <v>260.6047973632812</v>
       </c>
       <c r="DY3" t="n">
-        <v>313.7710266113281</v>
+        <v>260.5542602539062</v>
       </c>
       <c r="DZ3" t="n">
-        <v>313.7650146484375</v>
+        <v>261.3843994140625</v>
       </c>
       <c r="EA3" t="n">
-        <v>313.7276611328125</v>
+        <v>262.3421020507812</v>
       </c>
       <c r="EB3" t="n">
-        <v>313.6776428222656</v>
+        <v>262.6509399414062</v>
       </c>
       <c r="EC3" t="n">
-        <v>313.58544921875</v>
+        <v>263.2206115722656</v>
       </c>
       <c r="ED3" t="n">
-        <v>313.3393249511719</v>
+        <v>264.2736206054688</v>
       </c>
       <c r="EE3" t="n">
-        <v>313.1925659179688</v>
+        <v>264.4359436035156</v>
       </c>
       <c r="EF3" t="n">
-        <v>312.9371337890625</v>
+        <v>264.5654907226562</v>
       </c>
       <c r="EG3" t="n">
-        <v>312.8029479980469</v>
+        <v>264.4586486816406</v>
       </c>
       <c r="EH3" t="n">
-        <v>312.7266235351562</v>
+        <v>264.2180786132812</v>
       </c>
       <c r="EI3" t="n">
-        <v>312.2186584472656</v>
+        <v>263.7103576660156</v>
       </c>
       <c r="EJ3" t="n">
-        <v>312.0194396972656</v>
+        <v>264.1448669433594</v>
       </c>
       <c r="EK3" t="n">
-        <v>313.8692932128906</v>
+        <v>264.019775390625</v>
       </c>
       <c r="EL3" t="n">
-        <v>314.0731201171875</v>
+        <v>264.4749755859375</v>
       </c>
       <c r="EM3" t="n">
-        <v>312.4158325195312</v>
+        <v>264.4586181640625</v>
       </c>
       <c r="EN3" t="n">
-        <v>312.8692626953125</v>
+        <v>264.3869018554688</v>
       </c>
       <c r="EO3" t="n">
-        <v>315.1105041503906</v>
+        <v>264.0924987792969</v>
       </c>
       <c r="EP3" t="n">
-        <v>315.9250183105469</v>
+        <v>263.2625427246094</v>
       </c>
       <c r="EQ3" t="n">
-        <v>314.5257568359375</v>
+        <v>262.7156066894531</v>
       </c>
       <c r="ER3" t="n">
-        <v>314.8734436035156</v>
+        <v>261.567626953125</v>
       </c>
       <c r="ES3" t="n">
-        <v>314.9070129394531</v>
+        <v>261.4394836425781</v>
       </c>
       <c r="ET3" t="n">
-        <v>315.3462524414062</v>
+        <v>261.0329895019531</v>
       </c>
       <c r="EU3" t="n">
-        <v>315.5547485351562</v>
+        <v>260.8157958984375</v>
       </c>
       <c r="EV3" t="n">
-        <v>315.675048828125</v>
+        <v>260.6659545898438</v>
       </c>
       <c r="EW3" t="n">
-        <v>315.6965942382812</v>
+        <v>260.5146484375</v>
       </c>
       <c r="EX3" t="n">
-        <v>315.5955505371094</v>
+        <v>260.4377746582031</v>
       </c>
       <c r="EY3" t="n">
-        <v>315.1522827148438</v>
+        <v>260.4994506835938</v>
       </c>
       <c r="EZ3" t="n">
-        <v>313.8886108398438</v>
+        <v>260.5641479492188</v>
       </c>
       <c r="FA3" t="n">
-        <v>314.7015075683594</v>
+        <v>260.6966247558594</v>
       </c>
       <c r="FB3" t="n">
-        <v>314.9339599609375</v>
+        <v>260.8393249511719</v>
       </c>
       <c r="FC3" t="n">
-        <v>315.9039001464844</v>
+        <v>260.9750061035156</v>
       </c>
       <c r="FD3" t="n">
-        <v>315.5631408691406</v>
+        <v>260.903076171875</v>
       </c>
       <c r="FE3" t="n">
-        <v>315.3700561523438</v>
+        <v>260.9574584960938</v>
       </c>
       <c r="FF3" t="n">
-        <v>315.579833984375</v>
+        <v>261.5137023925781</v>
       </c>
       <c r="FG3" t="n">
-        <v>315.7668151855469</v>
+        <v>262.2238159179688</v>
       </c>
       <c r="FH3" t="n">
-        <v>315.7999267578125</v>
+        <v>262.4485168457031</v>
       </c>
       <c r="FI3" t="n">
-        <v>315.7848510742188</v>
+        <v>262.6865539550781</v>
       </c>
       <c r="FJ3" t="n">
-        <v>315.6843566894531</v>
+        <v>262.8718872070312</v>
       </c>
       <c r="FK3" t="n">
-        <v>315.6287841796875</v>
+        <v>263.3600769042969</v>
       </c>
       <c r="FL3" t="n">
-        <v>315.3634643554688</v>
+        <v>264.3872680664062</v>
       </c>
       <c r="FM3" t="n">
-        <v>315.0899963378906</v>
+        <v>264.5212097167969</v>
       </c>
       <c r="FN3" t="n">
-        <v>314.6539306640625</v>
+        <v>264.26171875</v>
       </c>
       <c r="FO3" t="n">
-        <v>314.5394287109375</v>
+        <v>264.2713317871094</v>
       </c>
       <c r="FP3" t="n">
-        <v>314.4881896972656</v>
+        <v>264.1766052246094</v>
       </c>
       <c r="FQ3" t="n">
-        <v>314.4459533691406</v>
+        <v>263.79833984375</v>
       </c>
       <c r="FR3" t="n">
-        <v>314.3301391601562</v>
+        <v>263.5958251953125</v>
       </c>
       <c r="FS3" t="n">
-        <v>314.2192077636719</v>
+        <v>263.1412658691406</v>
       </c>
       <c r="FT3" t="n">
-        <v>313.8609008789062</v>
+        <v>261.9300537109375</v>
       </c>
       <c r="FU3" t="n">
-        <v>312.4548950195312</v>
+        <v>261.6452026367188</v>
       </c>
       <c r="FV3" t="n">
-        <v>312.7914428710938</v>
+        <v>261.4497680664062</v>
       </c>
       <c r="FW3" t="n">
-        <v>314.0133972167969</v>
+        <v>260.0102233886719</v>
       </c>
       <c r="FX3" t="n">
-        <v>312.6741943359375</v>
+        <v>258.5025939941406</v>
       </c>
       <c r="FY3" t="n">
-        <v>313.1189575195312</v>
+        <v>258.8052368164062</v>
       </c>
       <c r="FZ3" t="n">
-        <v>313.8307189941406</v>
+        <v>259.4286804199219</v>
       </c>
       <c r="GA3" t="n">
-        <v>314.0634155273438</v>
+        <v>259.8953247070312</v>
       </c>
       <c r="GB3" t="n">
-        <v>314.8624572753906</v>
+        <v>260.1181335449219</v>
       </c>
       <c r="GC3" t="n">
-        <v>315.1717224121094</v>
+        <v>260.3883361816406</v>
       </c>
       <c r="GD3" t="n">
-        <v>315.165283203125</v>
+        <v>260.4730529785156</v>
       </c>
       <c r="GE3" t="n">
-        <v>315.2519226074219</v>
+        <v>260.5179748535156</v>
       </c>
       <c r="GF3" t="n">
-        <v>314.0856323242188</v>
+        <v>260.7230224609375</v>
       </c>
       <c r="GG3" t="n">
-        <v>313.6414489746094</v>
+        <v>261.5371398925781</v>
       </c>
       <c r="GH3" t="n">
-        <v>312.9739379882812</v>
+        <v>262.2746276855469</v>
       </c>
       <c r="GI3" t="n">
-        <v>312.7988891601562</v>
+        <v>263.5908813476562</v>
       </c>
       <c r="GJ3" t="n">
-        <v>312.7970886230469</v>
+        <v>264.3990478515625</v>
       </c>
       <c r="GK3" t="n">
-        <v>311.8302307128906</v>
+        <v>264.5072937011719</v>
       </c>
       <c r="GL3" t="n">
-        <v>311.6719665527344</v>
+        <v>264.7298278808594</v>
       </c>
       <c r="GM3" t="n">
-        <v>314.9446716308594</v>
+        <v>264.5617980957031</v>
       </c>
       <c r="GN3" t="n">
-        <v>316.2536926269531</v>
+        <v>264.4432373046875</v>
       </c>
       <c r="GO3" t="n">
-        <v>316.6577758789062</v>
+        <v>264.3150939941406</v>
       </c>
       <c r="GP3" t="n">
-        <v>315.9824523925781</v>
+        <v>264.2010803222656</v>
       </c>
       <c r="GQ3" t="n">
-        <v>315.8350830078125</v>
+        <v>264.1180114746094</v>
       </c>
       <c r="GR3" t="n">
-        <v>315.8685913085938</v>
+        <v>264.0464782714844</v>
       </c>
       <c r="GS3" t="n">
-        <v>315.9615478515625</v>
+        <v>264.0345153808594</v>
       </c>
       <c r="GT3" t="n">
-        <v>316.1365661621094</v>
+        <v>264.082275390625</v>
       </c>
       <c r="GU3" t="n">
-        <v>316.2217407226562</v>
+        <v>263.8696594238281</v>
       </c>
       <c r="GV3" t="n">
-        <v>316.0693969726562</v>
+        <v>263.3309631347656</v>
       </c>
       <c r="GW3" t="n">
-        <v>316.0335083007812</v>
+        <v>261.1983642578125</v>
       </c>
       <c r="GX3" t="n">
-        <v>316.0477905273438</v>
+        <v>260.6541748046875</v>
       </c>
       <c r="GY3" t="n">
-        <v>316.0345153808594</v>
+        <v>259.6355590820312</v>
       </c>
       <c r="GZ3" t="n">
-        <v>315.9486694335938</v>
+        <v>259.6213684082031</v>
       </c>
       <c r="HA3" t="n">
-        <v>315.7855529785156</v>
+        <v>259.3011779785156</v>
       </c>
       <c r="HB3" t="n">
-        <v>315.3631286621094</v>
+        <v>257.2566223144531</v>
       </c>
       <c r="HC3" t="n">
-        <v>313.4273376464844</v>
+        <v>258.3196716308594</v>
       </c>
       <c r="HD3" t="n">
-        <v>314.5466613769531</v>
+        <v>258.3773803710938</v>
       </c>
       <c r="HE3" t="n">
-        <v>313.5923156738281</v>
+        <v>258.2948303222656</v>
       </c>
       <c r="HF3" t="n">
-        <v>312.8592834472656</v>
+        <v>258.27783203125</v>
       </c>
       <c r="HG3" t="n">
-        <v>312.5541076660156</v>
+        <v>258.2525329589844</v>
       </c>
       <c r="HH3" t="n">
-        <v>313.3507690429688</v>
+        <v>258.3901977539062</v>
       </c>
       <c r="HI3" t="n">
-        <v>314.4231872558594</v>
+        <v>258.6226196289062</v>
       </c>
       <c r="HJ3" t="n">
-        <v>314.9917297363281</v>
+        <v>259.8092041015625</v>
       </c>
       <c r="HK3" t="n">
-        <v>315.18603515625</v>
+        <v>260.0465087890625</v>
       </c>
       <c r="HL3" t="n">
-        <v>315.0281372070312</v>
+        <v>260.2158813476562</v>
       </c>
       <c r="HM3" t="n">
-        <v>315.0301513671875</v>
+        <v>261.147216796875</v>
       </c>
       <c r="HN3" t="n">
-        <v>315.0608520507812</v>
+        <v>262.4889526367188</v>
       </c>
       <c r="HO3" t="n">
-        <v>315.0621337890625</v>
+        <v>262.9201354980469</v>
       </c>
       <c r="HP3" t="n">
-        <v>314.7508850097656</v>
+        <v>263.2518920898438</v>
       </c>
       <c r="HQ3" t="n">
-        <v>314.5608215332031</v>
+        <v>263.6800231933594</v>
       </c>
       <c r="HR3" t="n">
-        <v>315.5931701660156</v>
+        <v>263.7278747558594</v>
       </c>
       <c r="HS3" t="n">
-        <v>316.8639831542969</v>
+        <v>263.4081115722656</v>
       </c>
       <c r="HT3" t="n">
-        <v>315.4537658691406</v>
+        <v>263.4278564453125</v>
       </c>
       <c r="HU3" t="n">
-        <v>315.5349731445312</v>
+        <v>263.5333251953125</v>
       </c>
       <c r="HV3" t="n">
-        <v>315.7192077636719</v>
+        <v>263.4533386230469</v>
       </c>
       <c r="HW3" t="n">
-        <v>315.7809753417969</v>
+        <v>260.5290222167969</v>
       </c>
       <c r="HX3" t="n">
-        <v>315.8108520507812</v>
+        <v>258.9173583984375</v>
       </c>
       <c r="HY3" t="n">
-        <v>315.6018981933594</v>
+        <v>258.0404968261719</v>
       </c>
       <c r="HZ3" t="n">
-        <v>315.4591674804688</v>
+        <v>255.6535949707031</v>
       </c>
       <c r="IA3" t="n">
-        <v>315.4479370117188</v>
+        <v>256.280029296875</v>
       </c>
       <c r="IB3" t="n">
-        <v>315.6222534179688</v>
+        <v>255.2879333496094</v>
       </c>
       <c r="IC3" t="n">
-        <v>315.8328247070312</v>
+        <v>256.4286499023438</v>
       </c>
       <c r="ID3" t="n">
-        <v>315.8741760253906</v>
+        <v>256.7688293457031</v>
       </c>
       <c r="IE3" t="n">
-        <v>315.9571228027344</v>
+        <v>256.3512268066406</v>
       </c>
       <c r="IF3" t="n">
-        <v>316.0174560546875</v>
+        <v>255.9093780517578</v>
       </c>
       <c r="IG3" t="n">
-        <v>316.0238952636719</v>
+        <v>256.6235656738281</v>
       </c>
       <c r="IH3" t="n">
-        <v>315.9778442382812</v>
+        <v>257.2512512207031</v>
       </c>
       <c r="II3" t="n">
-        <v>315.82861328125</v>
+        <v>258.915771484375</v>
       </c>
       <c r="IJ3" t="n">
-        <v>314.9293518066406</v>
+        <v>260.1220092773438</v>
       </c>
       <c r="IK3" t="n">
-        <v>314.5423889160156</v>
+        <v>261.17236328125</v>
       </c>
       <c r="IL3" t="n">
-        <v>313.898193359375</v>
+        <v>264.0530090332031</v>
       </c>
       <c r="IM3" t="n">
-        <v>313.0602416992188</v>
+        <v>263.7871398925781</v>
       </c>
       <c r="IN3" t="n">
-        <v>314.4715881347656</v>
+        <v>263.1013793945312</v>
       </c>
       <c r="IO3" t="n">
-        <v>313.6649169921875</v>
+        <v>263.7648010253906</v>
       </c>
       <c r="IP3" t="n">
-        <v>312.5635681152344</v>
+        <v>263.6613464355469</v>
       </c>
       <c r="IQ3" t="n">
-        <v>313.5294189453125</v>
+        <v>263.7667846679688</v>
       </c>
       <c r="IR3" t="n">
-        <v>315.6851501464844</v>
+        <v>263.974365234375</v>
       </c>
       <c r="IS3" t="n">
-        <v>316.0265502929688</v>
+        <v>264.0792541503906</v>
       </c>
       <c r="IT3" t="n">
-        <v>316.0581359863281</v>
+        <v>263.9392395019531</v>
       </c>
       <c r="IU3" t="n">
-        <v>316.0131225585938</v>
+        <v>260.9316101074219</v>
       </c>
       <c r="IV3" t="n">
-        <v>315.2445068359375</v>
+        <v>259.5653991699219</v>
       </c>
       <c r="IW3" t="n">
-        <v>312.4608154296875</v>
+        <v>257.9363403320312</v>
       </c>
       <c r="IX3" t="n">
-        <v>315.0586547851562</v>
+        <v>256.0426940917969</v>
       </c>
       <c r="IY3" t="n">
-        <v>315.5962524414062</v>
+        <v>257.97509765625</v>
       </c>
       <c r="IZ3" t="n">
-        <v>315.89794921875</v>
+        <v>258.2199401855469</v>
       </c>
       <c r="JA3" t="n">
-        <v>315.4806823730469</v>
+        <v>259.7440185546875</v>
       </c>
       <c r="JB3" t="n">
-        <v>314.9449768066406</v>
+        <v>259.6481628417969</v>
       </c>
       <c r="JC3" t="n">
-        <v>314.8488159179688</v>
+        <v>260.1152648925781</v>
       </c>
       <c r="JD3" t="n">
-        <v>315.7045593261719</v>
+        <v>261.5197143554688</v>
       </c>
       <c r="JE3" t="n">
-        <v>316.0335083007812</v>
+        <v>262.6061096191406</v>
       </c>
       <c r="JF3" t="n">
-        <v>316.2621765136719</v>
+        <v>263.482666015625</v>
       </c>
       <c r="JG3" t="n">
-        <v>316.34130859375</v>
+        <v>264.1405029296875</v>
       </c>
       <c r="JH3" t="n">
-        <v>316.1172485351562</v>
+        <v>263.6391296386719</v>
       </c>
       <c r="JI3" t="n">
-        <v>315.7499389648438</v>
+        <v>263.5868530273438</v>
       </c>
       <c r="JJ3" t="n">
-        <v>315.3975219726562</v>
+        <v>263.8920288085938</v>
       </c>
       <c r="JK3" t="n">
-        <v>314.9688720703125</v>
+        <v>263.9177856445312</v>
       </c>
       <c r="JL3" t="n">
-        <v>314.4619445800781</v>
+        <v>263.9552917480469</v>
       </c>
       <c r="JM3" t="n">
-        <v>315.3579711914062</v>
+        <v>264.4531860351562</v>
       </c>
       <c r="JN3" t="n">
-        <v>315.6446228027344</v>
+        <v>261.3142395019531</v>
       </c>
       <c r="JO3" t="n">
-        <v>313.7716674804688</v>
+        <v>261.2377319335938</v>
       </c>
       <c r="JP3" t="n">
-        <v>315.1361694335938</v>
+        <v>260.80908203125</v>
       </c>
       <c r="JQ3" t="n">
-        <v>311.1585083007812</v>
+        <v>259.6770324707031</v>
       </c>
       <c r="JR3" t="n">
-        <v>313.5500793457031</v>
+        <v>257.3579711914062</v>
       </c>
       <c r="JS3" t="n">
-        <v>314.2173156738281</v>
+        <v>257.0894165039062</v>
       </c>
       <c r="JT3" t="n">
-        <v>314.5750427246094</v>
+        <v>257.4308471679688</v>
       </c>
       <c r="JU3" t="n">
-        <v>314.7913818359375</v>
+        <v>258.1510314941406</v>
       </c>
       <c r="JV3" t="n">
-        <v>314.8943786621094</v>
+        <v>258.7359008789062</v>
       </c>
       <c r="JW3" t="n">
-        <v>315.6703186035156</v>
+        <v>258.735595703125</v>
       </c>
       <c r="JX3" t="n">
-        <v>316.7131042480469</v>
+        <v>258.7811279296875</v>
       </c>
       <c r="JY3" t="n">
-        <v>317.5476684570312</v>
+        <v>258.5816650390625</v>
       </c>
       <c r="JZ3" t="n">
-        <v>317.8346862792969</v>
+        <v>258.6078186035156</v>
       </c>
       <c r="KA3" t="n">
-        <v>318.541259765625</v>
+        <v>258.0830383300781</v>
       </c>
       <c r="KB3" t="n">
-        <v>319.923828125</v>
+        <v>258.1303100585938</v>
       </c>
       <c r="KC3" t="n">
-        <v>320.0195007324219</v>
+        <v>259.3371276855469</v>
       </c>
       <c r="KD3" t="n">
-        <v>319.5685119628906</v>
+        <v>259.7227783203125</v>
       </c>
       <c r="KE3" t="n">
-        <v>319.5654296875</v>
+        <v>259.9799499511719</v>
       </c>
       <c r="KF3" t="n">
-        <v>320.1587524414062</v>
+        <v>260.861328125</v>
       </c>
       <c r="KG3" t="n">
-        <v>319.8785095214844</v>
+        <v>262.3057861328125</v>
       </c>
       <c r="KH3" t="n">
-        <v>317.8131103515625</v>
+        <v>263.3175354003906</v>
       </c>
       <c r="KI3" t="n">
-        <v>316.6452941894531</v>
+        <v>262.9479675292969</v>
       </c>
       <c r="KJ3" t="n">
-        <v>315.2159118652344</v>
+        <v>262.3361511230469</v>
       </c>
       <c r="KK3" t="n">
-        <v>316.2973022460938</v>
+        <v>262.4175109863281</v>
       </c>
       <c r="KL3" t="n">
-        <v>323.4194030761719</v>
+        <v>262.4017333984375</v>
       </c>
       <c r="KM3" t="n">
-        <v>327.3602294921875</v>
+        <v>261.7444152832031</v>
       </c>
       <c r="KN3" t="n">
-        <v>332.2255249023438</v>
+        <v>262.64306640625</v>
       </c>
       <c r="KO3" t="n">
-        <v>324.5797729492188</v>
+        <v>262.2529907226562</v>
       </c>
       <c r="KP3" t="n">
-        <v>320.5227966308594</v>
+        <v>261.7798156738281</v>
       </c>
       <c r="KQ3" t="n">
-        <v>317.4778137207031</v>
+        <v>262.73486328125</v>
       </c>
       <c r="KR3" t="n">
-        <v>312.37353515625</v>
+        <v>263.0437316894531</v>
       </c>
       <c r="KS3" t="n">
-        <v>301.2190551757812</v>
+        <v>262.4389953613281</v>
       </c>
       <c r="KT3" t="n">
-        <v>298.4851379394531</v>
+        <v>263.3423156738281</v>
       </c>
       <c r="KU3" t="n">
-        <v>291.9214477539062</v>
+        <v>271.7636413574219</v>
       </c>
       <c r="KV3" t="n">
-        <v>291.3704833984375</v>
+        <v>279.8957214355469</v>
       </c>
       <c r="KW3" t="n">
-        <v>297.5404052734375</v>
+        <v>283.5322875976562</v>
       </c>
       <c r="KX3" t="n">
-        <v>298.06298828125</v>
+        <v>283.0979614257812</v>
       </c>
       <c r="KY3" t="n">
-        <v>294.4846801757812</v>
+        <v>281.0357360839844</v>
       </c>
       <c r="KZ3" t="n">
-        <v>292.9802551269531</v>
+        <v>277.8229064941406</v>
       </c>
       <c r="LA3" t="n">
-        <v>302.0123291015625</v>
+        <v>276.4720458984375</v>
       </c>
       <c r="LB3" t="n">
-        <v>307.7416687011719</v>
+        <v>282.5755615234375</v>
       </c>
       <c r="LC3" t="n">
-        <v>314.0128479003906</v>
+        <v>295.7356262207031</v>
       </c>
       <c r="LD3" t="n">
-        <v>317.8740234375</v>
+        <v>305.0764770507812</v>
+      </c>
+      <c r="LE3" t="n">
+        <v>309.7542114257812</v>
+      </c>
+      <c r="LF3" t="n">
+        <v>316.0502014160156</v>
+      </c>
+      <c r="LG3" t="n">
+        <v>321.4579772949219</v>
+      </c>
+      <c r="LH3" t="n">
+        <v>326.1866760253906</v>
+      </c>
+      <c r="LI3" t="n">
+        <v>323.5793151855469</v>
+      </c>
+      <c r="LJ3" t="n">
+        <v>292.6252746582031</v>
+      </c>
+      <c r="LK3" t="n">
+        <v>265.7975463867188</v>
+      </c>
+      <c r="LL3" t="n">
+        <v>242.9849853515625</v>
+      </c>
+      <c r="LM3" t="n">
+        <v>240.9555816650391</v>
+      </c>
+      <c r="LN3" t="n">
+        <v>273.09521484375</v>
+      </c>
+      <c r="LO3" t="n">
+        <v>422.4395751953125</v>
+      </c>
+      <c r="LP3" t="n">
+        <v>460.299072265625</v>
+      </c>
+      <c r="LQ3" t="n">
+        <v>556.7366333007812</v>
+      </c>
+      <c r="LR3" t="n">
+        <v>503.9975280761719</v>
+      </c>
+      <c r="LS3" t="n">
+        <v>463.5219421386719</v>
+      </c>
+      <c r="LT3" t="n">
+        <v>488.7368774414062</v>
+      </c>
+      <c r="LU3" t="n">
+        <v>495.4862060546875</v>
+      </c>
+      <c r="LV3" t="n">
+        <v>487.0377197265625</v>
+      </c>
+      <c r="LW3" t="n">
+        <v>472.2101440429688</v>
+      </c>
+      <c r="LX3" t="n">
+        <v>481.5660705566406</v>
+      </c>
+      <c r="LY3" t="n">
+        <v>510.9552917480469</v>
+      </c>
+      <c r="LZ3" t="n">
+        <v>525.6070556640625</v>
+      </c>
+      <c r="MA3" t="n">
+        <v>533.06689453125</v>
+      </c>
+      <c r="MB3" t="n">
+        <v>518.450927734375</v>
+      </c>
+      <c r="MC3" t="n">
+        <v>536.5581665039062</v>
+      </c>
+      <c r="MD3" t="n">
+        <v>544.264404296875</v>
+      </c>
+      <c r="ME3" t="n">
+        <v>539.814208984375</v>
+      </c>
+      <c r="MF3" t="n">
+        <v>536.2116088867188</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>699.91064453125</v>
+        <v>896.1871337890625</v>
       </c>
       <c r="B4" t="n">
-        <v>740.2631225585938</v>
+        <v>924.996826171875</v>
       </c>
       <c r="C4" t="n">
-        <v>778.10205078125</v>
+        <v>956.177978515625</v>
       </c>
       <c r="D4" t="n">
-        <v>815.5144653320312</v>
+        <v>986.1021728515625</v>
       </c>
       <c r="E4" t="n">
-        <v>854.3461303710938</v>
+        <v>1011.747619628906</v>
       </c>
       <c r="F4" t="n">
-        <v>908.1022338867188</v>
+        <v>1040.75732421875</v>
       </c>
       <c r="G4" t="n">
-        <v>962.0814819335938</v>
+        <v>1060.125244140625</v>
       </c>
       <c r="H4" t="n">
-        <v>1017.336853027344</v>
+        <v>1079.37646484375</v>
       </c>
       <c r="I4" t="n">
-        <v>1067.939697265625</v>
+        <v>1107.165283203125</v>
       </c>
       <c r="J4" t="n">
-        <v>1126.447875976562</v>
+        <v>1130.245239257812</v>
       </c>
       <c r="K4" t="n">
-        <v>1183.7685546875</v>
+        <v>1157.888549804688</v>
       </c>
       <c r="L4" t="n">
-        <v>1239.110717773438</v>
+        <v>1185.01806640625</v>
       </c>
       <c r="M4" t="n">
-        <v>1284.47216796875</v>
+        <v>1215.506713867188</v>
       </c>
       <c r="N4" t="n">
-        <v>1323.077880859375</v>
+        <v>1243.728271484375</v>
       </c>
       <c r="O4" t="n">
-        <v>1371.292114257812</v>
+        <v>1262.32861328125</v>
       </c>
       <c r="P4" t="n">
-        <v>1414.438232421875</v>
+        <v>1292.419067382812</v>
       </c>
       <c r="Q4" t="n">
-        <v>1454.963623046875</v>
+        <v>1317.862548828125</v>
       </c>
       <c r="R4" t="n">
-        <v>1489.607666015625</v>
+        <v>1342.114501953125</v>
       </c>
       <c r="S4" t="n">
-        <v>1518.750366210938</v>
+        <v>1370.231567382812</v>
       </c>
       <c r="T4" t="n">
-        <v>1551.346801757812</v>
+        <v>1395.373291015625</v>
       </c>
       <c r="U4" t="n">
-        <v>1586.6015625</v>
+        <v>1416.203247070312</v>
       </c>
       <c r="V4" t="n">
-        <v>1611.96728515625</v>
+        <v>1442.799560546875</v>
       </c>
       <c r="W4" t="n">
-        <v>1634.844360351562</v>
+        <v>1466.8505859375</v>
       </c>
       <c r="X4" t="n">
-        <v>1661.912475585938</v>
+        <v>1496.340209960938</v>
       </c>
       <c r="Y4" t="n">
-        <v>1693.036865234375</v>
+        <v>1534.651977539062</v>
       </c>
       <c r="Z4" t="n">
-        <v>1722.778564453125</v>
+        <v>1572.884643554688</v>
       </c>
       <c r="AA4" t="n">
-        <v>1742.427124023438</v>
+        <v>1609.079711914062</v>
       </c>
       <c r="AB4" t="n">
-        <v>1763.014282226562</v>
+        <v>1642.3828125</v>
       </c>
       <c r="AC4" t="n">
-        <v>1802.65869140625</v>
+        <v>1684.875</v>
       </c>
       <c r="AD4" t="n">
-        <v>1829.594360351562</v>
+        <v>1724.256958007812</v>
       </c>
       <c r="AE4" t="n">
-        <v>1859.4580078125</v>
+        <v>1750.717895507812</v>
       </c>
       <c r="AF4" t="n">
-        <v>1881.930786132812</v>
+        <v>1783.771728515625</v>
       </c>
       <c r="AG4" t="n">
-        <v>1892.53173828125</v>
+        <v>1820.030517578125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1918.815185546875</v>
+        <v>1862.663330078125</v>
       </c>
       <c r="AI4" t="n">
-        <v>1959.20654296875</v>
+        <v>1889.358520507812</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1968.789672851562</v>
+        <v>1920.1640625</v>
       </c>
       <c r="AK4" t="n">
-        <v>1982.81396484375</v>
+        <v>1942.929077148438</v>
       </c>
       <c r="AL4" t="n">
-        <v>1986.716674804688</v>
+        <v>1964.712768554688</v>
       </c>
       <c r="AM4" t="n">
-        <v>1996.953979492188</v>
+        <v>1985.144409179688</v>
       </c>
       <c r="AN4" t="n">
-        <v>1991.756103515625</v>
+        <v>1997.671630859375</v>
       </c>
       <c r="AO4" t="n">
-        <v>1990.682983398438</v>
+        <v>2006.022827148438</v>
       </c>
       <c r="AP4" t="n">
-        <v>1991.945556640625</v>
+        <v>2014.807861328125</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1991.252807617188</v>
+        <v>2026.442138671875</v>
       </c>
       <c r="AR4" t="n">
-        <v>1990.317626953125</v>
+        <v>2043.117431640625</v>
       </c>
       <c r="AS4" t="n">
-        <v>1989.661010742188</v>
+        <v>2068.8740234375</v>
       </c>
       <c r="AT4" t="n">
-        <v>1988.546875</v>
+        <v>2083.0849609375</v>
       </c>
       <c r="AU4" t="n">
-        <v>1986.0419921875</v>
+        <v>2112.564697265625</v>
       </c>
       <c r="AV4" t="n">
-        <v>1983.271850585938</v>
+        <v>2120.57958984375</v>
       </c>
       <c r="AW4" t="n">
-        <v>1980.337158203125</v>
+        <v>2154.010009765625</v>
       </c>
       <c r="AX4" t="n">
-        <v>1978.435546875</v>
+        <v>2186.7109375</v>
       </c>
       <c r="AY4" t="n">
-        <v>1977.998657226562</v>
+        <v>2195.7109375</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1977.71630859375</v>
+        <v>2185.93115234375</v>
       </c>
       <c r="BA4" t="n">
-        <v>1977.892456054688</v>
+        <v>2198.081787109375</v>
       </c>
       <c r="BB4" t="n">
-        <v>1978.307006835938</v>
+        <v>2228.5146484375</v>
       </c>
       <c r="BC4" t="n">
-        <v>1979.4384765625</v>
+        <v>2243.918701171875</v>
       </c>
       <c r="BD4" t="n">
-        <v>1983.160888671875</v>
+        <v>2256.109130859375</v>
       </c>
       <c r="BE4" t="n">
-        <v>1990.026733398438</v>
+        <v>2275.72607421875</v>
       </c>
       <c r="BF4" t="n">
-        <v>2001.309814453125</v>
+        <v>2265.16357421875</v>
       </c>
       <c r="BG4" t="n">
-        <v>2001.02197265625</v>
+        <v>2249.96728515625</v>
       </c>
       <c r="BH4" t="n">
-        <v>2003.62255859375</v>
+        <v>2282.80908203125</v>
       </c>
       <c r="BI4" t="n">
-        <v>2011.6962890625</v>
+        <v>2297.312255859375</v>
       </c>
       <c r="BJ4" t="n">
-        <v>2013.898071289062</v>
+        <v>2277.379638671875</v>
       </c>
       <c r="BK4" t="n">
-        <v>2010.955322265625</v>
+        <v>2299.795166015625</v>
       </c>
       <c r="BL4" t="n">
-        <v>2010.3935546875</v>
+        <v>2325.62548828125</v>
       </c>
       <c r="BM4" t="n">
-        <v>2027.712768554688</v>
+        <v>2339.59521484375</v>
       </c>
       <c r="BN4" t="n">
-        <v>2029.131591796875</v>
+        <v>2342.340087890625</v>
       </c>
       <c r="BO4" t="n">
-        <v>2039.205078125</v>
+        <v>2312.039794921875</v>
       </c>
       <c r="BP4" t="n">
-        <v>2075.854736328125</v>
+        <v>2298.09033203125</v>
       </c>
       <c r="BQ4" t="n">
-        <v>2094.92041015625</v>
+        <v>2314.713134765625</v>
       </c>
       <c r="BR4" t="n">
-        <v>2101.212890625</v>
+        <v>2321.0537109375</v>
       </c>
       <c r="BS4" t="n">
-        <v>2110.37646484375</v>
+        <v>2321.722412109375</v>
       </c>
       <c r="BT4" t="n">
-        <v>2121.05712890625</v>
+        <v>2323.8203125</v>
       </c>
       <c r="BU4" t="n">
-        <v>2119.875244140625</v>
+        <v>2326.47802734375</v>
       </c>
       <c r="BV4" t="n">
-        <v>2120.998779296875</v>
+        <v>2334.44384765625</v>
       </c>
       <c r="BW4" t="n">
-        <v>2122.172607421875</v>
+        <v>2353.77392578125</v>
       </c>
       <c r="BX4" t="n">
-        <v>2122.5244140625</v>
+        <v>2360.652587890625</v>
       </c>
       <c r="BY4" t="n">
-        <v>2123.348388671875</v>
+        <v>2330.29052734375</v>
       </c>
       <c r="BZ4" t="n">
-        <v>2124.05322265625</v>
+        <v>2356.057861328125</v>
       </c>
       <c r="CA4" t="n">
-        <v>2126.551025390625</v>
+        <v>2349.640625</v>
       </c>
       <c r="CB4" t="n">
-        <v>2127.7646484375</v>
+        <v>2350.77783203125</v>
       </c>
       <c r="CC4" t="n">
-        <v>2126.46044921875</v>
+        <v>2352.348388671875</v>
       </c>
       <c r="CD4" t="n">
-        <v>2125.164306640625</v>
+        <v>2349.99658203125</v>
       </c>
       <c r="CE4" t="n">
-        <v>2125.605224609375</v>
+        <v>2329.13916015625</v>
       </c>
       <c r="CF4" t="n">
-        <v>2125.9306640625</v>
+        <v>2292.3857421875</v>
       </c>
       <c r="CG4" t="n">
-        <v>2125.824462890625</v>
+        <v>2269.570556640625</v>
       </c>
       <c r="CH4" t="n">
-        <v>2125.73974609375</v>
+        <v>2269.7509765625</v>
       </c>
       <c r="CI4" t="n">
-        <v>2124.2841796875</v>
+        <v>2267.82177734375</v>
       </c>
       <c r="CJ4" t="n">
-        <v>2121.93798828125</v>
+        <v>2263.60693359375</v>
       </c>
       <c r="CK4" t="n">
-        <v>2116.913330078125</v>
+        <v>2265.54638671875</v>
       </c>
       <c r="CL4" t="n">
-        <v>2107.141845703125</v>
+        <v>2265.3310546875</v>
       </c>
       <c r="CM4" t="n">
-        <v>2108.229248046875</v>
+        <v>2265.68017578125</v>
       </c>
       <c r="CN4" t="n">
-        <v>2100.72900390625</v>
+        <v>2268.602294921875</v>
       </c>
       <c r="CO4" t="n">
-        <v>2063.385498046875</v>
+        <v>2274.59033203125</v>
       </c>
       <c r="CP4" t="n">
-        <v>2038.635131835938</v>
+        <v>2275.488525390625</v>
       </c>
       <c r="CQ4" t="n">
-        <v>2033.84521484375</v>
+        <v>2275.53466796875</v>
       </c>
       <c r="CR4" t="n">
-        <v>2018.101684570312</v>
+        <v>2276.512451171875</v>
       </c>
       <c r="CS4" t="n">
-        <v>1999.21337890625</v>
+        <v>2276.833984375</v>
       </c>
       <c r="CT4" t="n">
-        <v>1999.34326171875</v>
+        <v>2277.05029296875</v>
       </c>
       <c r="CU4" t="n">
-        <v>1989.968627929688</v>
+        <v>2285.150634765625</v>
       </c>
       <c r="CV4" t="n">
-        <v>2005.307983398438</v>
+        <v>2283.892333984375</v>
       </c>
       <c r="CW4" t="n">
-        <v>2019.868286132812</v>
+        <v>2284.371337890625</v>
       </c>
       <c r="CX4" t="n">
-        <v>2016.131103515625</v>
+        <v>2284.9521484375</v>
       </c>
       <c r="CY4" t="n">
-        <v>2018.681396484375</v>
+        <v>2285.72802734375</v>
       </c>
       <c r="CZ4" t="n">
-        <v>2021.464111328125</v>
+        <v>2283.7412109375</v>
       </c>
       <c r="DA4" t="n">
-        <v>2024.177001953125</v>
+        <v>2283.854248046875</v>
       </c>
       <c r="DB4" t="n">
-        <v>2027.058349609375</v>
+        <v>2284.955810546875</v>
       </c>
       <c r="DC4" t="n">
-        <v>2027.62744140625</v>
+        <v>2285.465576171875</v>
       </c>
       <c r="DD4" t="n">
-        <v>2029.44287109375</v>
+        <v>2285.30126953125</v>
       </c>
       <c r="DE4" t="n">
-        <v>2030.773071289062</v>
+        <v>2286.174560546875</v>
       </c>
       <c r="DF4" t="n">
-        <v>2032.40966796875</v>
+        <v>2291.476318359375</v>
       </c>
       <c r="DG4" t="n">
-        <v>2033.158813476562</v>
+        <v>2336.004150390625</v>
       </c>
       <c r="DH4" t="n">
-        <v>2033.341186523438</v>
+        <v>2339.85009765625</v>
       </c>
       <c r="DI4" t="n">
-        <v>2030.753173828125</v>
+        <v>2339.916015625</v>
       </c>
       <c r="DJ4" t="n">
-        <v>2028.669677734375</v>
+        <v>2341.42822265625</v>
       </c>
       <c r="DK4" t="n">
-        <v>2007.924560546875</v>
+        <v>2350.310546875</v>
       </c>
       <c r="DL4" t="n">
-        <v>2024.341674804688</v>
+        <v>2354.863525390625</v>
       </c>
       <c r="DM4" t="n">
-        <v>2057.9501953125</v>
+        <v>2354.227294921875</v>
       </c>
       <c r="DN4" t="n">
-        <v>2077.83154296875</v>
+        <v>2353.90576171875</v>
       </c>
       <c r="DO4" t="n">
-        <v>2081.21533203125</v>
+        <v>2353.171630859375</v>
       </c>
       <c r="DP4" t="n">
-        <v>2089.480224609375</v>
+        <v>2352.2890625</v>
       </c>
       <c r="DQ4" t="n">
-        <v>2099.0087890625</v>
+        <v>2351.00634765625</v>
       </c>
       <c r="DR4" t="n">
-        <v>2105.192626953125</v>
+        <v>2351.491455078125</v>
       </c>
       <c r="DS4" t="n">
-        <v>2106.868896484375</v>
+        <v>2351.005859375</v>
       </c>
       <c r="DT4" t="n">
-        <v>2099.441650390625</v>
+        <v>2351.639892578125</v>
       </c>
       <c r="DU4" t="n">
-        <v>2095.927734375</v>
+        <v>2352.277099609375</v>
       </c>
       <c r="DV4" t="n">
-        <v>2098.2529296875</v>
+        <v>2352.043701171875</v>
       </c>
       <c r="DW4" t="n">
-        <v>2098.033447265625</v>
+        <v>2351.029296875</v>
       </c>
       <c r="DX4" t="n">
-        <v>2098.03515625</v>
+        <v>2351.446533203125</v>
       </c>
       <c r="DY4" t="n">
-        <v>2096.79736328125</v>
+        <v>2350.05859375</v>
       </c>
       <c r="DZ4" t="n">
-        <v>2096.793212890625</v>
+        <v>2338.428466796875</v>
       </c>
       <c r="EA4" t="n">
-        <v>2095.837646484375</v>
+        <v>2320.32177734375</v>
       </c>
       <c r="EB4" t="n">
-        <v>2094.718505859375</v>
+        <v>2317.781982421875</v>
       </c>
       <c r="EC4" t="n">
-        <v>2094.891357421875</v>
+        <v>2310.23681640625</v>
       </c>
       <c r="ED4" t="n">
-        <v>2095.013916015625</v>
+        <v>2291.94384765625</v>
       </c>
       <c r="EE4" t="n">
-        <v>2094.67138671875</v>
+        <v>2289.64306640625</v>
       </c>
       <c r="EF4" t="n">
-        <v>2093.023681640625</v>
+        <v>2285.4365234375</v>
       </c>
       <c r="EG4" t="n">
-        <v>2092.21875</v>
+        <v>2281.555908203125</v>
       </c>
       <c r="EH4" t="n">
-        <v>2085.09326171875</v>
+        <v>2287.0703125</v>
       </c>
       <c r="EI4" t="n">
-        <v>2051.327880859375</v>
+        <v>2301.476318359375</v>
       </c>
       <c r="EJ4" t="n">
-        <v>2036.699584960938</v>
+        <v>2302.57763671875</v>
       </c>
       <c r="EK4" t="n">
-        <v>2022.607788085938</v>
+        <v>2306.1240234375</v>
       </c>
       <c r="EL4" t="n">
-        <v>2018.512329101562</v>
+        <v>2282.31005859375</v>
       </c>
       <c r="EM4" t="n">
-        <v>1990.816284179688</v>
+        <v>2278.5595703125</v>
       </c>
       <c r="EN4" t="n">
-        <v>1993.844482421875</v>
+        <v>2282.5693359375</v>
       </c>
       <c r="EO4" t="n">
-        <v>2023.494384765625</v>
+        <v>2297.724365234375</v>
       </c>
       <c r="EP4" t="n">
-        <v>2028.780151367188</v>
+        <v>2307.546142578125</v>
       </c>
       <c r="EQ4" t="n">
-        <v>2015.052490234375</v>
+        <v>2311.009521484375</v>
       </c>
       <c r="ER4" t="n">
-        <v>2020.435546875</v>
+        <v>2330.566162109375</v>
       </c>
       <c r="ES4" t="n">
-        <v>2022.263549804688</v>
+        <v>2331.6044921875</v>
       </c>
       <c r="ET4" t="n">
-        <v>2022.116088867188</v>
+        <v>2328.7822265625</v>
       </c>
       <c r="EU4" t="n">
-        <v>2021.474853515625</v>
+        <v>2327.5546875</v>
       </c>
       <c r="EV4" t="n">
-        <v>2021.16796875</v>
+        <v>2329.342529296875</v>
       </c>
       <c r="EW4" t="n">
-        <v>2019.3427734375</v>
+        <v>2330.953369140625</v>
       </c>
       <c r="EX4" t="n">
-        <v>2018.14208984375</v>
+        <v>2330.954833984375</v>
       </c>
       <c r="EY4" t="n">
-        <v>2011.797241210938</v>
+        <v>2331.00341796875</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1994.774536132812</v>
+        <v>2331.162841796875</v>
       </c>
       <c r="FA4" t="n">
-        <v>2017.46484375</v>
+        <v>2331.04150390625</v>
       </c>
       <c r="FB4" t="n">
-        <v>2045.553466796875</v>
+        <v>2330.66748046875</v>
       </c>
       <c r="FC4" t="n">
-        <v>2069.871826171875</v>
+        <v>2332.941162109375</v>
       </c>
       <c r="FD4" t="n">
-        <v>2067.51611328125</v>
+        <v>2339.28466796875</v>
       </c>
       <c r="FE4" t="n">
-        <v>2070.1064453125</v>
+        <v>2349.43896484375</v>
       </c>
       <c r="FF4" t="n">
-        <v>2072.691162109375</v>
+        <v>2339.3173828125</v>
       </c>
       <c r="FG4" t="n">
-        <v>2072.375244140625</v>
+        <v>2321.5478515625</v>
       </c>
       <c r="FH4" t="n">
-        <v>2073.050048828125</v>
+        <v>2311.7734375</v>
       </c>
       <c r="FI4" t="n">
-        <v>2076.262451171875</v>
+        <v>2308.5224609375</v>
       </c>
       <c r="FJ4" t="n">
-        <v>2077.908447265625</v>
+        <v>2303.47705078125</v>
       </c>
       <c r="FK4" t="n">
-        <v>2078.080810546875</v>
+        <v>2304.3486328125</v>
       </c>
       <c r="FL4" t="n">
-        <v>2079.624755859375</v>
+        <v>2300.4267578125</v>
       </c>
       <c r="FM4" t="n">
-        <v>2079.873291015625</v>
+        <v>2280.294677734375</v>
       </c>
       <c r="FN4" t="n">
-        <v>2080.472412109375</v>
+        <v>2301.809326171875</v>
       </c>
       <c r="FO4" t="n">
-        <v>2080.52880859375</v>
+        <v>2286.297119140625</v>
       </c>
       <c r="FP4" t="n">
-        <v>2080.311767578125</v>
+        <v>2295.98583984375</v>
       </c>
       <c r="FQ4" t="n">
-        <v>2080.11376953125</v>
+        <v>2309.096435546875</v>
       </c>
       <c r="FR4" t="n">
-        <v>2079.52392578125</v>
+        <v>2304.625732421875</v>
       </c>
       <c r="FS4" t="n">
-        <v>2078.80615234375</v>
+        <v>2305.49462890625</v>
       </c>
       <c r="FT4" t="n">
-        <v>2073.68408203125</v>
+        <v>2327.42724609375</v>
       </c>
       <c r="FU4" t="n">
-        <v>2024.589721679688</v>
+        <v>2334.182861328125</v>
       </c>
       <c r="FV4" t="n">
-        <v>2021.26708984375</v>
+        <v>2333.991943359375</v>
       </c>
       <c r="FW4" t="n">
-        <v>2015.0439453125</v>
+        <v>2344.494384765625</v>
       </c>
       <c r="FX4" t="n">
-        <v>2011.8076171875</v>
+        <v>2360.108642578125</v>
       </c>
       <c r="FY4" t="n">
-        <v>2007.011596679688</v>
+        <v>2359.691162109375</v>
       </c>
       <c r="FZ4" t="n">
-        <v>2013.306274414062</v>
+        <v>2357.218505859375</v>
       </c>
       <c r="GA4" t="n">
-        <v>2013.99951171875</v>
+        <v>2352.697998046875</v>
       </c>
       <c r="GB4" t="n">
-        <v>2007.717041015625</v>
+        <v>2349.853515625</v>
       </c>
       <c r="GC4" t="n">
-        <v>2006.44775390625</v>
+        <v>2345.814697265625</v>
       </c>
       <c r="GD4" t="n">
-        <v>2007.210571289062</v>
+        <v>2346.378662109375</v>
       </c>
       <c r="GE4" t="n">
-        <v>2009.114624023438</v>
+        <v>2346.503173828125</v>
       </c>
       <c r="GF4" t="n">
-        <v>2011.169921875</v>
+        <v>2346.682373046875</v>
       </c>
       <c r="GG4" t="n">
-        <v>2012.138427734375</v>
+        <v>2347.392578125</v>
       </c>
       <c r="GH4" t="n">
-        <v>2013.931884765625</v>
+        <v>2345.864013671875</v>
       </c>
       <c r="GI4" t="n">
-        <v>2014.085815429688</v>
+        <v>2332.325439453125</v>
       </c>
       <c r="GJ4" t="n">
-        <v>2013.009155273438</v>
+        <v>2303.5205078125</v>
       </c>
       <c r="GK4" t="n">
-        <v>2009.630615234375</v>
+        <v>2301.484375</v>
       </c>
       <c r="GL4" t="n">
-        <v>2002.93603515625</v>
+        <v>2289.55322265625</v>
       </c>
       <c r="GM4" t="n">
-        <v>2026.568725585938</v>
+        <v>2300.019775390625</v>
       </c>
       <c r="GN4" t="n">
-        <v>2055.638916015625</v>
+        <v>2295.660888671875</v>
       </c>
       <c r="GO4" t="n">
-        <v>2061.70556640625</v>
+        <v>2295.41259765625</v>
       </c>
       <c r="GP4" t="n">
-        <v>2067.203125</v>
+        <v>2293.875732421875</v>
       </c>
       <c r="GQ4" t="n">
-        <v>2069.099609375</v>
+        <v>2295.69580078125</v>
       </c>
       <c r="GR4" t="n">
-        <v>2071.015625</v>
+        <v>2297.3525390625</v>
       </c>
       <c r="GS4" t="n">
-        <v>2080.048095703125</v>
+        <v>2303.193115234375</v>
       </c>
       <c r="GT4" t="n">
-        <v>2083.576904296875</v>
+        <v>2303.828369140625</v>
       </c>
       <c r="GU4" t="n">
-        <v>2083.5693359375</v>
+        <v>2310.570556640625</v>
       </c>
       <c r="GV4" t="n">
-        <v>2084.4794921875</v>
+        <v>2326.589111328125</v>
       </c>
       <c r="GW4" t="n">
-        <v>2084.096435546875</v>
+        <v>2354.8662109375</v>
       </c>
       <c r="GX4" t="n">
-        <v>2082.219970703125</v>
+        <v>2361.779296875</v>
       </c>
       <c r="GY4" t="n">
-        <v>2080.197021484375</v>
+        <v>2361.133544921875</v>
       </c>
       <c r="GZ4" t="n">
-        <v>2073.218994140625</v>
+        <v>2361.301513671875</v>
       </c>
       <c r="HA4" t="n">
-        <v>2061.32568359375</v>
+        <v>2365.867431640625</v>
       </c>
       <c r="HB4" t="n">
-        <v>2046.858276367188</v>
+        <v>2392.687255859375</v>
       </c>
       <c r="HC4" t="n">
-        <v>2010.816650390625</v>
+        <v>2370.939697265625</v>
       </c>
       <c r="HD4" t="n">
-        <v>2004.322021484375</v>
+        <v>2368.928955078125</v>
       </c>
       <c r="HE4" t="n">
-        <v>2007.756469726562</v>
+        <v>2370.877197265625</v>
       </c>
       <c r="HF4" t="n">
-        <v>2005.34228515625</v>
+        <v>2370.7119140625</v>
       </c>
       <c r="HG4" t="n">
-        <v>2002.318603515625</v>
+        <v>2371.001708984375</v>
       </c>
       <c r="HH4" t="n">
-        <v>2002.6708984375</v>
+        <v>2371.20166015625</v>
       </c>
       <c r="HI4" t="n">
-        <v>2010.532470703125</v>
+        <v>2371.28125</v>
       </c>
       <c r="HJ4" t="n">
-        <v>2003.37548828125</v>
+        <v>2373.299072265625</v>
       </c>
       <c r="HK4" t="n">
-        <v>2004.4853515625</v>
+        <v>2373.28515625</v>
       </c>
       <c r="HL4" t="n">
-        <v>2002.489868164062</v>
+        <v>2372.92724609375</v>
       </c>
       <c r="HM4" t="n">
-        <v>2003.353637695312</v>
+        <v>2356.66064453125</v>
       </c>
       <c r="HN4" t="n">
-        <v>2005.8994140625</v>
+        <v>2325.733642578125</v>
       </c>
       <c r="HO4" t="n">
-        <v>2008.5439453125</v>
+        <v>2306.6064453125</v>
       </c>
       <c r="HP4" t="n">
-        <v>2008.752807617188</v>
+        <v>2290.772216796875</v>
       </c>
       <c r="HQ4" t="n">
-        <v>2009.413940429688</v>
+        <v>2287.578125</v>
       </c>
       <c r="HR4" t="n">
-        <v>2012.39501953125</v>
+        <v>2286.10302734375</v>
       </c>
       <c r="HS4" t="n">
-        <v>2016.813232421875</v>
+        <v>2287.90673828125</v>
       </c>
       <c r="HT4" t="n">
-        <v>2028.21142578125</v>
+        <v>2283.849365234375</v>
       </c>
       <c r="HU4" t="n">
-        <v>2061.8232421875</v>
+        <v>2290.1953125</v>
       </c>
       <c r="HV4" t="n">
-        <v>2064.479248046875</v>
+        <v>2294.265625</v>
       </c>
       <c r="HW4" t="n">
-        <v>2067.443603515625</v>
+        <v>2371.82958984375</v>
       </c>
       <c r="HX4" t="n">
-        <v>2072.160400390625</v>
+        <v>2372.92529296875</v>
       </c>
       <c r="HY4" t="n">
-        <v>2088.426513671875</v>
+        <v>2372.8232421875</v>
       </c>
       <c r="HZ4" t="n">
-        <v>2095.1591796875</v>
+        <v>2415.73583984375</v>
       </c>
       <c r="IA4" t="n">
-        <v>2093.186767578125</v>
+        <v>2403.65673828125</v>
       </c>
       <c r="IB4" t="n">
-        <v>2090.38134765625</v>
+        <v>2410.11962890625</v>
       </c>
       <c r="IC4" t="n">
-        <v>2082.709716796875</v>
+        <v>2399.3447265625</v>
       </c>
       <c r="ID4" t="n">
-        <v>2083.673583984375</v>
+        <v>2390.796630859375</v>
       </c>
       <c r="IE4" t="n">
-        <v>2083.751708984375</v>
+        <v>2393.250244140625</v>
       </c>
       <c r="IF4" t="n">
-        <v>2084.148193359375</v>
+        <v>2394.199951171875</v>
       </c>
       <c r="IG4" t="n">
-        <v>2083.774658203125</v>
+        <v>2391.56494140625</v>
       </c>
       <c r="IH4" t="n">
-        <v>2082.523193359375</v>
+        <v>2381.832763671875</v>
       </c>
       <c r="II4" t="n">
-        <v>2076.201171875</v>
+        <v>2373.355712890625</v>
       </c>
       <c r="IJ4" t="n">
-        <v>2036.874389648438</v>
+        <v>2369.956298828125</v>
       </c>
       <c r="IK4" t="n">
-        <v>2023.566040039062</v>
+        <v>2346.8720703125</v>
       </c>
       <c r="IL4" t="n">
-        <v>2003.105346679688</v>
+        <v>2287.717041015625</v>
       </c>
       <c r="IM4" t="n">
-        <v>1985.611694335938</v>
+        <v>2268.889892578125</v>
       </c>
       <c r="IN4" t="n">
-        <v>2015.52978515625</v>
+        <v>2245.285400390625</v>
       </c>
       <c r="IO4" t="n">
-        <v>2006.26708984375</v>
+        <v>2272.30712890625</v>
       </c>
       <c r="IP4" t="n">
-        <v>2000.692626953125</v>
+        <v>2269.65625</v>
       </c>
       <c r="IQ4" t="n">
-        <v>2006.11962890625</v>
+        <v>2268.417236328125</v>
       </c>
       <c r="IR4" t="n">
-        <v>2013.641235351562</v>
+        <v>2278.75830078125</v>
       </c>
       <c r="IS4" t="n">
-        <v>2016.647338867188</v>
+        <v>2281.53369140625</v>
       </c>
       <c r="IT4" t="n">
-        <v>2013.925537109375</v>
+        <v>2292.15478515625</v>
       </c>
       <c r="IU4" t="n">
-        <v>2013.222412109375</v>
+        <v>2355.221923828125</v>
       </c>
       <c r="IV4" t="n">
-        <v>2003.911376953125</v>
+        <v>2348.94580078125</v>
       </c>
       <c r="IW4" t="n">
-        <v>1978.300048828125</v>
+        <v>2375.75048828125</v>
       </c>
       <c r="IX4" t="n">
-        <v>2010.7421875</v>
+        <v>2403.849365234375</v>
       </c>
       <c r="IY4" t="n">
-        <v>2051.10693359375</v>
+        <v>2377.891357421875</v>
       </c>
       <c r="IZ4" t="n">
-        <v>2056.5693359375</v>
+        <v>2375.00927734375</v>
       </c>
       <c r="JA4" t="n">
-        <v>2060.84619140625</v>
+        <v>2360.158203125</v>
       </c>
       <c r="JB4" t="n">
-        <v>2067.719482421875</v>
+        <v>2363.465087890625</v>
       </c>
       <c r="JC4" t="n">
-        <v>2066.906982421875</v>
+        <v>2357.331298828125</v>
       </c>
       <c r="JD4" t="n">
-        <v>2074.710693359375</v>
+        <v>2355.330810546875</v>
       </c>
       <c r="JE4" t="n">
-        <v>2087.89111328125</v>
+        <v>2316.347900390625</v>
       </c>
       <c r="JF4" t="n">
-        <v>2079.127197265625</v>
+        <v>2282.899169921875</v>
       </c>
       <c r="JG4" t="n">
-        <v>2079.482177734375</v>
+        <v>2231.211181640625</v>
       </c>
       <c r="JH4" t="n">
-        <v>2080.308349609375</v>
+        <v>2250.07373046875</v>
       </c>
       <c r="JI4" t="n">
-        <v>2081.492431640625</v>
+        <v>2265.468505859375</v>
       </c>
       <c r="JJ4" t="n">
-        <v>2081.52587890625</v>
+        <v>2243.443115234375</v>
       </c>
       <c r="JK4" t="n">
-        <v>2081.433837890625</v>
+        <v>2258.09375</v>
       </c>
       <c r="JL4" t="n">
-        <v>2080.314697265625</v>
+        <v>2255.13134765625</v>
       </c>
       <c r="JM4" t="n">
-        <v>2067.493408203125</v>
+        <v>2282.8935546875</v>
       </c>
       <c r="JN4" t="n">
-        <v>2061.632080078125</v>
+        <v>2323.675048828125</v>
       </c>
       <c r="JO4" t="n">
-        <v>2007.440063476562</v>
+        <v>2330.0859375</v>
       </c>
       <c r="JP4" t="n">
-        <v>2008.432495117188</v>
+        <v>2333.0126953125</v>
       </c>
       <c r="JQ4" t="n">
-        <v>1990.346435546875</v>
+        <v>2332.888427734375</v>
       </c>
       <c r="JR4" t="n">
-        <v>2021.893310546875</v>
+        <v>2365.650634765625</v>
       </c>
       <c r="JS4" t="n">
-        <v>2017.834350585938</v>
+        <v>2371.144287109375</v>
       </c>
       <c r="JT4" t="n">
-        <v>2015.146484375</v>
+        <v>2366.173828125</v>
       </c>
       <c r="JU4" t="n">
-        <v>2014.808715820312</v>
+        <v>2353.84423828125</v>
       </c>
       <c r="JV4" t="n">
-        <v>2013.829467773438</v>
+        <v>2350.229248046875</v>
       </c>
       <c r="JW4" t="n">
-        <v>2010.094482421875</v>
+        <v>2350.348876953125</v>
       </c>
       <c r="JX4" t="n">
-        <v>2002.642456054688</v>
+        <v>2349.966796875</v>
       </c>
       <c r="JY4" t="n">
-        <v>2002.56298828125</v>
+        <v>2354.14306640625</v>
       </c>
       <c r="JZ4" t="n">
-        <v>1991.172119140625</v>
+        <v>2353.8818359375</v>
       </c>
       <c r="KA4" t="n">
-        <v>1969.020385742188</v>
+        <v>2347.95166015625</v>
       </c>
       <c r="KB4" t="n">
-        <v>1978.051391601562</v>
+        <v>2336.510498046875</v>
       </c>
       <c r="KC4" t="n">
-        <v>1977.078491210938</v>
+        <v>2335.834228515625</v>
       </c>
       <c r="KD4" t="n">
-        <v>1975.398681640625</v>
+        <v>2335.9873046875</v>
       </c>
       <c r="KE4" t="n">
-        <v>1975.739990234375</v>
+        <v>2335.6826171875</v>
       </c>
       <c r="KF4" t="n">
-        <v>1968.050537109375</v>
+        <v>2326.3779296875</v>
       </c>
       <c r="KG4" t="n">
-        <v>1993.386840820312</v>
+        <v>2305.541015625</v>
       </c>
       <c r="KH4" t="n">
-        <v>2033.205688476562</v>
+        <v>2293.26318359375</v>
       </c>
       <c r="KI4" t="n">
-        <v>2035.9345703125</v>
+        <v>2290.765625</v>
       </c>
       <c r="KJ4" t="n">
-        <v>2023.654174804688</v>
+        <v>2286.182373046875</v>
       </c>
       <c r="KK4" t="n">
-        <v>1977.24658203125</v>
+        <v>2282.6591796875</v>
       </c>
       <c r="KL4" t="n">
-        <v>1885.290405273438</v>
+        <v>2285.138427734375</v>
       </c>
       <c r="KM4" t="n">
-        <v>1813.789184570312</v>
+        <v>2314.821533203125</v>
       </c>
       <c r="KN4" t="n">
-        <v>1715.486083984375</v>
+        <v>2301.85400390625</v>
       </c>
       <c r="KO4" t="n">
-        <v>1567.868286132812</v>
+        <v>2307.626953125</v>
       </c>
       <c r="KP4" t="n">
-        <v>1471.497192382812</v>
+        <v>2306.379638671875</v>
       </c>
       <c r="KQ4" t="n">
-        <v>1386.557495117188</v>
+        <v>2304.25341796875</v>
       </c>
       <c r="KR4" t="n">
-        <v>1308.648681640625</v>
+        <v>2305.96923828125</v>
       </c>
       <c r="KS4" t="n">
-        <v>1210.428833007812</v>
+        <v>2245.65673828125</v>
       </c>
       <c r="KT4" t="n">
-        <v>1142.955078125</v>
+        <v>2190.64794921875</v>
       </c>
       <c r="KU4" t="n">
-        <v>1021.823425292969</v>
+        <v>2090.44482421875</v>
       </c>
       <c r="KV4" t="n">
-        <v>938.7584228515625</v>
+        <v>1975.233642578125</v>
       </c>
       <c r="KW4" t="n">
-        <v>870.6314086914062</v>
+        <v>1864.565307617188</v>
       </c>
       <c r="KX4" t="n">
-        <v>777.076904296875</v>
+        <v>1745.286865234375</v>
       </c>
       <c r="KY4" t="n">
-        <v>723.19921875</v>
+        <v>1682.599487304688</v>
       </c>
       <c r="KZ4" t="n">
-        <v>682.9291381835938</v>
+        <v>1589.47412109375</v>
       </c>
       <c r="LA4" t="n">
-        <v>634.7572021484375</v>
+        <v>1509.026611328125</v>
       </c>
       <c r="LB4" t="n">
-        <v>623.7174072265625</v>
+        <v>1417.74609375</v>
       </c>
       <c r="LC4" t="n">
-        <v>624.9642333984375</v>
+        <v>1297.220336914062</v>
       </c>
       <c r="LD4" t="n">
-        <v>622.911376953125</v>
+        <v>1149.8271484375</v>
+      </c>
+      <c r="LE4" t="n">
+        <v>1009.292785644531</v>
+      </c>
+      <c r="LF4" t="n">
+        <v>860.4144287109375</v>
+      </c>
+      <c r="LG4" t="n">
+        <v>777.7078857421875</v>
+      </c>
+      <c r="LH4" t="n">
+        <v>666.748779296875</v>
+      </c>
+      <c r="LI4" t="n">
+        <v>533.705810546875</v>
+      </c>
+      <c r="LJ4" t="n">
+        <v>407.3699951171875</v>
+      </c>
+      <c r="LK4" t="n">
+        <v>355.424560546875</v>
+      </c>
+      <c r="LL4" t="n">
+        <v>236.6777648925781</v>
+      </c>
+      <c r="LM4" t="n">
+        <v>190.7629089355469</v>
+      </c>
+      <c r="LN4" t="n">
+        <v>187.7943725585938</v>
+      </c>
+      <c r="LO4" t="n">
+        <v>302.4283447265625</v>
+      </c>
+      <c r="LP4" t="n">
+        <v>295.4224548339844</v>
+      </c>
+      <c r="LQ4" t="n">
+        <v>181.3302001953125</v>
+      </c>
+      <c r="LR4" t="n">
+        <v>323.5361938476562</v>
+      </c>
+      <c r="LS4" t="n">
+        <v>373.7160339355469</v>
+      </c>
+      <c r="LT4" t="n">
+        <v>336.0170288085938</v>
+      </c>
+      <c r="LU4" t="n">
+        <v>327.3270874023438</v>
+      </c>
+      <c r="LV4" t="n">
+        <v>335.6170959472656</v>
+      </c>
+      <c r="LW4" t="n">
+        <v>342.1890869140625</v>
+      </c>
+      <c r="LX4" t="n">
+        <v>341.7094116210938</v>
+      </c>
+      <c r="LY4" t="n">
+        <v>340.2200622558594</v>
+      </c>
+      <c r="LZ4" t="n">
+        <v>324.006591796875</v>
+      </c>
+      <c r="MA4" t="n">
+        <v>310.5675964355469</v>
+      </c>
+      <c r="MB4" t="n">
+        <v>265.0391235351562</v>
+      </c>
+      <c r="MC4" t="n">
+        <v>276.66748046875</v>
+      </c>
+      <c r="MD4" t="n">
+        <v>272.6527709960938</v>
+      </c>
+      <c r="ME4" t="n">
+        <v>268.7841186523438</v>
+      </c>
+      <c r="MF4" t="n">
+        <v>258.4969482421875</v>
       </c>
     </row>
   </sheetData>
